--- a/future.xlsx
+++ b/future.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\NBA Projections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B597E8AE-8492-4938-9B66-19386AA28FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FB7BEF-3BB8-45BC-A725-8326FEA345DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -757,9 +757,7 @@
   </sheetPr>
   <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1455,6 +1453,9 @@
       <c r="F18" s="8">
         <v>105</v>
       </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
       <c r="H18" t="s">
         <v>19</v>
       </c>
@@ -1490,6 +1491,9 @@
       <c r="F19" s="8">
         <v>104</v>
       </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
       <c r="H19" t="s">
         <v>45</v>
       </c>
@@ -1525,6 +1529,9 @@
       <c r="F20" s="8">
         <v>107</v>
       </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
       <c r="H20" t="s">
         <v>56</v>
       </c>
@@ -1560,6 +1567,9 @@
       <c r="F21" s="8">
         <v>117</v>
       </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
       <c r="H21" t="s">
         <v>64</v>
       </c>
@@ -1595,6 +1605,9 @@
       <c r="F22" s="8">
         <v>134</v>
       </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
       <c r="H22" t="s">
         <v>38</v>
       </c>
@@ -1630,6 +1643,9 @@
       <c r="F23" s="8">
         <v>113</v>
       </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
       <c r="H23" t="s">
         <v>43</v>
       </c>
@@ -1665,6 +1681,9 @@
       <c r="F24" s="8">
         <v>99</v>
       </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
       <c r="H24" t="s">
         <v>19</v>
       </c>
@@ -1700,6 +1719,9 @@
       <c r="F25" s="8">
         <v>133</v>
       </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
       <c r="H25" t="s">
         <v>66</v>
       </c>
@@ -1735,6 +1757,9 @@
       <c r="F26" s="8">
         <v>100</v>
       </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
       <c r="H26" t="s">
         <v>67</v>
       </c>
@@ -1770,6 +1795,9 @@
       <c r="F27" s="8">
         <v>125</v>
       </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
       <c r="H27" t="s">
         <v>59</v>
       </c>
@@ -1805,6 +1833,9 @@
       <c r="F28" s="8">
         <v>110</v>
       </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
       <c r="H28" t="s">
         <v>70</v>
       </c>
@@ -1840,6 +1871,9 @@
       <c r="F29" s="8">
         <v>115</v>
       </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
       <c r="H29" t="s">
         <v>64</v>
       </c>
@@ -1875,6 +1909,9 @@
       <c r="F30" s="8">
         <v>122</v>
       </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
       <c r="H30" t="s">
         <v>73</v>
       </c>
@@ -1901,11 +1938,32 @@
       <c r="C31" t="s">
         <v>21</v>
       </c>
+      <c r="D31" s="8">
+        <v>144</v>
+      </c>
       <c r="E31" t="s">
         <v>32</v>
       </c>
+      <c r="F31" s="8">
+        <v>109</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
       <c r="H31" t="s">
         <v>75</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1918,14 +1976,35 @@
       <c r="C32" t="s">
         <v>49</v>
       </c>
+      <c r="D32" s="8">
+        <v>108</v>
+      </c>
       <c r="E32" t="s">
         <v>36</v>
       </c>
+      <c r="F32" s="8">
+        <v>103</v>
+      </c>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
       <c r="H32" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I32" t="s">
+        <v>49</v>
+      </c>
+      <c r="J32" t="s">
+        <v>36</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
         <v>74</v>
       </c>
@@ -1935,14 +2014,35 @@
       <c r="C33" t="s">
         <v>54</v>
       </c>
+      <c r="D33" s="8">
+        <v>124</v>
+      </c>
       <c r="E33" t="s">
         <v>29</v>
       </c>
+      <c r="F33" s="8">
+        <v>153</v>
+      </c>
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
       <c r="H33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I33" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" t="s">
+        <v>54</v>
+      </c>
+      <c r="K33" t="s">
+        <v>54</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="4" t="s">
         <v>74</v>
       </c>
@@ -1952,14 +2052,35 @@
       <c r="C34" t="s">
         <v>33</v>
       </c>
+      <c r="D34" s="8">
+        <v>109</v>
+      </c>
       <c r="E34" t="s">
         <v>57</v>
       </c>
+      <c r="F34" s="8">
+        <v>111</v>
+      </c>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
       <c r="H34" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+      <c r="J34" t="s">
+        <v>33</v>
+      </c>
+      <c r="K34" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
         <v>74</v>
       </c>
@@ -1969,14 +2090,35 @@
       <c r="C35" t="s">
         <v>37</v>
       </c>
+      <c r="D35" s="8">
+        <v>116</v>
+      </c>
       <c r="E35" t="s">
         <v>62</v>
       </c>
+      <c r="F35" s="8">
+        <v>127</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
       <c r="H35" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+      <c r="J35" t="s">
+        <v>37</v>
+      </c>
+      <c r="K35" t="s">
+        <v>37</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="4" t="s">
         <v>78</v>
       </c>
@@ -1993,7 +2135,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
         <v>78</v>
       </c>
@@ -2010,7 +2152,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="4" t="s">
         <v>78</v>
       </c>
@@ -2027,7 +2169,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
         <v>78</v>
       </c>
@@ -2044,7 +2186,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="4" t="s">
         <v>78</v>
       </c>
@@ -2061,7 +2203,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
         <v>78</v>
       </c>
@@ -2078,7 +2220,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="4" t="s">
         <v>78</v>
       </c>
@@ -2095,7 +2237,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
         <v>78</v>
       </c>
@@ -2112,7 +2254,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="4" t="s">
         <v>84</v>
       </c>
@@ -2129,7 +2271,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
         <v>84</v>
       </c>
@@ -2146,7 +2288,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="4" t="s">
         <v>84</v>
       </c>
@@ -2163,7 +2305,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
         <v>84</v>
       </c>
@@ -2180,7 +2322,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="4" t="s">
         <v>84</v>
       </c>

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FB7BEF-3BB8-45BC-A725-8326FEA345DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719799CF-7011-4808-803B-D7B87B6A25F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -2128,11 +2128,32 @@
       <c r="C36" t="s">
         <v>14</v>
       </c>
+      <c r="D36" s="8">
+        <v>106</v>
+      </c>
       <c r="E36" t="s">
         <v>42</v>
       </c>
+      <c r="F36" s="8">
+        <v>113</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
       <c r="H36" t="s">
         <v>43</v>
+      </c>
+      <c r="I36" t="s">
+        <v>42</v>
+      </c>
+      <c r="J36" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2145,11 +2166,32 @@
       <c r="C37" t="s">
         <v>58</v>
       </c>
+      <c r="D37" s="8">
+        <v>118</v>
+      </c>
       <c r="E37" t="s">
         <v>44</v>
       </c>
+      <c r="F37" s="8">
+        <v>107</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
       <c r="H37" t="s">
         <v>45</v>
+      </c>
+      <c r="I37" t="s">
+        <v>58</v>
+      </c>
+      <c r="J37" t="s">
+        <v>44</v>
+      </c>
+      <c r="K37" t="s">
+        <v>44</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2162,11 +2204,32 @@
       <c r="C38" t="s">
         <v>51</v>
       </c>
+      <c r="D38" s="8">
+        <v>105</v>
+      </c>
       <c r="E38" t="s">
         <v>26</v>
       </c>
+      <c r="F38" s="8">
+        <v>96</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
       <c r="H38" t="s">
         <v>27</v>
+      </c>
+      <c r="I38" t="s">
+        <v>51</v>
+      </c>
+      <c r="J38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2179,11 +2242,32 @@
       <c r="C39" t="s">
         <v>33</v>
       </c>
+      <c r="D39" s="8">
+        <v>137</v>
+      </c>
       <c r="E39" t="s">
         <v>55</v>
       </c>
+      <c r="F39" s="8">
+        <v>131</v>
+      </c>
+      <c r="G39" t="s">
+        <v>97</v>
+      </c>
       <c r="H39" t="s">
         <v>56</v>
+      </c>
+      <c r="I39" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" t="s">
+        <v>55</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2196,11 +2280,32 @@
       <c r="C40" t="s">
         <v>46</v>
       </c>
+      <c r="D40" s="8">
+        <v>116</v>
+      </c>
       <c r="E40" t="s">
         <v>41</v>
       </c>
+      <c r="F40" s="8">
+        <v>126</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
       <c r="H40" t="s">
         <v>79</v>
+      </c>
+      <c r="I40" t="s">
+        <v>41</v>
+      </c>
+      <c r="J40" t="s">
+        <v>46</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2213,11 +2318,32 @@
       <c r="C41" t="s">
         <v>28</v>
       </c>
+      <c r="D41" s="8">
+        <v>132</v>
+      </c>
       <c r="E41" t="s">
         <v>69</v>
       </c>
+      <c r="F41" s="8">
+        <v>109</v>
+      </c>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
       <c r="H41" t="s">
         <v>70</v>
+      </c>
+      <c r="I41" t="s">
+        <v>28</v>
+      </c>
+      <c r="J41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2230,11 +2356,32 @@
       <c r="C42" t="s">
         <v>57</v>
       </c>
+      <c r="D42" s="8">
+        <v>140</v>
+      </c>
       <c r="E42" t="s">
         <v>13</v>
       </c>
+      <c r="F42" s="8">
+        <v>114</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
       <c r="H42" t="s">
         <v>81</v>
+      </c>
+      <c r="I42" t="s">
+        <v>57</v>
+      </c>
+      <c r="J42" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" t="s">
+        <v>13</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2247,11 +2394,32 @@
       <c r="C43" t="s">
         <v>25</v>
       </c>
+      <c r="D43" s="8">
+        <v>112</v>
+      </c>
       <c r="E43" t="s">
         <v>82</v>
       </c>
+      <c r="F43" s="8">
+        <v>134</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
       <c r="H43" t="s">
         <v>83</v>
+      </c>
+      <c r="I43" t="s">
+        <v>82</v>
+      </c>
+      <c r="J43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719799CF-7011-4808-803B-D7B87B6A25F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B30710-3504-40C1-AA04-45B31668D548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -2432,11 +2432,32 @@
       <c r="C44" t="s">
         <v>17</v>
       </c>
+      <c r="D44" s="8">
+        <v>122</v>
+      </c>
       <c r="E44" t="s">
         <v>32</v>
       </c>
+      <c r="F44" s="8">
+        <v>134</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
       <c r="H44" t="s">
         <v>75</v>
+      </c>
+      <c r="I44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2449,11 +2470,32 @@
       <c r="C45" t="s">
         <v>54</v>
       </c>
+      <c r="D45" s="8">
+        <v>123</v>
+      </c>
       <c r="E45" t="s">
         <v>44</v>
       </c>
+      <c r="F45" s="8">
+        <v>108</v>
+      </c>
+      <c r="G45" t="s">
+        <v>15</v>
+      </c>
       <c r="H45" t="s">
         <v>45</v>
+      </c>
+      <c r="I45" t="s">
+        <v>54</v>
+      </c>
+      <c r="J45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2466,11 +2508,32 @@
       <c r="C46" t="s">
         <v>58</v>
       </c>
+      <c r="D46" s="8">
+        <v>96</v>
+      </c>
       <c r="E46" t="s">
         <v>36</v>
       </c>
+      <c r="F46" s="8">
+        <v>94</v>
+      </c>
+      <c r="G46" t="s">
+        <v>15</v>
+      </c>
       <c r="H46" t="s">
         <v>76</v>
+      </c>
+      <c r="I46" t="s">
+        <v>58</v>
+      </c>
+      <c r="J46" t="s">
+        <v>36</v>
+      </c>
+      <c r="K46" t="s">
+        <v>36</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2483,11 +2546,32 @@
       <c r="C47" t="s">
         <v>22</v>
       </c>
+      <c r="D47" s="8">
+        <v>143</v>
+      </c>
       <c r="E47" t="s">
         <v>26</v>
       </c>
+      <c r="F47" s="8">
+        <v>110</v>
+      </c>
+      <c r="G47" t="s">
+        <v>15</v>
+      </c>
       <c r="H47" t="s">
         <v>27</v>
+      </c>
+      <c r="I47" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" t="s">
+        <v>26</v>
+      </c>
+      <c r="K47" t="s">
+        <v>26</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2500,14 +2584,35 @@
       <c r="C48" t="s">
         <v>21</v>
       </c>
+      <c r="D48" s="8">
+        <v>84</v>
+      </c>
       <c r="E48" t="s">
         <v>49</v>
       </c>
+      <c r="F48" s="8">
+        <v>122</v>
+      </c>
+      <c r="G48" t="s">
+        <v>15</v>
+      </c>
       <c r="H48" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I48" t="s">
+        <v>49</v>
+      </c>
+      <c r="J48" t="s">
+        <v>21</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
         <v>84</v>
       </c>
@@ -2517,14 +2622,35 @@
       <c r="C49" t="s">
         <v>72</v>
       </c>
+      <c r="D49" s="8">
+        <v>134</v>
+      </c>
       <c r="E49" t="s">
         <v>82</v>
       </c>
+      <c r="F49" s="8">
+        <v>133</v>
+      </c>
+      <c r="G49" t="s">
+        <v>15</v>
+      </c>
       <c r="H49" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I49" t="s">
+        <v>72</v>
+      </c>
+      <c r="J49" t="s">
+        <v>82</v>
+      </c>
+      <c r="K49" t="s">
+        <v>82</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="4" t="s">
         <v>84</v>
       </c>
@@ -2534,14 +2660,35 @@
       <c r="C50" t="s">
         <v>52</v>
       </c>
+      <c r="D50" s="8">
+        <v>132</v>
+      </c>
       <c r="E50" t="s">
         <v>37</v>
       </c>
+      <c r="F50" s="8">
+        <v>141</v>
+      </c>
+      <c r="G50" t="s">
+        <v>15</v>
+      </c>
       <c r="H50" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I50" t="s">
+        <v>37</v>
+      </c>
+      <c r="J50" t="s">
+        <v>52</v>
+      </c>
+      <c r="K50" t="s">
+        <v>52</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
         <v>85</v>
       </c>
@@ -2558,7 +2705,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="4" t="s">
         <v>85</v>
       </c>
@@ -2575,7 +2722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
         <v>85</v>
       </c>
@@ -2592,7 +2739,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="4" t="s">
         <v>85</v>
       </c>
@@ -2609,7 +2756,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
         <v>85</v>
       </c>
@@ -2626,7 +2773,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="4" t="s">
         <v>85</v>
       </c>
@@ -2643,7 +2790,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
         <v>85</v>
       </c>
@@ -2660,7 +2807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="4" t="s">
         <v>85</v>
       </c>
@@ -2677,7 +2824,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
         <v>87</v>
       </c>
@@ -2694,7 +2841,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="4" t="s">
         <v>87</v>
       </c>
@@ -2711,7 +2858,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
         <v>87</v>
       </c>
@@ -2728,7 +2875,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="4" t="s">
         <v>87</v>
       </c>
@@ -2745,7 +2892,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
         <v>87</v>
       </c>
@@ -2762,7 +2909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="4" t="s">
         <v>87</v>
       </c>

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B30710-3504-40C1-AA04-45B31668D548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B4D3A2-D7B1-4C70-B389-621DCFBD3CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -2698,11 +2698,32 @@
       <c r="C51" t="s">
         <v>69</v>
       </c>
+      <c r="D51" s="8">
+        <v>148</v>
+      </c>
       <c r="E51" t="s">
         <v>25</v>
       </c>
+      <c r="F51" s="8">
+        <v>143</v>
+      </c>
+      <c r="G51" t="s">
+        <v>15</v>
+      </c>
       <c r="H51" t="s">
         <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>69</v>
+      </c>
+      <c r="J51" t="s">
+        <v>25</v>
+      </c>
+      <c r="K51" t="s">
+        <v>25</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2715,11 +2736,32 @@
       <c r="C52" t="s">
         <v>55</v>
       </c>
+      <c r="D52" s="8">
+        <v>138</v>
+      </c>
       <c r="E52" t="s">
         <v>14</v>
       </c>
+      <c r="F52" s="8">
+        <v>104</v>
+      </c>
+      <c r="G52" t="s">
+        <v>15</v>
+      </c>
       <c r="H52" t="s">
         <v>16</v>
+      </c>
+      <c r="I52" t="s">
+        <v>55</v>
+      </c>
+      <c r="J52" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" t="s">
+        <v>14</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2732,11 +2774,32 @@
       <c r="C53" t="s">
         <v>28</v>
       </c>
+      <c r="D53" s="8">
+        <v>131</v>
+      </c>
       <c r="E53" t="s">
         <v>32</v>
       </c>
+      <c r="F53" s="8">
+        <v>133</v>
+      </c>
+      <c r="G53" t="s">
+        <v>15</v>
+      </c>
       <c r="H53" t="s">
         <v>75</v>
+      </c>
+      <c r="I53" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53" t="s">
+        <v>28</v>
+      </c>
+      <c r="K53" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2749,11 +2812,32 @@
       <c r="C54" t="s">
         <v>62</v>
       </c>
+      <c r="D54" s="8">
+        <v>127</v>
+      </c>
       <c r="E54" t="s">
         <v>48</v>
       </c>
+      <c r="F54" s="8">
+        <v>107</v>
+      </c>
+      <c r="G54" t="s">
+        <v>15</v>
+      </c>
       <c r="H54" t="s">
         <v>67</v>
+      </c>
+      <c r="I54" t="s">
+        <v>62</v>
+      </c>
+      <c r="J54" t="s">
+        <v>48</v>
+      </c>
+      <c r="K54" t="s">
+        <v>48</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2766,11 +2850,32 @@
       <c r="C55" t="s">
         <v>18</v>
       </c>
+      <c r="D55" s="8">
+        <v>106</v>
+      </c>
       <c r="E55" t="s">
         <v>51</v>
       </c>
+      <c r="F55" s="8">
+        <v>107</v>
+      </c>
+      <c r="G55" t="s">
+        <v>15</v>
+      </c>
       <c r="H55" t="s">
         <v>86</v>
+      </c>
+      <c r="I55" t="s">
+        <v>51</v>
+      </c>
+      <c r="J55" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2783,11 +2888,32 @@
       <c r="C56" t="s">
         <v>46</v>
       </c>
+      <c r="D56" s="8">
+        <v>112</v>
+      </c>
       <c r="E56" t="s">
         <v>41</v>
       </c>
+      <c r="F56" s="8">
+        <v>100</v>
+      </c>
+      <c r="G56" t="s">
+        <v>15</v>
+      </c>
       <c r="H56" t="s">
         <v>79</v>
+      </c>
+      <c r="I56" t="s">
+        <v>46</v>
+      </c>
+      <c r="J56" t="s">
+        <v>41</v>
+      </c>
+      <c r="K56" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2800,11 +2926,32 @@
       <c r="C57" t="s">
         <v>57</v>
       </c>
+      <c r="D57" s="8">
+        <v>107</v>
+      </c>
       <c r="E57" t="s">
         <v>29</v>
       </c>
+      <c r="F57" s="8">
+        <v>83</v>
+      </c>
+      <c r="G57" t="s">
+        <v>15</v>
+      </c>
       <c r="H57" t="s">
         <v>30</v>
+      </c>
+      <c r="I57" t="s">
+        <v>57</v>
+      </c>
+      <c r="J57" t="s">
+        <v>29</v>
+      </c>
+      <c r="K57" t="s">
+        <v>29</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2817,11 +2964,32 @@
       <c r="C58" t="s">
         <v>33</v>
       </c>
+      <c r="D58" s="8">
+        <v>100</v>
+      </c>
       <c r="E58" t="s">
         <v>13</v>
       </c>
+      <c r="F58" s="8">
+        <v>116</v>
+      </c>
+      <c r="G58" t="s">
+        <v>15</v>
+      </c>
       <c r="H58" t="s">
         <v>81</v>
+      </c>
+      <c r="I58" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" t="s">
+        <v>33</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B4D3A2-D7B1-4C70-B389-621DCFBD3CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6CB83B-D583-4235-A7C4-414E6191023C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$G$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="104">
   <si>
     <t>Date</t>
   </si>
@@ -334,10 +357,19 @@
     <t>No</t>
   </si>
   <si>
-    <t>Accuracy on Completed Games Data (Binary Outcome)</t>
-  </si>
-  <si>
-    <t>Mean Squared Error on Completed Games Data (Points)</t>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Yes-Diff</t>
+  </si>
+  <si>
+    <t>No-Diff</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>Cumulative</t>
   </si>
 </sst>
 </file>
@@ -419,16 +451,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -442,7 +471,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -450,6 +478,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,6 +500,1866 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Fri, Jan 19, 2024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sat, Jan 20, 2024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sun, Jan 21, 2024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mon, Jan 22, 2024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tue, Jan 23, 2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Wed, Jan 24, 2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Thu, Jan 25, 2024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Fri, Jan 26, 2024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sat, Jan 27, 2024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sun, Jan 28, 2024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Mon, Jan 29, 2024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Tue, Jan 30, 2024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Wed, Jan 31, 2024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B39-41CC-B8AC-D32D6ED4290E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="902003055"/>
+        <c:axId val="737304447"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="902003055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737304447"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="737304447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="902003055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No-Diff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Fri, Jan 19, 2024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sat, Jan 20, 2024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sun, Jan 21, 2024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mon, Jan 22, 2024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tue, Jan 23, 2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Wed, Jan 24, 2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Thu, Jan 25, 2024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Fri, Jan 26, 2024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sat, Jan 27, 2024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sun, Jan 28, 2024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Mon, Jan 29, 2024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Tue, Jan 30, 2024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Wed, Jan 31, 2024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$2:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-001A-4173-96AB-2BBC80E9F50F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="548935295"/>
+        <c:axId val="908065903"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="548935295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="908065903"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="908065903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="548935295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>26193</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>64293</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BDA554D-10C6-9C54-0708-D5FA9F4FD1FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>26193</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>64293</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100EB4A5-BAAA-E545-3C3D-519BA3B272C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -755,27 +2650,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15.265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.1328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1328125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.59765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.59765625" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.73046875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1328125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -809,20 +2704,15 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="3">
-        <f>2/7</f>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="N1" s="9">
-        <f>7/15</f>
-        <v>0.46666666666666667</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
+      <c r="M1" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
@@ -831,13 +2721,13 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>120</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>124</v>
       </c>
       <c r="G2" t="s">
@@ -852,15 +2742,19 @@
       <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
+      <c r="M2" s="7">
+        <f>ABS(D2-F2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
@@ -869,13 +2763,13 @@
       <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>124</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>109</v>
       </c>
       <c r="G3" t="s">
@@ -893,12 +2787,16 @@
       <c r="K3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
+      <c r="M3" s="7">
+        <f t="shared" ref="M3:M58" si="0">ABS(D3-F3)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
@@ -907,13 +2805,13 @@
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>102</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>100</v>
       </c>
       <c r="G4" t="s">
@@ -931,12 +2829,16 @@
       <c r="K4" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
+      <c r="M4" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
@@ -945,13 +2847,13 @@
       <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>109</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>108</v>
       </c>
       <c r="G5" t="s">
@@ -969,12 +2871,16 @@
       <c r="K5" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
+      <c r="M5" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
@@ -983,13 +2889,13 @@
       <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>123</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>109</v>
       </c>
       <c r="G6" t="s">
@@ -1004,16 +2910,19 @@
       <c r="J6" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
+      <c r="M6" s="7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
@@ -1022,13 +2931,13 @@
       <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>115</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>118</v>
       </c>
       <c r="G7" t="s">
@@ -1046,12 +2955,16 @@
       <c r="K7" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
+      <c r="M7" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
@@ -1060,13 +2973,13 @@
       <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>130</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>112</v>
       </c>
       <c r="G8" t="s">
@@ -1084,12 +2997,16 @@
       <c r="K8" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="s">
+      <c r="M8" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B9" t="s">
@@ -1098,13 +3015,13 @@
       <c r="C9" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>141</v>
       </c>
       <c r="E9" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>135</v>
       </c>
       <c r="G9" t="s">
@@ -1119,19 +3036,19 @@
       <c r="J9" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M9" s="9">
-        <f>5/8</f>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
+      <c r="M9" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B10" t="s">
@@ -1140,13 +3057,13 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>97</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>89</v>
       </c>
       <c r="G10" t="s">
@@ -1161,15 +3078,19 @@
       <c r="J10" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
+      <c r="M10" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B11" t="s">
@@ -1178,13 +3099,13 @@
       <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>131</v>
       </c>
       <c r="E11" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>127</v>
       </c>
       <c r="G11" t="s">
@@ -1202,12 +3123,16 @@
       <c r="K11" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
+      <c r="M11" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B12" t="s">
@@ -1216,13 +3141,13 @@
       <c r="C12" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>116</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>95</v>
       </c>
       <c r="G12" t="s">
@@ -1240,12 +3165,16 @@
       <c r="K12" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
+      <c r="M12" s="7">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B13" t="s">
@@ -1254,13 +3183,13 @@
       <c r="C13" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>100</v>
       </c>
       <c r="E13" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>126</v>
       </c>
       <c r="G13" t="s">
@@ -1275,15 +3204,19 @@
       <c r="J13" t="s">
         <v>48</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="4" t="s">
+      <c r="M13" s="7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B14" t="s">
@@ -1292,13 +3225,13 @@
       <c r="C14" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>96</v>
       </c>
       <c r="E14" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>125</v>
       </c>
       <c r="G14" t="s">
@@ -1313,15 +3246,19 @@
       <c r="J14" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="4" t="s">
+      <c r="M14" s="7">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B15" t="s">
@@ -1330,13 +3267,13 @@
       <c r="C15" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>126</v>
       </c>
       <c r="E15" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>127</v>
       </c>
       <c r="G15" t="s">
@@ -1351,15 +3288,19 @@
       <c r="J15" t="s">
         <v>54</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="4" t="s">
+      <c r="M15" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B16" t="s">
@@ -1368,13 +3309,13 @@
       <c r="C16" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>102</v>
       </c>
       <c r="E16" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>97</v>
       </c>
       <c r="G16" t="s">
@@ -1392,12 +3333,16 @@
       <c r="K16" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="4" t="s">
+      <c r="M16" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B17" t="s">
@@ -1406,13 +3351,13 @@
       <c r="C17" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>114</v>
       </c>
       <c r="E17" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>125</v>
       </c>
       <c r="G17" t="s">
@@ -1430,12 +3375,16 @@
       <c r="K17" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="4" t="s">
+      <c r="M17" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B18" t="s">
@@ -1444,13 +3393,13 @@
       <c r="C18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>87</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>105</v>
       </c>
       <c r="G18" t="s">
@@ -1468,12 +3417,16 @@
       <c r="K18" t="s">
         <v>26</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="4" t="s">
+      <c r="M18" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B19" t="s">
@@ -1482,13 +3435,13 @@
       <c r="C19" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>113</v>
       </c>
       <c r="E19" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>104</v>
       </c>
       <c r="G19" t="s">
@@ -1506,12 +3459,16 @@
       <c r="K19" t="s">
         <v>44</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="4" t="s">
+      <c r="M19" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B20" t="s">
@@ -1520,13 +3477,13 @@
       <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>116</v>
       </c>
       <c r="E20" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <v>107</v>
       </c>
       <c r="G20" t="s">
@@ -1541,15 +3498,19 @@
       <c r="J20" t="s">
         <v>55</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="s">
+      <c r="M20" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B21" t="s">
@@ -1558,13 +3519,13 @@
       <c r="C21" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>110</v>
       </c>
       <c r="E21" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <v>117</v>
       </c>
       <c r="G21" t="s">
@@ -1579,15 +3540,19 @@
       <c r="J21" t="s">
         <v>32</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="L21" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="4" t="s">
+      <c r="M21" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B22" t="s">
@@ -1596,13 +3561,13 @@
       <c r="C22" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>110</v>
       </c>
       <c r="E22" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="7">
         <v>134</v>
       </c>
       <c r="G22" t="s">
@@ -1620,12 +3585,16 @@
       <c r="K22" t="s">
         <v>33</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="4" t="s">
+      <c r="M22" s="7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B23" t="s">
@@ -1634,13 +3603,13 @@
       <c r="C23" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>122</v>
       </c>
       <c r="E23" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="7">
         <v>113</v>
       </c>
       <c r="G23" t="s">
@@ -1658,12 +3627,16 @@
       <c r="K23" t="s">
         <v>42</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="4" t="s">
+      <c r="M23" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B24" t="s">
@@ -1672,13 +3645,13 @@
       <c r="C24" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>126</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <v>99</v>
       </c>
       <c r="G24" t="s">
@@ -1693,15 +3666,19 @@
       <c r="J24" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="13" t="s">
+      <c r="K24" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="L24" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="4" t="s">
+      <c r="M24" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B25" t="s">
@@ -1710,13 +3687,13 @@
       <c r="C25" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>123</v>
       </c>
       <c r="E25" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="7">
         <v>133</v>
       </c>
       <c r="G25" t="s">
@@ -1734,12 +3711,16 @@
       <c r="K25" t="s">
         <v>13</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="L25" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="4" t="s">
+      <c r="M25" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B26" t="s">
@@ -1748,13 +3729,13 @@
       <c r="C26" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>108</v>
       </c>
       <c r="E26" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="7">
         <v>100</v>
       </c>
       <c r="G26" t="s">
@@ -1772,12 +3753,16 @@
       <c r="K26" t="s">
         <v>48</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="L26" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="4" t="s">
+      <c r="M26" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B27" t="s">
@@ -1786,13 +3771,13 @@
       <c r="C27" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>128</v>
       </c>
       <c r="E27" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="7">
         <v>125</v>
       </c>
       <c r="G27" t="s">
@@ -1807,15 +3792,19 @@
       <c r="J27" t="s">
         <v>58</v>
       </c>
-      <c r="K27" s="13" t="s">
+      <c r="K27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="L27" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="4" t="s">
+      <c r="M27" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B28" t="s">
@@ -1824,13 +3813,13 @@
       <c r="C28" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>119</v>
       </c>
       <c r="E28" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="7">
         <v>110</v>
       </c>
       <c r="G28" t="s">
@@ -1845,15 +3834,19 @@
       <c r="J28" t="s">
         <v>69</v>
       </c>
-      <c r="K28" s="13" t="s">
+      <c r="K28" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="L28" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="4" t="s">
+      <c r="M28" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B29" t="s">
@@ -1862,13 +3855,13 @@
       <c r="C29" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>113</v>
       </c>
       <c r="E29" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="7">
         <v>115</v>
       </c>
       <c r="G29" t="s">
@@ -1886,12 +3879,16 @@
       <c r="K29" t="s">
         <v>52</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="L29" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="4" t="s">
+      <c r="M29" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B30" t="s">
@@ -1900,13 +3897,13 @@
       <c r="C30" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>107</v>
       </c>
       <c r="E30" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="7">
         <v>122</v>
       </c>
       <c r="G30" t="s">
@@ -1924,12 +3921,16 @@
       <c r="K30" t="s">
         <v>25</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="L30" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="4" t="s">
+      <c r="M30" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B31" t="s">
@@ -1938,13 +3939,13 @@
       <c r="C31" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>144</v>
       </c>
       <c r="E31" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="7">
         <v>109</v>
       </c>
       <c r="G31" t="s">
@@ -1962,12 +3963,16 @@
       <c r="K31" t="s">
         <v>32</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="L31" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="4" t="s">
+      <c r="M31" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B32" t="s">
@@ -1976,13 +3981,13 @@
       <c r="C32" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>108</v>
       </c>
       <c r="E32" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="7">
         <v>103</v>
       </c>
       <c r="G32" t="s">
@@ -1997,15 +4002,19 @@
       <c r="J32" t="s">
         <v>36</v>
       </c>
-      <c r="K32" s="13" t="s">
+      <c r="K32" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="L32" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="4" t="s">
+      <c r="M32" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B33" t="s">
@@ -2014,13 +4023,13 @@
       <c r="C33" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>124</v>
       </c>
       <c r="E33" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="7">
         <v>153</v>
       </c>
       <c r="G33" t="s">
@@ -2038,12 +4047,16 @@
       <c r="K33" t="s">
         <v>54</v>
       </c>
-      <c r="L33" s="7" t="s">
+      <c r="L33" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="4" t="s">
+      <c r="M33" s="7">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B34" t="s">
@@ -2052,13 +4065,13 @@
       <c r="C34" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <v>109</v>
       </c>
       <c r="E34" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="7">
         <v>111</v>
       </c>
       <c r="G34" t="s">
@@ -2076,12 +4089,16 @@
       <c r="K34" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="L34" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="4" t="s">
+      <c r="M34" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B35" t="s">
@@ -2090,13 +4107,13 @@
       <c r="C35" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>116</v>
       </c>
       <c r="E35" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="7">
         <v>127</v>
       </c>
       <c r="G35" t="s">
@@ -2114,12 +4131,16 @@
       <c r="K35" t="s">
         <v>37</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="L35" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="4" t="s">
+      <c r="M35" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B36" t="s">
@@ -2128,13 +4149,13 @@
       <c r="C36" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <v>106</v>
       </c>
       <c r="E36" t="s">
         <v>42</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="7">
         <v>113</v>
       </c>
       <c r="G36" t="s">
@@ -2152,12 +4173,16 @@
       <c r="K36" t="s">
         <v>14</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="L36" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="4" t="s">
+      <c r="M36" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B37" t="s">
@@ -2166,13 +4191,13 @@
       <c r="C37" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="7">
         <v>118</v>
       </c>
       <c r="E37" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="7">
         <v>107</v>
       </c>
       <c r="G37" t="s">
@@ -2190,12 +4215,16 @@
       <c r="K37" t="s">
         <v>44</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="L37" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="4" t="s">
+      <c r="M37" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B38" t="s">
@@ -2204,13 +4233,13 @@
       <c r="C38" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <v>105</v>
       </c>
       <c r="E38" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="7">
         <v>96</v>
       </c>
       <c r="G38" t="s">
@@ -2225,15 +4254,19 @@
       <c r="J38" t="s">
         <v>26</v>
       </c>
-      <c r="K38" s="13" t="s">
+      <c r="K38" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="L38" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="4" t="s">
+      <c r="M38" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B39" t="s">
@@ -2242,13 +4275,13 @@
       <c r="C39" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7">
         <v>137</v>
       </c>
       <c r="E39" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="7">
         <v>131</v>
       </c>
       <c r="G39" t="s">
@@ -2263,15 +4296,19 @@
       <c r="J39" t="s">
         <v>55</v>
       </c>
-      <c r="K39" s="13" t="s">
+      <c r="K39" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L39" s="7" t="s">
+      <c r="L39" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="4" t="s">
+      <c r="M39" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B40" t="s">
@@ -2280,13 +4317,13 @@
       <c r="C40" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="7">
         <v>116</v>
       </c>
       <c r="E40" t="s">
         <v>41</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="7">
         <v>126</v>
       </c>
       <c r="G40" t="s">
@@ -2301,15 +4338,19 @@
       <c r="J40" t="s">
         <v>46</v>
       </c>
-      <c r="K40" s="13" t="s">
+      <c r="K40" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="L40" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="4" t="s">
+      <c r="M40" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B41" t="s">
@@ -2318,13 +4359,13 @@
       <c r="C41" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="7">
         <v>132</v>
       </c>
       <c r="E41" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="7">
         <v>109</v>
       </c>
       <c r="G41" t="s">
@@ -2342,12 +4383,16 @@
       <c r="K41" t="s">
         <v>69</v>
       </c>
-      <c r="L41" s="7" t="s">
+      <c r="L41" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="4" t="s">
+      <c r="M41" s="7">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B42" t="s">
@@ -2356,13 +4401,13 @@
       <c r="C42" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="7">
         <v>140</v>
       </c>
       <c r="E42" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="7">
         <v>114</v>
       </c>
       <c r="G42" t="s">
@@ -2380,12 +4425,16 @@
       <c r="K42" t="s">
         <v>13</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="L42" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="4" t="s">
+      <c r="M42" s="7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B43" t="s">
@@ -2394,13 +4443,13 @@
       <c r="C43" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <v>112</v>
       </c>
       <c r="E43" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="7">
         <v>134</v>
       </c>
       <c r="G43" t="s">
@@ -2418,12 +4467,16 @@
       <c r="K43" t="s">
         <v>25</v>
       </c>
-      <c r="L43" s="7" t="s">
+      <c r="L43" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="4" t="s">
+      <c r="M43" s="7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B44" t="s">
@@ -2432,13 +4485,13 @@
       <c r="C44" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="7">
         <v>122</v>
       </c>
       <c r="E44" t="s">
         <v>32</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="7">
         <v>134</v>
       </c>
       <c r="G44" t="s">
@@ -2453,15 +4506,19 @@
       <c r="J44" t="s">
         <v>17</v>
       </c>
-      <c r="K44" s="13" t="s">
+      <c r="K44" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L44" s="7" t="s">
+      <c r="L44" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="4" t="s">
+      <c r="M44" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B45" t="s">
@@ -2470,13 +4527,13 @@
       <c r="C45" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="7">
         <v>123</v>
       </c>
       <c r="E45" t="s">
         <v>44</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="7">
         <v>108</v>
       </c>
       <c r="G45" t="s">
@@ -2491,15 +4548,19 @@
       <c r="J45" t="s">
         <v>44</v>
       </c>
-      <c r="K45" s="13" t="s">
+      <c r="K45" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="L45" s="7" t="s">
+      <c r="L45" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="4" t="s">
+      <c r="M45" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B46" t="s">
@@ -2508,13 +4569,13 @@
       <c r="C46" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="7">
         <v>96</v>
       </c>
       <c r="E46" t="s">
         <v>36</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="7">
         <v>94</v>
       </c>
       <c r="G46" t="s">
@@ -2532,12 +4593,16 @@
       <c r="K46" t="s">
         <v>36</v>
       </c>
-      <c r="L46" s="7" t="s">
+      <c r="L46" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="4" t="s">
+      <c r="M46" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B47" t="s">
@@ -2546,13 +4611,13 @@
       <c r="C47" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="7">
         <v>143</v>
       </c>
       <c r="E47" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="7">
         <v>110</v>
       </c>
       <c r="G47" t="s">
@@ -2570,12 +4635,16 @@
       <c r="K47" t="s">
         <v>26</v>
       </c>
-      <c r="L47" s="7" t="s">
+      <c r="L47" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="4" t="s">
+      <c r="M47" s="7">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B48" t="s">
@@ -2584,13 +4653,13 @@
       <c r="C48" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="7">
         <v>84</v>
       </c>
       <c r="E48" t="s">
         <v>49</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="7">
         <v>122</v>
       </c>
       <c r="G48" t="s">
@@ -2605,15 +4674,19 @@
       <c r="J48" t="s">
         <v>21</v>
       </c>
-      <c r="K48" s="13" t="s">
+      <c r="K48" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="L48" s="7" t="s">
+      <c r="L48" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="4" t="s">
+      <c r="M48" s="7">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B49" t="s">
@@ -2622,13 +4695,13 @@
       <c r="C49" t="s">
         <v>72</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="7">
         <v>134</v>
       </c>
       <c r="E49" t="s">
         <v>82</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="7">
         <v>133</v>
       </c>
       <c r="G49" t="s">
@@ -2646,12 +4719,16 @@
       <c r="K49" t="s">
         <v>82</v>
       </c>
-      <c r="L49" s="7" t="s">
+      <c r="L49" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="4" t="s">
+      <c r="M49" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B50" t="s">
@@ -2660,13 +4737,13 @@
       <c r="C50" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="7">
         <v>132</v>
       </c>
       <c r="E50" t="s">
         <v>37</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="7">
         <v>141</v>
       </c>
       <c r="G50" t="s">
@@ -2684,12 +4761,16 @@
       <c r="K50" t="s">
         <v>52</v>
       </c>
-      <c r="L50" s="7" t="s">
+      <c r="L50" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="4" t="s">
+      <c r="M50" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B51" t="s">
@@ -2698,13 +4779,13 @@
       <c r="C51" t="s">
         <v>69</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="7">
         <v>148</v>
       </c>
       <c r="E51" t="s">
         <v>25</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="7">
         <v>143</v>
       </c>
       <c r="G51" t="s">
@@ -2722,12 +4803,16 @@
       <c r="K51" t="s">
         <v>25</v>
       </c>
-      <c r="L51" s="7" t="s">
+      <c r="L51" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="4" t="s">
+      <c r="M51" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B52" t="s">
@@ -2736,13 +4821,13 @@
       <c r="C52" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="7">
         <v>138</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F52" s="7">
         <v>104</v>
       </c>
       <c r="G52" t="s">
@@ -2760,12 +4845,16 @@
       <c r="K52" t="s">
         <v>14</v>
       </c>
-      <c r="L52" s="7" t="s">
+      <c r="L52" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="4" t="s">
+      <c r="M52" s="7">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B53" t="s">
@@ -2774,13 +4863,13 @@
       <c r="C53" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="7">
         <v>131</v>
       </c>
       <c r="E53" t="s">
         <v>32</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="7">
         <v>133</v>
       </c>
       <c r="G53" t="s">
@@ -2795,15 +4884,19 @@
       <c r="J53" t="s">
         <v>28</v>
       </c>
-      <c r="K53" s="13" t="s">
+      <c r="K53" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L53" s="7" t="s">
+      <c r="L53" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="4" t="s">
+      <c r="M53" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B54" t="s">
@@ -2812,13 +4905,13 @@
       <c r="C54" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="7">
         <v>127</v>
       </c>
       <c r="E54" t="s">
         <v>48</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F54" s="7">
         <v>107</v>
       </c>
       <c r="G54" t="s">
@@ -2836,12 +4929,16 @@
       <c r="K54" t="s">
         <v>48</v>
       </c>
-      <c r="L54" s="7" t="s">
+      <c r="L54" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="4" t="s">
+      <c r="M54" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B55" t="s">
@@ -2850,13 +4947,13 @@
       <c r="C55" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="7">
         <v>106</v>
       </c>
       <c r="E55" t="s">
         <v>51</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="7">
         <v>107</v>
       </c>
       <c r="G55" t="s">
@@ -2871,15 +4968,19 @@
       <c r="J55" t="s">
         <v>18</v>
       </c>
-      <c r="K55" s="13" t="s">
+      <c r="K55" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L55" s="7" t="s">
+      <c r="L55" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="4" t="s">
+      <c r="M55" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B56" t="s">
@@ -2888,13 +4989,13 @@
       <c r="C56" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="7">
         <v>112</v>
       </c>
       <c r="E56" t="s">
         <v>41</v>
       </c>
-      <c r="F56" s="8">
+      <c r="F56" s="7">
         <v>100</v>
       </c>
       <c r="G56" t="s">
@@ -2909,15 +5010,19 @@
       <c r="J56" t="s">
         <v>41</v>
       </c>
-      <c r="K56" s="13" t="s">
+      <c r="K56" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L56" s="7" t="s">
+      <c r="L56" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="4" t="s">
+      <c r="M56" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B57" t="s">
@@ -2926,13 +5031,13 @@
       <c r="C57" t="s">
         <v>57</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="7">
         <v>107</v>
       </c>
       <c r="E57" t="s">
         <v>29</v>
       </c>
-      <c r="F57" s="8">
+      <c r="F57" s="7">
         <v>83</v>
       </c>
       <c r="G57" t="s">
@@ -2950,12 +5055,16 @@
       <c r="K57" t="s">
         <v>29</v>
       </c>
-      <c r="L57" s="7" t="s">
+      <c r="L57" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="4" t="s">
+      <c r="M57" s="7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B58" t="s">
@@ -2964,13 +5073,13 @@
       <c r="C58" t="s">
         <v>33</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="7">
         <v>100</v>
       </c>
       <c r="E58" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="8">
+      <c r="F58" s="7">
         <v>116</v>
       </c>
       <c r="G58" t="s">
@@ -2985,15 +5094,19 @@
       <c r="J58" t="s">
         <v>33</v>
       </c>
-      <c r="K58" s="13" t="s">
+      <c r="K58" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L58" s="7" t="s">
+      <c r="L58" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="4" t="s">
+      <c r="M58" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B59" t="s">
@@ -3009,8 +5122,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="4" t="s">
+    <row r="60" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B60" t="s">
@@ -3026,8 +5139,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="4" t="s">
+    <row r="61" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B61" t="s">
@@ -3043,8 +5156,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="4" t="s">
+    <row r="62" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B62" t="s">
@@ -3060,8 +5173,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="4" t="s">
+    <row r="63" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B63" t="s">
@@ -3077,8 +5190,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="4" t="s">
+    <row r="64" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B64" t="s">
@@ -3095,7 +5208,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B65" t="s">
@@ -3112,7 +5225,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B66" t="s">
@@ -3129,7 +5242,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B67" t="s">
@@ -3146,7 +5259,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B68" t="s">
@@ -3163,7 +5276,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B69" t="s">
@@ -3180,7 +5293,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B70" t="s">
@@ -3197,7 +5310,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B71" t="s">
@@ -3214,7 +5327,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B72" t="s">
@@ -3231,7 +5344,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B73" t="s">
@@ -3248,7 +5361,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B74" t="s">
@@ -3265,7 +5378,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B75" t="s">
@@ -3282,7 +5395,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B76" t="s">
@@ -3299,7 +5412,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B77" t="s">
@@ -3316,7 +5429,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B78" t="s">
@@ -3333,7 +5446,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B79" t="s">
@@ -3350,7 +5463,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B80" t="s">
@@ -3367,7 +5480,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B81" t="s">
@@ -3384,7 +5497,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B82" t="s">
@@ -3401,7 +5514,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B83" t="s">
@@ -3418,7 +5531,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B84" t="s">
@@ -3435,7 +5548,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B85" t="s">
@@ -3452,7 +5565,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B86" t="s">
@@ -3469,7 +5582,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B87" t="s">
@@ -3486,7 +5599,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B88" t="s">
@@ -3503,7 +5616,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B89" t="s">
@@ -3520,7 +5633,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B90" t="s">
@@ -3537,7 +5650,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B91" t="s">
@@ -3554,7 +5667,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B92" t="s">
@@ -3571,7 +5684,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B93" t="s">
@@ -3588,7 +5701,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B94" t="s">
@@ -3605,7 +5718,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B95" t="s">
@@ -3622,7 +5735,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B96" t="s">
@@ -3639,7 +5752,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B97" t="s">
@@ -3656,7 +5769,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B98" t="s">
@@ -3673,7 +5786,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B99" t="s">
@@ -3690,7 +5803,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B100" t="s">
@@ -3713,63 +5826,449 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4F7EA3-8120-44CD-9B09-861BE28FB91E}">
-  <dimension ref="B2:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3316D165-A907-40EA-B4D3-B42CCCB2BD8A}">
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="4" width="45.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E1" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B3" s="10">
-        <v>45309</v>
-      </c>
-      <c r="C3" s="12">
-        <v>0.61</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B4" s="10">
-        <v>45310</v>
-      </c>
-      <c r="C4" s="12">
-        <v>0.74193548387096697</v>
-      </c>
-      <c r="D4" s="11">
-        <v>2.71</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B5" s="10">
-        <v>45311</v>
-      </c>
-      <c r="C5" s="12">
-        <v>0.69841269841269804</v>
-      </c>
-      <c r="D5" s="11">
-        <v>2.39</v>
+      <c r="F1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A2)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A2)</f>
+        <v>5</v>
+      </c>
+      <c r="D2" s="10">
+        <f>IFERROR(B2/SUM(B2:C2),"")</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E2" s="14">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A2, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v>9</v>
+      </c>
+      <c r="F2" s="14">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A2, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v>7.8</v>
+      </c>
+      <c r="G2" s="8" cm="1">
+        <f t="array" ref="G2">SUM(($B$2:B2)/SUM($B$2:C2))</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A3)</f>
+        <v>5</v>
+      </c>
+      <c r="C3" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A3)</f>
+        <v>3</v>
+      </c>
+      <c r="D3" s="10">
+        <f t="shared" ref="D3:D14" si="0">IFERROR(B3/SUM(B3:C3),"")</f>
+        <v>0.625</v>
+      </c>
+      <c r="E3" s="14">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A3, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v>14</v>
+      </c>
+      <c r="F3" s="14">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A3, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v>10</v>
+      </c>
+      <c r="G3" s="8" cm="1">
+        <f t="array" ref="G3">SUM(($B$2:B3)/SUM($B$2:C3))</f>
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A4)</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A4)</f>
+        <v>4</v>
+      </c>
+      <c r="D4" s="10">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E4" s="14">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A4, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v>8</v>
+      </c>
+      <c r="F4" s="14">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A4, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v>15.5</v>
+      </c>
+      <c r="G4" s="8" cm="1">
+        <f t="array" ref="G4">SUM(($B$2:B4)/SUM($B$2:C4))</f>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A5)</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A5)</f>
+        <v>5</v>
+      </c>
+      <c r="D5" s="10">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="E5" s="14">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A5, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v>13</v>
+      </c>
+      <c r="F5" s="14">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A5, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G5" s="8" cm="1">
+        <f t="array" ref="G5">SUM(($B$2:B5)/SUM($B$2:C5))</f>
+        <v>0.41379310344827586</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A6)</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A6)</f>
+        <v>4</v>
+      </c>
+      <c r="D6" s="10">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="14">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A6, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v>5</v>
+      </c>
+      <c r="F6" s="14">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A6, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v>19.25</v>
+      </c>
+      <c r="G6" s="8" cm="1">
+        <f t="array" ref="G6">SUM(($B$2:B6)/SUM($B$2:C6))</f>
+        <v>0.38235294117647062</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A7)</f>
+        <v>3</v>
+      </c>
+      <c r="C7" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A7)</f>
+        <v>5</v>
+      </c>
+      <c r="D7" s="10">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="E7" s="14">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A7, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="F7" s="14">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A7, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v>17.8</v>
+      </c>
+      <c r="G7" s="8" cm="1">
+        <f t="array" ref="G7">SUM(($B$2:B7)/SUM($B$2:C7))</f>
+        <v>0.38095238095238093</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A8)</f>
+        <v>3</v>
+      </c>
+      <c r="C8" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A8)</f>
+        <v>4</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" si="0"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="E8" s="14">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A8, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v>21.666666666666668</v>
+      </c>
+      <c r="F8" s="14">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A8, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v>11.25</v>
+      </c>
+      <c r="G8" s="8" cm="1">
+        <f t="array" ref="G8">SUM(($B$2:B8)/SUM($B$2:C8))</f>
+        <v>0.38775510204081637</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A9)</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A9)</f>
+        <v>4</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="14">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A9, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v>7.75</v>
+      </c>
+      <c r="F9" s="14">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A9, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v>20.75</v>
+      </c>
+      <c r="G9" s="8" cm="1">
+        <f t="array" ref="G9">SUM(($B$2:B9)/SUM($B$2:C9))</f>
+        <v>0.40350877192982454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E10" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A10, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F10" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A10, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A11)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A11)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E11" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A11, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F11" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A11, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A12)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A12)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E12" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A12, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F12" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A12, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A13)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A13)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E13" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A13, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F13" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A13, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A14)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A14)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E14" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A14, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F14" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A14, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D14">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:G14">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/future.xlsx
+++ b/future.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6CB83B-D583-4235-A7C4-414E6191023C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8491E4E-09DC-4A87-86AB-A9EEC88AD477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="104">
   <si>
     <t>Date</t>
   </si>
@@ -670,7 +670,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -873,6 +873,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Avg Pts</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> Differential Of Innacurate Games</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1011,7 +1041,7 @@
                   <c:v>20.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>12.833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -2652,7 +2682,9 @@
   </sheetPr>
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2791,7 +2823,7 @@
         <v>98</v>
       </c>
       <c r="M3" s="7">
-        <f t="shared" ref="M3:M58" si="0">ABS(D3-F3)</f>
+        <f t="shared" ref="M3:M66" si="0">ABS(D3-F3)</f>
         <v>15</v>
       </c>
     </row>
@@ -5115,11 +5147,36 @@
       <c r="C59" t="s">
         <v>44</v>
       </c>
+      <c r="D59" s="7">
+        <v>118</v>
+      </c>
       <c r="E59" t="s">
         <v>42</v>
       </c>
+      <c r="F59" s="7">
+        <v>104</v>
+      </c>
+      <c r="G59" t="s">
+        <v>15</v>
+      </c>
       <c r="H59" t="s">
         <v>43</v>
+      </c>
+      <c r="I59" t="s">
+        <v>44</v>
+      </c>
+      <c r="J59" t="s">
+        <v>42</v>
+      </c>
+      <c r="K59" t="s">
+        <v>42</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M59" s="7">
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -5132,11 +5189,36 @@
       <c r="C60" t="s">
         <v>26</v>
       </c>
+      <c r="D60" s="7">
+        <v>109</v>
+      </c>
       <c r="E60" t="s">
         <v>49</v>
       </c>
+      <c r="F60" s="7">
+        <v>125</v>
+      </c>
+      <c r="G60" t="s">
+        <v>15</v>
+      </c>
       <c r="H60" t="s">
         <v>50</v>
+      </c>
+      <c r="I60" t="s">
+        <v>49</v>
+      </c>
+      <c r="J60" t="s">
+        <v>26</v>
+      </c>
+      <c r="K60" t="s">
+        <v>26</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M60" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -5149,11 +5231,36 @@
       <c r="C61" t="s">
         <v>17</v>
       </c>
+      <c r="D61" s="7">
+        <v>105</v>
+      </c>
       <c r="E61" t="s">
         <v>21</v>
       </c>
+      <c r="F61" s="7">
+        <v>111</v>
+      </c>
+      <c r="G61" t="s">
+        <v>15</v>
+      </c>
       <c r="H61" t="s">
         <v>90</v>
+      </c>
+      <c r="I61" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" t="s">
+        <v>17</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M61" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -5166,11 +5273,36 @@
       <c r="C62" t="s">
         <v>55</v>
       </c>
+      <c r="D62" s="7">
+        <v>104</v>
+      </c>
       <c r="E62" t="s">
         <v>36</v>
       </c>
+      <c r="F62" s="7">
+        <v>106</v>
+      </c>
+      <c r="G62" t="s">
+        <v>15</v>
+      </c>
       <c r="H62" t="s">
         <v>76</v>
+      </c>
+      <c r="I62" t="s">
+        <v>36</v>
+      </c>
+      <c r="J62" t="s">
+        <v>55</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M62" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -5183,11 +5315,36 @@
       <c r="C63" t="s">
         <v>62</v>
       </c>
+      <c r="D63" s="7">
+        <v>115</v>
+      </c>
       <c r="E63" t="s">
         <v>22</v>
       </c>
+      <c r="F63" s="7">
+        <v>96</v>
+      </c>
+      <c r="G63" t="s">
+        <v>15</v>
+      </c>
       <c r="H63" t="s">
         <v>23</v>
+      </c>
+      <c r="I63" t="s">
+        <v>62</v>
+      </c>
+      <c r="J63" t="s">
+        <v>22</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M63" s="7">
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -5200,14 +5357,39 @@
       <c r="C64" t="s">
         <v>54</v>
       </c>
+      <c r="D64" s="7">
+        <v>134</v>
+      </c>
       <c r="E64" t="s">
         <v>14</v>
       </c>
+      <c r="F64" s="7">
+        <v>122</v>
+      </c>
+      <c r="G64" t="s">
+        <v>15</v>
+      </c>
       <c r="H64" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I64" t="s">
+        <v>54</v>
+      </c>
+      <c r="J64" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" t="s">
+        <v>14</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M64" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>87</v>
       </c>
@@ -5217,14 +5399,39 @@
       <c r="C65" t="s">
         <v>29</v>
       </c>
+      <c r="D65" s="7">
+        <v>117</v>
+      </c>
       <c r="E65" t="s">
         <v>41</v>
       </c>
+      <c r="F65" s="7">
+        <v>141</v>
+      </c>
+      <c r="G65" t="s">
+        <v>15</v>
+      </c>
       <c r="H65" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I65" t="s">
+        <v>41</v>
+      </c>
+      <c r="J65" t="s">
+        <v>29</v>
+      </c>
+      <c r="K65" t="s">
+        <v>29</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M65" s="7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>87</v>
       </c>
@@ -5234,14 +5441,39 @@
       <c r="C66" t="s">
         <v>37</v>
       </c>
+      <c r="D66" s="7">
+        <v>145</v>
+      </c>
       <c r="E66" t="s">
         <v>82</v>
       </c>
+      <c r="F66" s="7">
+        <v>144</v>
+      </c>
+      <c r="G66" t="s">
+        <v>97</v>
+      </c>
       <c r="H66" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I66" t="s">
+        <v>37</v>
+      </c>
+      <c r="J66" t="s">
+        <v>82</v>
+      </c>
+      <c r="K66" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M66" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>87</v>
       </c>
@@ -5251,14 +5483,39 @@
       <c r="C67" t="s">
         <v>58</v>
       </c>
+      <c r="D67" s="7">
+        <v>112</v>
+      </c>
       <c r="E67" t="s">
         <v>13</v>
       </c>
+      <c r="F67" s="7">
+        <v>113</v>
+      </c>
+      <c r="G67" t="s">
+        <v>15</v>
+      </c>
       <c r="H67" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J67" t="s">
+        <v>58</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M67" s="7">
+        <f t="shared" ref="M67:M68" si="1">ABS(D67-F67)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>87</v>
       </c>
@@ -5268,14 +5525,39 @@
       <c r="C68" t="s">
         <v>72</v>
       </c>
+      <c r="D68" s="7">
+        <v>120</v>
+      </c>
       <c r="E68" t="s">
         <v>69</v>
       </c>
+      <c r="F68" s="7">
+        <v>115</v>
+      </c>
+      <c r="G68" t="s">
+        <v>15</v>
+      </c>
       <c r="H68" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I68" t="s">
+        <v>72</v>
+      </c>
+      <c r="J68" t="s">
+        <v>69</v>
+      </c>
+      <c r="K68" t="s">
+        <v>69</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M68" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>91</v>
       </c>
@@ -5292,7 +5574,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>91</v>
       </c>
@@ -5309,7 +5591,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>91</v>
       </c>
@@ -5326,7 +5608,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>91</v>
       </c>
@@ -5343,7 +5625,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
         <v>91</v>
       </c>
@@ -5360,7 +5642,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>92</v>
       </c>
@@ -5377,7 +5659,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>92</v>
       </c>
@@ -5394,7 +5676,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>92</v>
       </c>
@@ -5411,7 +5693,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
         <v>92</v>
       </c>
@@ -5428,7 +5710,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>92</v>
       </c>
@@ -5445,7 +5727,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
         <v>92</v>
       </c>
@@ -5462,7 +5744,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>92</v>
       </c>
@@ -5829,7 +6111,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3316D165-A907-40EA-B4D3-B42CCCB2BD8A}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6097,23 +6381,23 @@
       </c>
       <c r="B10" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A10)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A10)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E10" s="14" t="str">
+        <v>6</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="E10" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A10, Sheet1!$L$2:$L$100, "Yes"),"")</f>
-        <v/>
-      </c>
-      <c r="F10" s="14" t="str">
+        <v>5.75</v>
+      </c>
+      <c r="F10" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A10, Sheet1!$L$2:$L$100, "No"),"")</f>
-        <v/>
+        <v>12.833333333333334</v>
       </c>
       <c r="G10" s="8">
         <v>0</v>

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8491E4E-09DC-4A87-86AB-A9EEC88AD477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5795F16-32F7-4C55-8E62-75C22C303951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="104">
   <si>
     <t>Date</t>
   </si>
@@ -673,7 +673,7 @@
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -897,7 +897,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-IN" baseline="0"/>
-              <a:t> Differential Of Innacurate Games</a:t>
+              <a:t> Differential Of Inacurate Games</a:t>
             </a:r>
             <a:endParaRPr lang="en-IN"/>
           </a:p>
@@ -1044,7 +1044,7 @@
                   <c:v>12.833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -2682,8 +2682,8 @@
   </sheetPr>
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5511,7 +5511,7 @@
         <v>97</v>
       </c>
       <c r="M67" s="7">
-        <f t="shared" ref="M67:M68" si="1">ABS(D67-F67)</f>
+        <f t="shared" ref="M67:M73" si="1">ABS(D67-F67)</f>
         <v>1</v>
       </c>
     </row>
@@ -5567,11 +5567,36 @@
       <c r="C69" t="s">
         <v>51</v>
       </c>
+      <c r="D69" s="7">
+        <v>110</v>
+      </c>
       <c r="E69" t="s">
         <v>32</v>
       </c>
+      <c r="F69" s="7">
+        <v>116</v>
+      </c>
+      <c r="G69" t="s">
+        <v>15</v>
+      </c>
       <c r="H69" t="s">
         <v>75</v>
+      </c>
+      <c r="I69" t="s">
+        <v>32</v>
+      </c>
+      <c r="J69" t="s">
+        <v>51</v>
+      </c>
+      <c r="K69" t="s">
+        <v>51</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M69" s="7">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -5584,11 +5609,36 @@
       <c r="C70" t="s">
         <v>48</v>
       </c>
+      <c r="D70" s="7">
+        <v>125</v>
+      </c>
       <c r="E70" t="s">
         <v>25</v>
       </c>
+      <c r="F70" s="7">
+        <v>126</v>
+      </c>
+      <c r="G70" t="s">
+        <v>15</v>
+      </c>
       <c r="H70" t="s">
         <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J70" t="s">
+        <v>48</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M70" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -5601,11 +5651,36 @@
       <c r="C71" t="s">
         <v>57</v>
       </c>
+      <c r="D71" s="7">
+        <v>104</v>
+      </c>
       <c r="E71" t="s">
         <v>42</v>
       </c>
+      <c r="F71" s="7">
+        <v>120</v>
+      </c>
+      <c r="G71" t="s">
+        <v>15</v>
+      </c>
       <c r="H71" t="s">
         <v>43</v>
+      </c>
+      <c r="I71" t="s">
+        <v>42</v>
+      </c>
+      <c r="J71" t="s">
+        <v>57</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M71" s="7">
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -5618,11 +5693,36 @@
       <c r="C72" t="s">
         <v>28</v>
       </c>
+      <c r="D72" s="7">
+        <v>98</v>
+      </c>
       <c r="E72" t="s">
         <v>18</v>
       </c>
+      <c r="F72" s="7">
+        <v>113</v>
+      </c>
+      <c r="G72" t="s">
+        <v>15</v>
+      </c>
       <c r="H72" t="s">
         <v>19</v>
+      </c>
+      <c r="I72" t="s">
+        <v>18</v>
+      </c>
+      <c r="J72" t="s">
+        <v>28</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M72" s="7">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -5635,11 +5735,36 @@
       <c r="C73" t="s">
         <v>52</v>
       </c>
+      <c r="D73" s="7">
+        <v>104</v>
+      </c>
       <c r="E73" t="s">
         <v>33</v>
       </c>
+      <c r="F73" s="7">
+        <v>96</v>
+      </c>
+      <c r="G73" t="s">
+        <v>15</v>
+      </c>
       <c r="H73" t="s">
         <v>34</v>
+      </c>
+      <c r="I73" t="s">
+        <v>52</v>
+      </c>
+      <c r="J73" t="s">
+        <v>33</v>
+      </c>
+      <c r="K73" t="s">
+        <v>33</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M73" s="7">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -6111,8 +6236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3316D165-A907-40EA-B4D3-B42CCCB2BD8A}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6399,8 +6524,9 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A10, Sheet1!$L$2:$L$100, "No"),"")</f>
         <v>12.833333333333334</v>
       </c>
-      <c r="G10" s="8">
-        <v>0</v>
+      <c r="G10" s="8" cm="1">
+        <f t="array" ref="G10">SUM(($B$2:B10)/SUM($B$2:C10))</f>
+        <v>0.40298507462686567</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -6409,26 +6535,27 @@
       </c>
       <c r="B11" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A11)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A11)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E11" s="14" t="str">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="E11" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A11, Sheet1!$L$2:$L$100, "Yes"),"")</f>
-        <v/>
-      </c>
-      <c r="F11" s="14" t="str">
+        <v>10.666666666666666</v>
+      </c>
+      <c r="F11" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A11, Sheet1!$L$2:$L$100, "No"),"")</f>
-        <v/>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="G11" s="8" cm="1">
+        <f t="array" ref="G11">SUM(($B$2:B11)/SUM($B$2:C11))</f>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -6540,7 +6667,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G9">
+  <conditionalFormatting sqref="G2:G11">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5795F16-32F7-4C55-8E62-75C22C303951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9B3014-6084-4104-89E2-5C4D0C54DCB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="104">
   <si>
     <t>Date</t>
   </si>
@@ -676,7 +676,7 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -1047,7 +1047,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>13.625</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -2682,8 +2682,8 @@
   </sheetPr>
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5511,7 +5511,7 @@
         <v>97</v>
       </c>
       <c r="M67" s="7">
-        <f t="shared" ref="M67:M73" si="1">ABS(D67-F67)</f>
+        <f t="shared" ref="M67:M85" si="1">ABS(D67-F67)</f>
         <v>1</v>
       </c>
     </row>
@@ -5777,11 +5777,36 @@
       <c r="C74" t="s">
         <v>49</v>
       </c>
+      <c r="D74" s="7">
+        <v>113</v>
+      </c>
       <c r="E74" t="s">
         <v>14</v>
       </c>
+      <c r="F74" s="7">
+        <v>92</v>
+      </c>
+      <c r="G74" t="s">
+        <v>15</v>
+      </c>
       <c r="H74" t="s">
         <v>16</v>
+      </c>
+      <c r="I74" t="s">
+        <v>49</v>
+      </c>
+      <c r="J74" t="s">
+        <v>14</v>
+      </c>
+      <c r="K74" t="s">
+        <v>14</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M74" s="7">
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -5794,11 +5819,36 @@
       <c r="C75" t="s">
         <v>62</v>
       </c>
+      <c r="D75" s="7">
+        <v>108</v>
+      </c>
       <c r="E75" t="s">
         <v>46</v>
       </c>
+      <c r="F75" s="7">
+        <v>118</v>
+      </c>
+      <c r="G75" t="s">
+        <v>15</v>
+      </c>
       <c r="H75" t="s">
         <v>93</v>
+      </c>
+      <c r="I75" t="s">
+        <v>46</v>
+      </c>
+      <c r="J75" t="s">
+        <v>62</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M75" s="7">
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -5811,11 +5861,36 @@
       <c r="C76" t="s">
         <v>29</v>
       </c>
+      <c r="D76" s="7">
+        <v>112</v>
+      </c>
       <c r="E76" t="s">
         <v>22</v>
       </c>
+      <c r="F76" s="7">
+        <v>118</v>
+      </c>
+      <c r="G76" t="s">
+        <v>15</v>
+      </c>
       <c r="H76" t="s">
         <v>23</v>
+      </c>
+      <c r="I76" t="s">
+        <v>22</v>
+      </c>
+      <c r="J76" t="s">
+        <v>29</v>
+      </c>
+      <c r="K76" t="s">
+        <v>29</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M76" s="7">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -5828,11 +5903,36 @@
       <c r="C77" t="s">
         <v>54</v>
       </c>
+      <c r="D77" s="7">
+        <v>114</v>
+      </c>
       <c r="E77" t="s">
         <v>36</v>
       </c>
+      <c r="F77" s="7">
+        <v>147</v>
+      </c>
+      <c r="G77" t="s">
+        <v>15</v>
+      </c>
       <c r="H77" t="s">
         <v>76</v>
+      </c>
+      <c r="I77" t="s">
+        <v>36</v>
+      </c>
+      <c r="J77" t="s">
+        <v>54</v>
+      </c>
+      <c r="K77" t="s">
+        <v>54</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M77" s="7">
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -5845,11 +5945,36 @@
       <c r="C78" t="s">
         <v>28</v>
       </c>
+      <c r="D78" s="7">
+        <v>118</v>
+      </c>
       <c r="E78" t="s">
         <v>26</v>
       </c>
+      <c r="F78" s="7">
+        <v>105</v>
+      </c>
+      <c r="G78" t="s">
+        <v>15</v>
+      </c>
       <c r="H78" t="s">
         <v>27</v>
+      </c>
+      <c r="I78" t="s">
+        <v>28</v>
+      </c>
+      <c r="J78" t="s">
+        <v>26</v>
+      </c>
+      <c r="K78" t="s">
+        <v>26</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M78" s="7">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -5862,11 +5987,36 @@
       <c r="C79" t="s">
         <v>37</v>
       </c>
+      <c r="D79" s="7">
+        <v>119</v>
+      </c>
       <c r="E79" t="s">
         <v>55</v>
       </c>
+      <c r="F79" s="7">
+        <v>135</v>
+      </c>
+      <c r="G79" t="s">
+        <v>15</v>
+      </c>
       <c r="H79" t="s">
         <v>56</v>
+      </c>
+      <c r="I79" t="s">
+        <v>55</v>
+      </c>
+      <c r="J79" t="s">
+        <v>37</v>
+      </c>
+      <c r="K79" t="s">
+        <v>37</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M79" s="7">
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -5879,14 +6029,39 @@
       <c r="C80" t="s">
         <v>72</v>
       </c>
+      <c r="D80" s="7">
+        <v>103</v>
+      </c>
       <c r="E80" t="s">
         <v>51</v>
       </c>
+      <c r="F80" s="7">
+        <v>94</v>
+      </c>
+      <c r="G80" t="s">
+        <v>15</v>
+      </c>
       <c r="H80" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I80" t="s">
+        <v>72</v>
+      </c>
+      <c r="J80" t="s">
+        <v>51</v>
+      </c>
+      <c r="K80" t="s">
+        <v>51</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M80" s="7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
         <v>92</v>
       </c>
@@ -5896,14 +6071,39 @@
       <c r="C81" t="s">
         <v>58</v>
       </c>
+      <c r="D81" s="7">
+        <v>107</v>
+      </c>
       <c r="E81" t="s">
         <v>57</v>
       </c>
+      <c r="F81" s="7">
+        <v>101</v>
+      </c>
+      <c r="G81" t="s">
+        <v>15</v>
+      </c>
       <c r="H81" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I81" t="s">
+        <v>58</v>
+      </c>
+      <c r="J81" t="s">
+        <v>57</v>
+      </c>
+      <c r="K81" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M81" s="7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>92</v>
       </c>
@@ -5913,14 +6113,39 @@
       <c r="C82" t="s">
         <v>44</v>
       </c>
+      <c r="D82" s="7">
+        <v>118</v>
+      </c>
       <c r="E82" t="s">
         <v>13</v>
       </c>
+      <c r="F82" s="7">
+        <v>113</v>
+      </c>
+      <c r="G82" t="s">
+        <v>15</v>
+      </c>
       <c r="H82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I82" t="s">
+        <v>44</v>
+      </c>
+      <c r="J82" t="s">
+        <v>13</v>
+      </c>
+      <c r="K82" t="s">
+        <v>13</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M82" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
         <v>92</v>
       </c>
@@ -5930,14 +6155,39 @@
       <c r="C83" t="s">
         <v>18</v>
       </c>
+      <c r="D83" s="7">
+        <v>129</v>
+      </c>
       <c r="E83" t="s">
         <v>69</v>
       </c>
+      <c r="F83" s="7">
+        <v>131</v>
+      </c>
+      <c r="G83" t="s">
+        <v>15</v>
+      </c>
       <c r="H83" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I83" t="s">
+        <v>69</v>
+      </c>
+      <c r="J83" t="s">
+        <v>18</v>
+      </c>
+      <c r="K83" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M83" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>92</v>
       </c>
@@ -5947,14 +6197,39 @@
       <c r="C84" t="s">
         <v>41</v>
       </c>
+      <c r="D84" s="7">
+        <v>107</v>
+      </c>
       <c r="E84" t="s">
         <v>21</v>
       </c>
+      <c r="F84" s="7">
+        <v>113</v>
+      </c>
+      <c r="G84" t="s">
+        <v>15</v>
+      </c>
       <c r="H84" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I84" t="s">
+        <v>21</v>
+      </c>
+      <c r="J84" t="s">
+        <v>41</v>
+      </c>
+      <c r="K84" t="s">
+        <v>41</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M84" s="7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
         <v>92</v>
       </c>
@@ -5964,14 +6239,39 @@
       <c r="C85" t="s">
         <v>17</v>
       </c>
+      <c r="D85" s="7">
+        <v>104</v>
+      </c>
       <c r="E85" t="s">
         <v>33</v>
       </c>
+      <c r="F85" s="7">
+        <v>130</v>
+      </c>
+      <c r="G85" t="s">
+        <v>15</v>
+      </c>
       <c r="H85" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I85" t="s">
+        <v>33</v>
+      </c>
+      <c r="J85" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L85" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M85" s="7">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>94</v>
       </c>
@@ -5988,7 +6288,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
         <v>94</v>
       </c>
@@ -6005,7 +6305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>94</v>
       </c>
@@ -6022,7 +6322,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
         <v>94</v>
       </c>
@@ -6039,7 +6339,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>94</v>
       </c>
@@ -6056,7 +6356,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
         <v>95</v>
       </c>
@@ -6073,7 +6373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>95</v>
       </c>
@@ -6090,7 +6390,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
         <v>95</v>
       </c>
@@ -6107,7 +6407,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>95</v>
       </c>
@@ -6124,7 +6424,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
         <v>95</v>
       </c>
@@ -6141,7 +6441,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>95</v>
       </c>
@@ -6236,8 +6536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3316D165-A907-40EA-B4D3-B42CCCB2BD8A}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6564,26 +6864,27 @@
       </c>
       <c r="B12" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A12)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C12" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A12)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E12" s="14" t="str">
+        <v>8</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E12" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A12, Sheet1!$L$2:$L$100, "Yes"),"")</f>
-        <v/>
-      </c>
-      <c r="F12" s="14" t="str">
+        <v>11</v>
+      </c>
+      <c r="F12" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A12, Sheet1!$L$2:$L$100, "No"),"")</f>
-        <v/>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
+        <v>13.625</v>
+      </c>
+      <c r="G12" s="8" cm="1">
+        <f t="array" ref="G12">SUM(($B$2:B12)/SUM($B$2:C12))</f>
+        <v>0.40476190476190471</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -6667,7 +6968,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G11">
+  <conditionalFormatting sqref="G2:G12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9B3014-6084-4104-89E2-5C4D0C54DCB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CEB47D-7891-4826-AE6C-DE21C83D5462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="104">
   <si>
     <t>Date</t>
   </si>
@@ -679,7 +679,7 @@
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -1050,7 +1050,7 @@
                   <c:v>13.625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -2682,9 +2682,7 @@
   </sheetPr>
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5511,7 +5509,7 @@
         <v>97</v>
       </c>
       <c r="M67" s="7">
-        <f t="shared" ref="M67:M85" si="1">ABS(D67-F67)</f>
+        <f t="shared" ref="M67:M90" si="1">ABS(D67-F67)</f>
         <v>1</v>
       </c>
     </row>
@@ -6281,11 +6279,36 @@
       <c r="C86" t="s">
         <v>37</v>
       </c>
+      <c r="D86" s="7">
+        <v>122</v>
+      </c>
       <c r="E86" t="s">
         <v>25</v>
       </c>
+      <c r="F86" s="7">
+        <v>138</v>
+      </c>
+      <c r="G86" t="s">
+        <v>15</v>
+      </c>
       <c r="H86" t="s">
         <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>25</v>
+      </c>
+      <c r="J86" t="s">
+        <v>37</v>
+      </c>
+      <c r="K86" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L86" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M86" s="7">
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -6298,11 +6321,36 @@
       <c r="C87" t="s">
         <v>32</v>
       </c>
+      <c r="D87" s="7">
+        <v>124</v>
+      </c>
       <c r="E87" t="s">
         <v>22</v>
       </c>
+      <c r="F87" s="7">
+        <v>129</v>
+      </c>
+      <c r="G87" t="s">
+        <v>15</v>
+      </c>
       <c r="H87" t="s">
         <v>23</v>
+      </c>
+      <c r="I87" t="s">
+        <v>22</v>
+      </c>
+      <c r="J87" t="s">
+        <v>32</v>
+      </c>
+      <c r="K87" t="s">
+        <v>32</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M87" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -6315,11 +6363,36 @@
       <c r="C88" t="s">
         <v>54</v>
       </c>
+      <c r="D88" s="7">
+        <v>103</v>
+      </c>
       <c r="E88" t="s">
         <v>49</v>
       </c>
+      <c r="F88" s="7">
+        <v>118</v>
+      </c>
+      <c r="G88" t="s">
+        <v>15</v>
+      </c>
       <c r="H88" t="s">
         <v>50</v>
+      </c>
+      <c r="I88" t="s">
+        <v>49</v>
+      </c>
+      <c r="J88" t="s">
+        <v>54</v>
+      </c>
+      <c r="K88" t="s">
+        <v>54</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M88" s="7">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -6332,11 +6405,36 @@
       <c r="C89" t="s">
         <v>48</v>
       </c>
+      <c r="D89" s="7">
+        <v>118</v>
+      </c>
       <c r="E89" t="s">
         <v>52</v>
       </c>
+      <c r="F89" s="7">
+        <v>107</v>
+      </c>
+      <c r="G89" t="s">
+        <v>15</v>
+      </c>
       <c r="H89" t="s">
         <v>53</v>
+      </c>
+      <c r="I89" t="s">
+        <v>48</v>
+      </c>
+      <c r="J89" t="s">
+        <v>52</v>
+      </c>
+      <c r="K89" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M89" s="7">
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -6349,11 +6447,36 @@
       <c r="C90" t="s">
         <v>17</v>
       </c>
+      <c r="D90" s="7">
+        <v>107</v>
+      </c>
       <c r="E90" t="s">
         <v>82</v>
       </c>
+      <c r="F90" s="7">
+        <v>119</v>
+      </c>
+      <c r="G90" t="s">
+        <v>15</v>
+      </c>
       <c r="H90" t="s">
         <v>83</v>
+      </c>
+      <c r="I90" t="s">
+        <v>82</v>
+      </c>
+      <c r="J90" t="s">
+        <v>17</v>
+      </c>
+      <c r="K90" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M90" s="7">
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -6536,8 +6659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3316D165-A907-40EA-B4D3-B42CCCB2BD8A}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6893,26 +7016,27 @@
       </c>
       <c r="B13" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A13)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C13" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A13)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E13" s="14" t="str">
+        <v>2</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="E13" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A13, Sheet1!$L$2:$L$100, "Yes"),"")</f>
-        <v/>
-      </c>
-      <c r="F13" s="14" t="str">
+        <v>13</v>
+      </c>
+      <c r="F13" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A13, Sheet1!$L$2:$L$100, "No"),"")</f>
-        <v/>
-      </c>
-      <c r="G13" s="8">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="8" cm="1">
+        <f t="array" ref="G13">SUM(($B$2:B13)/SUM($B$2:C13))</f>
+        <v>0.41573033707865159</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -6968,7 +7092,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G12">
+  <conditionalFormatting sqref="G2:G13">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CEB47D-7891-4826-AE6C-DE21C83D5462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEE7717-8087-4DA4-95E9-06C0347A552A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$274</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$G$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="131">
   <si>
     <t>Date</t>
   </si>
@@ -370,6 +370,87 @@
   </si>
   <si>
     <t>Cumulative</t>
+  </si>
+  <si>
+    <t>Thu, Feb 1, 2024</t>
+  </si>
+  <si>
+    <t>Fri, Feb 2, 2024</t>
+  </si>
+  <si>
+    <t>Sat, Feb 3, 2024</t>
+  </si>
+  <si>
+    <t>Sun, Feb 4, 2024</t>
+  </si>
+  <si>
+    <t>Mon, Feb 5, 2024</t>
+  </si>
+  <si>
+    <t>Tue, Feb 6, 2024</t>
+  </si>
+  <si>
+    <t>Wed, Feb 7, 2024</t>
+  </si>
+  <si>
+    <t>Thu, Feb 8, 2024</t>
+  </si>
+  <si>
+    <t>Fri, Feb 9, 2024</t>
+  </si>
+  <si>
+    <t>Sat, Feb 10, 2024</t>
+  </si>
+  <si>
+    <t>Sun, Feb 11, 2024</t>
+  </si>
+  <si>
+    <t>2:00p</t>
+  </si>
+  <si>
+    <t>Mon, Feb 12, 2024</t>
+  </si>
+  <si>
+    <t>Tue, Feb 13, 2024</t>
+  </si>
+  <si>
+    <t>Wed, Feb 14, 2024</t>
+  </si>
+  <si>
+    <t>Thu, Feb 15, 2024</t>
+  </si>
+  <si>
+    <t>Thu, Feb 22, 2024</t>
+  </si>
+  <si>
+    <t>Fri, Feb 23, 2024</t>
+  </si>
+  <si>
+    <t>Sat, Feb 24, 2024</t>
+  </si>
+  <si>
+    <t>Sun, Feb 25, 2024</t>
+  </si>
+  <si>
+    <t>1:00p</t>
+  </si>
+  <si>
+    <t>5:00p</t>
+  </si>
+  <si>
+    <t>Mon, Feb 26, 2024</t>
+  </si>
+  <si>
+    <t>Tue, Feb 27, 2024</t>
+  </si>
+  <si>
+    <t>Wed, Feb 28, 2024</t>
+  </si>
+  <si>
+    <t>Thu, Feb 29, 2024</t>
+  </si>
+  <si>
+    <t>Delta Center</t>
   </si>
 </sst>
 </file>
@@ -451,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -485,6 +566,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,7 +766,7 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1053,7 +1137,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>14.428571428571429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2680,9 +2764,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:M274"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5509,7 +5595,7 @@
         <v>97</v>
       </c>
       <c r="M67" s="7">
-        <f t="shared" ref="M67:M90" si="1">ABS(D67-F67)</f>
+        <f t="shared" ref="M67:M100" si="1">ABS(D67-F67)</f>
         <v>1</v>
       </c>
     </row>
@@ -6489,11 +6575,36 @@
       <c r="C91" t="s">
         <v>52</v>
       </c>
+      <c r="D91" s="7">
+        <v>117</v>
+      </c>
       <c r="E91" t="s">
         <v>14</v>
       </c>
+      <c r="F91" s="7">
+        <v>110</v>
+      </c>
+      <c r="G91" t="s">
+        <v>15</v>
+      </c>
       <c r="H91" t="s">
         <v>16</v>
+      </c>
+      <c r="I91" t="s">
+        <v>52</v>
+      </c>
+      <c r="J91" t="s">
+        <v>14</v>
+      </c>
+      <c r="K91" t="s">
+        <v>14</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M91" s="7">
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -6506,11 +6617,36 @@
       <c r="C92" t="s">
         <v>42</v>
       </c>
+      <c r="D92" s="7">
+        <v>121</v>
+      </c>
       <c r="E92" t="s">
         <v>46</v>
       </c>
+      <c r="F92" s="7">
+        <v>128</v>
+      </c>
+      <c r="G92" t="s">
+        <v>15</v>
+      </c>
       <c r="H92" t="s">
         <v>93</v>
+      </c>
+      <c r="I92" t="s">
+        <v>46</v>
+      </c>
+      <c r="J92" t="s">
+        <v>42</v>
+      </c>
+      <c r="K92" t="s">
+        <v>42</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M92" s="7">
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -6523,11 +6659,36 @@
       <c r="C93" t="s">
         <v>62</v>
       </c>
+      <c r="D93" s="7">
+        <v>125</v>
+      </c>
       <c r="E93" t="s">
         <v>44</v>
       </c>
+      <c r="F93" s="7">
+        <v>109</v>
+      </c>
+      <c r="G93" t="s">
+        <v>15</v>
+      </c>
       <c r="H93" t="s">
         <v>45</v>
+      </c>
+      <c r="I93" t="s">
+        <v>62</v>
+      </c>
+      <c r="J93" t="s">
+        <v>44</v>
+      </c>
+      <c r="K93" t="s">
+        <v>44</v>
+      </c>
+      <c r="L93" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M93" s="7">
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -6540,11 +6701,36 @@
       <c r="C94" t="s">
         <v>72</v>
       </c>
+      <c r="D94" s="7">
+        <v>106</v>
+      </c>
       <c r="E94" t="s">
         <v>26</v>
       </c>
+      <c r="F94" s="7">
+        <v>115</v>
+      </c>
+      <c r="G94" t="s">
+        <v>15</v>
+      </c>
       <c r="H94" t="s">
         <v>27</v>
+      </c>
+      <c r="I94" t="s">
+        <v>26</v>
+      </c>
+      <c r="J94" t="s">
+        <v>72</v>
+      </c>
+      <c r="K94" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L94" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M94" s="7">
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -6557,11 +6743,36 @@
       <c r="C95" t="s">
         <v>29</v>
       </c>
+      <c r="D95" s="7">
+        <v>110</v>
+      </c>
       <c r="E95" t="s">
         <v>55</v>
       </c>
+      <c r="F95" s="7">
+        <v>99</v>
+      </c>
+      <c r="G95" t="s">
+        <v>15</v>
+      </c>
       <c r="H95" t="s">
         <v>56</v>
+      </c>
+      <c r="I95" t="s">
+        <v>29</v>
+      </c>
+      <c r="J95" t="s">
+        <v>55</v>
+      </c>
+      <c r="K95" t="s">
+        <v>55</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M95" s="7">
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -6574,14 +6785,39 @@
       <c r="C96" t="s">
         <v>69</v>
       </c>
+      <c r="D96" s="7">
+        <v>87</v>
+      </c>
       <c r="E96" t="s">
         <v>58</v>
       </c>
+      <c r="F96" s="7">
+        <v>121</v>
+      </c>
+      <c r="G96" t="s">
+        <v>15</v>
+      </c>
       <c r="H96" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I96" t="s">
+        <v>58</v>
+      </c>
+      <c r="J96" t="s">
+        <v>69</v>
+      </c>
+      <c r="K96" t="s">
+        <v>69</v>
+      </c>
+      <c r="L96" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M96" s="7">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
         <v>95</v>
       </c>
@@ -6591,14 +6827,39 @@
       <c r="C97" t="s">
         <v>21</v>
       </c>
+      <c r="D97" s="7">
+        <v>100</v>
+      </c>
       <c r="E97" t="s">
         <v>57</v>
       </c>
+      <c r="F97" s="7">
+        <v>105</v>
+      </c>
+      <c r="G97" t="s">
+        <v>15</v>
+      </c>
       <c r="H97" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I97" t="s">
+        <v>57</v>
+      </c>
+      <c r="J97" t="s">
+        <v>21</v>
+      </c>
+      <c r="K97" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M97" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>95</v>
       </c>
@@ -6608,14 +6869,39 @@
       <c r="C98" t="s">
         <v>18</v>
       </c>
+      <c r="D98" s="7">
+        <v>108</v>
+      </c>
       <c r="E98" t="s">
         <v>13</v>
       </c>
+      <c r="F98" s="7">
+        <v>98</v>
+      </c>
+      <c r="G98" t="s">
+        <v>15</v>
+      </c>
       <c r="H98" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I98" t="s">
+        <v>18</v>
+      </c>
+      <c r="J98" t="s">
+        <v>13</v>
+      </c>
+      <c r="K98" t="s">
+        <v>13</v>
+      </c>
+      <c r="L98" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M98" s="7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
         <v>95</v>
       </c>
@@ -6625,14 +6911,39 @@
       <c r="C99" t="s">
         <v>28</v>
       </c>
+      <c r="D99" s="7">
+        <v>136</v>
+      </c>
       <c r="E99" t="s">
         <v>36</v>
       </c>
+      <c r="F99" s="7">
+        <v>120</v>
+      </c>
+      <c r="G99" t="s">
+        <v>15</v>
+      </c>
       <c r="H99" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I99" t="s">
+        <v>28</v>
+      </c>
+      <c r="J99" t="s">
+        <v>36</v>
+      </c>
+      <c r="K99" t="s">
+        <v>36</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M99" s="7">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>95</v>
       </c>
@@ -6642,11 +6953,2994 @@
       <c r="C100" t="s">
         <v>41</v>
       </c>
+      <c r="D100" s="7">
+        <v>116</v>
+      </c>
       <c r="E100" t="s">
         <v>33</v>
       </c>
+      <c r="F100" s="7">
+        <v>119</v>
+      </c>
+      <c r="G100" t="s">
+        <v>15</v>
+      </c>
       <c r="H100" t="s">
         <v>34</v>
+      </c>
+      <c r="I100" t="s">
+        <v>33</v>
+      </c>
+      <c r="J100" t="s">
+        <v>41</v>
+      </c>
+      <c r="K100" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L100" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M100" s="7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A101" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" t="s">
+        <v>37</v>
+      </c>
+      <c r="E101" t="s">
+        <v>22</v>
+      </c>
+      <c r="H101" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A102" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" t="s">
+        <v>32</v>
+      </c>
+      <c r="E102" t="s">
+        <v>49</v>
+      </c>
+      <c r="H102" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A103" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" t="s">
+        <v>46</v>
+      </c>
+      <c r="E103" t="s">
+        <v>51</v>
+      </c>
+      <c r="H103" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A104" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" t="s">
+        <v>31</v>
+      </c>
+      <c r="C104" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" t="s">
+        <v>54</v>
+      </c>
+      <c r="H104" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A105" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" t="s">
+        <v>62</v>
+      </c>
+      <c r="E105" t="s">
+        <v>42</v>
+      </c>
+      <c r="H105" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A106" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="H106" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A107" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107" t="s">
+        <v>28</v>
+      </c>
+      <c r="E107" t="s">
+        <v>25</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A108" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B108" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" t="s">
+        <v>72</v>
+      </c>
+      <c r="E108" t="s">
+        <v>32</v>
+      </c>
+      <c r="H108" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A109" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B109" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109" t="s">
+        <v>48</v>
+      </c>
+      <c r="E109" t="s">
+        <v>55</v>
+      </c>
+      <c r="H109" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A110" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B110" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" t="s">
+        <v>82</v>
+      </c>
+      <c r="E110" t="s">
+        <v>51</v>
+      </c>
+      <c r="H110" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A111" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B111" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" t="s">
+        <v>58</v>
+      </c>
+      <c r="H111" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A112" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B112" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" t="s">
+        <v>57</v>
+      </c>
+      <c r="H112" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A113" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B113" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" t="s">
+        <v>29</v>
+      </c>
+      <c r="E113" t="s">
+        <v>13</v>
+      </c>
+      <c r="H113" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A114" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B114" t="s">
+        <v>71</v>
+      </c>
+      <c r="C114" t="s">
+        <v>33</v>
+      </c>
+      <c r="E114" t="s">
+        <v>21</v>
+      </c>
+      <c r="H114" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A115" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B115" t="s">
+        <v>63</v>
+      </c>
+      <c r="C115" t="s">
+        <v>36</v>
+      </c>
+      <c r="E115" t="s">
+        <v>17</v>
+      </c>
+      <c r="H115" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A116" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B116" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116" t="s">
+        <v>82</v>
+      </c>
+      <c r="E116" t="s">
+        <v>25</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A117" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B117" t="s">
+        <v>24</v>
+      </c>
+      <c r="C117" t="s">
+        <v>72</v>
+      </c>
+      <c r="E117" t="s">
+        <v>52</v>
+      </c>
+      <c r="H117" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A118" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B118" t="s">
+        <v>68</v>
+      </c>
+      <c r="C118" t="s">
+        <v>41</v>
+      </c>
+      <c r="E118" t="s">
+        <v>69</v>
+      </c>
+      <c r="H118" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A119" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B119" t="s">
+        <v>68</v>
+      </c>
+      <c r="C119" t="s">
+        <v>37</v>
+      </c>
+      <c r="E119" t="s">
+        <v>49</v>
+      </c>
+      <c r="H119" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A120" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B120" t="s">
+        <v>68</v>
+      </c>
+      <c r="C120" t="s">
+        <v>46</v>
+      </c>
+      <c r="E120" t="s">
+        <v>13</v>
+      </c>
+      <c r="H120" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A121" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B121" t="s">
+        <v>40</v>
+      </c>
+      <c r="C121" t="s">
+        <v>18</v>
+      </c>
+      <c r="E121" t="s">
+        <v>42</v>
+      </c>
+      <c r="H121" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A122" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B122" t="s">
+        <v>61</v>
+      </c>
+      <c r="C122" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" t="s">
+        <v>44</v>
+      </c>
+      <c r="H122" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A123" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B123" t="s">
+        <v>63</v>
+      </c>
+      <c r="C123" t="s">
+        <v>51</v>
+      </c>
+      <c r="E123" t="s">
+        <v>22</v>
+      </c>
+      <c r="H123" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A124" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B124" t="s">
+        <v>63</v>
+      </c>
+      <c r="C124" t="s">
+        <v>32</v>
+      </c>
+      <c r="E124" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A125" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B125" t="s">
+        <v>63</v>
+      </c>
+      <c r="C125" t="s">
+        <v>62</v>
+      </c>
+      <c r="E125" t="s">
+        <v>26</v>
+      </c>
+      <c r="H125" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A126" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B126" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" t="s">
+        <v>55</v>
+      </c>
+      <c r="E126" t="s">
+        <v>58</v>
+      </c>
+      <c r="H126" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A127" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B127" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" t="s">
+        <v>48</v>
+      </c>
+      <c r="E127" t="s">
+        <v>57</v>
+      </c>
+      <c r="H127" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A128" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B128" t="s">
+        <v>24</v>
+      </c>
+      <c r="C128" t="s">
+        <v>41</v>
+      </c>
+      <c r="E128" t="s">
+        <v>54</v>
+      </c>
+      <c r="H128" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A129" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B129" t="s">
+        <v>68</v>
+      </c>
+      <c r="C129" t="s">
+        <v>33</v>
+      </c>
+      <c r="E129" t="s">
+        <v>21</v>
+      </c>
+      <c r="H129" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A130" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B130" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" t="s">
+        <v>37</v>
+      </c>
+      <c r="E130" t="s">
+        <v>14</v>
+      </c>
+      <c r="H130" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A131" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" t="s">
+        <v>72</v>
+      </c>
+      <c r="E131" t="s">
+        <v>46</v>
+      </c>
+      <c r="H131" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A132" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" t="s">
+        <v>17</v>
+      </c>
+      <c r="H132" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A133" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B133" t="s">
+        <v>20</v>
+      </c>
+      <c r="C133" t="s">
+        <v>62</v>
+      </c>
+      <c r="E133" t="s">
+        <v>25</v>
+      </c>
+      <c r="H133" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A134" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B134" t="s">
+        <v>20</v>
+      </c>
+      <c r="C134" t="s">
+        <v>82</v>
+      </c>
+      <c r="E134" t="s">
+        <v>36</v>
+      </c>
+      <c r="H134" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A135" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B135" t="s">
+        <v>24</v>
+      </c>
+      <c r="C135" t="s">
+        <v>48</v>
+      </c>
+      <c r="E135" t="s">
+        <v>29</v>
+      </c>
+      <c r="H135" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A136" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" t="s">
+        <v>55</v>
+      </c>
+      <c r="E136" t="s">
+        <v>32</v>
+      </c>
+      <c r="H136" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A137" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B137" t="s">
+        <v>20</v>
+      </c>
+      <c r="C137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" t="s">
+        <v>36</v>
+      </c>
+      <c r="H137" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A138" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B138" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" t="s">
+        <v>18</v>
+      </c>
+      <c r="E138" t="s">
+        <v>26</v>
+      </c>
+      <c r="H138" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A139" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B139" t="s">
+        <v>20</v>
+      </c>
+      <c r="C139" t="s">
+        <v>51</v>
+      </c>
+      <c r="E139" t="s">
+        <v>49</v>
+      </c>
+      <c r="H139" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A140" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B140" t="s">
+        <v>24</v>
+      </c>
+      <c r="C140" t="s">
+        <v>58</v>
+      </c>
+      <c r="E140" t="s">
+        <v>52</v>
+      </c>
+      <c r="H140" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A141" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B141" t="s">
+        <v>71</v>
+      </c>
+      <c r="C141" t="s">
+        <v>57</v>
+      </c>
+      <c r="E141" t="s">
+        <v>54</v>
+      </c>
+      <c r="H141" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A142" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B142" t="s">
+        <v>31</v>
+      </c>
+      <c r="C142" t="s">
+        <v>41</v>
+      </c>
+      <c r="E142" t="s">
+        <v>28</v>
+      </c>
+      <c r="H142" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A143" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B143" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" t="s">
+        <v>48</v>
+      </c>
+      <c r="E143" t="s">
+        <v>14</v>
+      </c>
+      <c r="H143" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A144" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" t="s">
+        <v>46</v>
+      </c>
+      <c r="E144" t="s">
+        <v>44</v>
+      </c>
+      <c r="H144" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A145" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B145" t="s">
+        <v>20</v>
+      </c>
+      <c r="C145" t="s">
+        <v>25</v>
+      </c>
+      <c r="E145" t="s">
+        <v>22</v>
+      </c>
+      <c r="H145" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A146" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B146" t="s">
+        <v>20</v>
+      </c>
+      <c r="C146" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146" t="s">
+        <v>26</v>
+      </c>
+      <c r="H146" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A147" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B147" t="s">
+        <v>20</v>
+      </c>
+      <c r="C147" t="s">
+        <v>82</v>
+      </c>
+      <c r="E147" t="s">
+        <v>17</v>
+      </c>
+      <c r="H147" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A148" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B148" t="s">
+        <v>31</v>
+      </c>
+      <c r="C148" t="s">
+        <v>29</v>
+      </c>
+      <c r="E148" t="s">
+        <v>62</v>
+      </c>
+      <c r="H148" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A149" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B149" t="s">
+        <v>31</v>
+      </c>
+      <c r="C149" t="s">
+        <v>42</v>
+      </c>
+      <c r="E149" t="s">
+        <v>72</v>
+      </c>
+      <c r="H149" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A150" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B150" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" t="s">
+        <v>82</v>
+      </c>
+      <c r="E150" t="s">
+        <v>32</v>
+      </c>
+      <c r="H150" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A151" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B151" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" t="s">
+        <v>13</v>
+      </c>
+      <c r="E151" t="s">
+        <v>18</v>
+      </c>
+      <c r="H151" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A152" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B152" t="s">
+        <v>20</v>
+      </c>
+      <c r="C152" t="s">
+        <v>46</v>
+      </c>
+      <c r="E152" t="s">
+        <v>36</v>
+      </c>
+      <c r="H152" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A153" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B153" t="s">
+        <v>20</v>
+      </c>
+      <c r="C153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" t="s">
+        <v>49</v>
+      </c>
+      <c r="H153" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A154" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B154" t="s">
+        <v>24</v>
+      </c>
+      <c r="C154" t="s">
+        <v>52</v>
+      </c>
+      <c r="E154" t="s">
+        <v>51</v>
+      </c>
+      <c r="H154" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A155" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B155" t="s">
+        <v>24</v>
+      </c>
+      <c r="C155" t="s">
+        <v>58</v>
+      </c>
+      <c r="E155" t="s">
+        <v>41</v>
+      </c>
+      <c r="H155" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A156" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B156" t="s">
+        <v>71</v>
+      </c>
+      <c r="C156" t="s">
+        <v>54</v>
+      </c>
+      <c r="E156" t="s">
+        <v>28</v>
+      </c>
+      <c r="H156" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A157" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B157" t="s">
+        <v>31</v>
+      </c>
+      <c r="C157" t="s">
+        <v>21</v>
+      </c>
+      <c r="E157" t="s">
+        <v>37</v>
+      </c>
+      <c r="H157" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A158" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B158" t="s">
+        <v>31</v>
+      </c>
+      <c r="C158" t="s">
+        <v>42</v>
+      </c>
+      <c r="E158" t="s">
+        <v>33</v>
+      </c>
+      <c r="H158" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A159" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B159" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" t="s">
+        <v>25</v>
+      </c>
+      <c r="E159" t="s">
+        <v>17</v>
+      </c>
+      <c r="H159" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A160" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B160" t="s">
+        <v>20</v>
+      </c>
+      <c r="C160" t="s">
+        <v>44</v>
+      </c>
+      <c r="E160" t="s">
+        <v>22</v>
+      </c>
+      <c r="H160" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A161" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B161" t="s">
+        <v>20</v>
+      </c>
+      <c r="C161" t="s">
+        <v>55</v>
+      </c>
+      <c r="E161" t="s">
+        <v>48</v>
+      </c>
+      <c r="H161" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A162" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B162" t="s">
+        <v>24</v>
+      </c>
+      <c r="C162" t="s">
+        <v>14</v>
+      </c>
+      <c r="E162" t="s">
+        <v>41</v>
+      </c>
+      <c r="H162" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A163" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B163" t="s">
+        <v>31</v>
+      </c>
+      <c r="C163" t="s">
+        <v>21</v>
+      </c>
+      <c r="E163" t="s">
+        <v>72</v>
+      </c>
+      <c r="H163" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A164" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B164" t="s">
+        <v>35</v>
+      </c>
+      <c r="C164" t="s">
+        <v>29</v>
+      </c>
+      <c r="E164" t="s">
+        <v>37</v>
+      </c>
+      <c r="H164" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A165" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B165" t="s">
+        <v>40</v>
+      </c>
+      <c r="C165" t="s">
+        <v>57</v>
+      </c>
+      <c r="E165" t="s">
+        <v>69</v>
+      </c>
+      <c r="H165" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A166" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B166" t="s">
+        <v>61</v>
+      </c>
+      <c r="C166" t="s">
+        <v>42</v>
+      </c>
+      <c r="E166" t="s">
+        <v>62</v>
+      </c>
+      <c r="H166" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A167" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B167" t="s">
+        <v>63</v>
+      </c>
+      <c r="C167" t="s">
+        <v>13</v>
+      </c>
+      <c r="E167" t="s">
+        <v>36</v>
+      </c>
+      <c r="H167" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A168" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B168" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" t="s">
+        <v>51</v>
+      </c>
+      <c r="E168" t="s">
+        <v>14</v>
+      </c>
+      <c r="H168" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A169" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B169" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" t="s">
+        <v>52</v>
+      </c>
+      <c r="E169" t="s">
+        <v>18</v>
+      </c>
+      <c r="H169" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A170" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B170" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" t="s">
+        <v>17</v>
+      </c>
+      <c r="E170" t="s">
+        <v>44</v>
+      </c>
+      <c r="H170" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A171" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B171" t="s">
+        <v>20</v>
+      </c>
+      <c r="C171" t="s">
+        <v>55</v>
+      </c>
+      <c r="E171" t="s">
+        <v>25</v>
+      </c>
+      <c r="H171" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A172" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B172" t="s">
+        <v>20</v>
+      </c>
+      <c r="C172" t="s">
+        <v>32</v>
+      </c>
+      <c r="E172" t="s">
+        <v>49</v>
+      </c>
+      <c r="H172" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A173" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B173" t="s">
+        <v>20</v>
+      </c>
+      <c r="C173" t="s">
+        <v>46</v>
+      </c>
+      <c r="E173" t="s">
+        <v>48</v>
+      </c>
+      <c r="H173" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A174" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B174" t="s">
+        <v>68</v>
+      </c>
+      <c r="C174" t="s">
+        <v>28</v>
+      </c>
+      <c r="E174" t="s">
+        <v>82</v>
+      </c>
+      <c r="H174" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A175" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B175" t="s">
+        <v>31</v>
+      </c>
+      <c r="C175" t="s">
+        <v>29</v>
+      </c>
+      <c r="E175" t="s">
+        <v>33</v>
+      </c>
+      <c r="H175" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A176" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B176" t="s">
+        <v>115</v>
+      </c>
+      <c r="C176" t="s">
+        <v>22</v>
+      </c>
+      <c r="E176" t="s">
+        <v>26</v>
+      </c>
+      <c r="H176" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A177" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B177" t="s">
+        <v>40</v>
+      </c>
+      <c r="C177" t="s">
+        <v>72</v>
+      </c>
+      <c r="E177" t="s">
+        <v>57</v>
+      </c>
+      <c r="H177" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A178" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B178" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" t="s">
+        <v>32</v>
+      </c>
+      <c r="E178" t="s">
+        <v>14</v>
+      </c>
+      <c r="H178" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A179" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B179" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" t="s">
+        <v>17</v>
+      </c>
+      <c r="E179" t="s">
+        <v>46</v>
+      </c>
+      <c r="H179" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A180" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B180" t="s">
+        <v>20</v>
+      </c>
+      <c r="C180" t="s">
+        <v>52</v>
+      </c>
+      <c r="E180" t="s">
+        <v>25</v>
+      </c>
+      <c r="H180" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A181" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B181" t="s">
+        <v>20</v>
+      </c>
+      <c r="C181" t="s">
+        <v>13</v>
+      </c>
+      <c r="E181" t="s">
+        <v>48</v>
+      </c>
+      <c r="H181" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A182" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B182" t="s">
+        <v>24</v>
+      </c>
+      <c r="C182" t="s">
+        <v>49</v>
+      </c>
+      <c r="E182" t="s">
+        <v>55</v>
+      </c>
+      <c r="H182" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A183" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B183" t="s">
+        <v>24</v>
+      </c>
+      <c r="C183" t="s">
+        <v>29</v>
+      </c>
+      <c r="E183" t="s">
+        <v>51</v>
+      </c>
+      <c r="H183" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A184" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B184" t="s">
+        <v>24</v>
+      </c>
+      <c r="C184" t="s">
+        <v>21</v>
+      </c>
+      <c r="E184" t="s">
+        <v>41</v>
+      </c>
+      <c r="H184" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A185" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B185" t="s">
+        <v>68</v>
+      </c>
+      <c r="C185" t="s">
+        <v>44</v>
+      </c>
+      <c r="E185" t="s">
+        <v>69</v>
+      </c>
+      <c r="H185" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A186" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B186" t="s">
+        <v>71</v>
+      </c>
+      <c r="C186" t="s">
+        <v>82</v>
+      </c>
+      <c r="E186" t="s">
+        <v>54</v>
+      </c>
+      <c r="H186" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A187" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B187" t="s">
+        <v>35</v>
+      </c>
+      <c r="C187" t="s">
+        <v>58</v>
+      </c>
+      <c r="E187" t="s">
+        <v>62</v>
+      </c>
+      <c r="H187" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A188" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B188" t="s">
+        <v>20</v>
+      </c>
+      <c r="C188" t="s">
+        <v>22</v>
+      </c>
+      <c r="E188" t="s">
+        <v>36</v>
+      </c>
+      <c r="H188" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A189" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B189" t="s">
+        <v>20</v>
+      </c>
+      <c r="C189" t="s">
+        <v>57</v>
+      </c>
+      <c r="E189" t="s">
+        <v>18</v>
+      </c>
+      <c r="H189" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A190" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B190" t="s">
+        <v>24</v>
+      </c>
+      <c r="C190" t="s">
+        <v>26</v>
+      </c>
+      <c r="E190" t="s">
+        <v>41</v>
+      </c>
+      <c r="H190" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A191" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B191" t="s">
+        <v>31</v>
+      </c>
+      <c r="C191" t="s">
+        <v>72</v>
+      </c>
+      <c r="E191" t="s">
+        <v>28</v>
+      </c>
+      <c r="H191" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A192" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B192" t="s">
+        <v>31</v>
+      </c>
+      <c r="C192" t="s">
+        <v>58</v>
+      </c>
+      <c r="E192" t="s">
+        <v>33</v>
+      </c>
+      <c r="H192" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A193" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B193" t="s">
+        <v>35</v>
+      </c>
+      <c r="C193" t="s">
+        <v>42</v>
+      </c>
+      <c r="E193" t="s">
+        <v>37</v>
+      </c>
+      <c r="H193" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A194" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B194" t="s">
+        <v>12</v>
+      </c>
+      <c r="C194" t="s">
+        <v>25</v>
+      </c>
+      <c r="E194" t="s">
+        <v>14</v>
+      </c>
+      <c r="H194" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A195" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B195" t="s">
+        <v>12</v>
+      </c>
+      <c r="C195" t="s">
+        <v>49</v>
+      </c>
+      <c r="E195" t="s">
+        <v>18</v>
+      </c>
+      <c r="H195" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A196" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B196" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196" t="s">
+        <v>26</v>
+      </c>
+      <c r="E196" t="s">
+        <v>17</v>
+      </c>
+      <c r="H196" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A197" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B197" t="s">
+        <v>20</v>
+      </c>
+      <c r="C197" t="s">
+        <v>36</v>
+      </c>
+      <c r="E197" t="s">
+        <v>22</v>
+      </c>
+      <c r="H197" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A198" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B198" t="s">
+        <v>20</v>
+      </c>
+      <c r="C198" t="s">
+        <v>52</v>
+      </c>
+      <c r="E198" t="s">
+        <v>46</v>
+      </c>
+      <c r="H198" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A199" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B199" t="s">
+        <v>20</v>
+      </c>
+      <c r="C199" t="s">
+        <v>32</v>
+      </c>
+      <c r="E199" t="s">
+        <v>48</v>
+      </c>
+      <c r="H199" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A200" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B200" t="s">
+        <v>24</v>
+      </c>
+      <c r="C200" t="s">
+        <v>55</v>
+      </c>
+      <c r="E200" t="s">
+        <v>51</v>
+      </c>
+      <c r="H200" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A201" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B201" t="s">
+        <v>24</v>
+      </c>
+      <c r="C201" t="s">
+        <v>44</v>
+      </c>
+      <c r="E201" t="s">
+        <v>29</v>
+      </c>
+      <c r="H201" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A202" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B202" t="s">
+        <v>68</v>
+      </c>
+      <c r="C202" t="s">
+        <v>13</v>
+      </c>
+      <c r="E202" t="s">
+        <v>69</v>
+      </c>
+      <c r="H202" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A203" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B203" t="s">
+        <v>71</v>
+      </c>
+      <c r="C203" t="s">
+        <v>72</v>
+      </c>
+      <c r="E203" t="s">
+        <v>21</v>
+      </c>
+      <c r="H203" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A204" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B204" t="s">
+        <v>71</v>
+      </c>
+      <c r="C204" t="s">
+        <v>42</v>
+      </c>
+      <c r="E204" t="s">
+        <v>28</v>
+      </c>
+      <c r="H204" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A205" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B205" t="s">
+        <v>71</v>
+      </c>
+      <c r="C205" t="s">
+        <v>37</v>
+      </c>
+      <c r="E205" t="s">
+        <v>54</v>
+      </c>
+      <c r="H205" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A206" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B206" t="s">
+        <v>31</v>
+      </c>
+      <c r="C206" t="s">
+        <v>62</v>
+      </c>
+      <c r="E206" t="s">
+        <v>82</v>
+      </c>
+      <c r="H206" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A207" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B207" t="s">
+        <v>68</v>
+      </c>
+      <c r="C207" t="s">
+        <v>41</v>
+      </c>
+      <c r="E207" t="s">
+        <v>51</v>
+      </c>
+      <c r="H207" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A208" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B208" t="s">
+        <v>71</v>
+      </c>
+      <c r="C208" t="s">
+        <v>82</v>
+      </c>
+      <c r="E208" t="s">
+        <v>54</v>
+      </c>
+      <c r="H208" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A209" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B209" t="s">
+        <v>31</v>
+      </c>
+      <c r="C209" t="s">
+        <v>58</v>
+      </c>
+      <c r="E209" t="s">
+        <v>33</v>
+      </c>
+      <c r="H209" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A210" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B210" t="s">
+        <v>12</v>
+      </c>
+      <c r="C210" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210" t="s">
+        <v>46</v>
+      </c>
+      <c r="H210" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A211" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B211" t="s">
+        <v>12</v>
+      </c>
+      <c r="C211" t="s">
+        <v>42</v>
+      </c>
+      <c r="E211" t="s">
+        <v>32</v>
+      </c>
+      <c r="H211" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A212" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B212" t="s">
+        <v>12</v>
+      </c>
+      <c r="C212" t="s">
+        <v>49</v>
+      </c>
+      <c r="E212" t="s">
+        <v>17</v>
+      </c>
+      <c r="H212" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A213" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B213" t="s">
+        <v>12</v>
+      </c>
+      <c r="C213" t="s">
+        <v>36</v>
+      </c>
+      <c r="E213" t="s">
+        <v>48</v>
+      </c>
+      <c r="H213" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A214" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B214" t="s">
+        <v>20</v>
+      </c>
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" t="s">
+        <v>69</v>
+      </c>
+      <c r="H214" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A215" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B215" t="s">
+        <v>24</v>
+      </c>
+      <c r="C215" t="s">
+        <v>22</v>
+      </c>
+      <c r="E215" t="s">
+        <v>52</v>
+      </c>
+      <c r="H215" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A216" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B216" t="s">
+        <v>24</v>
+      </c>
+      <c r="C216" t="s">
+        <v>55</v>
+      </c>
+      <c r="E216" t="s">
+        <v>29</v>
+      </c>
+      <c r="H216" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A217" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B217" t="s">
+        <v>24</v>
+      </c>
+      <c r="C217" t="s">
+        <v>62</v>
+      </c>
+      <c r="E217" t="s">
+        <v>57</v>
+      </c>
+      <c r="H217" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A218" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B218" t="s">
+        <v>71</v>
+      </c>
+      <c r="C218" t="s">
+        <v>44</v>
+      </c>
+      <c r="E218" t="s">
+        <v>21</v>
+      </c>
+      <c r="H218" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A219" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B219" t="s">
+        <v>71</v>
+      </c>
+      <c r="C219" t="s">
+        <v>14</v>
+      </c>
+      <c r="E219" t="s">
+        <v>54</v>
+      </c>
+      <c r="H219" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A220" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B220" t="s">
+        <v>31</v>
+      </c>
+      <c r="C220" t="s">
+        <v>37</v>
+      </c>
+      <c r="E220" t="s">
+        <v>82</v>
+      </c>
+      <c r="H220" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A221" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B221" t="s">
+        <v>31</v>
+      </c>
+      <c r="C221" t="s">
+        <v>13</v>
+      </c>
+      <c r="E221" t="s">
+        <v>72</v>
+      </c>
+      <c r="H221" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A222" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B222" t="s">
+        <v>20</v>
+      </c>
+      <c r="C222" t="s">
+        <v>48</v>
+      </c>
+      <c r="E222" t="s">
+        <v>25</v>
+      </c>
+      <c r="H222" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A223" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B223" t="s">
+        <v>20</v>
+      </c>
+      <c r="C223" t="s">
+        <v>46</v>
+      </c>
+      <c r="E223" t="s">
+        <v>17</v>
+      </c>
+      <c r="H223" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A224" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B224" t="s">
+        <v>24</v>
+      </c>
+      <c r="C224" t="s">
+        <v>28</v>
+      </c>
+      <c r="E224" t="s">
+        <v>55</v>
+      </c>
+      <c r="H224" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A225" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B225" t="s">
+        <v>24</v>
+      </c>
+      <c r="C225" t="s">
+        <v>62</v>
+      </c>
+      <c r="E225" t="s">
+        <v>51</v>
+      </c>
+      <c r="H225" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A226" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B226" t="s">
+        <v>24</v>
+      </c>
+      <c r="C226" t="s">
+        <v>26</v>
+      </c>
+      <c r="E226" t="s">
+        <v>29</v>
+      </c>
+      <c r="H226" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A227" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B227" t="s">
+        <v>24</v>
+      </c>
+      <c r="C227" t="s">
+        <v>44</v>
+      </c>
+      <c r="E227" t="s">
+        <v>57</v>
+      </c>
+      <c r="H227" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A228" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B228" t="s">
+        <v>31</v>
+      </c>
+      <c r="C228" t="s">
+        <v>14</v>
+      </c>
+      <c r="E228" t="s">
+        <v>82</v>
+      </c>
+      <c r="H228" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A229" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B229" t="s">
+        <v>31</v>
+      </c>
+      <c r="C229" t="s">
+        <v>41</v>
+      </c>
+      <c r="E229" t="s">
+        <v>58</v>
+      </c>
+      <c r="H229" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A230" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B230" t="s">
+        <v>31</v>
+      </c>
+      <c r="C230" t="s">
+        <v>21</v>
+      </c>
+      <c r="E230" t="s">
+        <v>33</v>
+      </c>
+      <c r="H230" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A231" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B231" t="s">
+        <v>35</v>
+      </c>
+      <c r="C231" t="s">
+        <v>13</v>
+      </c>
+      <c r="E231" t="s">
+        <v>37</v>
+      </c>
+      <c r="H231" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A232" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B232" t="s">
+        <v>24</v>
+      </c>
+      <c r="C232" t="s">
+        <v>18</v>
+      </c>
+      <c r="E232" t="s">
+        <v>42</v>
+      </c>
+      <c r="H232" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A233" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B233" t="s">
+        <v>68</v>
+      </c>
+      <c r="C233" t="s">
+        <v>22</v>
+      </c>
+      <c r="E233" t="s">
+        <v>49</v>
+      </c>
+      <c r="H233" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A234" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B234" t="s">
+        <v>71</v>
+      </c>
+      <c r="C234" t="s">
+        <v>36</v>
+      </c>
+      <c r="E234" t="s">
+        <v>58</v>
+      </c>
+      <c r="H234" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A235" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B235" t="s">
+        <v>124</v>
+      </c>
+      <c r="C235" t="s">
+        <v>41</v>
+      </c>
+      <c r="E235" t="s">
+        <v>17</v>
+      </c>
+      <c r="H235" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A236" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B236" t="s">
+        <v>61</v>
+      </c>
+      <c r="C236" t="s">
+        <v>37</v>
+      </c>
+      <c r="E236" t="s">
+        <v>28</v>
+      </c>
+      <c r="H236" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A237" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B237" t="s">
+        <v>125</v>
+      </c>
+      <c r="C237" t="s">
+        <v>69</v>
+      </c>
+      <c r="E237" t="s">
+        <v>32</v>
+      </c>
+      <c r="H237" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A238" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B238" t="s">
+        <v>63</v>
+      </c>
+      <c r="C238" t="s">
+        <v>46</v>
+      </c>
+      <c r="E238" t="s">
+        <v>44</v>
+      </c>
+      <c r="H238" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A239" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B239" t="s">
+        <v>12</v>
+      </c>
+      <c r="C239" t="s">
+        <v>18</v>
+      </c>
+      <c r="E239" t="s">
+        <v>25</v>
+      </c>
+      <c r="H239" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A240" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B240" t="s">
+        <v>12</v>
+      </c>
+      <c r="C240" t="s">
+        <v>21</v>
+      </c>
+      <c r="E240" t="s">
+        <v>82</v>
+      </c>
+      <c r="H240" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A241" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B241" t="s">
+        <v>12</v>
+      </c>
+      <c r="C241" t="s">
+        <v>57</v>
+      </c>
+      <c r="E241" t="s">
+        <v>55</v>
+      </c>
+      <c r="H241" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A242" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B242" t="s">
+        <v>12</v>
+      </c>
+      <c r="C242" t="s">
+        <v>52</v>
+      </c>
+      <c r="E242" t="s">
+        <v>29</v>
+      </c>
+      <c r="H242" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A243" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B243" t="s">
+        <v>24</v>
+      </c>
+      <c r="C243" t="s">
+        <v>13</v>
+      </c>
+      <c r="E243" t="s">
+        <v>54</v>
+      </c>
+      <c r="H243" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A244" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B244" t="s">
+        <v>71</v>
+      </c>
+      <c r="C244" t="s">
+        <v>14</v>
+      </c>
+      <c r="E244" t="s">
+        <v>33</v>
+      </c>
+      <c r="H244" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A245" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B245" t="s">
+        <v>80</v>
+      </c>
+      <c r="C245" t="s">
+        <v>72</v>
+      </c>
+      <c r="E245" t="s">
+        <v>62</v>
+      </c>
+      <c r="H245" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A246" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B246" t="s">
+        <v>12</v>
+      </c>
+      <c r="C246" t="s">
+        <v>48</v>
+      </c>
+      <c r="E246" t="s">
+        <v>32</v>
+      </c>
+      <c r="H246" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A247" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B247" t="s">
+        <v>20</v>
+      </c>
+      <c r="C247" t="s">
+        <v>42</v>
+      </c>
+      <c r="E247" t="s">
+        <v>49</v>
+      </c>
+      <c r="H247" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A248" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B248" t="s">
+        <v>24</v>
+      </c>
+      <c r="C248" t="s">
+        <v>36</v>
+      </c>
+      <c r="E248" t="s">
+        <v>51</v>
+      </c>
+      <c r="H248" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A249" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B249" t="s">
+        <v>31</v>
+      </c>
+      <c r="C249" t="s">
+        <v>26</v>
+      </c>
+      <c r="E249" t="s">
+        <v>72</v>
+      </c>
+      <c r="H249" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A250" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B250" t="s">
+        <v>12</v>
+      </c>
+      <c r="C250" t="s">
+        <v>69</v>
+      </c>
+      <c r="E250" t="s">
+        <v>46</v>
+      </c>
+      <c r="H250" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A251" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B251" t="s">
+        <v>12</v>
+      </c>
+      <c r="C251" t="s">
+        <v>36</v>
+      </c>
+      <c r="E251" t="s">
+        <v>18</v>
+      </c>
+      <c r="H251" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A252" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B252" t="s">
+        <v>12</v>
+      </c>
+      <c r="C252" t="s">
+        <v>82</v>
+      </c>
+      <c r="E252" t="s">
+        <v>44</v>
+      </c>
+      <c r="H252" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A253" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B253" t="s">
+        <v>20</v>
+      </c>
+      <c r="C253" t="s">
+        <v>54</v>
+      </c>
+      <c r="E253" t="s">
+        <v>25</v>
+      </c>
+      <c r="H253" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A254" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B254" t="s">
+        <v>20</v>
+      </c>
+      <c r="C254" t="s">
+        <v>17</v>
+      </c>
+      <c r="E254" t="s">
+        <v>22</v>
+      </c>
+      <c r="H254" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A255" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B255" t="s">
+        <v>20</v>
+      </c>
+      <c r="C255" t="s">
+        <v>13</v>
+      </c>
+      <c r="E255" t="s">
+        <v>58</v>
+      </c>
+      <c r="H255" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A256" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B256" t="s">
+        <v>20</v>
+      </c>
+      <c r="C256" t="s">
+        <v>29</v>
+      </c>
+      <c r="E256" t="s">
+        <v>49</v>
+      </c>
+      <c r="H256" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A257" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B257" t="s">
+        <v>24</v>
+      </c>
+      <c r="C257" t="s">
+        <v>42</v>
+      </c>
+      <c r="E257" t="s">
+        <v>52</v>
+      </c>
+      <c r="H257" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A258" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B258" t="s">
+        <v>24</v>
+      </c>
+      <c r="C258" t="s">
+        <v>14</v>
+      </c>
+      <c r="E258" t="s">
+        <v>41</v>
+      </c>
+      <c r="H258" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A259" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B259" t="s">
+        <v>31</v>
+      </c>
+      <c r="C259" t="s">
+        <v>55</v>
+      </c>
+      <c r="E259" t="s">
+        <v>57</v>
+      </c>
+      <c r="H259" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A260" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B260" t="s">
+        <v>31</v>
+      </c>
+      <c r="C260" t="s">
+        <v>26</v>
+      </c>
+      <c r="E260" t="s">
+        <v>33</v>
+      </c>
+      <c r="H260" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A261" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B261" t="s">
+        <v>12</v>
+      </c>
+      <c r="C261" t="s">
+        <v>29</v>
+      </c>
+      <c r="E261" t="s">
+        <v>32</v>
+      </c>
+      <c r="H261" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A262" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B262" t="s">
+        <v>20</v>
+      </c>
+      <c r="C262" t="s">
+        <v>51</v>
+      </c>
+      <c r="E262" t="s">
+        <v>58</v>
+      </c>
+      <c r="H262" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A263" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B263" t="s">
+        <v>20</v>
+      </c>
+      <c r="C263" t="s">
+        <v>69</v>
+      </c>
+      <c r="E263" t="s">
+        <v>48</v>
+      </c>
+      <c r="H263" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A264" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B264" t="s">
+        <v>24</v>
+      </c>
+      <c r="C264" t="s">
+        <v>46</v>
+      </c>
+      <c r="E264" t="s">
+        <v>52</v>
+      </c>
+      <c r="H264" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A265" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B265" t="s">
+        <v>71</v>
+      </c>
+      <c r="C265" t="s">
+        <v>72</v>
+      </c>
+      <c r="E265" t="s">
+        <v>21</v>
+      </c>
+      <c r="H265" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A266" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B266" t="s">
+        <v>31</v>
+      </c>
+      <c r="C266" t="s">
+        <v>37</v>
+      </c>
+      <c r="E266" t="s">
+        <v>62</v>
+      </c>
+      <c r="H266" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A267" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B267" t="s">
+        <v>12</v>
+      </c>
+      <c r="C267" t="s">
+        <v>41</v>
+      </c>
+      <c r="E267" t="s">
+        <v>14</v>
+      </c>
+      <c r="H267" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A268" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B268" t="s">
+        <v>12</v>
+      </c>
+      <c r="C268" t="s">
+        <v>54</v>
+      </c>
+      <c r="E268" t="s">
+        <v>18</v>
+      </c>
+      <c r="H268" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A269" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B269" t="s">
+        <v>20</v>
+      </c>
+      <c r="C269" t="s">
+        <v>25</v>
+      </c>
+      <c r="E269" t="s">
+        <v>36</v>
+      </c>
+      <c r="H269" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A270" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B270" t="s">
+        <v>20</v>
+      </c>
+      <c r="C270" t="s">
+        <v>82</v>
+      </c>
+      <c r="E270" t="s">
+        <v>49</v>
+      </c>
+      <c r="H270" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A271" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B271" t="s">
+        <v>68</v>
+      </c>
+      <c r="C271" t="s">
+        <v>57</v>
+      </c>
+      <c r="E271" t="s">
+        <v>13</v>
+      </c>
+      <c r="H271" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A272" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B272" t="s">
+        <v>71</v>
+      </c>
+      <c r="C272" t="s">
+        <v>55</v>
+      </c>
+      <c r="E272" t="s">
+        <v>28</v>
+      </c>
+      <c r="H272" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A273" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B273" t="s">
+        <v>31</v>
+      </c>
+      <c r="C273" t="s">
+        <v>26</v>
+      </c>
+      <c r="E273" t="s">
+        <v>21</v>
+      </c>
+      <c r="H273" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A274" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B274" t="s">
+        <v>35</v>
+      </c>
+      <c r="C274" t="s">
+        <v>44</v>
+      </c>
+      <c r="E274" t="s">
+        <v>37</v>
+      </c>
+      <c r="H274" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -6657,10 +9951,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3316D165-A907-40EA-B4D3-B42CCCB2BD8A}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6733,7 +10027,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="10">
-        <f t="shared" ref="D3:D14" si="0">IFERROR(B3/SUM(B3:C3),"")</f>
+        <f t="shared" ref="D3:D37" si="0">IFERROR(B3/SUM(B3:C3),"")</f>
         <v>0.625</v>
       </c>
       <c r="E3" s="14">
@@ -7045,30 +10339,698 @@
       </c>
       <c r="B14" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A14)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C14" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A14)</f>
+        <v>7</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="E14" s="14">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A14, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="F14" s="14">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A14, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v>14.428571428571429</v>
+      </c>
+      <c r="G14" s="8" cm="1">
+        <f t="array" ref="G14">SUM(($B$2:B14)/SUM($B$2:C14))</f>
+        <v>0.40404040404040409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A15)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="10" t="str">
+      <c r="C15" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A15)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E14" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A14, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+      <c r="E15" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A15, Sheet1!$L$2:$L$100, "Yes"),"")</f>
         <v/>
       </c>
-      <c r="F14" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A14, Sheet1!$L$2:$L$100, "No"),"")</f>
+      <c r="F15" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A15, Sheet1!$L$2:$L$100, "No"),"")</f>
         <v/>
       </c>
-      <c r="G14" s="8">
+      <c r="G15" s="8" cm="1">
+        <f t="array" ref="G15">SUM(($B$2:B15)/SUM($B$2:C15))</f>
+        <v>0.40404040404040409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A16)</f>
         <v>0</v>
       </c>
+      <c r="C16" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A16)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E16" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A16, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F16" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A16, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G16" s="8" cm="1">
+        <f t="array" ref="G16">SUM(($B$2:B16)/SUM($B$2:C16))</f>
+        <v>0.40404040404040409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A17)</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A17)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E17" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A17, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F17" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A17, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G17" s="8" cm="1">
+        <f t="array" ref="G17">SUM(($B$2:B17)/SUM($B$2:C17))</f>
+        <v>0.40404040404040409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A18)</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A18)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E18" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A18, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F18" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A18, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G18" s="8" cm="1">
+        <f t="array" ref="G18">SUM(($B$2:B18)/SUM($B$2:C18))</f>
+        <v>0.40404040404040409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A19)</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A19)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E19" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A19, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F19" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A19, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G19" s="8" cm="1">
+        <f t="array" ref="G19">SUM(($B$2:B19)/SUM($B$2:C19))</f>
+        <v>0.40404040404040409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E20" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A20, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F20" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A20, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G20" s="8" cm="1">
+        <f t="array" ref="G20">SUM(($B$2:B20)/SUM($B$2:C20))</f>
+        <v>0.40404040404040409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E21" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A21, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F21" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A21, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G21" s="8" cm="1">
+        <f t="array" ref="G21">SUM(($B$2:B21)/SUM($B$2:C21))</f>
+        <v>0.40404040404040409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E22" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A22, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F22" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A22, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G22" s="8" cm="1">
+        <f t="array" ref="G22">SUM(($B$2:B22)/SUM($B$2:C22))</f>
+        <v>0.40404040404040409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E23" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A23, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F23" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A23, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G23" s="8" cm="1">
+        <f t="array" ref="G23">SUM(($B$2:B23)/SUM($B$2:C23))</f>
+        <v>0.40404040404040409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E24" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A24, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F24" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A24, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G24" s="8" cm="1">
+        <f t="array" ref="G24">SUM(($B$2:B24)/SUM($B$2:C24))</f>
+        <v>0.40404040404040409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E25" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A25, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F25" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A25, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G25" s="8" cm="1">
+        <f t="array" ref="G25">SUM(($B$2:B25)/SUM($B$2:C25))</f>
+        <v>0.40404040404040409</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E26" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A26, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F26" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A26, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G26" s="8" cm="1">
+        <f t="array" ref="G26">SUM(($B$2:B26)/SUM($B$2:C26))</f>
+        <v>0.40404040404040409</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E27" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A27, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F27" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A27, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G27" s="8" cm="1">
+        <f t="array" ref="G27">SUM(($B$2:B27)/SUM($B$2:C27))</f>
+        <v>0.40404040404040409</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E28" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A28, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F28" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A28, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G28" s="8" cm="1">
+        <f t="array" ref="G28">SUM(($B$2:B28)/SUM($B$2:C28))</f>
+        <v>0.40404040404040409</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E29" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A29, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F29" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A29, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G29" s="8" cm="1">
+        <f t="array" ref="G29">SUM(($B$2:B29)/SUM($B$2:C29))</f>
+        <v>0.40404040404040409</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E30" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A30, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F30" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A30, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G30" s="8" cm="1">
+        <f t="array" ref="G30">SUM(($B$2:B30)/SUM($B$2:C30))</f>
+        <v>0.40404040404040409</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E31" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A31, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F31" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A31, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G31" s="8" cm="1">
+        <f t="array" ref="G31">SUM(($B$2:B31)/SUM($B$2:C31))</f>
+        <v>0.40404040404040409</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E32" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A32, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F32" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A32, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G32" s="8" cm="1">
+        <f t="array" ref="G32">SUM(($B$2:B32)/SUM($B$2:C32))</f>
+        <v>0.40404040404040409</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E33" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A33, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F33" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A33, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G33" s="8" cm="1">
+        <f t="array" ref="G33">SUM(($B$2:B33)/SUM($B$2:C33))</f>
+        <v>0.40404040404040409</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E34" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A34, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F34" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A34, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G34" s="8" cm="1">
+        <f t="array" ref="G34">SUM(($B$2:B34)/SUM($B$2:C34))</f>
+        <v>0.40404040404040409</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E35" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A35, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F35" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A35, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G35" s="8" cm="1">
+        <f t="array" ref="G35">SUM(($B$2:B35)/SUM($B$2:C35))</f>
+        <v>0.40404040404040409</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E36" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A36, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F36" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A36, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G36" s="8" cm="1">
+        <f t="array" ref="G36">SUM(($B$2:B36)/SUM($B$2:C36))</f>
+        <v>0.40404040404040409</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E37" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A37, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F37" s="14" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A37, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G37" s="8" cm="1">
+        <f t="array" ref="G37">SUM(($B$2:B37)/SUM($B$2:C37))</f>
+        <v>0.40404040404040409</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D14">
+  <conditionalFormatting sqref="D2:D37">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -7080,7 +11042,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:G14">
+  <conditionalFormatting sqref="F2:G37">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -7092,7 +11054,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G13">
+  <conditionalFormatting sqref="G2:G37">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEE7717-8087-4DA4-95E9-06C0347A552A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4F3D29-EC7F-4DD7-B5BD-2763B270E3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="131">
   <si>
     <t>Date</t>
   </si>
@@ -2766,9 +2766,7 @@
   </sheetPr>
   <dimension ref="A1:M274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5595,7 +5593,7 @@
         <v>97</v>
       </c>
       <c r="M67" s="7">
-        <f t="shared" ref="M67:M100" si="1">ABS(D67-F67)</f>
+        <f t="shared" ref="M67:M104" si="1">ABS(D67-F67)</f>
         <v>1</v>
       </c>
     </row>
@@ -6995,11 +6993,36 @@
       <c r="C101" t="s">
         <v>37</v>
       </c>
+      <c r="D101" s="7">
+        <v>114</v>
+      </c>
       <c r="E101" t="s">
         <v>22</v>
       </c>
+      <c r="F101" s="7">
+        <v>105</v>
+      </c>
+      <c r="G101" t="s">
+        <v>15</v>
+      </c>
       <c r="H101" t="s">
         <v>23</v>
+      </c>
+      <c r="I101" t="s">
+        <v>37</v>
+      </c>
+      <c r="J101" t="s">
+        <v>22</v>
+      </c>
+      <c r="K101" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L101" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M101" s="7">
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.45">
@@ -7012,11 +7035,36 @@
       <c r="C102" t="s">
         <v>32</v>
       </c>
+      <c r="D102" s="7">
+        <v>105</v>
+      </c>
       <c r="E102" t="s">
         <v>49</v>
       </c>
+      <c r="F102" s="7">
+        <v>109</v>
+      </c>
+      <c r="G102" t="s">
+        <v>15</v>
+      </c>
       <c r="H102" t="s">
         <v>50</v>
+      </c>
+      <c r="I102" t="s">
+        <v>49</v>
+      </c>
+      <c r="J102" t="s">
+        <v>32</v>
+      </c>
+      <c r="K102" t="s">
+        <v>32</v>
+      </c>
+      <c r="L102" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M102" s="7">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.45">
@@ -7029,15 +7077,40 @@
       <c r="C103" t="s">
         <v>46</v>
       </c>
+      <c r="D103" s="7">
+        <v>108</v>
+      </c>
       <c r="E103" t="s">
         <v>51</v>
       </c>
+      <c r="F103" s="7">
+        <v>101</v>
+      </c>
+      <c r="G103" t="s">
+        <v>15</v>
+      </c>
       <c r="H103" t="s">
         <v>86</v>
       </c>
+      <c r="I103" t="s">
+        <v>46</v>
+      </c>
+      <c r="J103" t="s">
+        <v>51</v>
+      </c>
+      <c r="K103" t="s">
+        <v>51</v>
+      </c>
+      <c r="L103" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M103" s="7">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="15" t="s">
         <v>104</v>
       </c>
       <c r="B104" t="s">
@@ -7046,11 +7119,36 @@
       <c r="C104" t="s">
         <v>17</v>
       </c>
+      <c r="D104" s="7">
+        <v>127</v>
+      </c>
       <c r="E104" t="s">
         <v>54</v>
       </c>
+      <c r="F104" s="7">
+        <v>124</v>
+      </c>
+      <c r="G104" t="s">
+        <v>15</v>
+      </c>
       <c r="H104" t="s">
         <v>130</v>
+      </c>
+      <c r="I104" t="s">
+        <v>17</v>
+      </c>
+      <c r="J104" t="s">
+        <v>54</v>
+      </c>
+      <c r="K104" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L104" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M104" s="7">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.45">
@@ -9954,7 +10052,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10002,11 +10100,11 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="E2" s="14">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A2, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A2, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>9</v>
       </c>
       <c r="F2" s="14">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A2, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A2, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>7.8</v>
       </c>
       <c r="G2" s="8" cm="1">
@@ -10031,11 +10129,11 @@
         <v>0.625</v>
       </c>
       <c r="E3" s="14">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A3, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A3, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>14</v>
       </c>
       <c r="F3" s="14">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A3, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A3, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>10</v>
       </c>
       <c r="G3" s="8" cm="1">
@@ -10060,11 +10158,11 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E4" s="14">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A4, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A4, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>8</v>
       </c>
       <c r="F4" s="14">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A4, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A4, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>15.5</v>
       </c>
       <c r="G4" s="8" cm="1">
@@ -10089,11 +10187,11 @@
         <v>0.375</v>
       </c>
       <c r="E5" s="14">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A5, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A5, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>13</v>
       </c>
       <c r="F5" s="14">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A5, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A5, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>8.8000000000000007</v>
       </c>
       <c r="G5" s="8" cm="1">
@@ -10118,11 +10216,11 @@
         <v>0.2</v>
       </c>
       <c r="E6" s="14">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A6, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A6, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>5</v>
       </c>
       <c r="F6" s="14">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A6, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A6, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>19.25</v>
       </c>
       <c r="G6" s="8" cm="1">
@@ -10147,11 +10245,11 @@
         <v>0.375</v>
       </c>
       <c r="E7" s="14">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A7, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A7, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>8.3333333333333339</v>
       </c>
       <c r="F7" s="14">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A7, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A7, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>17.8</v>
       </c>
       <c r="G7" s="8" cm="1">
@@ -10176,11 +10274,11 @@
         <v>0.42857142857142855</v>
       </c>
       <c r="E8" s="14">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A8, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A8, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>21.666666666666668</v>
       </c>
       <c r="F8" s="14">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A8, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A8, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>11.25</v>
       </c>
       <c r="G8" s="8" cm="1">
@@ -10205,11 +10303,11 @@
         <v>0.5</v>
       </c>
       <c r="E9" s="14">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A9, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A9, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>7.75</v>
       </c>
       <c r="F9" s="14">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A9, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A9, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>20.75</v>
       </c>
       <c r="G9" s="8" cm="1">
@@ -10234,11 +10332,11 @@
         <v>0.4</v>
       </c>
       <c r="E10" s="14">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A10, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A10, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>5.75</v>
       </c>
       <c r="F10" s="14">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A10, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A10, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>12.833333333333334</v>
       </c>
       <c r="G10" s="8" cm="1">
@@ -10263,11 +10361,11 @@
         <v>0.6</v>
       </c>
       <c r="E11" s="14">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A11, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A11, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>10.666666666666666</v>
       </c>
       <c r="F11" s="14">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A11, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A11, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>7</v>
       </c>
       <c r="G11" s="8" cm="1">
@@ -10292,11 +10390,11 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E12" s="14">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A12, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A12, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>11</v>
       </c>
       <c r="F12" s="14">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A12, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A12, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>13.625</v>
       </c>
       <c r="G12" s="8" cm="1">
@@ -10321,11 +10419,11 @@
         <v>0.6</v>
       </c>
       <c r="E13" s="14">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A13, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A13, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>13</v>
       </c>
       <c r="F13" s="14">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A13, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A13, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>10</v>
       </c>
       <c r="G13" s="8" cm="1">
@@ -10350,11 +10448,11 @@
         <v>0.3</v>
       </c>
       <c r="E14" s="14">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A14, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A14, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>5.666666666666667</v>
       </c>
       <c r="F14" s="14">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A14, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A14, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>14.428571428571429</v>
       </c>
       <c r="G14" s="8" cm="1">
@@ -10368,27 +10466,27 @@
       </c>
       <c r="B15" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A15)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A15)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="10" t="str">
+        <v>2</v>
+      </c>
+      <c r="D15" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E15" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A15, Sheet1!$L$2:$L$100, "Yes"),"")</f>
-        <v/>
-      </c>
-      <c r="F15" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A15, Sheet1!$L$2:$L$100, "No"),"")</f>
-        <v/>
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="14">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A15, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+        <v>6</v>
+      </c>
+      <c r="F15" s="14">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A15, Sheet1!$L$2:$L$500, "No"),"")</f>
+        <v>5.5</v>
       </c>
       <c r="G15" s="8" cm="1">
         <f t="array" ref="G15">SUM(($B$2:B15)/SUM($B$2:C15))</f>
-        <v>0.40404040404040409</v>
+        <v>0.40776699029126201</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -10408,16 +10506,16 @@
         <v/>
       </c>
       <c r="E16" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A16, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A16, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v/>
       </c>
       <c r="F16" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A16, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A16, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
       <c r="G16" s="8" cm="1">
         <f t="array" ref="G16">SUM(($B$2:B16)/SUM($B$2:C16))</f>
-        <v>0.40404040404040409</v>
+        <v>0.40776699029126201</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -10437,16 +10535,16 @@
         <v/>
       </c>
       <c r="E17" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A17, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A17, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v/>
       </c>
       <c r="F17" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A17, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A17, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
       <c r="G17" s="8" cm="1">
         <f t="array" ref="G17">SUM(($B$2:B17)/SUM($B$2:C17))</f>
-        <v>0.40404040404040409</v>
+        <v>0.40776699029126201</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
@@ -10466,16 +10564,16 @@
         <v/>
       </c>
       <c r="E18" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A18, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A18, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v/>
       </c>
       <c r="F18" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A18, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A18, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
       <c r="G18" s="8" cm="1">
         <f t="array" ref="G18">SUM(($B$2:B18)/SUM($B$2:C18))</f>
-        <v>0.40404040404040409</v>
+        <v>0.40776699029126201</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -10495,16 +10593,16 @@
         <v/>
       </c>
       <c r="E19" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A19, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A19, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v/>
       </c>
       <c r="F19" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A19, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A19, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
       <c r="G19" s="8" cm="1">
         <f t="array" ref="G19">SUM(($B$2:B19)/SUM($B$2:C19))</f>
-        <v>0.40404040404040409</v>
+        <v>0.40776699029126201</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -10524,16 +10622,16 @@
         <v/>
       </c>
       <c r="E20" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A20, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A20, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v/>
       </c>
       <c r="F20" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A20, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A20, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
       <c r="G20" s="8" cm="1">
         <f t="array" ref="G20">SUM(($B$2:B20)/SUM($B$2:C20))</f>
-        <v>0.40404040404040409</v>
+        <v>0.40776699029126201</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -10553,16 +10651,16 @@
         <v/>
       </c>
       <c r="E21" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A21, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A21, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v/>
       </c>
       <c r="F21" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A21, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A21, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
       <c r="G21" s="8" cm="1">
         <f t="array" ref="G21">SUM(($B$2:B21)/SUM($B$2:C21))</f>
-        <v>0.40404040404040409</v>
+        <v>0.40776699029126201</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -10582,16 +10680,16 @@
         <v/>
       </c>
       <c r="E22" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A22, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A22, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v/>
       </c>
       <c r="F22" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A22, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A22, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
       <c r="G22" s="8" cm="1">
         <f t="array" ref="G22">SUM(($B$2:B22)/SUM($B$2:C22))</f>
-        <v>0.40404040404040409</v>
+        <v>0.40776699029126201</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -10611,16 +10709,16 @@
         <v/>
       </c>
       <c r="E23" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A23, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A23, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v/>
       </c>
       <c r="F23" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A23, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A23, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
       <c r="G23" s="8" cm="1">
         <f t="array" ref="G23">SUM(($B$2:B23)/SUM($B$2:C23))</f>
-        <v>0.40404040404040409</v>
+        <v>0.40776699029126201</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -10640,16 +10738,16 @@
         <v/>
       </c>
       <c r="E24" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A24, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A24, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v/>
       </c>
       <c r="F24" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A24, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A24, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
       <c r="G24" s="8" cm="1">
         <f t="array" ref="G24">SUM(($B$2:B24)/SUM($B$2:C24))</f>
-        <v>0.40404040404040409</v>
+        <v>0.40776699029126201</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -10669,16 +10767,16 @@
         <v/>
       </c>
       <c r="E25" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A25, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A25, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v/>
       </c>
       <c r="F25" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A25, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A25, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
       <c r="G25" s="8" cm="1">
         <f t="array" ref="G25">SUM(($B$2:B25)/SUM($B$2:C25))</f>
-        <v>0.40404040404040409</v>
+        <v>0.40776699029126201</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -10698,16 +10796,16 @@
         <v/>
       </c>
       <c r="E26" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A26, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A26, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v/>
       </c>
       <c r="F26" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A26, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A26, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
       <c r="G26" s="8" cm="1">
         <f t="array" ref="G26">SUM(($B$2:B26)/SUM($B$2:C26))</f>
-        <v>0.40404040404040409</v>
+        <v>0.40776699029126201</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -10727,16 +10825,16 @@
         <v/>
       </c>
       <c r="E27" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A27, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A27, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v/>
       </c>
       <c r="F27" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A27, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A27, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
       <c r="G27" s="8" cm="1">
         <f t="array" ref="G27">SUM(($B$2:B27)/SUM($B$2:C27))</f>
-        <v>0.40404040404040409</v>
+        <v>0.40776699029126201</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -10756,16 +10854,16 @@
         <v/>
       </c>
       <c r="E28" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A28, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A28, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v/>
       </c>
       <c r="F28" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A28, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A28, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
       <c r="G28" s="8" cm="1">
         <f t="array" ref="G28">SUM(($B$2:B28)/SUM($B$2:C28))</f>
-        <v>0.40404040404040409</v>
+        <v>0.40776699029126201</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -10785,16 +10883,16 @@
         <v/>
       </c>
       <c r="E29" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A29, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A29, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v/>
       </c>
       <c r="F29" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A29, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A29, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
       <c r="G29" s="8" cm="1">
         <f t="array" ref="G29">SUM(($B$2:B29)/SUM($B$2:C29))</f>
-        <v>0.40404040404040409</v>
+        <v>0.40776699029126201</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -10814,16 +10912,16 @@
         <v/>
       </c>
       <c r="E30" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A30, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A30, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v/>
       </c>
       <c r="F30" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A30, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A30, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
       <c r="G30" s="8" cm="1">
         <f t="array" ref="G30">SUM(($B$2:B30)/SUM($B$2:C30))</f>
-        <v>0.40404040404040409</v>
+        <v>0.40776699029126201</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -10843,16 +10941,16 @@
         <v/>
       </c>
       <c r="E31" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A31, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A31, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v/>
       </c>
       <c r="F31" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A31, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A31, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
       <c r="G31" s="8" cm="1">
         <f t="array" ref="G31">SUM(($B$2:B31)/SUM($B$2:C31))</f>
-        <v>0.40404040404040409</v>
+        <v>0.40776699029126201</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
@@ -10872,16 +10970,16 @@
         <v/>
       </c>
       <c r="E32" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A32, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A32, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v/>
       </c>
       <c r="F32" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A32, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A32, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
       <c r="G32" s="8" cm="1">
         <f t="array" ref="G32">SUM(($B$2:B32)/SUM($B$2:C32))</f>
-        <v>0.40404040404040409</v>
+        <v>0.40776699029126201</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -10901,16 +10999,16 @@
         <v/>
       </c>
       <c r="E33" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A33, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A33, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v/>
       </c>
       <c r="F33" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A33, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A33, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
       <c r="G33" s="8" cm="1">
         <f t="array" ref="G33">SUM(($B$2:B33)/SUM($B$2:C33))</f>
-        <v>0.40404040404040409</v>
+        <v>0.40776699029126201</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -10930,16 +11028,16 @@
         <v/>
       </c>
       <c r="E34" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A34, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A34, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v/>
       </c>
       <c r="F34" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A34, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A34, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
       <c r="G34" s="8" cm="1">
         <f t="array" ref="G34">SUM(($B$2:B34)/SUM($B$2:C34))</f>
-        <v>0.40404040404040409</v>
+        <v>0.40776699029126201</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -10959,16 +11057,16 @@
         <v/>
       </c>
       <c r="E35" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A35, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A35, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v/>
       </c>
       <c r="F35" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A35, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A35, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
       <c r="G35" s="8" cm="1">
         <f t="array" ref="G35">SUM(($B$2:B35)/SUM($B$2:C35))</f>
-        <v>0.40404040404040409</v>
+        <v>0.40776699029126201</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -10988,16 +11086,16 @@
         <v/>
       </c>
       <c r="E36" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A36, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A36, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v/>
       </c>
       <c r="F36" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A36, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A36, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
       <c r="G36" s="8" cm="1">
         <f t="array" ref="G36">SUM(($B$2:B36)/SUM($B$2:C36))</f>
-        <v>0.40404040404040409</v>
+        <v>0.40776699029126201</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -11017,16 +11115,16 @@
         <v/>
       </c>
       <c r="E37" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A37, Sheet1!$L$2:$L$100, "Yes"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A37, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v/>
       </c>
       <c r="F37" s="14" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$100, Sheet1!$A$2:$A$100, A37, Sheet1!$L$2:$L$100, "No"),"")</f>
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A37, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
       <c r="G37" s="8" cm="1">
         <f t="array" ref="G37">SUM(($B$2:B37)/SUM($B$2:C37))</f>
-        <v>0.40404040404040409</v>
+        <v>0.40776699029126201</v>
       </c>
     </row>
   </sheetData>

--- a/future.xlsx
+++ b/future.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4F3D29-EC7F-4DD7-B5BD-2763B270E3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E27EDF5-1446-458A-BA3C-04B8ED98A699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="131">
   <si>
     <t>Date</t>
   </si>
@@ -5593,7 +5593,7 @@
         <v>97</v>
       </c>
       <c r="M67" s="7">
-        <f t="shared" ref="M67:M104" si="1">ABS(D67-F67)</f>
+        <f t="shared" ref="M67:M114" si="1">ABS(D67-F67)</f>
         <v>1</v>
       </c>
     </row>
@@ -7161,11 +7161,36 @@
       <c r="C105" t="s">
         <v>62</v>
       </c>
+      <c r="D105" s="7">
+        <v>136</v>
+      </c>
       <c r="E105" t="s">
         <v>42</v>
       </c>
+      <c r="F105" s="7">
+        <v>125</v>
+      </c>
+      <c r="G105" t="s">
+        <v>15</v>
+      </c>
       <c r="H105" t="s">
         <v>43</v>
+      </c>
+      <c r="I105" t="s">
+        <v>62</v>
+      </c>
+      <c r="J105" t="s">
+        <v>42</v>
+      </c>
+      <c r="K105" t="s">
+        <v>42</v>
+      </c>
+      <c r="L105" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M105" s="7">
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.45">
@@ -7178,11 +7203,36 @@
       <c r="C106" t="s">
         <v>26</v>
       </c>
+      <c r="D106" s="7">
+        <v>110</v>
+      </c>
       <c r="E106" t="s">
         <v>44</v>
       </c>
+      <c r="F106" s="7">
+        <v>102</v>
+      </c>
+      <c r="G106" t="s">
+        <v>15</v>
+      </c>
       <c r="H106" t="s">
         <v>45</v>
+      </c>
+      <c r="I106" t="s">
+        <v>26</v>
+      </c>
+      <c r="J106" t="s">
+        <v>44</v>
+      </c>
+      <c r="K106" t="s">
+        <v>44</v>
+      </c>
+      <c r="L106" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M106" s="7">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.45">
@@ -7195,11 +7245,36 @@
       <c r="C107" t="s">
         <v>28</v>
       </c>
+      <c r="D107" s="7">
+        <v>120</v>
+      </c>
       <c r="E107" t="s">
         <v>25</v>
       </c>
+      <c r="F107" s="7">
+        <v>129</v>
+      </c>
+      <c r="G107" t="s">
+        <v>15</v>
+      </c>
       <c r="H107" t="s">
         <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>25</v>
+      </c>
+      <c r="J107" t="s">
+        <v>28</v>
+      </c>
+      <c r="K107" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L107" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M107" s="7">
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.45">
@@ -7212,11 +7287,36 @@
       <c r="C108" t="s">
         <v>72</v>
       </c>
+      <c r="D108" s="7">
+        <v>133</v>
+      </c>
       <c r="E108" t="s">
         <v>32</v>
       </c>
+      <c r="F108" s="7">
+        <v>122</v>
+      </c>
+      <c r="G108" t="s">
+        <v>15</v>
+      </c>
       <c r="H108" t="s">
         <v>75</v>
+      </c>
+      <c r="I108" t="s">
+        <v>72</v>
+      </c>
+      <c r="J108" t="s">
+        <v>32</v>
+      </c>
+      <c r="K108" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L108" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M108" s="7">
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.45">
@@ -7229,11 +7329,36 @@
       <c r="C109" t="s">
         <v>48</v>
       </c>
+      <c r="D109" s="7">
+        <v>106</v>
+      </c>
       <c r="E109" t="s">
         <v>55</v>
       </c>
+      <c r="F109" s="7">
+        <v>135</v>
+      </c>
+      <c r="G109" t="s">
+        <v>15</v>
+      </c>
       <c r="H109" t="s">
         <v>56</v>
+      </c>
+      <c r="I109" t="s">
+        <v>55</v>
+      </c>
+      <c r="J109" t="s">
+        <v>48</v>
+      </c>
+      <c r="K109" t="s">
+        <v>48</v>
+      </c>
+      <c r="L109" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M109" s="7">
+        <f t="shared" si="1"/>
+        <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.45">
@@ -7246,11 +7371,36 @@
       <c r="C110" t="s">
         <v>82</v>
       </c>
+      <c r="D110" s="7">
+        <v>121</v>
+      </c>
       <c r="E110" t="s">
         <v>51</v>
       </c>
+      <c r="F110" s="7">
+        <v>101</v>
+      </c>
+      <c r="G110" t="s">
+        <v>15</v>
+      </c>
       <c r="H110" t="s">
         <v>86</v>
+      </c>
+      <c r="I110" t="s">
+        <v>82</v>
+      </c>
+      <c r="J110" t="s">
+        <v>51</v>
+      </c>
+      <c r="K110" t="s">
+        <v>51</v>
+      </c>
+      <c r="L110" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M110" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.45">
@@ -7263,11 +7413,36 @@
       <c r="C111" t="s">
         <v>18</v>
       </c>
+      <c r="D111" s="7">
+        <v>108</v>
+      </c>
       <c r="E111" t="s">
         <v>58</v>
       </c>
+      <c r="F111" s="7">
+        <v>106</v>
+      </c>
+      <c r="G111" t="s">
+        <v>15</v>
+      </c>
       <c r="H111" t="s">
         <v>59</v>
+      </c>
+      <c r="I111" t="s">
+        <v>18</v>
+      </c>
+      <c r="J111" t="s">
+        <v>58</v>
+      </c>
+      <c r="K111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L111" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M111" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.45">
@@ -7280,14 +7455,39 @@
       <c r="C112" t="s">
         <v>14</v>
       </c>
+      <c r="D112" s="7">
+        <v>106</v>
+      </c>
       <c r="E112" t="s">
         <v>57</v>
       </c>
+      <c r="F112" s="7">
+        <v>126</v>
+      </c>
+      <c r="G112" t="s">
+        <v>15</v>
+      </c>
       <c r="H112" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I112" t="s">
+        <v>57</v>
+      </c>
+      <c r="J112" t="s">
+        <v>14</v>
+      </c>
+      <c r="K112" t="s">
+        <v>14</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M112" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
         <v>105</v>
       </c>
@@ -7297,14 +7497,39 @@
       <c r="C113" t="s">
         <v>29</v>
       </c>
+      <c r="D113" s="7">
+        <v>114</v>
+      </c>
       <c r="E113" t="s">
         <v>13</v>
       </c>
+      <c r="F113" s="7">
+        <v>113</v>
+      </c>
+      <c r="G113" t="s">
+        <v>15</v>
+      </c>
       <c r="H113" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I113" t="s">
+        <v>29</v>
+      </c>
+      <c r="J113" t="s">
+        <v>13</v>
+      </c>
+      <c r="K113" t="s">
+        <v>13</v>
+      </c>
+      <c r="L113" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M113" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
         <v>105</v>
       </c>
@@ -7314,14 +7539,39 @@
       <c r="C114" t="s">
         <v>33</v>
       </c>
+      <c r="D114" s="7">
+        <v>108</v>
+      </c>
       <c r="E114" t="s">
         <v>21</v>
       </c>
+      <c r="F114" s="7">
+        <v>120</v>
+      </c>
+      <c r="G114" t="s">
+        <v>15</v>
+      </c>
       <c r="H114" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I114" t="s">
+        <v>21</v>
+      </c>
+      <c r="J114" t="s">
+        <v>33</v>
+      </c>
+      <c r="K114" t="s">
+        <v>33</v>
+      </c>
+      <c r="L114" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M114" s="7">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
         <v>106</v>
       </c>
@@ -7338,7 +7588,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
         <v>106</v>
       </c>
@@ -7355,7 +7605,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="s">
         <v>106</v>
       </c>
@@ -7372,7 +7622,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
         <v>106</v>
       </c>
@@ -7389,7 +7639,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A119" s="3" t="s">
         <v>106</v>
       </c>
@@ -7406,7 +7656,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
         <v>106</v>
       </c>
@@ -7423,7 +7673,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A121" s="3" t="s">
         <v>107</v>
       </c>
@@ -7440,7 +7690,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
         <v>107</v>
       </c>
@@ -7457,7 +7707,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
         <v>107</v>
       </c>
@@ -7474,7 +7724,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
         <v>107</v>
       </c>
@@ -7491,7 +7741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="s">
         <v>107</v>
       </c>
@@ -7508,7 +7758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
         <v>107</v>
       </c>
@@ -7525,7 +7775,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A127" s="3" t="s">
         <v>107</v>
       </c>
@@ -7542,7 +7792,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
         <v>107</v>
       </c>
@@ -10495,27 +10745,27 @@
       </c>
       <c r="B16" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A16)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A16)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="10" t="str">
+        <v>7</v>
+      </c>
+      <c r="D16" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E16" s="14" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="E16" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A16, Sheet1!$L$2:$L$500, "Yes"),"")</f>
-        <v/>
-      </c>
-      <c r="F16" s="14" t="str">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="F16" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A16, Sheet1!$L$2:$L$500, "No"),"")</f>
-        <v/>
+        <v>14.428571428571429</v>
       </c>
       <c r="G16" s="8" cm="1">
         <f t="array" ref="G16">SUM(($B$2:B16)/SUM($B$2:C16))</f>
-        <v>0.40776699029126201</v>
+        <v>0.39823008849557512</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -10544,7 +10794,7 @@
       </c>
       <c r="G17" s="8" cm="1">
         <f t="array" ref="G17">SUM(($B$2:B17)/SUM($B$2:C17))</f>
-        <v>0.40776699029126201</v>
+        <v>0.39823008849557512</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
@@ -10573,7 +10823,7 @@
       </c>
       <c r="G18" s="8" cm="1">
         <f t="array" ref="G18">SUM(($B$2:B18)/SUM($B$2:C18))</f>
-        <v>0.40776699029126201</v>
+        <v>0.39823008849557512</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -10602,7 +10852,7 @@
       </c>
       <c r="G19" s="8" cm="1">
         <f t="array" ref="G19">SUM(($B$2:B19)/SUM($B$2:C19))</f>
-        <v>0.40776699029126201</v>
+        <v>0.39823008849557512</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -10631,7 +10881,7 @@
       </c>
       <c r="G20" s="8" cm="1">
         <f t="array" ref="G20">SUM(($B$2:B20)/SUM($B$2:C20))</f>
-        <v>0.40776699029126201</v>
+        <v>0.39823008849557512</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -10660,7 +10910,7 @@
       </c>
       <c r="G21" s="8" cm="1">
         <f t="array" ref="G21">SUM(($B$2:B21)/SUM($B$2:C21))</f>
-        <v>0.40776699029126201</v>
+        <v>0.39823008849557512</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -10689,7 +10939,7 @@
       </c>
       <c r="G22" s="8" cm="1">
         <f t="array" ref="G22">SUM(($B$2:B22)/SUM($B$2:C22))</f>
-        <v>0.40776699029126201</v>
+        <v>0.39823008849557512</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -10718,7 +10968,7 @@
       </c>
       <c r="G23" s="8" cm="1">
         <f t="array" ref="G23">SUM(($B$2:B23)/SUM($B$2:C23))</f>
-        <v>0.40776699029126201</v>
+        <v>0.39823008849557512</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -10747,7 +10997,7 @@
       </c>
       <c r="G24" s="8" cm="1">
         <f t="array" ref="G24">SUM(($B$2:B24)/SUM($B$2:C24))</f>
-        <v>0.40776699029126201</v>
+        <v>0.39823008849557512</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -10776,7 +11026,7 @@
       </c>
       <c r="G25" s="8" cm="1">
         <f t="array" ref="G25">SUM(($B$2:B25)/SUM($B$2:C25))</f>
-        <v>0.40776699029126201</v>
+        <v>0.39823008849557512</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -10805,7 +11055,7 @@
       </c>
       <c r="G26" s="8" cm="1">
         <f t="array" ref="G26">SUM(($B$2:B26)/SUM($B$2:C26))</f>
-        <v>0.40776699029126201</v>
+        <v>0.39823008849557512</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -10834,7 +11084,7 @@
       </c>
       <c r="G27" s="8" cm="1">
         <f t="array" ref="G27">SUM(($B$2:B27)/SUM($B$2:C27))</f>
-        <v>0.40776699029126201</v>
+        <v>0.39823008849557512</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -10863,7 +11113,7 @@
       </c>
       <c r="G28" s="8" cm="1">
         <f t="array" ref="G28">SUM(($B$2:B28)/SUM($B$2:C28))</f>
-        <v>0.40776699029126201</v>
+        <v>0.39823008849557512</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -10892,7 +11142,7 @@
       </c>
       <c r="G29" s="8" cm="1">
         <f t="array" ref="G29">SUM(($B$2:B29)/SUM($B$2:C29))</f>
-        <v>0.40776699029126201</v>
+        <v>0.39823008849557512</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -10921,7 +11171,7 @@
       </c>
       <c r="G30" s="8" cm="1">
         <f t="array" ref="G30">SUM(($B$2:B30)/SUM($B$2:C30))</f>
-        <v>0.40776699029126201</v>
+        <v>0.39823008849557512</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -10950,7 +11200,7 @@
       </c>
       <c r="G31" s="8" cm="1">
         <f t="array" ref="G31">SUM(($B$2:B31)/SUM($B$2:C31))</f>
-        <v>0.40776699029126201</v>
+        <v>0.39823008849557512</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
@@ -10979,7 +11229,7 @@
       </c>
       <c r="G32" s="8" cm="1">
         <f t="array" ref="G32">SUM(($B$2:B32)/SUM($B$2:C32))</f>
-        <v>0.40776699029126201</v>
+        <v>0.39823008849557512</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -11008,7 +11258,7 @@
       </c>
       <c r="G33" s="8" cm="1">
         <f t="array" ref="G33">SUM(($B$2:B33)/SUM($B$2:C33))</f>
-        <v>0.40776699029126201</v>
+        <v>0.39823008849557512</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -11037,7 +11287,7 @@
       </c>
       <c r="G34" s="8" cm="1">
         <f t="array" ref="G34">SUM(($B$2:B34)/SUM($B$2:C34))</f>
-        <v>0.40776699029126201</v>
+        <v>0.39823008849557512</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -11066,7 +11316,7 @@
       </c>
       <c r="G35" s="8" cm="1">
         <f t="array" ref="G35">SUM(($B$2:B35)/SUM($B$2:C35))</f>
-        <v>0.40776699029126201</v>
+        <v>0.39823008849557512</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -11095,7 +11345,7 @@
       </c>
       <c r="G36" s="8" cm="1">
         <f t="array" ref="G36">SUM(($B$2:B36)/SUM($B$2:C36))</f>
-        <v>0.40776699029126201</v>
+        <v>0.39823008849557512</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -11124,7 +11374,7 @@
       </c>
       <c r="G37" s="8" cm="1">
         <f t="array" ref="G37">SUM(($B$2:B37)/SUM($B$2:C37))</f>
-        <v>0.40776699029126201</v>
+        <v>0.39823008849557512</v>
       </c>
     </row>
   </sheetData>

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E27EDF5-1446-458A-BA3C-04B8ED98A699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DB51DA-8EC4-4F84-AA08-F1A50B0B4D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="131">
   <si>
     <t>Date</t>
   </si>
@@ -678,9 +678,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$14</c:f>
+              <c:f>Sheet2!$A$2:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -720,15 +720,24 @@
                 <c:pt idx="12">
                   <c:v>Wed, Jan 31, 2024</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>Thu, Feb 1, 2024</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Fri, Feb 2, 2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sat, Feb 3, 2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$14</c:f>
+              <c:f>Sheet2!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.2857142857142857</c:v>
                 </c:pt>
@@ -767,6 +776,15 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1047,11 +1065,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$14</c:f>
+              <c:f>Sheet2!$A$2:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -1091,15 +1123,24 @@
                 <c:pt idx="12">
                   <c:v>Wed, Jan 31, 2024</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>Thu, Feb 1, 2024</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Fri, Feb 2, 2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sat, Feb 3, 2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$F$2:$F$14</c:f>
+              <c:f>Sheet2!$F$2:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>7.8</c:v>
                 </c:pt>
@@ -1138,6 +1179,15 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>14.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1313,6 +1363,395 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Cumulative Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cumulative</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="lt1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Fri, Jan 19, 2024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sat, Jan 20, 2024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sun, Jan 21, 2024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mon, Jan 22, 2024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tue, Jan 23, 2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Wed, Jan 24, 2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Thu, Jan 25, 2024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Fri, Jan 26, 2024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sat, Jan 27, 2024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sun, Jan 28, 2024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Mon, Jan 29, 2024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Tue, Jan 30, 2024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Wed, Jan 31, 2024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Thu, Feb 1, 2024</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Fri, Feb 2, 2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sat, Feb 3, 2024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$2:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41379310344827586</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38235294117647062</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38095238095238093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38775510204081637</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40350877192982454</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.40298507462686567</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.40476190476190471</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41573033707865159</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.40404040404040409</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40776699029126201</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.39823008849557512</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.40336134453781519</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DD74-486F-9CEC-2D4388B10C6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="269"/>
+        <c:overlap val="-20"/>
+        <c:axId val="902003055"/>
+        <c:axId val="737304447"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="902003055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737304447"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="737304447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="902003055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1354,6 +1793,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2399,6 +2878,542 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="214">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="150" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2468,6 +3483,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{367BE097-1FEB-46E8-9BB8-A4E62786B638}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2766,7 +3819,9 @@
   </sheetPr>
   <dimension ref="A1:M274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="J131" sqref="J131"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5593,7 +6648,7 @@
         <v>97</v>
       </c>
       <c r="M67" s="7">
-        <f t="shared" ref="M67:M114" si="1">ABS(D67-F67)</f>
+        <f t="shared" ref="M67:M120" si="1">ABS(D67-F67)</f>
         <v>1</v>
       </c>
     </row>
@@ -7581,11 +8636,36 @@
       <c r="C115" t="s">
         <v>36</v>
       </c>
+      <c r="D115" s="7">
+        <v>136</v>
+      </c>
       <c r="E115" t="s">
         <v>17</v>
       </c>
+      <c r="F115" s="7">
+        <v>121</v>
+      </c>
+      <c r="G115" t="s">
+        <v>15</v>
+      </c>
       <c r="H115" t="s">
         <v>66</v>
+      </c>
+      <c r="I115" t="s">
+        <v>36</v>
+      </c>
+      <c r="J115" t="s">
+        <v>17</v>
+      </c>
+      <c r="K115" t="s">
+        <v>17</v>
+      </c>
+      <c r="L115" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M115" s="7">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.45">
@@ -7598,11 +8678,36 @@
       <c r="C116" t="s">
         <v>82</v>
       </c>
+      <c r="D116" s="7">
+        <v>134</v>
+      </c>
       <c r="E116" t="s">
         <v>25</v>
       </c>
+      <c r="F116" s="7">
+        <v>141</v>
+      </c>
+      <c r="G116" t="s">
+        <v>97</v>
+      </c>
       <c r="H116" t="s">
         <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>25</v>
+      </c>
+      <c r="J116" t="s">
+        <v>82</v>
+      </c>
+      <c r="K116" t="s">
+        <v>82</v>
+      </c>
+      <c r="L116" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M116" s="7">
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.45">
@@ -7615,11 +8720,36 @@
       <c r="C117" t="s">
         <v>72</v>
       </c>
+      <c r="D117" s="7">
+        <v>123</v>
+      </c>
       <c r="E117" t="s">
         <v>52</v>
       </c>
+      <c r="F117" s="7">
+        <v>115</v>
+      </c>
+      <c r="G117" t="s">
+        <v>15</v>
+      </c>
       <c r="H117" t="s">
         <v>53</v>
+      </c>
+      <c r="I117" t="s">
+        <v>72</v>
+      </c>
+      <c r="J117" t="s">
+        <v>52</v>
+      </c>
+      <c r="K117" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L117" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M117" s="7">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.45">
@@ -7632,11 +8762,36 @@
       <c r="C118" t="s">
         <v>41</v>
       </c>
+      <c r="D118" s="7">
+        <v>129</v>
+      </c>
       <c r="E118" t="s">
         <v>69</v>
       </c>
+      <c r="F118" s="7">
+        <v>117</v>
+      </c>
+      <c r="G118" t="s">
+        <v>15</v>
+      </c>
       <c r="H118" t="s">
         <v>70</v>
+      </c>
+      <c r="I118" t="s">
+        <v>41</v>
+      </c>
+      <c r="J118" t="s">
+        <v>69</v>
+      </c>
+      <c r="K118" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L118" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M118" s="7">
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.45">
@@ -7649,11 +8804,36 @@
       <c r="C119" t="s">
         <v>37</v>
       </c>
+      <c r="D119" s="7">
+        <v>113</v>
+      </c>
       <c r="E119" t="s">
         <v>49</v>
       </c>
+      <c r="F119" s="7">
+        <v>105</v>
+      </c>
+      <c r="G119" t="s">
+        <v>15</v>
+      </c>
       <c r="H119" t="s">
         <v>50</v>
+      </c>
+      <c r="I119" t="s">
+        <v>37</v>
+      </c>
+      <c r="J119" t="s">
+        <v>49</v>
+      </c>
+      <c r="K119" t="s">
+        <v>49</v>
+      </c>
+      <c r="L119" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M119" s="7">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.45">
@@ -7666,11 +8846,36 @@
       <c r="C120" t="s">
         <v>46</v>
       </c>
+      <c r="D120" s="7">
+        <v>117</v>
+      </c>
       <c r="E120" t="s">
         <v>13</v>
       </c>
+      <c r="F120" s="7">
+        <v>101</v>
+      </c>
+      <c r="G120" t="s">
+        <v>15</v>
+      </c>
       <c r="H120" t="s">
         <v>81</v>
+      </c>
+      <c r="I120" t="s">
+        <v>46</v>
+      </c>
+      <c r="J120" t="s">
+        <v>13</v>
+      </c>
+      <c r="K120" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L120" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M120" s="7">
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.45">
@@ -10302,7 +11507,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10774,27 +11979,27 @@
       </c>
       <c r="B17" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A17)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A17)</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="10" t="str">
+        <v>3</v>
+      </c>
+      <c r="D17" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E17" s="14" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A17, Sheet1!$L$2:$L$500, "Yes"),"")</f>
-        <v/>
-      </c>
-      <c r="F17" s="14" t="str">
+        <v>12</v>
+      </c>
+      <c r="F17" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A17, Sheet1!$L$2:$L$500, "No"),"")</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="G17" s="8" cm="1">
         <f t="array" ref="G17">SUM(($B$2:B17)/SUM($B$2:C17))</f>
-        <v>0.39823008849557512</v>
+        <v>0.40336134453781519</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
@@ -10823,7 +12028,7 @@
       </c>
       <c r="G18" s="8" cm="1">
         <f t="array" ref="G18">SUM(($B$2:B18)/SUM($B$2:C18))</f>
-        <v>0.39823008849557512</v>
+        <v>0.40336134453781519</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -10852,7 +12057,7 @@
       </c>
       <c r="G19" s="8" cm="1">
         <f t="array" ref="G19">SUM(($B$2:B19)/SUM($B$2:C19))</f>
-        <v>0.39823008849557512</v>
+        <v>0.40336134453781519</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -10881,7 +12086,7 @@
       </c>
       <c r="G20" s="8" cm="1">
         <f t="array" ref="G20">SUM(($B$2:B20)/SUM($B$2:C20))</f>
-        <v>0.39823008849557512</v>
+        <v>0.40336134453781519</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -10910,7 +12115,7 @@
       </c>
       <c r="G21" s="8" cm="1">
         <f t="array" ref="G21">SUM(($B$2:B21)/SUM($B$2:C21))</f>
-        <v>0.39823008849557512</v>
+        <v>0.40336134453781519</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -10939,7 +12144,7 @@
       </c>
       <c r="G22" s="8" cm="1">
         <f t="array" ref="G22">SUM(($B$2:B22)/SUM($B$2:C22))</f>
-        <v>0.39823008849557512</v>
+        <v>0.40336134453781519</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -10968,7 +12173,7 @@
       </c>
       <c r="G23" s="8" cm="1">
         <f t="array" ref="G23">SUM(($B$2:B23)/SUM($B$2:C23))</f>
-        <v>0.39823008849557512</v>
+        <v>0.40336134453781519</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -10997,7 +12202,7 @@
       </c>
       <c r="G24" s="8" cm="1">
         <f t="array" ref="G24">SUM(($B$2:B24)/SUM($B$2:C24))</f>
-        <v>0.39823008849557512</v>
+        <v>0.40336134453781519</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -11026,7 +12231,7 @@
       </c>
       <c r="G25" s="8" cm="1">
         <f t="array" ref="G25">SUM(($B$2:B25)/SUM($B$2:C25))</f>
-        <v>0.39823008849557512</v>
+        <v>0.40336134453781519</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -11055,7 +12260,7 @@
       </c>
       <c r="G26" s="8" cm="1">
         <f t="array" ref="G26">SUM(($B$2:B26)/SUM($B$2:C26))</f>
-        <v>0.39823008849557512</v>
+        <v>0.40336134453781519</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -11084,7 +12289,7 @@
       </c>
       <c r="G27" s="8" cm="1">
         <f t="array" ref="G27">SUM(($B$2:B27)/SUM($B$2:C27))</f>
-        <v>0.39823008849557512</v>
+        <v>0.40336134453781519</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -11113,7 +12318,7 @@
       </c>
       <c r="G28" s="8" cm="1">
         <f t="array" ref="G28">SUM(($B$2:B28)/SUM($B$2:C28))</f>
-        <v>0.39823008849557512</v>
+        <v>0.40336134453781519</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -11142,7 +12347,7 @@
       </c>
       <c r="G29" s="8" cm="1">
         <f t="array" ref="G29">SUM(($B$2:B29)/SUM($B$2:C29))</f>
-        <v>0.39823008849557512</v>
+        <v>0.40336134453781519</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -11171,7 +12376,7 @@
       </c>
       <c r="G30" s="8" cm="1">
         <f t="array" ref="G30">SUM(($B$2:B30)/SUM($B$2:C30))</f>
-        <v>0.39823008849557512</v>
+        <v>0.40336134453781519</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -11200,7 +12405,7 @@
       </c>
       <c r="G31" s="8" cm="1">
         <f t="array" ref="G31">SUM(($B$2:B31)/SUM($B$2:C31))</f>
-        <v>0.39823008849557512</v>
+        <v>0.40336134453781519</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
@@ -11229,7 +12434,7 @@
       </c>
       <c r="G32" s="8" cm="1">
         <f t="array" ref="G32">SUM(($B$2:B32)/SUM($B$2:C32))</f>
-        <v>0.39823008849557512</v>
+        <v>0.40336134453781519</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -11258,7 +12463,7 @@
       </c>
       <c r="G33" s="8" cm="1">
         <f t="array" ref="G33">SUM(($B$2:B33)/SUM($B$2:C33))</f>
-        <v>0.39823008849557512</v>
+        <v>0.40336134453781519</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -11287,7 +12492,7 @@
       </c>
       <c r="G34" s="8" cm="1">
         <f t="array" ref="G34">SUM(($B$2:B34)/SUM($B$2:C34))</f>
-        <v>0.39823008849557512</v>
+        <v>0.40336134453781519</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -11316,7 +12521,7 @@
       </c>
       <c r="G35" s="8" cm="1">
         <f t="array" ref="G35">SUM(($B$2:B35)/SUM($B$2:C35))</f>
-        <v>0.39823008849557512</v>
+        <v>0.40336134453781519</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -11345,7 +12550,7 @@
       </c>
       <c r="G36" s="8" cm="1">
         <f t="array" ref="G36">SUM(($B$2:B36)/SUM($B$2:C36))</f>
-        <v>0.39823008849557512</v>
+        <v>0.40336134453781519</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -11374,7 +12579,7 @@
       </c>
       <c r="G37" s="8" cm="1">
         <f t="array" ref="G37">SUM(($B$2:B37)/SUM($B$2:C37))</f>
-        <v>0.39823008849557512</v>
+        <v>0.40336134453781519</v>
       </c>
     </row>
   </sheetData>

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DB51DA-8EC4-4F84-AA08-F1A50B0B4D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B07D614-9FA4-49A9-AA5B-9D17324E9CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="131">
   <si>
     <t>Date</t>
   </si>
@@ -678,9 +678,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$17</c:f>
+              <c:f>Sheet2!$A$2:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -729,15 +729,18 @@
                 <c:pt idx="15">
                   <c:v>Sat, Feb 3, 2024</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sun, Feb 4, 2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$17</c:f>
+              <c:f>Sheet2!$D$2:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.2857142857142857</c:v>
                 </c:pt>
@@ -785,6 +788,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.88888888888888884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1081,9 +1087,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$17</c:f>
+              <c:f>Sheet2!$A$2:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -1132,15 +1138,18 @@
                 <c:pt idx="15">
                   <c:v>Sat, Feb 3, 2024</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sun, Feb 4, 2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$F$2:$F$17</c:f>
+              <c:f>Sheet2!$F$2:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>7.8</c:v>
                 </c:pt>
@@ -1188,6 +1197,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1480,9 +1492,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$17</c:f>
+              <c:f>Sheet2!$A$2:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -1531,15 +1543,18 @@
                 <c:pt idx="15">
                   <c:v>Sat, Feb 3, 2024</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sun, Feb 4, 2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$G$2:$G$17</c:f>
+              <c:f>Sheet2!$G$2:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.2857142857142857</c:v>
                 </c:pt>
@@ -1587,6 +1602,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.40336134453781519</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.4375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3819,9 +3837,7 @@
   </sheetPr>
   <dimension ref="A1:M274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="J131" sqref="J131"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6648,7 +6664,7 @@
         <v>97</v>
       </c>
       <c r="M67" s="7">
-        <f t="shared" ref="M67:M120" si="1">ABS(D67-F67)</f>
+        <f t="shared" ref="M67:M129" si="1">ABS(D67-F67)</f>
         <v>1</v>
       </c>
     </row>
@@ -8888,11 +8904,36 @@
       <c r="C121" t="s">
         <v>18</v>
       </c>
+      <c r="D121" s="7">
+        <v>111</v>
+      </c>
       <c r="E121" t="s">
         <v>42</v>
       </c>
+      <c r="F121" s="7">
+        <v>99</v>
+      </c>
+      <c r="G121" t="s">
+        <v>15</v>
+      </c>
       <c r="H121" t="s">
         <v>43</v>
+      </c>
+      <c r="I121" t="s">
+        <v>18</v>
+      </c>
+      <c r="J121" t="s">
+        <v>42</v>
+      </c>
+      <c r="K121" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L121" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M121" s="7">
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.45">
@@ -8905,11 +8946,36 @@
       <c r="C122" t="s">
         <v>28</v>
       </c>
+      <c r="D122" s="7">
+        <v>140</v>
+      </c>
       <c r="E122" t="s">
         <v>44</v>
       </c>
+      <c r="F122" s="7">
+        <v>112</v>
+      </c>
+      <c r="G122" t="s">
+        <v>15</v>
+      </c>
       <c r="H122" t="s">
         <v>45</v>
+      </c>
+      <c r="I122" t="s">
+        <v>28</v>
+      </c>
+      <c r="J122" t="s">
+        <v>44</v>
+      </c>
+      <c r="K122" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L122" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M122" s="7">
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.45">
@@ -8922,11 +8988,36 @@
       <c r="C123" t="s">
         <v>51</v>
       </c>
+      <c r="D123" s="7">
+        <v>91</v>
+      </c>
       <c r="E123" t="s">
         <v>22</v>
       </c>
+      <c r="F123" s="7">
+        <v>131</v>
+      </c>
+      <c r="G123" t="s">
+        <v>15</v>
+      </c>
       <c r="H123" t="s">
         <v>23</v>
+      </c>
+      <c r="I123" t="s">
+        <v>22</v>
+      </c>
+      <c r="J123" t="s">
+        <v>51</v>
+      </c>
+      <c r="K123" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L123" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M123" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.45">
@@ -8939,10 +9030,35 @@
       <c r="C124" t="s">
         <v>32</v>
       </c>
+      <c r="D124" s="7">
+        <v>115</v>
+      </c>
       <c r="E124" t="s">
         <v>14</v>
       </c>
+      <c r="F124" s="7">
+        <v>99</v>
+      </c>
+      <c r="G124" t="s">
+        <v>15</v>
+      </c>
       <c r="H124" t="s">
+        <v>16</v>
+      </c>
+      <c r="I124" t="s">
+        <v>32</v>
+      </c>
+      <c r="J124" t="s">
+        <v>14</v>
+      </c>
+      <c r="K124" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L124" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M124" s="7">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
@@ -8956,11 +9072,36 @@
       <c r="C125" t="s">
         <v>62</v>
       </c>
+      <c r="D125" s="7">
+        <v>103</v>
+      </c>
       <c r="E125" t="s">
         <v>26</v>
       </c>
+      <c r="F125" s="7">
+        <v>95</v>
+      </c>
+      <c r="G125" t="s">
+        <v>15</v>
+      </c>
       <c r="H125" t="s">
         <v>27</v>
+      </c>
+      <c r="I125" t="s">
+        <v>62</v>
+      </c>
+      <c r="J125" t="s">
+        <v>26</v>
+      </c>
+      <c r="K125" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L125" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M125" s="7">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.45">
@@ -8973,11 +9114,36 @@
       <c r="C126" t="s">
         <v>55</v>
       </c>
+      <c r="D126" s="7">
+        <v>90</v>
+      </c>
       <c r="E126" t="s">
         <v>58</v>
       </c>
+      <c r="F126" s="7">
+        <v>111</v>
+      </c>
+      <c r="G126" t="s">
+        <v>15</v>
+      </c>
       <c r="H126" t="s">
         <v>59</v>
+      </c>
+      <c r="I126" t="s">
+        <v>58</v>
+      </c>
+      <c r="J126" t="s">
+        <v>55</v>
+      </c>
+      <c r="K126" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L126" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M126" s="7">
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.45">
@@ -8990,11 +9156,36 @@
       <c r="C127" t="s">
         <v>48</v>
       </c>
+      <c r="D127" s="7">
+        <v>127</v>
+      </c>
       <c r="E127" t="s">
         <v>57</v>
       </c>
+      <c r="F127" s="7">
+        <v>135</v>
+      </c>
+      <c r="G127" t="s">
+        <v>15</v>
+      </c>
       <c r="H127" t="s">
         <v>77</v>
+      </c>
+      <c r="I127" t="s">
+        <v>57</v>
+      </c>
+      <c r="J127" t="s">
+        <v>48</v>
+      </c>
+      <c r="K127" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L127" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M127" s="7">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.45">
@@ -9007,14 +9198,39 @@
       <c r="C128" t="s">
         <v>41</v>
       </c>
+      <c r="D128" s="7">
+        <v>108</v>
+      </c>
       <c r="E128" t="s">
         <v>54</v>
       </c>
+      <c r="F128" s="7">
+        <v>123</v>
+      </c>
+      <c r="G128" t="s">
+        <v>15</v>
+      </c>
       <c r="H128" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I128" t="s">
+        <v>54</v>
+      </c>
+      <c r="J128" t="s">
+        <v>41</v>
+      </c>
+      <c r="K128" t="s">
+        <v>41</v>
+      </c>
+      <c r="L128" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M128" s="7">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A129" s="3" t="s">
         <v>107</v>
       </c>
@@ -9024,14 +9240,39 @@
       <c r="C129" t="s">
         <v>33</v>
       </c>
+      <c r="D129" s="7">
+        <v>103</v>
+      </c>
       <c r="E129" t="s">
         <v>21</v>
       </c>
+      <c r="F129" s="7">
+        <v>112</v>
+      </c>
+      <c r="G129" t="s">
+        <v>15</v>
+      </c>
       <c r="H129" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I129" t="s">
+        <v>21</v>
+      </c>
+      <c r="J129" t="s">
+        <v>33</v>
+      </c>
+      <c r="K129" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L129" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M129" s="7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
         <v>108</v>
       </c>
@@ -9048,7 +9289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A131" s="3" t="s">
         <v>108</v>
       </c>
@@ -9065,7 +9306,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
         <v>108</v>
       </c>
@@ -9082,7 +9323,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A133" s="3" t="s">
         <v>108</v>
       </c>
@@ -9099,7 +9340,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
         <v>108</v>
       </c>
@@ -9116,7 +9357,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A135" s="3" t="s">
         <v>108</v>
       </c>
@@ -9133,7 +9374,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
         <v>109</v>
       </c>
@@ -9150,7 +9391,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A137" s="3" t="s">
         <v>109</v>
       </c>
@@ -9167,7 +9408,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
         <v>109</v>
       </c>
@@ -9184,7 +9425,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A139" s="3" t="s">
         <v>109</v>
       </c>
@@ -9201,7 +9442,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="s">
         <v>109</v>
       </c>
@@ -9218,7 +9459,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A141" s="3" t="s">
         <v>109</v>
       </c>
@@ -9235,7 +9476,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
         <v>109</v>
       </c>
@@ -9252,7 +9493,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A143" s="3" t="s">
         <v>110</v>
       </c>
@@ -9269,7 +9510,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
         <v>110</v>
       </c>
@@ -11507,7 +11748,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12008,27 +12249,27 @@
       </c>
       <c r="B18" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A18)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C18" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A18)</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="10" t="str">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E18" s="14" t="str">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="E18" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A18, Sheet1!$L$2:$L$500, "Yes"),"")</f>
-        <v/>
-      </c>
-      <c r="F18" s="14" t="str">
+        <v>17.75</v>
+      </c>
+      <c r="F18" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A18, Sheet1!$L$2:$L$500, "No"),"")</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="G18" s="8" cm="1">
         <f t="array" ref="G18">SUM(($B$2:B18)/SUM($B$2:C18))</f>
-        <v>0.40336134453781519</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -12057,7 +12298,7 @@
       </c>
       <c r="G19" s="8" cm="1">
         <f t="array" ref="G19">SUM(($B$2:B19)/SUM($B$2:C19))</f>
-        <v>0.40336134453781519</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -12086,7 +12327,7 @@
       </c>
       <c r="G20" s="8" cm="1">
         <f t="array" ref="G20">SUM(($B$2:B20)/SUM($B$2:C20))</f>
-        <v>0.40336134453781519</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -12115,7 +12356,7 @@
       </c>
       <c r="G21" s="8" cm="1">
         <f t="array" ref="G21">SUM(($B$2:B21)/SUM($B$2:C21))</f>
-        <v>0.40336134453781519</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -12144,7 +12385,7 @@
       </c>
       <c r="G22" s="8" cm="1">
         <f t="array" ref="G22">SUM(($B$2:B22)/SUM($B$2:C22))</f>
-        <v>0.40336134453781519</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -12173,7 +12414,7 @@
       </c>
       <c r="G23" s="8" cm="1">
         <f t="array" ref="G23">SUM(($B$2:B23)/SUM($B$2:C23))</f>
-        <v>0.40336134453781519</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -12202,7 +12443,7 @@
       </c>
       <c r="G24" s="8" cm="1">
         <f t="array" ref="G24">SUM(($B$2:B24)/SUM($B$2:C24))</f>
-        <v>0.40336134453781519</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -12231,7 +12472,7 @@
       </c>
       <c r="G25" s="8" cm="1">
         <f t="array" ref="G25">SUM(($B$2:B25)/SUM($B$2:C25))</f>
-        <v>0.40336134453781519</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -12260,7 +12501,7 @@
       </c>
       <c r="G26" s="8" cm="1">
         <f t="array" ref="G26">SUM(($B$2:B26)/SUM($B$2:C26))</f>
-        <v>0.40336134453781519</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -12289,7 +12530,7 @@
       </c>
       <c r="G27" s="8" cm="1">
         <f t="array" ref="G27">SUM(($B$2:B27)/SUM($B$2:C27))</f>
-        <v>0.40336134453781519</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -12318,7 +12559,7 @@
       </c>
       <c r="G28" s="8" cm="1">
         <f t="array" ref="G28">SUM(($B$2:B28)/SUM($B$2:C28))</f>
-        <v>0.40336134453781519</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -12347,7 +12588,7 @@
       </c>
       <c r="G29" s="8" cm="1">
         <f t="array" ref="G29">SUM(($B$2:B29)/SUM($B$2:C29))</f>
-        <v>0.40336134453781519</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -12376,7 +12617,7 @@
       </c>
       <c r="G30" s="8" cm="1">
         <f t="array" ref="G30">SUM(($B$2:B30)/SUM($B$2:C30))</f>
-        <v>0.40336134453781519</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -12405,7 +12646,7 @@
       </c>
       <c r="G31" s="8" cm="1">
         <f t="array" ref="G31">SUM(($B$2:B31)/SUM($B$2:C31))</f>
-        <v>0.40336134453781519</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
@@ -12434,7 +12675,7 @@
       </c>
       <c r="G32" s="8" cm="1">
         <f t="array" ref="G32">SUM(($B$2:B32)/SUM($B$2:C32))</f>
-        <v>0.40336134453781519</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -12463,7 +12704,7 @@
       </c>
       <c r="G33" s="8" cm="1">
         <f t="array" ref="G33">SUM(($B$2:B33)/SUM($B$2:C33))</f>
-        <v>0.40336134453781519</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -12492,7 +12733,7 @@
       </c>
       <c r="G34" s="8" cm="1">
         <f t="array" ref="G34">SUM(($B$2:B34)/SUM($B$2:C34))</f>
-        <v>0.40336134453781519</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -12521,7 +12762,7 @@
       </c>
       <c r="G35" s="8" cm="1">
         <f t="array" ref="G35">SUM(($B$2:B35)/SUM($B$2:C35))</f>
-        <v>0.40336134453781519</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -12550,7 +12791,7 @@
       </c>
       <c r="G36" s="8" cm="1">
         <f t="array" ref="G36">SUM(($B$2:B36)/SUM($B$2:C36))</f>
-        <v>0.40336134453781519</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -12579,7 +12820,7 @@
       </c>
       <c r="G37" s="8" cm="1">
         <f t="array" ref="G37">SUM(($B$2:B37)/SUM($B$2:C37))</f>
-        <v>0.40336134453781519</v>
+        <v>0.4375</v>
       </c>
     </row>
   </sheetData>

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B07D614-9FA4-49A9-AA5B-9D17324E9CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1BDD81-C095-45F8-AD4C-24B944A8A18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="131">
   <si>
     <t>Date</t>
   </si>
@@ -678,9 +678,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$18</c:f>
+              <c:f>Sheet2!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -732,15 +732,18 @@
                 <c:pt idx="16">
                   <c:v>Sun, Feb 4, 2024</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>Mon, Feb 5, 2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$18</c:f>
+              <c:f>Sheet2!$D$2:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.2857142857142857</c:v>
                 </c:pt>
@@ -791,6 +794,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1087,9 +1093,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$18</c:f>
+              <c:f>Sheet2!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -1141,15 +1147,18 @@
                 <c:pt idx="16">
                   <c:v>Sun, Feb 4, 2024</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>Mon, Feb 5, 2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$F$2:$F$18</c:f>
+              <c:f>Sheet2!$F$2:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>7.8</c:v>
                 </c:pt>
@@ -1200,6 +1209,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1492,9 +1504,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$18</c:f>
+              <c:f>Sheet2!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -1546,15 +1558,18 @@
                 <c:pt idx="16">
                   <c:v>Sun, Feb 4, 2024</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>Mon, Feb 5, 2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$G$2:$G$18</c:f>
+              <c:f>Sheet2!$G$2:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.2857142857142857</c:v>
                 </c:pt>
@@ -1605,6 +1620,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.45522388059701496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6664,7 +6682,7 @@
         <v>97</v>
       </c>
       <c r="M67" s="7">
-        <f t="shared" ref="M67:M129" si="1">ABS(D67-F67)</f>
+        <f t="shared" ref="M67:M135" si="1">ABS(D67-F67)</f>
         <v>1</v>
       </c>
     </row>
@@ -9282,11 +9300,36 @@
       <c r="C130" t="s">
         <v>37</v>
       </c>
+      <c r="D130" s="7">
+        <v>124</v>
+      </c>
       <c r="E130" t="s">
         <v>14</v>
       </c>
+      <c r="F130" s="7">
+        <v>118</v>
+      </c>
+      <c r="G130" t="s">
+        <v>15</v>
+      </c>
       <c r="H130" t="s">
         <v>16</v>
+      </c>
+      <c r="I130" t="s">
+        <v>37</v>
+      </c>
+      <c r="J130" t="s">
+        <v>14</v>
+      </c>
+      <c r="K130" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L130" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M130" s="7">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.45">
@@ -9299,11 +9342,36 @@
       <c r="C131" t="s">
         <v>72</v>
       </c>
+      <c r="D131" s="7">
+        <v>110</v>
+      </c>
       <c r="E131" t="s">
         <v>46</v>
       </c>
+      <c r="F131" s="7">
+        <v>136</v>
+      </c>
+      <c r="G131" t="s">
+        <v>15</v>
+      </c>
       <c r="H131" t="s">
         <v>93</v>
+      </c>
+      <c r="I131" t="s">
+        <v>46</v>
+      </c>
+      <c r="J131" t="s">
+        <v>72</v>
+      </c>
+      <c r="K131" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L131" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M131" s="7">
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.45">
@@ -9316,11 +9384,36 @@
       <c r="C132" t="s">
         <v>69</v>
       </c>
+      <c r="D132" s="7">
+        <v>118</v>
+      </c>
       <c r="E132" t="s">
         <v>17</v>
       </c>
+      <c r="F132" s="7">
+        <v>102</v>
+      </c>
+      <c r="G132" t="s">
+        <v>15</v>
+      </c>
       <c r="H132" t="s">
         <v>66</v>
+      </c>
+      <c r="I132" t="s">
+        <v>69</v>
+      </c>
+      <c r="J132" t="s">
+        <v>17</v>
+      </c>
+      <c r="K132" t="s">
+        <v>17</v>
+      </c>
+      <c r="L132" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M132" s="7">
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.45">
@@ -9333,11 +9426,36 @@
       <c r="C133" t="s">
         <v>62</v>
       </c>
+      <c r="D133" s="7">
+        <v>149</v>
+      </c>
       <c r="E133" t="s">
         <v>25</v>
       </c>
+      <c r="F133" s="7">
+        <v>144</v>
+      </c>
+      <c r="G133" t="s">
+        <v>15</v>
+      </c>
       <c r="H133" t="s">
         <v>47</v>
+      </c>
+      <c r="I133" t="s">
+        <v>62</v>
+      </c>
+      <c r="J133" t="s">
+        <v>25</v>
+      </c>
+      <c r="K133" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L133" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M133" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.45">
@@ -9350,11 +9468,36 @@
       <c r="C134" t="s">
         <v>82</v>
       </c>
+      <c r="D134" s="7">
+        <v>109</v>
+      </c>
       <c r="E134" t="s">
         <v>36</v>
       </c>
+      <c r="F134" s="7">
+        <v>98</v>
+      </c>
+      <c r="G134" t="s">
+        <v>15</v>
+      </c>
       <c r="H134" t="s">
         <v>76</v>
+      </c>
+      <c r="I134" t="s">
+        <v>82</v>
+      </c>
+      <c r="J134" t="s">
+        <v>36</v>
+      </c>
+      <c r="K134" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="L134" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M134" s="7">
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.45">
@@ -9367,11 +9510,36 @@
       <c r="C135" t="s">
         <v>48</v>
       </c>
+      <c r="D135" s="7">
+        <v>100</v>
+      </c>
       <c r="E135" t="s">
         <v>29</v>
       </c>
+      <c r="F135" s="7">
+        <v>138</v>
+      </c>
+      <c r="G135" t="s">
+        <v>15</v>
+      </c>
       <c r="H135" t="s">
         <v>30</v>
+      </c>
+      <c r="I135" t="s">
+        <v>29</v>
+      </c>
+      <c r="J135" t="s">
+        <v>48</v>
+      </c>
+      <c r="K135" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L135" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M135" s="7">
+        <f t="shared" si="1"/>
+        <v>38</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.45">
@@ -11748,7 +11916,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12278,27 +12446,27 @@
       </c>
       <c r="B19" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A19)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C19" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A19)</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="10" t="str">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E19" s="14" t="str">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E19" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A19, Sheet1!$L$2:$L$500, "Yes"),"")</f>
-        <v/>
-      </c>
-      <c r="F19" s="14" t="str">
+        <v>17.2</v>
+      </c>
+      <c r="F19" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A19, Sheet1!$L$2:$L$500, "No"),"")</f>
-        <v/>
+        <v>16</v>
       </c>
       <c r="G19" s="8" cm="1">
         <f t="array" ref="G19">SUM(($B$2:B19)/SUM($B$2:C19))</f>
-        <v>0.4375</v>
+        <v>0.45522388059701496</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -12327,7 +12495,7 @@
       </c>
       <c r="G20" s="8" cm="1">
         <f t="array" ref="G20">SUM(($B$2:B20)/SUM($B$2:C20))</f>
-        <v>0.4375</v>
+        <v>0.45522388059701496</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -12356,7 +12524,7 @@
       </c>
       <c r="G21" s="8" cm="1">
         <f t="array" ref="G21">SUM(($B$2:B21)/SUM($B$2:C21))</f>
-        <v>0.4375</v>
+        <v>0.45522388059701496</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -12385,7 +12553,7 @@
       </c>
       <c r="G22" s="8" cm="1">
         <f t="array" ref="G22">SUM(($B$2:B22)/SUM($B$2:C22))</f>
-        <v>0.4375</v>
+        <v>0.45522388059701496</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -12414,7 +12582,7 @@
       </c>
       <c r="G23" s="8" cm="1">
         <f t="array" ref="G23">SUM(($B$2:B23)/SUM($B$2:C23))</f>
-        <v>0.4375</v>
+        <v>0.45522388059701496</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -12443,7 +12611,7 @@
       </c>
       <c r="G24" s="8" cm="1">
         <f t="array" ref="G24">SUM(($B$2:B24)/SUM($B$2:C24))</f>
-        <v>0.4375</v>
+        <v>0.45522388059701496</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -12472,7 +12640,7 @@
       </c>
       <c r="G25" s="8" cm="1">
         <f t="array" ref="G25">SUM(($B$2:B25)/SUM($B$2:C25))</f>
-        <v>0.4375</v>
+        <v>0.45522388059701496</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -12501,7 +12669,7 @@
       </c>
       <c r="G26" s="8" cm="1">
         <f t="array" ref="G26">SUM(($B$2:B26)/SUM($B$2:C26))</f>
-        <v>0.4375</v>
+        <v>0.45522388059701496</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -12530,7 +12698,7 @@
       </c>
       <c r="G27" s="8" cm="1">
         <f t="array" ref="G27">SUM(($B$2:B27)/SUM($B$2:C27))</f>
-        <v>0.4375</v>
+        <v>0.45522388059701496</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -12559,7 +12727,7 @@
       </c>
       <c r="G28" s="8" cm="1">
         <f t="array" ref="G28">SUM(($B$2:B28)/SUM($B$2:C28))</f>
-        <v>0.4375</v>
+        <v>0.45522388059701496</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -12588,7 +12756,7 @@
       </c>
       <c r="G29" s="8" cm="1">
         <f t="array" ref="G29">SUM(($B$2:B29)/SUM($B$2:C29))</f>
-        <v>0.4375</v>
+        <v>0.45522388059701496</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -12617,7 +12785,7 @@
       </c>
       <c r="G30" s="8" cm="1">
         <f t="array" ref="G30">SUM(($B$2:B30)/SUM($B$2:C30))</f>
-        <v>0.4375</v>
+        <v>0.45522388059701496</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -12646,7 +12814,7 @@
       </c>
       <c r="G31" s="8" cm="1">
         <f t="array" ref="G31">SUM(($B$2:B31)/SUM($B$2:C31))</f>
-        <v>0.4375</v>
+        <v>0.45522388059701496</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
@@ -12675,7 +12843,7 @@
       </c>
       <c r="G32" s="8" cm="1">
         <f t="array" ref="G32">SUM(($B$2:B32)/SUM($B$2:C32))</f>
-        <v>0.4375</v>
+        <v>0.45522388059701496</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -12704,7 +12872,7 @@
       </c>
       <c r="G33" s="8" cm="1">
         <f t="array" ref="G33">SUM(($B$2:B33)/SUM($B$2:C33))</f>
-        <v>0.4375</v>
+        <v>0.45522388059701496</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -12733,7 +12901,7 @@
       </c>
       <c r="G34" s="8" cm="1">
         <f t="array" ref="G34">SUM(($B$2:B34)/SUM($B$2:C34))</f>
-        <v>0.4375</v>
+        <v>0.45522388059701496</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -12762,7 +12930,7 @@
       </c>
       <c r="G35" s="8" cm="1">
         <f t="array" ref="G35">SUM(($B$2:B35)/SUM($B$2:C35))</f>
-        <v>0.4375</v>
+        <v>0.45522388059701496</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -12791,7 +12959,7 @@
       </c>
       <c r="G36" s="8" cm="1">
         <f t="array" ref="G36">SUM(($B$2:B36)/SUM($B$2:C36))</f>
-        <v>0.4375</v>
+        <v>0.45522388059701496</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -12820,7 +12988,7 @@
       </c>
       <c r="G37" s="8" cm="1">
         <f t="array" ref="G37">SUM(($B$2:B37)/SUM($B$2:C37))</f>
-        <v>0.4375</v>
+        <v>0.45522388059701496</v>
       </c>
     </row>
   </sheetData>

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1BDD81-C095-45F8-AD4C-24B944A8A18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E62FD3D-4207-423B-B7D0-0C1FAC13AE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="131">
   <si>
     <t>Date</t>
   </si>
@@ -678,9 +678,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$19</c:f>
+              <c:f>Sheet2!$A$2:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -735,15 +735,18 @@
                 <c:pt idx="17">
                   <c:v>Mon, Feb 5, 2024</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>Tue, Feb 6, 2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$19</c:f>
+              <c:f>Sheet2!$D$2:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0.2857142857142857</c:v>
                 </c:pt>
@@ -797,6 +800,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1093,9 +1099,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$19</c:f>
+              <c:f>Sheet2!$A$2:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -1150,15 +1156,18 @@
                 <c:pt idx="17">
                   <c:v>Mon, Feb 5, 2024</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>Tue, Feb 6, 2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$F$2:$F$19</c:f>
+              <c:f>Sheet2!$F$2:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>7.8</c:v>
                 </c:pt>
@@ -1212,6 +1221,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1504,9 +1516,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$19</c:f>
+              <c:f>Sheet2!$A$2:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -1561,15 +1573,18 @@
                 <c:pt idx="17">
                   <c:v>Mon, Feb 5, 2024</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>Tue, Feb 6, 2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$G$2:$G$19</c:f>
+              <c:f>Sheet2!$G$2:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0.2857142857142857</c:v>
                 </c:pt>
@@ -1623,6 +1638,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.45522388059701496</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.4468085106382978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3855,7 +3873,9 @@
   </sheetPr>
   <dimension ref="A1:M274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6682,7 +6702,7 @@
         <v>97</v>
       </c>
       <c r="M67" s="7">
-        <f t="shared" ref="M67:M135" si="1">ABS(D67-F67)</f>
+        <f t="shared" ref="M67:M142" si="1">ABS(D67-F67)</f>
         <v>1</v>
       </c>
     </row>
@@ -9552,11 +9572,36 @@
       <c r="C136" t="s">
         <v>55</v>
       </c>
+      <c r="D136" s="7">
+        <v>129</v>
+      </c>
       <c r="E136" t="s">
         <v>32</v>
       </c>
+      <c r="F136" s="7">
+        <v>132</v>
+      </c>
+      <c r="G136" t="s">
+        <v>15</v>
+      </c>
       <c r="H136" t="s">
         <v>75</v>
+      </c>
+      <c r="I136" t="s">
+        <v>32</v>
+      </c>
+      <c r="J136" t="s">
+        <v>55</v>
+      </c>
+      <c r="K136" t="s">
+        <v>55</v>
+      </c>
+      <c r="L136" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M136" s="7">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.45">
@@ -9569,11 +9614,36 @@
       <c r="C137" t="s">
         <v>69</v>
       </c>
+      <c r="D137" s="7">
+        <v>119</v>
+      </c>
       <c r="E137" t="s">
         <v>36</v>
       </c>
+      <c r="F137" s="7">
+        <v>107</v>
+      </c>
+      <c r="G137" t="s">
+        <v>15</v>
+      </c>
       <c r="H137" t="s">
         <v>76</v>
+      </c>
+      <c r="I137" t="s">
+        <v>69</v>
+      </c>
+      <c r="J137" t="s">
+        <v>36</v>
+      </c>
+      <c r="K137" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L137" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M137" s="7">
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.45">
@@ -9586,11 +9656,36 @@
       <c r="C138" t="s">
         <v>18</v>
       </c>
+      <c r="D138" s="7">
+        <v>95</v>
+      </c>
       <c r="E138" t="s">
         <v>26</v>
       </c>
+      <c r="F138" s="7">
+        <v>121</v>
+      </c>
+      <c r="G138" t="s">
+        <v>15</v>
+      </c>
       <c r="H138" t="s">
         <v>27</v>
+      </c>
+      <c r="I138" t="s">
+        <v>26</v>
+      </c>
+      <c r="J138" t="s">
+        <v>18</v>
+      </c>
+      <c r="K138" t="s">
+        <v>18</v>
+      </c>
+      <c r="L138" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M138" s="7">
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.45">
@@ -9603,11 +9698,36 @@
       <c r="C139" t="s">
         <v>51</v>
       </c>
+      <c r="D139" s="7">
+        <v>113</v>
+      </c>
       <c r="E139" t="s">
         <v>49</v>
       </c>
+      <c r="F139" s="7">
+        <v>123</v>
+      </c>
+      <c r="G139" t="s">
+        <v>15</v>
+      </c>
       <c r="H139" t="s">
         <v>50</v>
+      </c>
+      <c r="I139" t="s">
+        <v>49</v>
+      </c>
+      <c r="J139" t="s">
+        <v>51</v>
+      </c>
+      <c r="K139" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L139" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M139" s="7">
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.45">
@@ -9620,11 +9740,36 @@
       <c r="C140" t="s">
         <v>58</v>
       </c>
+      <c r="D140" s="7">
+        <v>123</v>
+      </c>
       <c r="E140" t="s">
         <v>52</v>
       </c>
+      <c r="F140" s="7">
+        <v>129</v>
+      </c>
+      <c r="G140" t="s">
+        <v>15</v>
+      </c>
       <c r="H140" t="s">
         <v>53</v>
+      </c>
+      <c r="I140" t="s">
+        <v>52</v>
+      </c>
+      <c r="J140" t="s">
+        <v>58</v>
+      </c>
+      <c r="K140" t="s">
+        <v>58</v>
+      </c>
+      <c r="L140" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M140" s="7">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.45">
@@ -9637,11 +9782,36 @@
       <c r="C141" t="s">
         <v>57</v>
       </c>
+      <c r="D141" s="7">
+        <v>117</v>
+      </c>
       <c r="E141" t="s">
         <v>54</v>
       </c>
+      <c r="F141" s="7">
+        <v>124</v>
+      </c>
+      <c r="G141" t="s">
+        <v>15</v>
+      </c>
       <c r="H141" t="s">
         <v>130</v>
+      </c>
+      <c r="I141" t="s">
+        <v>54</v>
+      </c>
+      <c r="J141" t="s">
+        <v>57</v>
+      </c>
+      <c r="K141" t="s">
+        <v>57</v>
+      </c>
+      <c r="L141" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M141" s="7">
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.45">
@@ -9654,11 +9824,36 @@
       <c r="C142" t="s">
         <v>41</v>
       </c>
+      <c r="D142" s="7">
+        <v>106</v>
+      </c>
       <c r="E142" t="s">
         <v>28</v>
       </c>
+      <c r="F142" s="7">
+        <v>114</v>
+      </c>
+      <c r="G142" t="s">
+        <v>15</v>
+      </c>
       <c r="H142" t="s">
         <v>64</v>
+      </c>
+      <c r="I142" t="s">
+        <v>28</v>
+      </c>
+      <c r="J142" t="s">
+        <v>41</v>
+      </c>
+      <c r="K142" t="s">
+        <v>41</v>
+      </c>
+      <c r="L142" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M142" s="7">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.45">
@@ -11916,7 +12111,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12475,27 +12670,27 @@
       </c>
       <c r="B20" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A20)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A20)</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="10" t="str">
+        <v>5</v>
+      </c>
+      <c r="D20" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E20" s="14" t="str">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E20" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A20, Sheet1!$L$2:$L$500, "Yes"),"")</f>
-        <v/>
-      </c>
-      <c r="F20" s="14" t="str">
+        <v>11</v>
+      </c>
+      <c r="F20" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A20, Sheet1!$L$2:$L$500, "No"),"")</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="G20" s="8" cm="1">
         <f t="array" ref="G20">SUM(($B$2:B20)/SUM($B$2:C20))</f>
-        <v>0.45522388059701496</v>
+        <v>0.4468085106382978</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -12524,7 +12719,7 @@
       </c>
       <c r="G21" s="8" cm="1">
         <f t="array" ref="G21">SUM(($B$2:B21)/SUM($B$2:C21))</f>
-        <v>0.45522388059701496</v>
+        <v>0.4468085106382978</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -12553,7 +12748,7 @@
       </c>
       <c r="G22" s="8" cm="1">
         <f t="array" ref="G22">SUM(($B$2:B22)/SUM($B$2:C22))</f>
-        <v>0.45522388059701496</v>
+        <v>0.4468085106382978</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -12582,7 +12777,7 @@
       </c>
       <c r="G23" s="8" cm="1">
         <f t="array" ref="G23">SUM(($B$2:B23)/SUM($B$2:C23))</f>
-        <v>0.45522388059701496</v>
+        <v>0.4468085106382978</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -12611,7 +12806,7 @@
       </c>
       <c r="G24" s="8" cm="1">
         <f t="array" ref="G24">SUM(($B$2:B24)/SUM($B$2:C24))</f>
-        <v>0.45522388059701496</v>
+        <v>0.4468085106382978</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -12640,7 +12835,7 @@
       </c>
       <c r="G25" s="8" cm="1">
         <f t="array" ref="G25">SUM(($B$2:B25)/SUM($B$2:C25))</f>
-        <v>0.45522388059701496</v>
+        <v>0.4468085106382978</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -12669,7 +12864,7 @@
       </c>
       <c r="G26" s="8" cm="1">
         <f t="array" ref="G26">SUM(($B$2:B26)/SUM($B$2:C26))</f>
-        <v>0.45522388059701496</v>
+        <v>0.4468085106382978</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -12698,7 +12893,7 @@
       </c>
       <c r="G27" s="8" cm="1">
         <f t="array" ref="G27">SUM(($B$2:B27)/SUM($B$2:C27))</f>
-        <v>0.45522388059701496</v>
+        <v>0.4468085106382978</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -12727,7 +12922,7 @@
       </c>
       <c r="G28" s="8" cm="1">
         <f t="array" ref="G28">SUM(($B$2:B28)/SUM($B$2:C28))</f>
-        <v>0.45522388059701496</v>
+        <v>0.4468085106382978</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -12756,7 +12951,7 @@
       </c>
       <c r="G29" s="8" cm="1">
         <f t="array" ref="G29">SUM(($B$2:B29)/SUM($B$2:C29))</f>
-        <v>0.45522388059701496</v>
+        <v>0.4468085106382978</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -12785,7 +12980,7 @@
       </c>
       <c r="G30" s="8" cm="1">
         <f t="array" ref="G30">SUM(($B$2:B30)/SUM($B$2:C30))</f>
-        <v>0.45522388059701496</v>
+        <v>0.4468085106382978</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -12814,7 +13009,7 @@
       </c>
       <c r="G31" s="8" cm="1">
         <f t="array" ref="G31">SUM(($B$2:B31)/SUM($B$2:C31))</f>
-        <v>0.45522388059701496</v>
+        <v>0.4468085106382978</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
@@ -12843,7 +13038,7 @@
       </c>
       <c r="G32" s="8" cm="1">
         <f t="array" ref="G32">SUM(($B$2:B32)/SUM($B$2:C32))</f>
-        <v>0.45522388059701496</v>
+        <v>0.4468085106382978</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -12872,7 +13067,7 @@
       </c>
       <c r="G33" s="8" cm="1">
         <f t="array" ref="G33">SUM(($B$2:B33)/SUM($B$2:C33))</f>
-        <v>0.45522388059701496</v>
+        <v>0.4468085106382978</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -12901,7 +13096,7 @@
       </c>
       <c r="G34" s="8" cm="1">
         <f t="array" ref="G34">SUM(($B$2:B34)/SUM($B$2:C34))</f>
-        <v>0.45522388059701496</v>
+        <v>0.4468085106382978</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -12930,7 +13125,7 @@
       </c>
       <c r="G35" s="8" cm="1">
         <f t="array" ref="G35">SUM(($B$2:B35)/SUM($B$2:C35))</f>
-        <v>0.45522388059701496</v>
+        <v>0.4468085106382978</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -12959,7 +13154,7 @@
       </c>
       <c r="G36" s="8" cm="1">
         <f t="array" ref="G36">SUM(($B$2:B36)/SUM($B$2:C36))</f>
-        <v>0.45522388059701496</v>
+        <v>0.4468085106382978</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -12988,7 +13183,7 @@
       </c>
       <c r="G37" s="8" cm="1">
         <f t="array" ref="G37">SUM(($B$2:B37)/SUM($B$2:C37))</f>
-        <v>0.45522388059701496</v>
+        <v>0.4468085106382978</v>
       </c>
     </row>
   </sheetData>

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E62FD3D-4207-423B-B7D0-0C1FAC13AE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DC09C7-DB75-450C-84ED-9B2A8584BD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="131">
   <si>
     <t>Date</t>
   </si>
@@ -678,9 +678,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$20</c:f>
+              <c:f>Sheet2!$A$2:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -738,15 +738,18 @@
                 <c:pt idx="18">
                   <c:v>Tue, Feb 6, 2024</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>Wed, Feb 7, 2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$20</c:f>
+              <c:f>Sheet2!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0.2857142857142857</c:v>
                 </c:pt>
@@ -803,6 +806,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5714285714285714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1099,9 +1105,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$20</c:f>
+              <c:f>Sheet2!$A$2:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -1159,15 +1165,18 @@
                 <c:pt idx="18">
                   <c:v>Tue, Feb 6, 2024</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>Wed, Feb 7, 2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$F$2:$F$20</c:f>
+              <c:f>Sheet2!$F$2:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>7.8</c:v>
                 </c:pt>
@@ -1224,6 +1233,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1516,9 +1528,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$20</c:f>
+              <c:f>Sheet2!$A$2:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -1576,15 +1588,18 @@
                 <c:pt idx="18">
                   <c:v>Tue, Feb 6, 2024</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>Wed, Feb 7, 2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$G$2:$G$20</c:f>
+              <c:f>Sheet2!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0.2857142857142857</c:v>
                 </c:pt>
@@ -1641,6 +1656,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.4468085106382978</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.4527027027027028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3873,9 +3891,7 @@
   </sheetPr>
   <dimension ref="A1:M274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
-    </sheetView>
+    <sheetView topLeftCell="A100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6702,7 +6718,7 @@
         <v>97</v>
       </c>
       <c r="M67" s="7">
-        <f t="shared" ref="M67:M142" si="1">ABS(D67-F67)</f>
+        <f t="shared" ref="M67:M149" si="1">ABS(D67-F67)</f>
         <v>1</v>
       </c>
     </row>
@@ -9866,11 +9882,36 @@
       <c r="C143" t="s">
         <v>48</v>
       </c>
+      <c r="D143" s="7">
+        <v>123</v>
+      </c>
       <c r="E143" t="s">
         <v>14</v>
       </c>
+      <c r="F143" s="7">
+        <v>117</v>
+      </c>
+      <c r="G143" t="s">
+        <v>15</v>
+      </c>
       <c r="H143" t="s">
         <v>16</v>
+      </c>
+      <c r="I143" t="s">
+        <v>48</v>
+      </c>
+      <c r="J143" t="s">
+        <v>14</v>
+      </c>
+      <c r="K143" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L143" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M143" s="7">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.45">
@@ -9883,14 +9924,39 @@
       <c r="C144" t="s">
         <v>46</v>
       </c>
+      <c r="D144" s="7">
+        <v>114</v>
+      </c>
       <c r="E144" t="s">
         <v>44</v>
       </c>
+      <c r="F144" s="7">
+        <v>106</v>
+      </c>
+      <c r="G144" t="s">
+        <v>15</v>
+      </c>
       <c r="H144" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I144" t="s">
+        <v>46</v>
+      </c>
+      <c r="J144" t="s">
+        <v>44</v>
+      </c>
+      <c r="K144" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L144" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M144" s="7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A145" s="3" t="s">
         <v>110</v>
       </c>
@@ -9900,14 +9966,39 @@
       <c r="C145" t="s">
         <v>25</v>
       </c>
+      <c r="D145" s="7">
+        <v>117</v>
+      </c>
       <c r="E145" t="s">
         <v>22</v>
       </c>
+      <c r="F145" s="7">
+        <v>125</v>
+      </c>
+      <c r="G145" t="s">
+        <v>15</v>
+      </c>
       <c r="H145" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I145" t="s">
+        <v>22</v>
+      </c>
+      <c r="J145" t="s">
+        <v>25</v>
+      </c>
+      <c r="K145" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L145" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M145" s="7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
         <v>110</v>
       </c>
@@ -9917,14 +10008,39 @@
       <c r="C146" t="s">
         <v>13</v>
       </c>
+      <c r="D146" s="7">
+        <v>104</v>
+      </c>
       <c r="E146" t="s">
         <v>26</v>
       </c>
+      <c r="F146" s="7">
+        <v>116</v>
+      </c>
+      <c r="G146" t="s">
+        <v>15</v>
+      </c>
       <c r="H146" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I146" t="s">
+        <v>26</v>
+      </c>
+      <c r="J146" t="s">
+        <v>13</v>
+      </c>
+      <c r="K146" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L146" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M146" s="7">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A147" s="3" t="s">
         <v>110</v>
       </c>
@@ -9934,14 +10050,39 @@
       <c r="C147" t="s">
         <v>82</v>
       </c>
+      <c r="D147" s="7">
+        <v>127</v>
+      </c>
       <c r="E147" t="s">
         <v>17</v>
       </c>
+      <c r="F147" s="7">
+        <v>104</v>
+      </c>
+      <c r="G147" t="s">
+        <v>15</v>
+      </c>
       <c r="H147" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I147" t="s">
+        <v>82</v>
+      </c>
+      <c r="J147" t="s">
+        <v>17</v>
+      </c>
+      <c r="K147" t="s">
+        <v>17</v>
+      </c>
+      <c r="L147" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M147" s="7">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="s">
         <v>110</v>
       </c>
@@ -9951,14 +10092,39 @@
       <c r="C148" t="s">
         <v>29</v>
       </c>
+      <c r="D148" s="7">
+        <v>117</v>
+      </c>
       <c r="E148" t="s">
         <v>62</v>
       </c>
+      <c r="F148" s="7">
+        <v>106</v>
+      </c>
+      <c r="G148" t="s">
+        <v>15</v>
+      </c>
       <c r="H148" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I148" t="s">
+        <v>29</v>
+      </c>
+      <c r="J148" t="s">
+        <v>62</v>
+      </c>
+      <c r="K148" t="s">
+        <v>62</v>
+      </c>
+      <c r="L148" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M148" s="7">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A149" s="3" t="s">
         <v>110</v>
       </c>
@@ -9968,14 +10134,39 @@
       <c r="C149" t="s">
         <v>42</v>
       </c>
+      <c r="D149" s="7">
+        <v>133</v>
+      </c>
       <c r="E149" t="s">
         <v>72</v>
       </c>
+      <c r="F149" s="7">
+        <v>120</v>
+      </c>
+      <c r="G149" t="s">
+        <v>15</v>
+      </c>
       <c r="H149" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I149" t="s">
+        <v>42</v>
+      </c>
+      <c r="J149" t="s">
+        <v>72</v>
+      </c>
+      <c r="K149" t="s">
+        <v>72</v>
+      </c>
+      <c r="L149" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M149" s="7">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="s">
         <v>111</v>
       </c>
@@ -9992,7 +10183,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A151" s="3" t="s">
         <v>111</v>
       </c>
@@ -10009,7 +10200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="s">
         <v>111</v>
       </c>
@@ -10026,7 +10217,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A153" s="3" t="s">
         <v>111</v>
       </c>
@@ -10043,7 +10234,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="s">
         <v>111</v>
       </c>
@@ -10060,7 +10251,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A155" s="3" t="s">
         <v>111</v>
       </c>
@@ -10077,7 +10268,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A156" s="3" t="s">
         <v>111</v>
       </c>
@@ -10094,7 +10285,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A157" s="3" t="s">
         <v>111</v>
       </c>
@@ -10111,7 +10302,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A158" s="3" t="s">
         <v>111</v>
       </c>
@@ -10128,7 +10319,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A159" s="3" t="s">
         <v>112</v>
       </c>
@@ -10145,7 +10336,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A160" s="3" t="s">
         <v>112</v>
       </c>
@@ -12110,8 +12301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3316D165-A907-40EA-B4D3-B42CCCB2BD8A}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12699,27 +12890,27 @@
       </c>
       <c r="B21" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A21)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C21" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A21)</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="10" t="str">
+        <v>3</v>
+      </c>
+      <c r="D21" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E21" s="14" t="str">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E21" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A21, Sheet1!$L$2:$L$500, "Yes"),"")</f>
-        <v/>
-      </c>
-      <c r="F21" s="14" t="str">
+        <v>8.5</v>
+      </c>
+      <c r="F21" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A21, Sheet1!$L$2:$L$500, "No"),"")</f>
-        <v/>
+        <v>15.666666666666666</v>
       </c>
       <c r="G21" s="8" cm="1">
         <f t="array" ref="G21">SUM(($B$2:B21)/SUM($B$2:C21))</f>
-        <v>0.4468085106382978</v>
+        <v>0.4527027027027028</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -12748,7 +12939,7 @@
       </c>
       <c r="G22" s="8" cm="1">
         <f t="array" ref="G22">SUM(($B$2:B22)/SUM($B$2:C22))</f>
-        <v>0.4468085106382978</v>
+        <v>0.4527027027027028</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -12777,7 +12968,7 @@
       </c>
       <c r="G23" s="8" cm="1">
         <f t="array" ref="G23">SUM(($B$2:B23)/SUM($B$2:C23))</f>
-        <v>0.4468085106382978</v>
+        <v>0.4527027027027028</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -12806,7 +12997,7 @@
       </c>
       <c r="G24" s="8" cm="1">
         <f t="array" ref="G24">SUM(($B$2:B24)/SUM($B$2:C24))</f>
-        <v>0.4468085106382978</v>
+        <v>0.4527027027027028</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -12835,7 +13026,7 @@
       </c>
       <c r="G25" s="8" cm="1">
         <f t="array" ref="G25">SUM(($B$2:B25)/SUM($B$2:C25))</f>
-        <v>0.4468085106382978</v>
+        <v>0.4527027027027028</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -12864,7 +13055,7 @@
       </c>
       <c r="G26" s="8" cm="1">
         <f t="array" ref="G26">SUM(($B$2:B26)/SUM($B$2:C26))</f>
-        <v>0.4468085106382978</v>
+        <v>0.4527027027027028</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -12893,7 +13084,7 @@
       </c>
       <c r="G27" s="8" cm="1">
         <f t="array" ref="G27">SUM(($B$2:B27)/SUM($B$2:C27))</f>
-        <v>0.4468085106382978</v>
+        <v>0.4527027027027028</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -12922,7 +13113,7 @@
       </c>
       <c r="G28" s="8" cm="1">
         <f t="array" ref="G28">SUM(($B$2:B28)/SUM($B$2:C28))</f>
-        <v>0.4468085106382978</v>
+        <v>0.4527027027027028</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -12951,7 +13142,7 @@
       </c>
       <c r="G29" s="8" cm="1">
         <f t="array" ref="G29">SUM(($B$2:B29)/SUM($B$2:C29))</f>
-        <v>0.4468085106382978</v>
+        <v>0.4527027027027028</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -12980,7 +13171,7 @@
       </c>
       <c r="G30" s="8" cm="1">
         <f t="array" ref="G30">SUM(($B$2:B30)/SUM($B$2:C30))</f>
-        <v>0.4468085106382978</v>
+        <v>0.4527027027027028</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -13009,7 +13200,7 @@
       </c>
       <c r="G31" s="8" cm="1">
         <f t="array" ref="G31">SUM(($B$2:B31)/SUM($B$2:C31))</f>
-        <v>0.4468085106382978</v>
+        <v>0.4527027027027028</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
@@ -13038,7 +13229,7 @@
       </c>
       <c r="G32" s="8" cm="1">
         <f t="array" ref="G32">SUM(($B$2:B32)/SUM($B$2:C32))</f>
-        <v>0.4468085106382978</v>
+        <v>0.4527027027027028</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -13067,7 +13258,7 @@
       </c>
       <c r="G33" s="8" cm="1">
         <f t="array" ref="G33">SUM(($B$2:B33)/SUM($B$2:C33))</f>
-        <v>0.4468085106382978</v>
+        <v>0.4527027027027028</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -13096,7 +13287,7 @@
       </c>
       <c r="G34" s="8" cm="1">
         <f t="array" ref="G34">SUM(($B$2:B34)/SUM($B$2:C34))</f>
-        <v>0.4468085106382978</v>
+        <v>0.4527027027027028</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -13125,7 +13316,7 @@
       </c>
       <c r="G35" s="8" cm="1">
         <f t="array" ref="G35">SUM(($B$2:B35)/SUM($B$2:C35))</f>
-        <v>0.4468085106382978</v>
+        <v>0.4527027027027028</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -13154,7 +13345,7 @@
       </c>
       <c r="G36" s="8" cm="1">
         <f t="array" ref="G36">SUM(($B$2:B36)/SUM($B$2:C36))</f>
-        <v>0.4468085106382978</v>
+        <v>0.4527027027027028</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -13183,7 +13374,7 @@
       </c>
       <c r="G37" s="8" cm="1">
         <f t="array" ref="G37">SUM(($B$2:B37)/SUM($B$2:C37))</f>
-        <v>0.4468085106382978</v>
+        <v>0.4527027027027028</v>
       </c>
     </row>
   </sheetData>

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DC09C7-DB75-450C-84ED-9B2A8584BD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C7E67B-97DC-40FF-AD56-ECE908E633C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="131">
   <si>
     <t>Date</t>
   </si>
@@ -3891,7 +3891,7 @@
   </sheetPr>
   <dimension ref="A1:M274"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6718,7 +6718,7 @@
         <v>97</v>
       </c>
       <c r="M67" s="7">
-        <f t="shared" ref="M67:M149" si="1">ABS(D67-F67)</f>
+        <f t="shared" ref="M67:M158" si="1">ABS(D67-F67)</f>
         <v>1</v>
       </c>
     </row>
@@ -10176,11 +10176,36 @@
       <c r="C150" t="s">
         <v>82</v>
       </c>
+      <c r="D150" s="7">
+        <v>131</v>
+      </c>
       <c r="E150" t="s">
         <v>32</v>
       </c>
+      <c r="F150" s="7">
+        <v>109</v>
+      </c>
+      <c r="G150" t="s">
+        <v>15</v>
+      </c>
       <c r="H150" t="s">
         <v>75</v>
+      </c>
+      <c r="I150" t="s">
+        <v>82</v>
+      </c>
+      <c r="J150" t="s">
+        <v>32</v>
+      </c>
+      <c r="K150" t="s">
+        <v>32</v>
+      </c>
+      <c r="L150" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M150" s="7">
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.45">
@@ -10193,11 +10218,36 @@
       <c r="C151" t="s">
         <v>13</v>
       </c>
+      <c r="D151" s="7">
+        <v>111</v>
+      </c>
       <c r="E151" t="s">
         <v>18</v>
       </c>
+      <c r="F151" s="7">
+        <v>127</v>
+      </c>
+      <c r="G151" t="s">
+        <v>15</v>
+      </c>
       <c r="H151" t="s">
         <v>19</v>
+      </c>
+      <c r="I151" t="s">
+        <v>18</v>
+      </c>
+      <c r="J151" t="s">
+        <v>13</v>
+      </c>
+      <c r="K151" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L151" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M151" s="7">
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.45">
@@ -10210,11 +10260,36 @@
       <c r="C152" t="s">
         <v>46</v>
       </c>
+      <c r="D152" s="7">
+        <v>118</v>
+      </c>
       <c r="E152" t="s">
         <v>36</v>
       </c>
+      <c r="F152" s="7">
+        <v>95</v>
+      </c>
+      <c r="G152" t="s">
+        <v>15</v>
+      </c>
       <c r="H152" t="s">
         <v>76</v>
+      </c>
+      <c r="I152" t="s">
+        <v>46</v>
+      </c>
+      <c r="J152" t="s">
+        <v>36</v>
+      </c>
+      <c r="K152" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L152" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M152" s="7">
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.45">
@@ -10227,11 +10302,36 @@
       <c r="C153" t="s">
         <v>69</v>
       </c>
+      <c r="D153" s="7">
+        <v>122</v>
+      </c>
       <c r="E153" t="s">
         <v>49</v>
       </c>
+      <c r="F153" s="7">
+        <v>108</v>
+      </c>
+      <c r="G153" t="s">
+        <v>15</v>
+      </c>
       <c r="H153" t="s">
         <v>50</v>
+      </c>
+      <c r="I153" t="s">
+        <v>69</v>
+      </c>
+      <c r="J153" t="s">
+        <v>49</v>
+      </c>
+      <c r="K153" t="s">
+        <v>49</v>
+      </c>
+      <c r="L153" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M153" s="7">
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.45">
@@ -10244,11 +10344,36 @@
       <c r="C154" t="s">
         <v>52</v>
       </c>
+      <c r="D154" s="7">
+        <v>118</v>
+      </c>
       <c r="E154" t="s">
         <v>51</v>
       </c>
+      <c r="F154" s="7">
+        <v>110</v>
+      </c>
+      <c r="G154" t="s">
+        <v>15</v>
+      </c>
       <c r="H154" t="s">
         <v>86</v>
+      </c>
+      <c r="I154" t="s">
+        <v>52</v>
+      </c>
+      <c r="J154" t="s">
+        <v>51</v>
+      </c>
+      <c r="K154" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L154" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M154" s="7">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.45">
@@ -10261,11 +10386,36 @@
       <c r="C155" t="s">
         <v>58</v>
       </c>
+      <c r="D155" s="7">
+        <v>129</v>
+      </c>
       <c r="E155" t="s">
         <v>41</v>
       </c>
+      <c r="F155" s="7">
+        <v>105</v>
+      </c>
+      <c r="G155" t="s">
+        <v>15</v>
+      </c>
       <c r="H155" t="s">
         <v>79</v>
+      </c>
+      <c r="I155" t="s">
+        <v>58</v>
+      </c>
+      <c r="J155" t="s">
+        <v>41</v>
+      </c>
+      <c r="K155" t="s">
+        <v>41</v>
+      </c>
+      <c r="L155" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M155" s="7">
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.45">
@@ -10278,11 +10428,36 @@
       <c r="C156" t="s">
         <v>54</v>
       </c>
+      <c r="D156" s="7">
+        <v>115</v>
+      </c>
       <c r="E156" t="s">
         <v>28</v>
       </c>
+      <c r="F156" s="7">
+        <v>129</v>
+      </c>
+      <c r="G156" t="s">
+        <v>15</v>
+      </c>
       <c r="H156" t="s">
         <v>64</v>
+      </c>
+      <c r="I156" t="s">
+        <v>28</v>
+      </c>
+      <c r="J156" t="s">
+        <v>54</v>
+      </c>
+      <c r="K156" t="s">
+        <v>54</v>
+      </c>
+      <c r="L156" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M156" s="7">
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.45">
@@ -10295,11 +10470,36 @@
       <c r="C157" t="s">
         <v>21</v>
       </c>
+      <c r="D157" s="7">
+        <v>114</v>
+      </c>
       <c r="E157" t="s">
         <v>37</v>
       </c>
+      <c r="F157" s="7">
+        <v>106</v>
+      </c>
+      <c r="G157" t="s">
+        <v>15</v>
+      </c>
       <c r="H157" t="s">
         <v>38</v>
+      </c>
+      <c r="I157" t="s">
+        <v>21</v>
+      </c>
+      <c r="J157" t="s">
+        <v>37</v>
+      </c>
+      <c r="K157" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L157" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M157" s="7">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.45">
@@ -10312,11 +10512,36 @@
       <c r="C158" t="s">
         <v>42</v>
       </c>
+      <c r="D158" s="7">
+        <v>128</v>
+      </c>
       <c r="E158" t="s">
         <v>33</v>
       </c>
+      <c r="F158" s="7">
+        <v>122</v>
+      </c>
+      <c r="G158" t="s">
+        <v>97</v>
+      </c>
       <c r="H158" t="s">
         <v>34</v>
+      </c>
+      <c r="I158" t="s">
+        <v>42</v>
+      </c>
+      <c r="J158" t="s">
+        <v>33</v>
+      </c>
+      <c r="K158" t="s">
+        <v>33</v>
+      </c>
+      <c r="L158" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M158" s="7">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.45">
@@ -12301,8 +12526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3316D165-A907-40EA-B4D3-B42CCCB2BD8A}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12919,27 +13144,27 @@
       </c>
       <c r="B22" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A22)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C22" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A22)</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="10" t="str">
+        <v>5</v>
+      </c>
+      <c r="D22" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E22" s="14" t="str">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E22" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A22, Sheet1!$L$2:$L$500, "Yes"),"")</f>
-        <v/>
-      </c>
-      <c r="F22" s="14" t="str">
+        <v>13.75</v>
+      </c>
+      <c r="F22" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A22, Sheet1!$L$2:$L$500, "No"),"")</f>
-        <v/>
+        <v>16</v>
       </c>
       <c r="G22" s="8" cm="1">
         <f t="array" ref="G22">SUM(($B$2:B22)/SUM($B$2:C22))</f>
-        <v>0.4527027027027028</v>
+        <v>0.45222929936305728</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -12968,7 +13193,7 @@
       </c>
       <c r="G23" s="8" cm="1">
         <f t="array" ref="G23">SUM(($B$2:B23)/SUM($B$2:C23))</f>
-        <v>0.4527027027027028</v>
+        <v>0.45222929936305728</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -12997,7 +13222,7 @@
       </c>
       <c r="G24" s="8" cm="1">
         <f t="array" ref="G24">SUM(($B$2:B24)/SUM($B$2:C24))</f>
-        <v>0.4527027027027028</v>
+        <v>0.45222929936305728</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -13026,7 +13251,7 @@
       </c>
       <c r="G25" s="8" cm="1">
         <f t="array" ref="G25">SUM(($B$2:B25)/SUM($B$2:C25))</f>
-        <v>0.4527027027027028</v>
+        <v>0.45222929936305728</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -13055,7 +13280,7 @@
       </c>
       <c r="G26" s="8" cm="1">
         <f t="array" ref="G26">SUM(($B$2:B26)/SUM($B$2:C26))</f>
-        <v>0.4527027027027028</v>
+        <v>0.45222929936305728</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -13084,7 +13309,7 @@
       </c>
       <c r="G27" s="8" cm="1">
         <f t="array" ref="G27">SUM(($B$2:B27)/SUM($B$2:C27))</f>
-        <v>0.4527027027027028</v>
+        <v>0.45222929936305728</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -13113,7 +13338,7 @@
       </c>
       <c r="G28" s="8" cm="1">
         <f t="array" ref="G28">SUM(($B$2:B28)/SUM($B$2:C28))</f>
-        <v>0.4527027027027028</v>
+        <v>0.45222929936305728</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -13142,7 +13367,7 @@
       </c>
       <c r="G29" s="8" cm="1">
         <f t="array" ref="G29">SUM(($B$2:B29)/SUM($B$2:C29))</f>
-        <v>0.4527027027027028</v>
+        <v>0.45222929936305728</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -13171,7 +13396,7 @@
       </c>
       <c r="G30" s="8" cm="1">
         <f t="array" ref="G30">SUM(($B$2:B30)/SUM($B$2:C30))</f>
-        <v>0.4527027027027028</v>
+        <v>0.45222929936305728</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -13200,7 +13425,7 @@
       </c>
       <c r="G31" s="8" cm="1">
         <f t="array" ref="G31">SUM(($B$2:B31)/SUM($B$2:C31))</f>
-        <v>0.4527027027027028</v>
+        <v>0.45222929936305728</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
@@ -13229,7 +13454,7 @@
       </c>
       <c r="G32" s="8" cm="1">
         <f t="array" ref="G32">SUM(($B$2:B32)/SUM($B$2:C32))</f>
-        <v>0.4527027027027028</v>
+        <v>0.45222929936305728</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -13258,7 +13483,7 @@
       </c>
       <c r="G33" s="8" cm="1">
         <f t="array" ref="G33">SUM(($B$2:B33)/SUM($B$2:C33))</f>
-        <v>0.4527027027027028</v>
+        <v>0.45222929936305728</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -13287,7 +13512,7 @@
       </c>
       <c r="G34" s="8" cm="1">
         <f t="array" ref="G34">SUM(($B$2:B34)/SUM($B$2:C34))</f>
-        <v>0.4527027027027028</v>
+        <v>0.45222929936305728</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -13316,7 +13541,7 @@
       </c>
       <c r="G35" s="8" cm="1">
         <f t="array" ref="G35">SUM(($B$2:B35)/SUM($B$2:C35))</f>
-        <v>0.4527027027027028</v>
+        <v>0.45222929936305728</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -13345,7 +13570,7 @@
       </c>
       <c r="G36" s="8" cm="1">
         <f t="array" ref="G36">SUM(($B$2:B36)/SUM($B$2:C36))</f>
-        <v>0.4527027027027028</v>
+        <v>0.45222929936305728</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -13374,7 +13599,7 @@
       </c>
       <c r="G37" s="8" cm="1">
         <f t="array" ref="G37">SUM(($B$2:B37)/SUM($B$2:C37))</f>
-        <v>0.4527027027027028</v>
+        <v>0.45222929936305728</v>
       </c>
     </row>
   </sheetData>

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C7E67B-97DC-40FF-AD56-ECE908E633C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A12062-D690-40BB-87CC-C1D32A3A5AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="131">
   <si>
     <t>Date</t>
   </si>
@@ -678,9 +678,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$21</c:f>
+              <c:f>Sheet2!$A$2:$A$23</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -741,15 +741,21 @@
                 <c:pt idx="19">
                   <c:v>Wed, Feb 7, 2024</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>Thu, Feb 8, 2024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Fri, Feb 9, 2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$21</c:f>
+              <c:f>Sheet2!$D$2:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.2857142857142857</c:v>
                 </c:pt>
@@ -809,6 +815,12 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.44444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1105,9 +1117,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$21</c:f>
+              <c:f>Sheet2!$A$2:$A$23</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -1168,15 +1180,21 @@
                 <c:pt idx="19">
                   <c:v>Wed, Feb 7, 2024</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>Thu, Feb 8, 2024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Fri, Feb 9, 2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$F$2:$F$21</c:f>
+              <c:f>Sheet2!$F$2:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>7.8</c:v>
                 </c:pt>
@@ -1236,6 +1254,12 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>15.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1528,9 +1552,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$21</c:f>
+              <c:f>Sheet2!$A$2:$A$23</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -1591,15 +1615,21 @@
                 <c:pt idx="19">
                   <c:v>Wed, Feb 7, 2024</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>Thu, Feb 8, 2024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Fri, Feb 9, 2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$G$2:$G$21</c:f>
+              <c:f>Sheet2!$G$2:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.2857142857142857</c:v>
                 </c:pt>
@@ -1659,6 +1689,12 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.4527027027027028</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.45222929936305728</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.45398773006134974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3891,7 +3927,9 @@
   </sheetPr>
   <dimension ref="A1:M274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="G182" sqref="G182"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6718,7 +6756,7 @@
         <v>97</v>
       </c>
       <c r="M67" s="7">
-        <f t="shared" ref="M67:M158" si="1">ABS(D67-F67)</f>
+        <f t="shared" ref="M67:M160" si="1">ABS(D67-F67)</f>
         <v>1</v>
       </c>
     </row>
@@ -10554,11 +10592,36 @@
       <c r="C159" t="s">
         <v>25</v>
       </c>
+      <c r="D159" s="7">
+        <v>127</v>
+      </c>
       <c r="E159" t="s">
         <v>17</v>
       </c>
+      <c r="F159" s="7">
+        <v>121</v>
+      </c>
+      <c r="G159" t="s">
+        <v>15</v>
+      </c>
       <c r="H159" t="s">
         <v>66</v>
+      </c>
+      <c r="I159" t="s">
+        <v>25</v>
+      </c>
+      <c r="J159" t="s">
+        <v>17</v>
+      </c>
+      <c r="K159" t="s">
+        <v>17</v>
+      </c>
+      <c r="L159" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M159" s="7">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.45">
@@ -10571,14 +10634,39 @@
       <c r="C160" t="s">
         <v>44</v>
       </c>
+      <c r="D160" s="7">
+        <v>129</v>
+      </c>
       <c r="E160" t="s">
         <v>22</v>
       </c>
+      <c r="F160" s="7">
+        <v>133</v>
+      </c>
+      <c r="G160" t="s">
+        <v>15</v>
+      </c>
       <c r="H160" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I160" t="s">
+        <v>22</v>
+      </c>
+      <c r="J160" t="s">
+        <v>44</v>
+      </c>
+      <c r="K160" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L160" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M160" s="7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A161" s="3" t="s">
         <v>112</v>
       </c>
@@ -10588,14 +10676,39 @@
       <c r="C161" t="s">
         <v>55</v>
       </c>
+      <c r="D161" s="7">
+        <v>104</v>
+      </c>
       <c r="E161" t="s">
         <v>48</v>
       </c>
+      <c r="F161" s="7">
+        <v>107</v>
+      </c>
+      <c r="G161" t="s">
+        <v>15</v>
+      </c>
       <c r="H161" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I161" t="s">
+        <v>48</v>
+      </c>
+      <c r="J161" t="s">
+        <v>55</v>
+      </c>
+      <c r="K161" t="s">
+        <v>55</v>
+      </c>
+      <c r="L161" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M161" s="7">
+        <f t="shared" ref="M161:M164" si="2">ABS(D161-F161)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A162" s="3" t="s">
         <v>112</v>
       </c>
@@ -10605,14 +10718,39 @@
       <c r="C162" t="s">
         <v>14</v>
       </c>
+      <c r="D162" s="7">
+        <v>84</v>
+      </c>
       <c r="E162" t="s">
         <v>41</v>
       </c>
+      <c r="F162" s="7">
+        <v>120</v>
+      </c>
+      <c r="G162" t="s">
+        <v>15</v>
+      </c>
       <c r="H162" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I162" t="s">
+        <v>41</v>
+      </c>
+      <c r="J162" t="s">
+        <v>14</v>
+      </c>
+      <c r="K162" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L162" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M162" s="7">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A163" s="3" t="s">
         <v>112</v>
       </c>
@@ -10622,14 +10760,39 @@
       <c r="C163" t="s">
         <v>21</v>
       </c>
+      <c r="D163" s="7">
+        <v>106</v>
+      </c>
       <c r="E163" t="s">
         <v>72</v>
       </c>
+      <c r="F163" s="7">
+        <v>135</v>
+      </c>
+      <c r="G163" t="s">
+        <v>15</v>
+      </c>
       <c r="H163" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I163" t="s">
+        <v>72</v>
+      </c>
+      <c r="J163" t="s">
+        <v>21</v>
+      </c>
+      <c r="K163" t="s">
+        <v>21</v>
+      </c>
+      <c r="L163" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M163" s="7">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A164" s="3" t="s">
         <v>112</v>
       </c>
@@ -10639,14 +10802,39 @@
       <c r="C164" t="s">
         <v>29</v>
       </c>
+      <c r="D164" s="7">
+        <v>122</v>
+      </c>
       <c r="E164" t="s">
         <v>37</v>
       </c>
+      <c r="F164" s="7">
+        <v>139</v>
+      </c>
+      <c r="G164" t="s">
+        <v>15</v>
+      </c>
       <c r="H164" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I164" t="s">
+        <v>37</v>
+      </c>
+      <c r="J164" t="s">
+        <v>29</v>
+      </c>
+      <c r="K164" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L164" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M164" s="7">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A165" s="3" t="s">
         <v>113</v>
       </c>
@@ -10663,7 +10851,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A166" s="3" t="s">
         <v>113</v>
       </c>
@@ -10680,7 +10868,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A167" s="3" t="s">
         <v>113</v>
       </c>
@@ -10697,7 +10885,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A168" s="3" t="s">
         <v>113</v>
       </c>
@@ -10714,7 +10902,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A169" s="3" t="s">
         <v>113</v>
       </c>
@@ -10731,7 +10919,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A170" s="3" t="s">
         <v>113</v>
       </c>
@@ -10748,7 +10936,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A171" s="3" t="s">
         <v>113</v>
       </c>
@@ -10765,7 +10953,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A172" s="3" t="s">
         <v>113</v>
       </c>
@@ -10782,7 +10970,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A173" s="3" t="s">
         <v>113</v>
       </c>
@@ -10799,7 +10987,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A174" s="3" t="s">
         <v>113</v>
       </c>
@@ -10816,7 +11004,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A175" s="3" t="s">
         <v>113</v>
       </c>
@@ -10833,7 +11021,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A176" s="3" t="s">
         <v>114</v>
       </c>
@@ -12527,7 +12715,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13173,27 +13361,27 @@
       </c>
       <c r="B23" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A23)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C23" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A23)</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="10" t="str">
+        <v>3</v>
+      </c>
+      <c r="D23" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E23" s="14" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A23, Sheet1!$L$2:$L$500, "Yes"),"")</f>
-        <v/>
-      </c>
-      <c r="F23" s="14" t="str">
+        <v>19</v>
+      </c>
+      <c r="F23" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A23, Sheet1!$L$2:$L$500, "No"),"")</f>
-        <v/>
+        <v>12.666666666666666</v>
       </c>
       <c r="G23" s="8" cm="1">
         <f t="array" ref="G23">SUM(($B$2:B23)/SUM($B$2:C23))</f>
-        <v>0.45222929936305728</v>
+        <v>0.45398773006134974</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -13222,7 +13410,7 @@
       </c>
       <c r="G24" s="8" cm="1">
         <f t="array" ref="G24">SUM(($B$2:B24)/SUM($B$2:C24))</f>
-        <v>0.45222929936305728</v>
+        <v>0.45398773006134974</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -13251,7 +13439,7 @@
       </c>
       <c r="G25" s="8" cm="1">
         <f t="array" ref="G25">SUM(($B$2:B25)/SUM($B$2:C25))</f>
-        <v>0.45222929936305728</v>
+        <v>0.45398773006134974</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -13280,7 +13468,7 @@
       </c>
       <c r="G26" s="8" cm="1">
         <f t="array" ref="G26">SUM(($B$2:B26)/SUM($B$2:C26))</f>
-        <v>0.45222929936305728</v>
+        <v>0.45398773006134974</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -13309,7 +13497,7 @@
       </c>
       <c r="G27" s="8" cm="1">
         <f t="array" ref="G27">SUM(($B$2:B27)/SUM($B$2:C27))</f>
-        <v>0.45222929936305728</v>
+        <v>0.45398773006134974</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -13338,7 +13526,7 @@
       </c>
       <c r="G28" s="8" cm="1">
         <f t="array" ref="G28">SUM(($B$2:B28)/SUM($B$2:C28))</f>
-        <v>0.45222929936305728</v>
+        <v>0.45398773006134974</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -13367,7 +13555,7 @@
       </c>
       <c r="G29" s="8" cm="1">
         <f t="array" ref="G29">SUM(($B$2:B29)/SUM($B$2:C29))</f>
-        <v>0.45222929936305728</v>
+        <v>0.45398773006134974</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -13396,7 +13584,7 @@
       </c>
       <c r="G30" s="8" cm="1">
         <f t="array" ref="G30">SUM(($B$2:B30)/SUM($B$2:C30))</f>
-        <v>0.45222929936305728</v>
+        <v>0.45398773006134974</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -13425,7 +13613,7 @@
       </c>
       <c r="G31" s="8" cm="1">
         <f t="array" ref="G31">SUM(($B$2:B31)/SUM($B$2:C31))</f>
-        <v>0.45222929936305728</v>
+        <v>0.45398773006134974</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
@@ -13454,7 +13642,7 @@
       </c>
       <c r="G32" s="8" cm="1">
         <f t="array" ref="G32">SUM(($B$2:B32)/SUM($B$2:C32))</f>
-        <v>0.45222929936305728</v>
+        <v>0.45398773006134974</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -13483,7 +13671,7 @@
       </c>
       <c r="G33" s="8" cm="1">
         <f t="array" ref="G33">SUM(($B$2:B33)/SUM($B$2:C33))</f>
-        <v>0.45222929936305728</v>
+        <v>0.45398773006134974</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -13512,7 +13700,7 @@
       </c>
       <c r="G34" s="8" cm="1">
         <f t="array" ref="G34">SUM(($B$2:B34)/SUM($B$2:C34))</f>
-        <v>0.45222929936305728</v>
+        <v>0.45398773006134974</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -13541,7 +13729,7 @@
       </c>
       <c r="G35" s="8" cm="1">
         <f t="array" ref="G35">SUM(($B$2:B35)/SUM($B$2:C35))</f>
-        <v>0.45222929936305728</v>
+        <v>0.45398773006134974</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -13570,7 +13758,7 @@
       </c>
       <c r="G36" s="8" cm="1">
         <f t="array" ref="G36">SUM(($B$2:B36)/SUM($B$2:C36))</f>
-        <v>0.45222929936305728</v>
+        <v>0.45398773006134974</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -13599,7 +13787,7 @@
       </c>
       <c r="G37" s="8" cm="1">
         <f t="array" ref="G37">SUM(($B$2:B37)/SUM($B$2:C37))</f>
-        <v>0.45222929936305728</v>
+        <v>0.45398773006134974</v>
       </c>
     </row>
   </sheetData>

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A12062-D690-40BB-87CC-C1D32A3A5AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E78E799-E19B-4077-85DF-2B25AA2997A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$274</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$274</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$G$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="132">
   <si>
     <t>Date</t>
   </si>
@@ -452,6 +452,9 @@
   <si>
     <t>Delta Center</t>
   </si>
+  <si>
+    <t>Valid</t>
+  </si>
 </sst>
 </file>
 
@@ -532,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -567,6 +570,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -678,9 +684,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$23</c:f>
+              <c:f>Sheet2!$A$2:$A$24</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -747,15 +753,18 @@
                 <c:pt idx="21">
                   <c:v>Fri, Feb 9, 2024</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sat, Feb 10, 2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$23</c:f>
+              <c:f>Sheet2!$D$2:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0.2857142857142857</c:v>
                 </c:pt>
@@ -821,6 +830,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.63636363636363635</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1117,9 +1129,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$23</c:f>
+              <c:f>Sheet2!$A$2:$A$24</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -1186,15 +1198,18 @@
                 <c:pt idx="21">
                   <c:v>Fri, Feb 9, 2024</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sat, Feb 10, 2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$F$2:$F$23</c:f>
+              <c:f>Sheet2!$F$2:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>7.8</c:v>
                 </c:pt>
@@ -1260,6 +1275,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>12.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1552,9 +1570,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$23</c:f>
+              <c:f>Sheet2!$A$2:$A$24</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -1621,15 +1639,18 @@
                 <c:pt idx="21">
                   <c:v>Fri, Feb 9, 2024</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sat, Feb 10, 2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$G$2:$G$23</c:f>
+              <c:f>Sheet2!$G$2:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0.2857142857142857</c:v>
                 </c:pt>
@@ -1695,6 +1716,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.45398773006134974</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.46551724137931033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3925,11 +3949,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M274"/>
+  <dimension ref="A1:N274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="G182" sqref="G182"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3947,7 +3969,7 @@
     <col min="12" max="12" width="14.1328125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3987,8 +4009,11 @@
       <c r="M1" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N1" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -4029,8 +4054,12 @@
         <f>ABS(D2-F2)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N2" t="b">
+        <f>K2=I2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -4071,8 +4100,12 @@
         <f t="shared" ref="M3:M66" si="0">ABS(D3-F3)</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N3" t="b">
+        <f t="shared" ref="N3:N66" si="1">K3=I3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -4113,8 +4146,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N4" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -4155,8 +4192,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -4197,8 +4238,12 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -4239,8 +4284,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N7" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -4281,8 +4330,12 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
@@ -4323,8 +4376,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N9" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
@@ -4365,8 +4422,12 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N10" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
@@ -4407,8 +4468,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N11" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
@@ -4449,8 +4514,12 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N12" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
@@ -4491,8 +4560,12 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N13" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
@@ -4533,8 +4606,12 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N14" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -4575,8 +4652,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N15" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>39</v>
       </c>
@@ -4617,8 +4698,12 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N16" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>60</v>
       </c>
@@ -4659,8 +4744,12 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N17" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>60</v>
       </c>
@@ -4701,8 +4790,12 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>60</v>
       </c>
@@ -4743,8 +4836,12 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N19" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>60</v>
       </c>
@@ -4785,8 +4882,12 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N20" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>60</v>
       </c>
@@ -4827,8 +4928,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N21" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>60</v>
       </c>
@@ -4869,8 +4974,12 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N22" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>65</v>
       </c>
@@ -4911,8 +5020,12 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N23" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>65</v>
       </c>
@@ -4953,8 +5066,12 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>65</v>
       </c>
@@ -4995,8 +5112,12 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>65</v>
       </c>
@@ -5037,8 +5158,12 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N26" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>65</v>
       </c>
@@ -5079,8 +5204,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>65</v>
       </c>
@@ -5121,8 +5250,12 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N28" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>65</v>
       </c>
@@ -5163,8 +5296,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>65</v>
       </c>
@@ -5205,8 +5342,12 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N30" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>74</v>
       </c>
@@ -5247,8 +5388,12 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N31" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>74</v>
       </c>
@@ -5289,8 +5434,12 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>74</v>
       </c>
@@ -5331,8 +5480,12 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N33" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>74</v>
       </c>
@@ -5373,8 +5526,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N34" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>74</v>
       </c>
@@ -5415,8 +5572,12 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N35" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>78</v>
       </c>
@@ -5457,8 +5618,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N36" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>78</v>
       </c>
@@ -5499,8 +5664,12 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N37" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>78</v>
       </c>
@@ -5541,8 +5710,12 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N38" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>78</v>
       </c>
@@ -5583,8 +5756,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>78</v>
       </c>
@@ -5625,8 +5802,12 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N40" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>78</v>
       </c>
@@ -5667,8 +5848,12 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N41" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>78</v>
       </c>
@@ -5709,8 +5894,12 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N42" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>78</v>
       </c>
@@ -5751,8 +5940,12 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N43" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>84</v>
       </c>
@@ -5793,8 +5986,12 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N44" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>84</v>
       </c>
@@ -5835,8 +6032,12 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N45" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>84</v>
       </c>
@@ -5877,8 +6078,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N46" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>84</v>
       </c>
@@ -5919,8 +6124,12 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N47" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>84</v>
       </c>
@@ -5961,8 +6170,12 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N48" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>84</v>
       </c>
@@ -6003,8 +6216,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N49" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>84</v>
       </c>
@@ -6045,8 +6262,12 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N50" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>85</v>
       </c>
@@ -6087,8 +6308,12 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N51" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>85</v>
       </c>
@@ -6129,8 +6354,12 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N52" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>85</v>
       </c>
@@ -6171,8 +6400,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N53" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>85</v>
       </c>
@@ -6213,8 +6446,12 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N54" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>85</v>
       </c>
@@ -6255,8 +6492,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N55" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>85</v>
       </c>
@@ -6297,8 +6538,12 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N56" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>85</v>
       </c>
@@ -6339,8 +6584,12 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N57" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>85</v>
       </c>
@@ -6381,8 +6630,12 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N58" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>87</v>
       </c>
@@ -6423,8 +6676,12 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N59" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6722,12 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N60" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>87</v>
       </c>
@@ -6507,8 +6768,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N61" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>87</v>
       </c>
@@ -6549,8 +6814,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N62" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>87</v>
       </c>
@@ -6591,8 +6860,12 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N63" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>87</v>
       </c>
@@ -6633,8 +6906,12 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N64" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>87</v>
       </c>
@@ -6675,8 +6952,12 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N65" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>87</v>
       </c>
@@ -6717,8 +6998,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N66" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>87</v>
       </c>
@@ -6756,11 +7041,15 @@
         <v>97</v>
       </c>
       <c r="M67" s="7">
-        <f t="shared" ref="M67:M160" si="1">ABS(D67-F67)</f>
+        <f t="shared" ref="M67:M160" si="2">ABS(D67-F67)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N67" t="b">
+        <f t="shared" ref="N67:N130" si="3">K67=I67</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>87</v>
       </c>
@@ -6798,11 +7087,15 @@
         <v>98</v>
       </c>
       <c r="M68" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N68" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>91</v>
       </c>
@@ -6840,11 +7133,15 @@
         <v>98</v>
       </c>
       <c r="M69" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N69" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>91</v>
       </c>
@@ -6882,11 +7179,15 @@
         <v>97</v>
       </c>
       <c r="M70" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N70" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>91</v>
       </c>
@@ -6924,11 +7225,15 @@
         <v>97</v>
       </c>
       <c r="M71" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N71" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>91</v>
       </c>
@@ -6966,11 +7271,15 @@
         <v>97</v>
       </c>
       <c r="M72" s="7">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N72" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
         <v>91</v>
       </c>
@@ -7008,11 +7317,15 @@
         <v>98</v>
       </c>
       <c r="M73" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N73" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>92</v>
       </c>
@@ -7050,11 +7363,15 @@
         <v>98</v>
       </c>
       <c r="M74" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N74" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>92</v>
       </c>
@@ -7092,11 +7409,15 @@
         <v>97</v>
       </c>
       <c r="M75" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N75" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>92</v>
       </c>
@@ -7134,11 +7455,15 @@
         <v>98</v>
       </c>
       <c r="M76" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N76" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
         <v>92</v>
       </c>
@@ -7176,11 +7501,15 @@
         <v>98</v>
       </c>
       <c r="M77" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N77" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>92</v>
       </c>
@@ -7218,11 +7547,15 @@
         <v>98</v>
       </c>
       <c r="M78" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N78" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
         <v>92</v>
       </c>
@@ -7260,11 +7593,15 @@
         <v>98</v>
       </c>
       <c r="M79" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N79" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>92</v>
       </c>
@@ -7302,11 +7639,15 @@
         <v>98</v>
       </c>
       <c r="M80" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N80" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
         <v>92</v>
       </c>
@@ -7344,11 +7685,15 @@
         <v>97</v>
       </c>
       <c r="M81" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N81" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>92</v>
       </c>
@@ -7386,11 +7731,15 @@
         <v>98</v>
       </c>
       <c r="M82" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N82" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
         <v>92</v>
       </c>
@@ -7428,11 +7777,15 @@
         <v>97</v>
       </c>
       <c r="M83" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N83" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>92</v>
       </c>
@@ -7470,11 +7823,15 @@
         <v>98</v>
       </c>
       <c r="M84" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N84" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
         <v>92</v>
       </c>
@@ -7512,11 +7869,15 @@
         <v>97</v>
       </c>
       <c r="M85" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N85" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>94</v>
       </c>
@@ -7554,11 +7915,15 @@
         <v>97</v>
       </c>
       <c r="M86" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N86" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
         <v>94</v>
       </c>
@@ -7596,11 +7961,15 @@
         <v>98</v>
       </c>
       <c r="M87" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N87" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>94</v>
       </c>
@@ -7638,11 +8007,15 @@
         <v>98</v>
       </c>
       <c r="M88" s="7">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N88" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
         <v>94</v>
       </c>
@@ -7680,11 +8053,15 @@
         <v>97</v>
       </c>
       <c r="M89" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N89" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>94</v>
       </c>
@@ -7722,11 +8099,15 @@
         <v>97</v>
       </c>
       <c r="M90" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N90" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
         <v>95</v>
       </c>
@@ -7764,11 +8145,15 @@
         <v>98</v>
       </c>
       <c r="M91" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N91" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>95</v>
       </c>
@@ -7806,11 +8191,15 @@
         <v>98</v>
       </c>
       <c r="M92" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N92" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
         <v>95</v>
       </c>
@@ -7848,11 +8237,15 @@
         <v>98</v>
       </c>
       <c r="M93" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N93" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>95</v>
       </c>
@@ -7890,11 +8283,15 @@
         <v>97</v>
       </c>
       <c r="M94" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N94" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
         <v>95</v>
       </c>
@@ -7932,11 +8329,15 @@
         <v>98</v>
       </c>
       <c r="M95" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N95" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>95</v>
       </c>
@@ -7974,11 +8375,15 @@
         <v>98</v>
       </c>
       <c r="M96" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N96" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
         <v>95</v>
       </c>
@@ -8016,11 +8421,15 @@
         <v>97</v>
       </c>
       <c r="M97" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N97" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>95</v>
       </c>
@@ -8058,11 +8467,15 @@
         <v>98</v>
       </c>
       <c r="M98" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N98" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
         <v>95</v>
       </c>
@@ -8100,11 +8513,15 @@
         <v>98</v>
       </c>
       <c r="M99" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N99" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>95</v>
       </c>
@@ -8142,11 +8559,15 @@
         <v>97</v>
       </c>
       <c r="M100" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N100" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
         <v>104</v>
       </c>
@@ -8184,11 +8605,15 @@
         <v>97</v>
       </c>
       <c r="M101" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N101" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>104</v>
       </c>
@@ -8226,11 +8651,15 @@
         <v>98</v>
       </c>
       <c r="M102" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N102" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
         <v>104</v>
       </c>
@@ -8268,11 +8697,15 @@
         <v>98</v>
       </c>
       <c r="M103" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N103" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A104" s="15" t="s">
         <v>104</v>
       </c>
@@ -8310,11 +8743,15 @@
         <v>97</v>
       </c>
       <c r="M104" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N104" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
         <v>105</v>
       </c>
@@ -8352,11 +8789,15 @@
         <v>98</v>
       </c>
       <c r="M105" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N105" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>105</v>
       </c>
@@ -8394,11 +8835,15 @@
         <v>98</v>
       </c>
       <c r="M106" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N106" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
         <v>105</v>
       </c>
@@ -8436,11 +8881,15 @@
         <v>97</v>
       </c>
       <c r="M107" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N107" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
         <v>105</v>
       </c>
@@ -8478,11 +8927,15 @@
         <v>97</v>
       </c>
       <c r="M108" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N108" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
         <v>105</v>
       </c>
@@ -8520,11 +8973,15 @@
         <v>98</v>
       </c>
       <c r="M109" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N109" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
         <v>105</v>
       </c>
@@ -8562,11 +9019,15 @@
         <v>98</v>
       </c>
       <c r="M110" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N110" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="s">
         <v>105</v>
       </c>
@@ -8604,11 +9065,15 @@
         <v>97</v>
       </c>
       <c r="M111" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N111" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
         <v>105</v>
       </c>
@@ -8646,11 +9111,15 @@
         <v>98</v>
       </c>
       <c r="M112" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N112" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
         <v>105</v>
       </c>
@@ -8688,11 +9157,15 @@
         <v>98</v>
       </c>
       <c r="M113" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N113" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
         <v>105</v>
       </c>
@@ -8730,11 +9203,15 @@
         <v>98</v>
       </c>
       <c r="M114" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N114" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
         <v>106</v>
       </c>
@@ -8772,11 +9249,15 @@
         <v>98</v>
       </c>
       <c r="M115" s="7">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.45">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N115" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
         <v>106</v>
       </c>
@@ -8814,11 +9295,15 @@
         <v>98</v>
       </c>
       <c r="M116" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N116" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="s">
         <v>106</v>
       </c>
@@ -8856,11 +9341,15 @@
         <v>97</v>
       </c>
       <c r="M117" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N117" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
         <v>106</v>
       </c>
@@ -8898,11 +9387,15 @@
         <v>97</v>
       </c>
       <c r="M118" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N118" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A119" s="3" t="s">
         <v>106</v>
       </c>
@@ -8940,11 +9433,15 @@
         <v>98</v>
       </c>
       <c r="M119" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N119" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
         <v>106</v>
       </c>
@@ -8982,11 +9479,15 @@
         <v>97</v>
       </c>
       <c r="M120" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N120" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A121" s="3" t="s">
         <v>107</v>
       </c>
@@ -9024,11 +9525,15 @@
         <v>97</v>
       </c>
       <c r="M121" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N121" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
         <v>107</v>
       </c>
@@ -9066,11 +9571,15 @@
         <v>97</v>
       </c>
       <c r="M122" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N122" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
         <v>107</v>
       </c>
@@ -9108,11 +9617,15 @@
         <v>97</v>
       </c>
       <c r="M123" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N123" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
         <v>107</v>
       </c>
@@ -9150,11 +9663,15 @@
         <v>97</v>
       </c>
       <c r="M124" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N124" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="s">
         <v>107</v>
       </c>
@@ -9192,11 +9709,15 @@
         <v>97</v>
       </c>
       <c r="M125" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N125" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
         <v>107</v>
       </c>
@@ -9234,11 +9755,15 @@
         <v>97</v>
       </c>
       <c r="M126" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N126" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A127" s="3" t="s">
         <v>107</v>
       </c>
@@ -9276,11 +9801,15 @@
         <v>97</v>
       </c>
       <c r="M127" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N127" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
         <v>107</v>
       </c>
@@ -9318,11 +9847,15 @@
         <v>98</v>
       </c>
       <c r="M128" s="7">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.45">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N128" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A129" s="3" t="s">
         <v>107</v>
       </c>
@@ -9360,11 +9893,15 @@
         <v>97</v>
       </c>
       <c r="M129" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N129" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
         <v>108</v>
       </c>
@@ -9402,11 +9939,15 @@
         <v>97</v>
       </c>
       <c r="M130" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N130" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A131" s="3" t="s">
         <v>108</v>
       </c>
@@ -9444,11 +9985,15 @@
         <v>97</v>
       </c>
       <c r="M131" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N131" t="b">
+        <f t="shared" ref="N131:N164" si="4">K131=I131</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
         <v>108</v>
       </c>
@@ -9486,11 +10031,15 @@
         <v>98</v>
       </c>
       <c r="M132" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N132" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A133" s="3" t="s">
         <v>108</v>
       </c>
@@ -9528,11 +10077,15 @@
         <v>97</v>
       </c>
       <c r="M133" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N133" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
         <v>108</v>
       </c>
@@ -9570,11 +10123,15 @@
         <v>97</v>
       </c>
       <c r="M134" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N134" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A135" s="3" t="s">
         <v>108</v>
       </c>
@@ -9612,11 +10169,15 @@
         <v>97</v>
       </c>
       <c r="M135" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N135" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
         <v>109</v>
       </c>
@@ -9654,11 +10215,15 @@
         <v>98</v>
       </c>
       <c r="M136" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N136" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A137" s="3" t="s">
         <v>109</v>
       </c>
@@ -9696,11 +10261,15 @@
         <v>97</v>
       </c>
       <c r="M137" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N137" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
         <v>109</v>
       </c>
@@ -9738,11 +10307,15 @@
         <v>98</v>
       </c>
       <c r="M138" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N138" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A139" s="3" t="s">
         <v>109</v>
       </c>
@@ -9780,11 +10353,15 @@
         <v>97</v>
       </c>
       <c r="M139" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N139" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="s">
         <v>109</v>
       </c>
@@ -9822,11 +10399,15 @@
         <v>98</v>
       </c>
       <c r="M140" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N140" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A141" s="3" t="s">
         <v>109</v>
       </c>
@@ -9864,11 +10445,15 @@
         <v>98</v>
       </c>
       <c r="M141" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N141" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
         <v>109</v>
       </c>
@@ -9906,11 +10491,15 @@
         <v>98</v>
       </c>
       <c r="M142" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N142" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A143" s="3" t="s">
         <v>110</v>
       </c>
@@ -9948,11 +10537,15 @@
         <v>97</v>
       </c>
       <c r="M143" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N143" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
         <v>110</v>
       </c>
@@ -9990,11 +10583,15 @@
         <v>97</v>
       </c>
       <c r="M144" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N144" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A145" s="3" t="s">
         <v>110</v>
       </c>
@@ -10032,11 +10629,15 @@
         <v>97</v>
       </c>
       <c r="M145" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N145" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
         <v>110</v>
       </c>
@@ -10074,11 +10675,15 @@
         <v>97</v>
       </c>
       <c r="M146" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N146" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A147" s="3" t="s">
         <v>110</v>
       </c>
@@ -10116,11 +10721,15 @@
         <v>98</v>
       </c>
       <c r="M147" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N147" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="s">
         <v>110</v>
       </c>
@@ -10158,11 +10767,15 @@
         <v>98</v>
       </c>
       <c r="M148" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N148" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A149" s="3" t="s">
         <v>110</v>
       </c>
@@ -10200,11 +10813,15 @@
         <v>98</v>
       </c>
       <c r="M149" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N149" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="s">
         <v>111</v>
       </c>
@@ -10242,11 +10859,15 @@
         <v>98</v>
       </c>
       <c r="M150" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N150" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A151" s="3" t="s">
         <v>111</v>
       </c>
@@ -10284,11 +10905,15 @@
         <v>97</v>
       </c>
       <c r="M151" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N151" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="s">
         <v>111</v>
       </c>
@@ -10326,11 +10951,15 @@
         <v>97</v>
       </c>
       <c r="M152" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N152" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A153" s="3" t="s">
         <v>111</v>
       </c>
@@ -10368,11 +10997,15 @@
         <v>98</v>
       </c>
       <c r="M153" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N153" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="s">
         <v>111</v>
       </c>
@@ -10410,11 +11043,15 @@
         <v>97</v>
       </c>
       <c r="M154" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N154" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A155" s="3" t="s">
         <v>111</v>
       </c>
@@ -10452,11 +11089,15 @@
         <v>98</v>
       </c>
       <c r="M155" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N155" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A156" s="3" t="s">
         <v>111</v>
       </c>
@@ -10494,11 +11135,15 @@
         <v>98</v>
       </c>
       <c r="M156" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N156" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A157" s="3" t="s">
         <v>111</v>
       </c>
@@ -10536,11 +11181,15 @@
         <v>97</v>
       </c>
       <c r="M157" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N157" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A158" s="3" t="s">
         <v>111</v>
       </c>
@@ -10578,11 +11227,15 @@
         <v>98</v>
       </c>
       <c r="M158" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N158" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A159" s="3" t="s">
         <v>112</v>
       </c>
@@ -10620,11 +11273,15 @@
         <v>98</v>
       </c>
       <c r="M159" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N159" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A160" s="3" t="s">
         <v>112</v>
       </c>
@@ -10662,11 +11319,15 @@
         <v>97</v>
       </c>
       <c r="M160" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N160" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A161" s="3" t="s">
         <v>112</v>
       </c>
@@ -10704,11 +11365,15 @@
         <v>98</v>
       </c>
       <c r="M161" s="7">
-        <f t="shared" ref="M161:M164" si="2">ABS(D161-F161)</f>
+        <f t="shared" ref="M161:M175" si="5">ABS(D161-F161)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N161" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A162" s="3" t="s">
         <v>112</v>
       </c>
@@ -10746,11 +11411,15 @@
         <v>97</v>
       </c>
       <c r="M162" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N162" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A163" s="3" t="s">
         <v>112</v>
       </c>
@@ -10788,11 +11457,15 @@
         <v>98</v>
       </c>
       <c r="M163" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N163" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A164" s="3" t="s">
         <v>112</v>
       </c>
@@ -10830,11 +11503,15 @@
         <v>97</v>
       </c>
       <c r="M164" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N164" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A165" s="3" t="s">
         <v>113</v>
       </c>
@@ -10844,14 +11521,43 @@
       <c r="C165" t="s">
         <v>57</v>
       </c>
+      <c r="D165" s="7">
+        <v>111</v>
+      </c>
       <c r="E165" t="s">
         <v>69</v>
       </c>
+      <c r="F165" s="7">
+        <v>146</v>
+      </c>
+      <c r="G165" t="s">
+        <v>15</v>
+      </c>
       <c r="H165" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I165" t="s">
+        <v>69</v>
+      </c>
+      <c r="J165" t="s">
+        <v>57</v>
+      </c>
+      <c r="K165" t="s">
+        <v>57</v>
+      </c>
+      <c r="L165" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M165" s="7">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="N165" t="b">
+        <f>K165=I165</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A166" s="3" t="s">
         <v>113</v>
       </c>
@@ -10861,14 +11567,43 @@
       <c r="C166" t="s">
         <v>42</v>
       </c>
+      <c r="D166" s="7">
+        <v>106</v>
+      </c>
       <c r="E166" t="s">
         <v>62</v>
       </c>
+      <c r="F166" s="7">
+        <v>112</v>
+      </c>
+      <c r="G166" t="s">
+        <v>15</v>
+      </c>
       <c r="H166" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I166" t="s">
+        <v>62</v>
+      </c>
+      <c r="J166" t="s">
+        <v>42</v>
+      </c>
+      <c r="K166" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L166" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M166" s="7">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N166" t="b">
+        <f t="shared" ref="N166:N175" si="6">K166=I166</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A167" s="3" t="s">
         <v>113</v>
       </c>
@@ -10878,14 +11613,43 @@
       <c r="C167" t="s">
         <v>13</v>
       </c>
+      <c r="D167" s="7">
+        <v>103</v>
+      </c>
       <c r="E167" t="s">
         <v>36</v>
       </c>
+      <c r="F167" s="7">
+        <v>123</v>
+      </c>
+      <c r="G167" t="s">
+        <v>15</v>
+      </c>
       <c r="H167" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I167" t="s">
+        <v>36</v>
+      </c>
+      <c r="J167" t="s">
+        <v>13</v>
+      </c>
+      <c r="K167" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L167" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M167" s="7">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="N167" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A168" s="3" t="s">
         <v>113</v>
       </c>
@@ -10895,14 +11659,43 @@
       <c r="C168" t="s">
         <v>51</v>
       </c>
+      <c r="D168" s="7">
+        <v>106</v>
+      </c>
       <c r="E168" t="s">
         <v>14</v>
       </c>
+      <c r="F168" s="7">
+        <v>115</v>
+      </c>
+      <c r="G168" t="s">
+        <v>15</v>
+      </c>
       <c r="H168" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I168" t="s">
+        <v>14</v>
+      </c>
+      <c r="J168" t="s">
+        <v>51</v>
+      </c>
+      <c r="K168" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L168" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M168" s="7">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="N168" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A169" s="3" t="s">
         <v>113</v>
       </c>
@@ -10912,14 +11705,43 @@
       <c r="C169" t="s">
         <v>52</v>
       </c>
+      <c r="D169" s="7">
+        <v>108</v>
+      </c>
       <c r="E169" t="s">
         <v>18</v>
       </c>
+      <c r="F169" s="7">
+        <v>114</v>
+      </c>
+      <c r="G169" t="s">
+        <v>15</v>
+      </c>
       <c r="H169" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I169" t="s">
+        <v>18</v>
+      </c>
+      <c r="J169" t="s">
+        <v>52</v>
+      </c>
+      <c r="K169" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L169" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M169" s="7">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N169" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A170" s="3" t="s">
         <v>113</v>
       </c>
@@ -10929,14 +11751,43 @@
       <c r="C170" t="s">
         <v>17</v>
       </c>
+      <c r="D170" s="7">
+        <v>119</v>
+      </c>
       <c r="E170" t="s">
         <v>44</v>
       </c>
+      <c r="F170" s="7">
+        <v>113</v>
+      </c>
+      <c r="G170" t="s">
+        <v>15</v>
+      </c>
       <c r="H170" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I170" t="s">
+        <v>17</v>
+      </c>
+      <c r="J170" t="s">
+        <v>44</v>
+      </c>
+      <c r="K170" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L170" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M170" s="7">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N170" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A171" s="3" t="s">
         <v>113</v>
       </c>
@@ -10946,14 +11797,43 @@
       <c r="C171" t="s">
         <v>55</v>
       </c>
+      <c r="D171" s="7">
+        <v>113</v>
+      </c>
       <c r="E171" t="s">
         <v>25</v>
       </c>
+      <c r="F171" s="7">
+        <v>122</v>
+      </c>
+      <c r="G171" t="s">
+        <v>15</v>
+      </c>
       <c r="H171" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I171" t="s">
+        <v>25</v>
+      </c>
+      <c r="J171" t="s">
+        <v>55</v>
+      </c>
+      <c r="K171" t="s">
+        <v>55</v>
+      </c>
+      <c r="L171" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M171" s="7">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="N171" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A172" s="3" t="s">
         <v>113</v>
       </c>
@@ -10963,14 +11843,43 @@
       <c r="C172" t="s">
         <v>32</v>
       </c>
+      <c r="D172" s="7">
+        <v>125</v>
+      </c>
       <c r="E172" t="s">
         <v>49</v>
       </c>
+      <c r="F172" s="7">
+        <v>111</v>
+      </c>
+      <c r="G172" t="s">
+        <v>15</v>
+      </c>
       <c r="H172" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I172" t="s">
+        <v>32</v>
+      </c>
+      <c r="J172" t="s">
+        <v>49</v>
+      </c>
+      <c r="K172" t="s">
+        <v>49</v>
+      </c>
+      <c r="L172" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M172" s="7">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="N172" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A173" s="3" t="s">
         <v>113</v>
       </c>
@@ -10980,14 +11889,43 @@
       <c r="C173" t="s">
         <v>46</v>
       </c>
+      <c r="D173" s="7">
+        <v>119</v>
+      </c>
       <c r="E173" t="s">
         <v>48</v>
       </c>
+      <c r="F173" s="7">
+        <v>95</v>
+      </c>
+      <c r="G173" t="s">
+        <v>15</v>
+      </c>
       <c r="H173" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I173" t="s">
+        <v>46</v>
+      </c>
+      <c r="J173" t="s">
+        <v>48</v>
+      </c>
+      <c r="K173" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L173" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M173" s="7">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="N173" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A174" s="3" t="s">
         <v>113</v>
       </c>
@@ -10997,14 +11935,43 @@
       <c r="C174" t="s">
         <v>28</v>
       </c>
+      <c r="D174" s="7">
+        <v>112</v>
+      </c>
       <c r="E174" t="s">
         <v>82</v>
       </c>
+      <c r="F174" s="7">
+        <v>113</v>
+      </c>
+      <c r="G174" t="s">
+        <v>15</v>
+      </c>
       <c r="H174" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I174" t="s">
+        <v>82</v>
+      </c>
+      <c r="J174" t="s">
+        <v>28</v>
+      </c>
+      <c r="K174" t="s">
+        <v>28</v>
+      </c>
+      <c r="L174" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M174" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N174" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A175" s="3" t="s">
         <v>113</v>
       </c>
@@ -11014,14 +11981,43 @@
       <c r="C175" t="s">
         <v>29</v>
       </c>
+      <c r="D175" s="7">
+        <v>93</v>
+      </c>
       <c r="E175" t="s">
         <v>33</v>
       </c>
+      <c r="F175" s="7">
+        <v>84</v>
+      </c>
+      <c r="G175" t="s">
+        <v>15</v>
+      </c>
       <c r="H175" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I175" t="s">
+        <v>29</v>
+      </c>
+      <c r="J175" t="s">
+        <v>33</v>
+      </c>
+      <c r="K175" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L175" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M175" s="7">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="N175" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A176" s="3" t="s">
         <v>114</v>
       </c>
@@ -12715,7 +13711,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13390,27 +14386,27 @@
       </c>
       <c r="B24" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A24)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C24" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A24)</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="10" t="str">
+        <v>4</v>
+      </c>
+      <c r="D24" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E24" s="14" t="str">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="E24" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A24, Sheet1!$L$2:$L$500, "Yes"),"")</f>
-        <v/>
-      </c>
-      <c r="F24" s="14" t="str">
+        <v>11.428571428571429</v>
+      </c>
+      <c r="F24" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A24, Sheet1!$L$2:$L$500, "No"),"")</f>
-        <v/>
+        <v>14.75</v>
       </c>
       <c r="G24" s="8" cm="1">
         <f t="array" ref="G24">SUM(($B$2:B24)/SUM($B$2:C24))</f>
-        <v>0.45398773006134974</v>
+        <v>0.46551724137931033</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -13439,7 +14435,7 @@
       </c>
       <c r="G25" s="8" cm="1">
         <f t="array" ref="G25">SUM(($B$2:B25)/SUM($B$2:C25))</f>
-        <v>0.45398773006134974</v>
+        <v>0.46551724137931033</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -13468,7 +14464,7 @@
       </c>
       <c r="G26" s="8" cm="1">
         <f t="array" ref="G26">SUM(($B$2:B26)/SUM($B$2:C26))</f>
-        <v>0.45398773006134974</v>
+        <v>0.46551724137931033</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -13497,7 +14493,7 @@
       </c>
       <c r="G27" s="8" cm="1">
         <f t="array" ref="G27">SUM(($B$2:B27)/SUM($B$2:C27))</f>
-        <v>0.45398773006134974</v>
+        <v>0.46551724137931033</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -13526,7 +14522,7 @@
       </c>
       <c r="G28" s="8" cm="1">
         <f t="array" ref="G28">SUM(($B$2:B28)/SUM($B$2:C28))</f>
-        <v>0.45398773006134974</v>
+        <v>0.46551724137931033</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -13555,7 +14551,7 @@
       </c>
       <c r="G29" s="8" cm="1">
         <f t="array" ref="G29">SUM(($B$2:B29)/SUM($B$2:C29))</f>
-        <v>0.45398773006134974</v>
+        <v>0.46551724137931033</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -13584,7 +14580,7 @@
       </c>
       <c r="G30" s="8" cm="1">
         <f t="array" ref="G30">SUM(($B$2:B30)/SUM($B$2:C30))</f>
-        <v>0.45398773006134974</v>
+        <v>0.46551724137931033</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -13613,7 +14609,7 @@
       </c>
       <c r="G31" s="8" cm="1">
         <f t="array" ref="G31">SUM(($B$2:B31)/SUM($B$2:C31))</f>
-        <v>0.45398773006134974</v>
+        <v>0.46551724137931033</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
@@ -13642,7 +14638,7 @@
       </c>
       <c r="G32" s="8" cm="1">
         <f t="array" ref="G32">SUM(($B$2:B32)/SUM($B$2:C32))</f>
-        <v>0.45398773006134974</v>
+        <v>0.46551724137931033</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -13671,7 +14667,7 @@
       </c>
       <c r="G33" s="8" cm="1">
         <f t="array" ref="G33">SUM(($B$2:B33)/SUM($B$2:C33))</f>
-        <v>0.45398773006134974</v>
+        <v>0.46551724137931033</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -13700,7 +14696,7 @@
       </c>
       <c r="G34" s="8" cm="1">
         <f t="array" ref="G34">SUM(($B$2:B34)/SUM($B$2:C34))</f>
-        <v>0.45398773006134974</v>
+        <v>0.46551724137931033</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -13729,7 +14725,7 @@
       </c>
       <c r="G35" s="8" cm="1">
         <f t="array" ref="G35">SUM(($B$2:B35)/SUM($B$2:C35))</f>
-        <v>0.45398773006134974</v>
+        <v>0.46551724137931033</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -13758,7 +14754,7 @@
       </c>
       <c r="G36" s="8" cm="1">
         <f t="array" ref="G36">SUM(($B$2:B36)/SUM($B$2:C36))</f>
-        <v>0.45398773006134974</v>
+        <v>0.46551724137931033</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -13787,7 +14783,7 @@
       </c>
       <c r="G37" s="8" cm="1">
         <f t="array" ref="G37">SUM(($B$2:B37)/SUM($B$2:C37))</f>
-        <v>0.45398773006134974</v>
+        <v>0.46551724137931033</v>
       </c>
     </row>
   </sheetData>

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E78E799-E19B-4077-85DF-2B25AA2997A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762E9658-1DAF-4F26-89AC-A5B6D1ABD3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="132">
   <si>
     <t>Date</t>
   </si>
@@ -535,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -570,9 +570,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -684,9 +681,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$24</c:f>
+              <c:f>Sheet2!$A$2:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -756,15 +753,18 @@
                 <c:pt idx="22">
                   <c:v>Sat, Feb 10, 2024</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sun, Feb 11, 2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$24</c:f>
+              <c:f>Sheet2!$D$2:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0.2857142857142857</c:v>
                 </c:pt>
@@ -833,6 +833,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.63636363636363635</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1129,9 +1132,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$24</c:f>
+              <c:f>Sheet2!$A$2:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -1201,15 +1204,18 @@
                 <c:pt idx="22">
                   <c:v>Sat, Feb 10, 2024</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sun, Feb 11, 2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$F$2:$F$24</c:f>
+              <c:f>Sheet2!$F$2:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>7.8</c:v>
                 </c:pt>
@@ -1278,6 +1284,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>14.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1570,9 +1579,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$24</c:f>
+              <c:f>Sheet2!$A$2:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -1642,15 +1651,18 @@
                 <c:pt idx="22">
                   <c:v>Sat, Feb 10, 2024</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sun, Feb 11, 2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$G$2:$G$24</c:f>
+              <c:f>Sheet2!$G$2:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0.2857142857142857</c:v>
                 </c:pt>
@@ -1719,6 +1731,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.46551724137931033</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.47159090909090901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3951,7 +3966,9 @@
   </sheetPr>
   <dimension ref="A1:N274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="H177" sqref="H177"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4009,7 +4026,7 @@
       <c r="M1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="1" t="s">
         <v>131</v>
       </c>
     </row>
@@ -11365,7 +11382,7 @@
         <v>98</v>
       </c>
       <c r="M161" s="7">
-        <f t="shared" ref="M161:M175" si="5">ABS(D161-F161)</f>
+        <f t="shared" ref="M161:M177" si="5">ABS(D161-F161)</f>
         <v>3</v>
       </c>
       <c r="N161" t="b">
@@ -11599,7 +11616,7 @@
         <v>6</v>
       </c>
       <c r="N166" t="b">
-        <f t="shared" ref="N166:N175" si="6">K166=I166</f>
+        <f t="shared" ref="N166:N177" si="6">K166=I166</f>
         <v>1</v>
       </c>
     </row>
@@ -12027,14 +12044,43 @@
       <c r="C176" t="s">
         <v>22</v>
       </c>
+      <c r="D176" s="7">
+        <v>110</v>
+      </c>
       <c r="E176" t="s">
         <v>26</v>
       </c>
+      <c r="F176" s="7">
+        <v>106</v>
+      </c>
+      <c r="G176" t="s">
+        <v>15</v>
+      </c>
       <c r="H176" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I176" t="s">
+        <v>22</v>
+      </c>
+      <c r="J176" t="s">
+        <v>26</v>
+      </c>
+      <c r="K176" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L176" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M176" s="7">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N176" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A177" s="3" t="s">
         <v>114</v>
       </c>
@@ -12044,14 +12090,43 @@
       <c r="C177" t="s">
         <v>72</v>
       </c>
+      <c r="D177" s="7">
+        <v>113</v>
+      </c>
       <c r="E177" t="s">
         <v>57</v>
       </c>
+      <c r="F177" s="7">
+        <v>127</v>
+      </c>
+      <c r="G177" t="s">
+        <v>15</v>
+      </c>
       <c r="H177" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I177" t="s">
+        <v>57</v>
+      </c>
+      <c r="J177" t="s">
+        <v>72</v>
+      </c>
+      <c r="K177" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L177" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M177" s="7">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="N177" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A178" s="3" t="s">
         <v>116</v>
       </c>
@@ -12068,7 +12143,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A179" s="3" t="s">
         <v>116</v>
       </c>
@@ -12085,7 +12160,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A180" s="3" t="s">
         <v>116</v>
       </c>
@@ -12102,7 +12177,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A181" s="3" t="s">
         <v>116</v>
       </c>
@@ -12119,7 +12194,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A182" s="3" t="s">
         <v>116</v>
       </c>
@@ -12136,7 +12211,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A183" s="3" t="s">
         <v>116</v>
       </c>
@@ -12153,7 +12228,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A184" s="3" t="s">
         <v>116</v>
       </c>
@@ -12170,7 +12245,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A185" s="3" t="s">
         <v>116</v>
       </c>
@@ -12187,7 +12262,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A186" s="3" t="s">
         <v>116</v>
       </c>
@@ -12204,7 +12279,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A187" s="3" t="s">
         <v>116</v>
       </c>
@@ -12221,7 +12296,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A188" s="3" t="s">
         <v>117</v>
       </c>
@@ -12238,7 +12313,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A189" s="3" t="s">
         <v>117</v>
       </c>
@@ -12255,7 +12330,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A190" s="3" t="s">
         <v>117</v>
       </c>
@@ -12272,7 +12347,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A191" s="3" t="s">
         <v>117</v>
       </c>
@@ -12289,7 +12364,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A192" s="3" t="s">
         <v>117</v>
       </c>
@@ -13711,7 +13786,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14415,19 +14490,19 @@
       </c>
       <c r="B25" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A25)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A25)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="10" t="str">
+      <c r="D25" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E25" s="14" t="str">
+        <v>1</v>
+      </c>
+      <c r="E25" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A25, Sheet1!$L$2:$L$500, "Yes"),"")</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="F25" s="14" t="str">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A25, Sheet1!$L$2:$L$500, "No"),"")</f>
@@ -14435,7 +14510,7 @@
       </c>
       <c r="G25" s="8" cm="1">
         <f t="array" ref="G25">SUM(($B$2:B25)/SUM($B$2:C25))</f>
-        <v>0.46551724137931033</v>
+        <v>0.47159090909090901</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -14464,7 +14539,7 @@
       </c>
       <c r="G26" s="8" cm="1">
         <f t="array" ref="G26">SUM(($B$2:B26)/SUM($B$2:C26))</f>
-        <v>0.46551724137931033</v>
+        <v>0.47159090909090901</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -14493,7 +14568,7 @@
       </c>
       <c r="G27" s="8" cm="1">
         <f t="array" ref="G27">SUM(($B$2:B27)/SUM($B$2:C27))</f>
-        <v>0.46551724137931033</v>
+        <v>0.47159090909090901</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -14522,7 +14597,7 @@
       </c>
       <c r="G28" s="8" cm="1">
         <f t="array" ref="G28">SUM(($B$2:B28)/SUM($B$2:C28))</f>
-        <v>0.46551724137931033</v>
+        <v>0.47159090909090901</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -14551,7 +14626,7 @@
       </c>
       <c r="G29" s="8" cm="1">
         <f t="array" ref="G29">SUM(($B$2:B29)/SUM($B$2:C29))</f>
-        <v>0.46551724137931033</v>
+        <v>0.47159090909090901</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -14580,7 +14655,7 @@
       </c>
       <c r="G30" s="8" cm="1">
         <f t="array" ref="G30">SUM(($B$2:B30)/SUM($B$2:C30))</f>
-        <v>0.46551724137931033</v>
+        <v>0.47159090909090901</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -14609,7 +14684,7 @@
       </c>
       <c r="G31" s="8" cm="1">
         <f t="array" ref="G31">SUM(($B$2:B31)/SUM($B$2:C31))</f>
-        <v>0.46551724137931033</v>
+        <v>0.47159090909090901</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
@@ -14638,7 +14713,7 @@
       </c>
       <c r="G32" s="8" cm="1">
         <f t="array" ref="G32">SUM(($B$2:B32)/SUM($B$2:C32))</f>
-        <v>0.46551724137931033</v>
+        <v>0.47159090909090901</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -14667,7 +14742,7 @@
       </c>
       <c r="G33" s="8" cm="1">
         <f t="array" ref="G33">SUM(($B$2:B33)/SUM($B$2:C33))</f>
-        <v>0.46551724137931033</v>
+        <v>0.47159090909090901</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -14696,7 +14771,7 @@
       </c>
       <c r="G34" s="8" cm="1">
         <f t="array" ref="G34">SUM(($B$2:B34)/SUM($B$2:C34))</f>
-        <v>0.46551724137931033</v>
+        <v>0.47159090909090901</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -14725,7 +14800,7 @@
       </c>
       <c r="G35" s="8" cm="1">
         <f t="array" ref="G35">SUM(($B$2:B35)/SUM($B$2:C35))</f>
-        <v>0.46551724137931033</v>
+        <v>0.47159090909090901</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -14754,7 +14829,7 @@
       </c>
       <c r="G36" s="8" cm="1">
         <f t="array" ref="G36">SUM(($B$2:B36)/SUM($B$2:C36))</f>
-        <v>0.46551724137931033</v>
+        <v>0.47159090909090901</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -14783,7 +14858,7 @@
       </c>
       <c r="G37" s="8" cm="1">
         <f t="array" ref="G37">SUM(($B$2:B37)/SUM($B$2:C37))</f>
-        <v>0.46551724137931033</v>
+        <v>0.47159090909090901</v>
       </c>
     </row>
   </sheetData>

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762E9658-1DAF-4F26-89AC-A5B6D1ABD3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C933E76-C6B3-4CA8-B397-BEA79BF11C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="132">
   <si>
     <t>Date</t>
   </si>
@@ -681,9 +681,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$25</c:f>
+              <c:f>Sheet2!$A$2:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -756,15 +756,18 @@
                 <c:pt idx="23">
                   <c:v>Sun, Feb 11, 2024</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>Mon, Feb 12, 2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$25</c:f>
+              <c:f>Sheet2!$D$2:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0.2857142857142857</c:v>
                 </c:pt>
@@ -836,6 +839,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1132,9 +1138,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$25</c:f>
+              <c:f>Sheet2!$A$2:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -1207,15 +1213,18 @@
                 <c:pt idx="23">
                   <c:v>Sun, Feb 11, 2024</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>Mon, Feb 12, 2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$F$2:$F$25</c:f>
+              <c:f>Sheet2!$F$2:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>7.8</c:v>
                 </c:pt>
@@ -1287,6 +1296,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.714285714285714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1579,9 +1591,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$25</c:f>
+              <c:f>Sheet2!$A$2:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -1654,15 +1666,18 @@
                 <c:pt idx="23">
                   <c:v>Sun, Feb 11, 2024</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>Mon, Feb 12, 2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$G$2:$G$25</c:f>
+              <c:f>Sheet2!$G$2:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0.2857142857142857</c:v>
                 </c:pt>
@@ -1734,6 +1749,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.47159090909090901</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.46236559139784938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3966,9 +3984,7 @@
   </sheetPr>
   <dimension ref="A1:N274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="H177" sqref="H177"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11382,7 +11398,7 @@
         <v>98</v>
       </c>
       <c r="M161" s="7">
-        <f t="shared" ref="M161:M177" si="5">ABS(D161-F161)</f>
+        <f t="shared" ref="M161:M187" si="5">ABS(D161-F161)</f>
         <v>3</v>
       </c>
       <c r="N161" t="b">
@@ -11616,7 +11632,7 @@
         <v>6</v>
       </c>
       <c r="N166" t="b">
-        <f t="shared" ref="N166:N177" si="6">K166=I166</f>
+        <f t="shared" ref="N166:N187" si="6">K166=I166</f>
         <v>1</v>
       </c>
     </row>
@@ -12136,11 +12152,40 @@
       <c r="C178" t="s">
         <v>32</v>
       </c>
+      <c r="D178" s="7">
+        <v>102</v>
+      </c>
       <c r="E178" t="s">
         <v>14</v>
       </c>
+      <c r="F178" s="7">
+        <v>111</v>
+      </c>
+      <c r="G178" t="s">
+        <v>15</v>
+      </c>
       <c r="H178" t="s">
         <v>16</v>
+      </c>
+      <c r="I178" t="s">
+        <v>14</v>
+      </c>
+      <c r="J178" t="s">
+        <v>32</v>
+      </c>
+      <c r="K178" t="s">
+        <v>32</v>
+      </c>
+      <c r="L178" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M178" s="7">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="N178" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.45">
@@ -12153,11 +12198,40 @@
       <c r="C179" t="s">
         <v>17</v>
       </c>
+      <c r="D179" s="7">
+        <v>123</v>
+      </c>
       <c r="E179" t="s">
         <v>46</v>
       </c>
+      <c r="F179" s="7">
+        <v>121</v>
+      </c>
+      <c r="G179" t="s">
+        <v>15</v>
+      </c>
       <c r="H179" t="s">
         <v>93</v>
+      </c>
+      <c r="I179" t="s">
+        <v>17</v>
+      </c>
+      <c r="J179" t="s">
+        <v>46</v>
+      </c>
+      <c r="K179" t="s">
+        <v>46</v>
+      </c>
+      <c r="L179" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M179" s="7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N179" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.45">
@@ -12170,11 +12244,40 @@
       <c r="C180" t="s">
         <v>52</v>
       </c>
+      <c r="D180" s="7">
+        <v>136</v>
+      </c>
       <c r="E180" t="s">
         <v>25</v>
       </c>
+      <c r="F180" s="7">
+        <v>126</v>
+      </c>
+      <c r="G180" t="s">
+        <v>15</v>
+      </c>
       <c r="H180" t="s">
         <v>47</v>
+      </c>
+      <c r="I180" t="s">
+        <v>52</v>
+      </c>
+      <c r="J180" t="s">
+        <v>25</v>
+      </c>
+      <c r="K180" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L180" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M180" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N180" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.45">
@@ -12187,11 +12290,40 @@
       <c r="C181" t="s">
         <v>13</v>
       </c>
+      <c r="D181" s="7">
+        <v>122</v>
+      </c>
       <c r="E181" t="s">
         <v>48</v>
       </c>
+      <c r="F181" s="7">
+        <v>99</v>
+      </c>
+      <c r="G181" t="s">
+        <v>15</v>
+      </c>
       <c r="H181" t="s">
         <v>67</v>
+      </c>
+      <c r="I181" t="s">
+        <v>13</v>
+      </c>
+      <c r="J181" t="s">
+        <v>48</v>
+      </c>
+      <c r="K181" t="s">
+        <v>48</v>
+      </c>
+      <c r="L181" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M181" s="7">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="N181" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.45">
@@ -12204,11 +12336,40 @@
       <c r="C182" t="s">
         <v>49</v>
       </c>
+      <c r="D182" s="7">
+        <v>103</v>
+      </c>
       <c r="E182" t="s">
         <v>55</v>
       </c>
+      <c r="F182" s="7">
+        <v>105</v>
+      </c>
+      <c r="G182" t="s">
+        <v>15</v>
+      </c>
       <c r="H182" t="s">
         <v>56</v>
+      </c>
+      <c r="I182" t="s">
+        <v>55</v>
+      </c>
+      <c r="J182" t="s">
+        <v>49</v>
+      </c>
+      <c r="K182" t="s">
+        <v>49</v>
+      </c>
+      <c r="L182" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M182" s="7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N182" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.45">
@@ -12221,11 +12382,40 @@
       <c r="C183" t="s">
         <v>29</v>
       </c>
+      <c r="D183" s="7">
+        <v>96</v>
+      </c>
       <c r="E183" t="s">
         <v>51</v>
       </c>
+      <c r="F183" s="7">
+        <v>87</v>
+      </c>
+      <c r="G183" t="s">
+        <v>15</v>
+      </c>
       <c r="H183" t="s">
         <v>86</v>
+      </c>
+      <c r="I183" t="s">
+        <v>29</v>
+      </c>
+      <c r="J183" t="s">
+        <v>51</v>
+      </c>
+      <c r="K183" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L183" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M183" s="7">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="N183" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.45">
@@ -12238,11 +12428,40 @@
       <c r="C184" t="s">
         <v>21</v>
       </c>
+      <c r="D184" s="7">
+        <v>95</v>
+      </c>
       <c r="E184" t="s">
         <v>41</v>
       </c>
+      <c r="F184" s="7">
+        <v>112</v>
+      </c>
+      <c r="G184" t="s">
+        <v>15</v>
+      </c>
       <c r="H184" t="s">
         <v>79</v>
+      </c>
+      <c r="I184" t="s">
+        <v>41</v>
+      </c>
+      <c r="J184" t="s">
+        <v>21</v>
+      </c>
+      <c r="K184" t="s">
+        <v>21</v>
+      </c>
+      <c r="L184" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M184" s="7">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="N184" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.45">
@@ -12255,11 +12474,40 @@
       <c r="C185" t="s">
         <v>44</v>
       </c>
+      <c r="D185" s="7">
+        <v>104</v>
+      </c>
       <c r="E185" t="s">
         <v>69</v>
       </c>
+      <c r="F185" s="7">
+        <v>112</v>
+      </c>
+      <c r="G185" t="s">
+        <v>15</v>
+      </c>
       <c r="H185" t="s">
         <v>70</v>
+      </c>
+      <c r="I185" t="s">
+        <v>69</v>
+      </c>
+      <c r="J185" t="s">
+        <v>44</v>
+      </c>
+      <c r="K185" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L185" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M185" s="7">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="N185" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.45">
@@ -12272,11 +12520,40 @@
       <c r="C186" t="s">
         <v>82</v>
       </c>
+      <c r="D186" s="7">
+        <v>129</v>
+      </c>
       <c r="E186" t="s">
         <v>54</v>
       </c>
+      <c r="F186" s="7">
+        <v>107</v>
+      </c>
+      <c r="G186" t="s">
+        <v>15</v>
+      </c>
       <c r="H186" t="s">
         <v>130</v>
+      </c>
+      <c r="I186" t="s">
+        <v>82</v>
+      </c>
+      <c r="J186" t="s">
+        <v>54</v>
+      </c>
+      <c r="K186" t="s">
+        <v>54</v>
+      </c>
+      <c r="L186" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M186" s="7">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="N186" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.45">
@@ -12289,11 +12566,40 @@
       <c r="C187" t="s">
         <v>58</v>
       </c>
+      <c r="D187" s="7">
+        <v>121</v>
+      </c>
       <c r="E187" t="s">
         <v>62</v>
       </c>
+      <c r="F187" s="7">
+        <v>100</v>
+      </c>
+      <c r="G187" t="s">
+        <v>15</v>
+      </c>
       <c r="H187" t="s">
         <v>38</v>
+      </c>
+      <c r="I187" t="s">
+        <v>58</v>
+      </c>
+      <c r="J187" t="s">
+        <v>62</v>
+      </c>
+      <c r="K187" t="s">
+        <v>62</v>
+      </c>
+      <c r="L187" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M187" s="7">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="N187" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.45">
@@ -13786,7 +14092,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14519,27 +14825,27 @@
       </c>
       <c r="B26" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A26)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C26" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A26)</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="10" t="str">
+        <v>7</v>
+      </c>
+      <c r="D26" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E26" s="14" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="E26" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A26, Sheet1!$L$2:$L$500, "Yes"),"")</f>
-        <v/>
-      </c>
-      <c r="F26" s="14" t="str">
+        <v>9</v>
+      </c>
+      <c r="F26" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A26, Sheet1!$L$2:$L$500, "No"),"")</f>
-        <v/>
+        <v>13.714285714285714</v>
       </c>
       <c r="G26" s="8" cm="1">
         <f t="array" ref="G26">SUM(($B$2:B26)/SUM($B$2:C26))</f>
-        <v>0.47159090909090901</v>
+        <v>0.46236559139784938</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -14568,7 +14874,7 @@
       </c>
       <c r="G27" s="8" cm="1">
         <f t="array" ref="G27">SUM(($B$2:B27)/SUM($B$2:C27))</f>
-        <v>0.47159090909090901</v>
+        <v>0.46236559139784938</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -14597,7 +14903,7 @@
       </c>
       <c r="G28" s="8" cm="1">
         <f t="array" ref="G28">SUM(($B$2:B28)/SUM($B$2:C28))</f>
-        <v>0.47159090909090901</v>
+        <v>0.46236559139784938</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -14626,7 +14932,7 @@
       </c>
       <c r="G29" s="8" cm="1">
         <f t="array" ref="G29">SUM(($B$2:B29)/SUM($B$2:C29))</f>
-        <v>0.47159090909090901</v>
+        <v>0.46236559139784938</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -14655,7 +14961,7 @@
       </c>
       <c r="G30" s="8" cm="1">
         <f t="array" ref="G30">SUM(($B$2:B30)/SUM($B$2:C30))</f>
-        <v>0.47159090909090901</v>
+        <v>0.46236559139784938</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -14684,7 +14990,7 @@
       </c>
       <c r="G31" s="8" cm="1">
         <f t="array" ref="G31">SUM(($B$2:B31)/SUM($B$2:C31))</f>
-        <v>0.47159090909090901</v>
+        <v>0.46236559139784938</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
@@ -14713,7 +15019,7 @@
       </c>
       <c r="G32" s="8" cm="1">
         <f t="array" ref="G32">SUM(($B$2:B32)/SUM($B$2:C32))</f>
-        <v>0.47159090909090901</v>
+        <v>0.46236559139784938</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -14742,7 +15048,7 @@
       </c>
       <c r="G33" s="8" cm="1">
         <f t="array" ref="G33">SUM(($B$2:B33)/SUM($B$2:C33))</f>
-        <v>0.47159090909090901</v>
+        <v>0.46236559139784938</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -14771,7 +15077,7 @@
       </c>
       <c r="G34" s="8" cm="1">
         <f t="array" ref="G34">SUM(($B$2:B34)/SUM($B$2:C34))</f>
-        <v>0.47159090909090901</v>
+        <v>0.46236559139784938</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -14800,7 +15106,7 @@
       </c>
       <c r="G35" s="8" cm="1">
         <f t="array" ref="G35">SUM(($B$2:B35)/SUM($B$2:C35))</f>
-        <v>0.47159090909090901</v>
+        <v>0.46236559139784938</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -14829,7 +15135,7 @@
       </c>
       <c r="G36" s="8" cm="1">
         <f t="array" ref="G36">SUM(($B$2:B36)/SUM($B$2:C36))</f>
-        <v>0.47159090909090901</v>
+        <v>0.46236559139784938</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -14858,7 +15164,7 @@
       </c>
       <c r="G37" s="8" cm="1">
         <f t="array" ref="G37">SUM(($B$2:B37)/SUM($B$2:C37))</f>
-        <v>0.47159090909090901</v>
+        <v>0.46236559139784938</v>
       </c>
     </row>
   </sheetData>

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C933E76-C6B3-4CA8-B397-BEA79BF11C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4188BB0A-6CD8-45D5-ADE7-63B2C597D17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="132">
   <si>
     <t>Date</t>
   </si>
@@ -460,6 +460,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -535,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -572,6 +575,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,9 +685,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$26</c:f>
+              <c:f>Sheet2!$A$2:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -758,16 +762,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>Mon, Feb 12, 2024</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Tue, Feb 13, 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$26</c:f>
+              <c:f>Sheet2!$D$2:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.2857142857142857</c:v>
                 </c:pt>
@@ -842,6 +849,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1138,9 +1148,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$26</c:f>
+              <c:f>Sheet2!$A$2:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -1215,16 +1225,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>Mon, Feb 12, 2024</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Tue, Feb 13, 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$F$2:$F$26</c:f>
+              <c:f>Sheet2!$F$2:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>7.8</c:v>
                 </c:pt>
@@ -1299,6 +1312,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>13.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1591,9 +1607,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$26</c:f>
+              <c:f>Sheet2!$A$2:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -1668,16 +1684,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>Mon, Feb 12, 2024</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Tue, Feb 13, 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$G$2:$G$26</c:f>
+              <c:f>Sheet2!$G$2:$G$27</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.2857142857142857</c:v>
                 </c:pt>
@@ -1752,6 +1771,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.46236559139784938</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.47395833333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1843,7 +1865,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11398,7 +11420,7 @@
         <v>98</v>
       </c>
       <c r="M161" s="7">
-        <f t="shared" ref="M161:M187" si="5">ABS(D161-F161)</f>
+        <f t="shared" ref="M161:M193" si="5">ABS(D161-F161)</f>
         <v>3</v>
       </c>
       <c r="N161" t="b">
@@ -11632,7 +11654,7 @@
         <v>6</v>
       </c>
       <c r="N166" t="b">
-        <f t="shared" ref="N166:N187" si="6">K166=I166</f>
+        <f t="shared" ref="N166:N193" si="6">K166=I166</f>
         <v>1</v>
       </c>
     </row>
@@ -12612,11 +12634,40 @@
       <c r="C188" t="s">
         <v>22</v>
       </c>
+      <c r="D188" s="7">
+        <v>118</v>
+      </c>
       <c r="E188" t="s">
         <v>36</v>
       </c>
+      <c r="F188" s="7">
+        <v>110</v>
+      </c>
+      <c r="G188" t="s">
+        <v>15</v>
+      </c>
       <c r="H188" t="s">
         <v>76</v>
+      </c>
+      <c r="I188" t="s">
+        <v>22</v>
+      </c>
+      <c r="J188" t="s">
+        <v>36</v>
+      </c>
+      <c r="K188" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L188" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M188" s="7">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="N188" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.45">
@@ -12629,11 +12680,40 @@
       <c r="C189" t="s">
         <v>57</v>
       </c>
+      <c r="D189" s="7">
+        <v>127</v>
+      </c>
       <c r="E189" t="s">
         <v>18</v>
       </c>
+      <c r="F189" s="7">
+        <v>113</v>
+      </c>
+      <c r="G189" t="s">
+        <v>15</v>
+      </c>
       <c r="H189" t="s">
         <v>19</v>
+      </c>
+      <c r="I189" t="s">
+        <v>57</v>
+      </c>
+      <c r="J189" t="s">
+        <v>18</v>
+      </c>
+      <c r="K189" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L189" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M189" s="7">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="N189" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.45">
@@ -12646,11 +12726,40 @@
       <c r="C190" t="s">
         <v>26</v>
       </c>
+      <c r="D190" s="7">
+        <v>123</v>
+      </c>
       <c r="E190" t="s">
         <v>41</v>
       </c>
+      <c r="F190" s="7">
+        <v>97</v>
+      </c>
+      <c r="G190" t="s">
+        <v>15</v>
+      </c>
       <c r="H190" t="s">
         <v>79</v>
+      </c>
+      <c r="I190" t="s">
+        <v>26</v>
+      </c>
+      <c r="J190" t="s">
+        <v>41</v>
+      </c>
+      <c r="K190" t="s">
+        <v>41</v>
+      </c>
+      <c r="L190" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M190" s="7">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="N190" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.45">
@@ -12663,11 +12772,40 @@
       <c r="C191" t="s">
         <v>72</v>
       </c>
+      <c r="D191" s="7">
+        <v>125</v>
+      </c>
       <c r="E191" t="s">
         <v>28</v>
       </c>
+      <c r="F191" s="7">
+        <v>130</v>
+      </c>
+      <c r="G191" t="s">
+        <v>15</v>
+      </c>
       <c r="H191" t="s">
         <v>64</v>
+      </c>
+      <c r="I191" t="s">
+        <v>28</v>
+      </c>
+      <c r="J191" t="s">
+        <v>72</v>
+      </c>
+      <c r="K191" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L191" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M191" s="7">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N191" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.45">
@@ -12680,14 +12818,43 @@
       <c r="C192" t="s">
         <v>58</v>
       </c>
+      <c r="D192" s="7">
+        <v>121</v>
+      </c>
       <c r="E192" t="s">
         <v>33</v>
       </c>
+      <c r="F192" s="7">
+        <v>109</v>
+      </c>
+      <c r="G192" t="s">
+        <v>15</v>
+      </c>
       <c r="H192" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I192" t="s">
+        <v>58</v>
+      </c>
+      <c r="J192" t="s">
+        <v>33</v>
+      </c>
+      <c r="K192" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L192" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M192" s="7">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="N192" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A193" s="3" t="s">
         <v>117</v>
       </c>
@@ -12697,14 +12864,43 @@
       <c r="C193" t="s">
         <v>42</v>
       </c>
+      <c r="D193" s="7">
+        <v>111</v>
+      </c>
       <c r="E193" t="s">
         <v>37</v>
       </c>
+      <c r="F193" s="7">
+        <v>125</v>
+      </c>
+      <c r="G193" t="s">
+        <v>15</v>
+      </c>
       <c r="H193" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I193" t="s">
+        <v>37</v>
+      </c>
+      <c r="J193" t="s">
+        <v>42</v>
+      </c>
+      <c r="K193" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L193" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M193" s="7">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="N193" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A194" s="3" t="s">
         <v>118</v>
       </c>
@@ -12721,7 +12917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A195" s="3" t="s">
         <v>118</v>
       </c>
@@ -12738,7 +12934,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A196" s="3" t="s">
         <v>118</v>
       </c>
@@ -12755,7 +12951,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A197" s="3" t="s">
         <v>118</v>
       </c>
@@ -12772,7 +12968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A198" s="3" t="s">
         <v>118</v>
       </c>
@@ -12789,7 +12985,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A199" s="3" t="s">
         <v>118</v>
       </c>
@@ -12806,7 +13002,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A200" s="3" t="s">
         <v>118</v>
       </c>
@@ -12823,7 +13019,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A201" s="3" t="s">
         <v>118</v>
       </c>
@@ -12840,7 +13036,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A202" s="3" t="s">
         <v>118</v>
       </c>
@@ -12857,7 +13053,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A203" s="3" t="s">
         <v>118</v>
       </c>
@@ -12874,7 +13070,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A204" s="3" t="s">
         <v>118</v>
       </c>
@@ -12891,7 +13087,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A205" s="3" t="s">
         <v>118</v>
       </c>
@@ -12908,7 +13104,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A206" s="3" t="s">
         <v>118</v>
       </c>
@@ -12925,7 +13121,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A207" s="3" t="s">
         <v>119</v>
       </c>
@@ -12942,7 +13138,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A208" s="3" t="s">
         <v>119</v>
       </c>
@@ -14092,7 +14288,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14147,7 +14343,7 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A2, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>7.8</v>
       </c>
-      <c r="G2" s="8" cm="1">
+      <c r="G2" s="16" cm="1">
         <f t="array" ref="G2">SUM(($B$2:B2)/SUM($B$2:C2))</f>
         <v>0.2857142857142857</v>
       </c>
@@ -14176,7 +14372,7 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A3, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>10</v>
       </c>
-      <c r="G3" s="8" cm="1">
+      <c r="G3" s="16" cm="1">
         <f t="array" ref="G3">SUM(($B$2:B3)/SUM($B$2:C3))</f>
         <v>0.46666666666666667</v>
       </c>
@@ -14205,7 +14401,7 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A4, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>15.5</v>
       </c>
-      <c r="G4" s="8" cm="1">
+      <c r="G4" s="16" cm="1">
         <f t="array" ref="G4">SUM(($B$2:B4)/SUM($B$2:C4))</f>
         <v>0.42857142857142855</v>
       </c>
@@ -14234,7 +14430,7 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A5, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>8.8000000000000007</v>
       </c>
-      <c r="G5" s="8" cm="1">
+      <c r="G5" s="16" cm="1">
         <f t="array" ref="G5">SUM(($B$2:B5)/SUM($B$2:C5))</f>
         <v>0.41379310344827586</v>
       </c>
@@ -14263,7 +14459,7 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A6, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>19.25</v>
       </c>
-      <c r="G6" s="8" cm="1">
+      <c r="G6" s="16" cm="1">
         <f t="array" ref="G6">SUM(($B$2:B6)/SUM($B$2:C6))</f>
         <v>0.38235294117647062</v>
       </c>
@@ -14292,7 +14488,7 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A7, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>17.8</v>
       </c>
-      <c r="G7" s="8" cm="1">
+      <c r="G7" s="16" cm="1">
         <f t="array" ref="G7">SUM(($B$2:B7)/SUM($B$2:C7))</f>
         <v>0.38095238095238093</v>
       </c>
@@ -14321,7 +14517,7 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A8, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>11.25</v>
       </c>
-      <c r="G8" s="8" cm="1">
+      <c r="G8" s="16" cm="1">
         <f t="array" ref="G8">SUM(($B$2:B8)/SUM($B$2:C8))</f>
         <v>0.38775510204081637</v>
       </c>
@@ -14350,7 +14546,7 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A9, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>20.75</v>
       </c>
-      <c r="G9" s="8" cm="1">
+      <c r="G9" s="16" cm="1">
         <f t="array" ref="G9">SUM(($B$2:B9)/SUM($B$2:C9))</f>
         <v>0.40350877192982454</v>
       </c>
@@ -14379,7 +14575,7 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A10, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>12.833333333333334</v>
       </c>
-      <c r="G10" s="8" cm="1">
+      <c r="G10" s="16" cm="1">
         <f t="array" ref="G10">SUM(($B$2:B10)/SUM($B$2:C10))</f>
         <v>0.40298507462686567</v>
       </c>
@@ -14408,7 +14604,7 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A11, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>7</v>
       </c>
-      <c r="G11" s="8" cm="1">
+      <c r="G11" s="16" cm="1">
         <f t="array" ref="G11">SUM(($B$2:B11)/SUM($B$2:C11))</f>
         <v>0.41666666666666669</v>
       </c>
@@ -14437,7 +14633,7 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A12, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>13.625</v>
       </c>
-      <c r="G12" s="8" cm="1">
+      <c r="G12" s="16" cm="1">
         <f t="array" ref="G12">SUM(($B$2:B12)/SUM($B$2:C12))</f>
         <v>0.40476190476190471</v>
       </c>
@@ -14466,7 +14662,7 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A13, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>10</v>
       </c>
-      <c r="G13" s="8" cm="1">
+      <c r="G13" s="16" cm="1">
         <f t="array" ref="G13">SUM(($B$2:B13)/SUM($B$2:C13))</f>
         <v>0.41573033707865159</v>
       </c>
@@ -14495,7 +14691,7 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A14, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>14.428571428571429</v>
       </c>
-      <c r="G14" s="8" cm="1">
+      <c r="G14" s="16" cm="1">
         <f t="array" ref="G14">SUM(($B$2:B14)/SUM($B$2:C14))</f>
         <v>0.40404040404040409</v>
       </c>
@@ -14524,7 +14720,7 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A15, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>5.5</v>
       </c>
-      <c r="G15" s="8" cm="1">
+      <c r="G15" s="16" cm="1">
         <f t="array" ref="G15">SUM(($B$2:B15)/SUM($B$2:C15))</f>
         <v>0.40776699029126201</v>
       </c>
@@ -14553,7 +14749,7 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A16, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>14.428571428571429</v>
       </c>
-      <c r="G16" s="8" cm="1">
+      <c r="G16" s="16" cm="1">
         <f t="array" ref="G16">SUM(($B$2:B16)/SUM($B$2:C16))</f>
         <v>0.39823008849557512</v>
       </c>
@@ -14582,7 +14778,7 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A17, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>10</v>
       </c>
-      <c r="G17" s="8" cm="1">
+      <c r="G17" s="16" cm="1">
         <f t="array" ref="G17">SUM(($B$2:B17)/SUM($B$2:C17))</f>
         <v>0.40336134453781519</v>
       </c>
@@ -14611,7 +14807,7 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A18, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>15</v>
       </c>
-      <c r="G18" s="8" cm="1">
+      <c r="G18" s="16" cm="1">
         <f t="array" ref="G18">SUM(($B$2:B18)/SUM($B$2:C18))</f>
         <v>0.4375</v>
       </c>
@@ -14640,7 +14836,7 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A19, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>16</v>
       </c>
-      <c r="G19" s="8" cm="1">
+      <c r="G19" s="16" cm="1">
         <f t="array" ref="G19">SUM(($B$2:B19)/SUM($B$2:C19))</f>
         <v>0.45522388059701496</v>
       </c>
@@ -14669,7 +14865,7 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A20, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>10</v>
       </c>
-      <c r="G20" s="8" cm="1">
+      <c r="G20" s="16" cm="1">
         <f t="array" ref="G20">SUM(($B$2:B20)/SUM($B$2:C20))</f>
         <v>0.4468085106382978</v>
       </c>
@@ -14698,7 +14894,7 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A21, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>15.666666666666666</v>
       </c>
-      <c r="G21" s="8" cm="1">
+      <c r="G21" s="16" cm="1">
         <f t="array" ref="G21">SUM(($B$2:B21)/SUM($B$2:C21))</f>
         <v>0.4527027027027028</v>
       </c>
@@ -14727,7 +14923,7 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A22, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>16</v>
       </c>
-      <c r="G22" s="8" cm="1">
+      <c r="G22" s="16" cm="1">
         <f t="array" ref="G22">SUM(($B$2:B22)/SUM($B$2:C22))</f>
         <v>0.45222929936305728</v>
       </c>
@@ -14756,7 +14952,7 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A23, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>12.666666666666666</v>
       </c>
-      <c r="G23" s="8" cm="1">
+      <c r="G23" s="16" cm="1">
         <f t="array" ref="G23">SUM(($B$2:B23)/SUM($B$2:C23))</f>
         <v>0.45398773006134974</v>
       </c>
@@ -14785,7 +14981,7 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A24, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>14.75</v>
       </c>
-      <c r="G24" s="8" cm="1">
+      <c r="G24" s="16" cm="1">
         <f t="array" ref="G24">SUM(($B$2:B24)/SUM($B$2:C24))</f>
         <v>0.46551724137931033</v>
       </c>
@@ -14814,7 +15010,7 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A25, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
-      <c r="G25" s="8" cm="1">
+      <c r="G25" s="16" cm="1">
         <f t="array" ref="G25">SUM(($B$2:B25)/SUM($B$2:C25))</f>
         <v>0.47159090909090901</v>
       </c>
@@ -14843,7 +15039,7 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A26, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>13.714285714285714</v>
       </c>
-      <c r="G26" s="8" cm="1">
+      <c r="G26" s="16" cm="1">
         <f t="array" ref="G26">SUM(($B$2:B26)/SUM($B$2:C26))</f>
         <v>0.46236559139784938</v>
       </c>
@@ -14854,27 +15050,27 @@
       </c>
       <c r="B27" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A27)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C27" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A27)</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="10" t="str">
+        <v>1</v>
+      </c>
+      <c r="D27" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E27" s="14" t="str">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E27" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A27, Sheet1!$L$2:$L$500, "Yes"),"")</f>
-        <v/>
-      </c>
-      <c r="F27" s="14" t="str">
+        <v>10.6</v>
+      </c>
+      <c r="F27" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A27, Sheet1!$L$2:$L$500, "No"),"")</f>
-        <v/>
-      </c>
-      <c r="G27" s="8" cm="1">
+        <v>26</v>
+      </c>
+      <c r="G27" s="16" cm="1">
         <f t="array" ref="G27">SUM(($B$2:B27)/SUM($B$2:C27))</f>
-        <v>0.46236559139784938</v>
+        <v>0.47395833333333337</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -14901,9 +15097,9 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A28, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
-      <c r="G28" s="8" cm="1">
+      <c r="G28" s="16" cm="1">
         <f t="array" ref="G28">SUM(($B$2:B28)/SUM($B$2:C28))</f>
-        <v>0.46236559139784938</v>
+        <v>0.47395833333333337</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -14930,9 +15126,9 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A29, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
-      <c r="G29" s="8" cm="1">
+      <c r="G29" s="16" cm="1">
         <f t="array" ref="G29">SUM(($B$2:B29)/SUM($B$2:C29))</f>
-        <v>0.46236559139784938</v>
+        <v>0.47395833333333337</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -14959,9 +15155,9 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A30, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
-      <c r="G30" s="8" cm="1">
+      <c r="G30" s="16" cm="1">
         <f t="array" ref="G30">SUM(($B$2:B30)/SUM($B$2:C30))</f>
-        <v>0.46236559139784938</v>
+        <v>0.47395833333333337</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -14988,9 +15184,9 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A31, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
-      <c r="G31" s="8" cm="1">
+      <c r="G31" s="16" cm="1">
         <f t="array" ref="G31">SUM(($B$2:B31)/SUM($B$2:C31))</f>
-        <v>0.46236559139784938</v>
+        <v>0.47395833333333337</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
@@ -15017,9 +15213,9 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A32, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
-      <c r="G32" s="8" cm="1">
+      <c r="G32" s="16" cm="1">
         <f t="array" ref="G32">SUM(($B$2:B32)/SUM($B$2:C32))</f>
-        <v>0.46236559139784938</v>
+        <v>0.47395833333333337</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -15046,9 +15242,9 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A33, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
-      <c r="G33" s="8" cm="1">
+      <c r="G33" s="16" cm="1">
         <f t="array" ref="G33">SUM(($B$2:B33)/SUM($B$2:C33))</f>
-        <v>0.46236559139784938</v>
+        <v>0.47395833333333337</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -15075,9 +15271,9 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A34, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
-      <c r="G34" s="8" cm="1">
+      <c r="G34" s="16" cm="1">
         <f t="array" ref="G34">SUM(($B$2:B34)/SUM($B$2:C34))</f>
-        <v>0.46236559139784938</v>
+        <v>0.47395833333333337</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -15104,9 +15300,9 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A35, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
-      <c r="G35" s="8" cm="1">
+      <c r="G35" s="16" cm="1">
         <f t="array" ref="G35">SUM(($B$2:B35)/SUM($B$2:C35))</f>
-        <v>0.46236559139784938</v>
+        <v>0.47395833333333337</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -15133,9 +15329,9 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A36, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
-      <c r="G36" s="8" cm="1">
+      <c r="G36" s="16" cm="1">
         <f t="array" ref="G36">SUM(($B$2:B36)/SUM($B$2:C36))</f>
-        <v>0.46236559139784938</v>
+        <v>0.47395833333333337</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -15162,9 +15358,9 @@
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A37, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
-      <c r="G37" s="8" cm="1">
+      <c r="G37" s="16" cm="1">
         <f t="array" ref="G37">SUM(($B$2:B37)/SUM($B$2:C37))</f>
-        <v>0.46236559139784938</v>
+        <v>0.47395833333333337</v>
       </c>
     </row>
   </sheetData>

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4188BB0A-6CD8-45D5-ADE7-63B2C597D17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3EB66C-04BE-470B-825A-5896DD3BE128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2447" uniqueCount="132">
   <si>
     <t>Date</t>
   </si>
@@ -685,9 +685,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$27</c:f>
+              <c:f>Sheet2!$A$2:$A$28</c:f>
               <c:strCache>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -765,16 +765,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>Tue, Feb 13, 2024</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Wed, Feb 14, 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$27</c:f>
+              <c:f>Sheet2!$D$2:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0.2857142857142857</c:v>
                 </c:pt>
@@ -852,6 +855,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.61538461538461542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1148,9 +1154,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$27</c:f>
+              <c:f>Sheet2!$A$2:$A$28</c:f>
               <c:strCache>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -1228,16 +1234,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>Tue, Feb 13, 2024</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Wed, Feb 14, 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$F$2:$F$27</c:f>
+              <c:f>Sheet2!$F$2:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>7.8</c:v>
                 </c:pt>
@@ -1315,6 +1324,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1607,9 +1619,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$27</c:f>
+              <c:f>Sheet2!$A$2:$A$28</c:f>
               <c:strCache>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -1687,16 +1699,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>Tue, Feb 13, 2024</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Wed, Feb 14, 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$G$2:$G$27</c:f>
+              <c:f>Sheet2!$G$2:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0.2857142857142857</c:v>
                 </c:pt>
@@ -1774,6 +1789,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.47395833333333337</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.48292682926829283</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4006,7 +4024,9 @@
   </sheetPr>
   <dimension ref="A1:N274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="D210" sqref="D210"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11420,7 +11440,7 @@
         <v>98</v>
       </c>
       <c r="M161" s="7">
-        <f t="shared" ref="M161:M193" si="5">ABS(D161-F161)</f>
+        <f t="shared" ref="M161:M206" si="5">ABS(D161-F161)</f>
         <v>3</v>
       </c>
       <c r="N161" t="b">
@@ -11654,7 +11674,7 @@
         <v>6</v>
       </c>
       <c r="N166" t="b">
-        <f t="shared" ref="N166:N193" si="6">K166=I166</f>
+        <f t="shared" ref="N166:N206" si="6">K166=I166</f>
         <v>1</v>
       </c>
     </row>
@@ -12910,11 +12930,40 @@
       <c r="C194" t="s">
         <v>25</v>
       </c>
+      <c r="D194" s="7">
+        <v>99</v>
+      </c>
       <c r="E194" t="s">
         <v>14</v>
       </c>
+      <c r="F194" s="7">
+        <v>122</v>
+      </c>
+      <c r="G194" t="s">
+        <v>15</v>
+      </c>
       <c r="H194" t="s">
         <v>16</v>
+      </c>
+      <c r="I194" t="s">
+        <v>14</v>
+      </c>
+      <c r="J194" t="s">
+        <v>25</v>
+      </c>
+      <c r="K194" t="s">
+        <v>25</v>
+      </c>
+      <c r="L194" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M194" s="7">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="N194" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.45">
@@ -12927,11 +12976,40 @@
       <c r="C195" t="s">
         <v>49</v>
       </c>
+      <c r="D195" s="7">
+        <v>100</v>
+      </c>
       <c r="E195" t="s">
         <v>18</v>
       </c>
+      <c r="F195" s="7">
+        <v>118</v>
+      </c>
+      <c r="G195" t="s">
+        <v>15</v>
+      </c>
       <c r="H195" t="s">
         <v>19</v>
+      </c>
+      <c r="I195" t="s">
+        <v>18</v>
+      </c>
+      <c r="J195" t="s">
+        <v>49</v>
+      </c>
+      <c r="K195" t="s">
+        <v>49</v>
+      </c>
+      <c r="L195" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M195" s="7">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="N195" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.45">
@@ -12944,11 +13022,40 @@
       <c r="C196" t="s">
         <v>26</v>
       </c>
+      <c r="D196" s="7">
+        <v>109</v>
+      </c>
       <c r="E196" t="s">
         <v>17</v>
       </c>
+      <c r="F196" s="7">
+        <v>104</v>
+      </c>
+      <c r="G196" t="s">
+        <v>15</v>
+      </c>
       <c r="H196" t="s">
         <v>66</v>
+      </c>
+      <c r="I196" t="s">
+        <v>26</v>
+      </c>
+      <c r="J196" t="s">
+        <v>17</v>
+      </c>
+      <c r="K196" t="s">
+        <v>17</v>
+      </c>
+      <c r="L196" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M196" s="7">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N196" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.45">
@@ -12961,11 +13068,40 @@
       <c r="C197" t="s">
         <v>36</v>
       </c>
+      <c r="D197" s="7">
+        <v>86</v>
+      </c>
       <c r="E197" t="s">
         <v>22</v>
       </c>
+      <c r="F197" s="7">
+        <v>136</v>
+      </c>
+      <c r="G197" t="s">
+        <v>15</v>
+      </c>
       <c r="H197" t="s">
         <v>23</v>
+      </c>
+      <c r="I197" t="s">
+        <v>22</v>
+      </c>
+      <c r="J197" t="s">
+        <v>36</v>
+      </c>
+      <c r="K197" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L197" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M197" s="7">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="N197" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.45">
@@ -12978,11 +13114,40 @@
       <c r="C198" t="s">
         <v>52</v>
       </c>
+      <c r="D198" s="7">
+        <v>105</v>
+      </c>
       <c r="E198" t="s">
         <v>46</v>
       </c>
+      <c r="F198" s="7">
+        <v>108</v>
+      </c>
+      <c r="G198" t="s">
+        <v>15</v>
+      </c>
       <c r="H198" t="s">
         <v>93</v>
+      </c>
+      <c r="I198" t="s">
+        <v>46</v>
+      </c>
+      <c r="J198" t="s">
+        <v>52</v>
+      </c>
+      <c r="K198" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L198" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M198" s="7">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="N198" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.45">
@@ -12995,11 +13160,40 @@
       <c r="C199" t="s">
         <v>32</v>
       </c>
+      <c r="D199" s="7">
+        <v>127</v>
+      </c>
       <c r="E199" t="s">
         <v>48</v>
       </c>
+      <c r="F199" s="7">
+        <v>125</v>
+      </c>
+      <c r="G199" t="s">
+        <v>15</v>
+      </c>
       <c r="H199" t="s">
         <v>67</v>
+      </c>
+      <c r="I199" t="s">
+        <v>32</v>
+      </c>
+      <c r="J199" t="s">
+        <v>48</v>
+      </c>
+      <c r="K199" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L199" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M199" s="7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N199" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.45">
@@ -13012,11 +13206,40 @@
       <c r="C200" t="s">
         <v>55</v>
       </c>
+      <c r="D200" s="7">
+        <v>113</v>
+      </c>
       <c r="E200" t="s">
         <v>51</v>
       </c>
+      <c r="F200" s="7">
+        <v>121</v>
+      </c>
+      <c r="G200" t="s">
+        <v>15</v>
+      </c>
       <c r="H200" t="s">
         <v>86</v>
+      </c>
+      <c r="I200" t="s">
+        <v>51</v>
+      </c>
+      <c r="J200" t="s">
+        <v>55</v>
+      </c>
+      <c r="K200" t="s">
+        <v>55</v>
+      </c>
+      <c r="L200" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M200" s="7">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="N200" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.45">
@@ -13029,11 +13252,40 @@
       <c r="C201" t="s">
         <v>44</v>
       </c>
+      <c r="D201" s="7">
+        <v>126</v>
+      </c>
       <c r="E201" t="s">
         <v>29</v>
       </c>
+      <c r="F201" s="7">
+        <v>133</v>
+      </c>
+      <c r="G201" t="s">
+        <v>15</v>
+      </c>
       <c r="H201" t="s">
         <v>30</v>
+      </c>
+      <c r="I201" t="s">
+        <v>29</v>
+      </c>
+      <c r="J201" t="s">
+        <v>44</v>
+      </c>
+      <c r="K201" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L201" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M201" s="7">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="N201" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.45">
@@ -13046,11 +13298,40 @@
       <c r="C202" t="s">
         <v>13</v>
       </c>
+      <c r="D202" s="7">
+        <v>93</v>
+      </c>
       <c r="E202" t="s">
         <v>69</v>
       </c>
+      <c r="F202" s="7">
+        <v>116</v>
+      </c>
+      <c r="G202" t="s">
+        <v>15</v>
+      </c>
       <c r="H202" t="s">
         <v>70</v>
+      </c>
+      <c r="I202" t="s">
+        <v>69</v>
+      </c>
+      <c r="J202" t="s">
+        <v>13</v>
+      </c>
+      <c r="K202" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L202" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M202" s="7">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="N202" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.45">
@@ -13063,11 +13344,40 @@
       <c r="C203" t="s">
         <v>72</v>
       </c>
+      <c r="D203" s="7">
+        <v>102</v>
+      </c>
       <c r="E203" t="s">
         <v>21</v>
       </c>
+      <c r="F203" s="7">
+        <v>98</v>
+      </c>
+      <c r="G203" t="s">
+        <v>15</v>
+      </c>
       <c r="H203" t="s">
         <v>90</v>
+      </c>
+      <c r="I203" t="s">
+        <v>72</v>
+      </c>
+      <c r="J203" t="s">
+        <v>21</v>
+      </c>
+      <c r="K203" t="s">
+        <v>21</v>
+      </c>
+      <c r="L203" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M203" s="7">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N203" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.45">
@@ -13080,11 +13390,40 @@
       <c r="C204" t="s">
         <v>42</v>
       </c>
+      <c r="D204" s="7">
+        <v>100</v>
+      </c>
       <c r="E204" t="s">
         <v>28</v>
       </c>
+      <c r="F204" s="7">
+        <v>116</v>
+      </c>
+      <c r="G204" t="s">
+        <v>15</v>
+      </c>
       <c r="H204" t="s">
         <v>64</v>
+      </c>
+      <c r="I204" t="s">
+        <v>28</v>
+      </c>
+      <c r="J204" t="s">
+        <v>42</v>
+      </c>
+      <c r="K204" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L204" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M204" s="7">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="N204" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.45">
@@ -13097,11 +13436,40 @@
       <c r="C205" t="s">
         <v>37</v>
       </c>
+      <c r="D205" s="7">
+        <v>138</v>
+      </c>
       <c r="E205" t="s">
         <v>54</v>
       </c>
+      <c r="F205" s="7">
+        <v>122</v>
+      </c>
+      <c r="G205" t="s">
+        <v>15</v>
+      </c>
       <c r="H205" t="s">
         <v>130</v>
+      </c>
+      <c r="I205" t="s">
+        <v>37</v>
+      </c>
+      <c r="J205" t="s">
+        <v>54</v>
+      </c>
+      <c r="K205" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L205" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M205" s="7">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="N205" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.45">
@@ -13114,11 +13482,40 @@
       <c r="C206" t="s">
         <v>62</v>
       </c>
+      <c r="D206" s="7">
+        <v>130</v>
+      </c>
       <c r="E206" t="s">
         <v>82</v>
       </c>
+      <c r="F206" s="7">
+        <v>125</v>
+      </c>
+      <c r="G206" t="s">
+        <v>15</v>
+      </c>
       <c r="H206" t="s">
         <v>83</v>
+      </c>
+      <c r="I206" t="s">
+        <v>62</v>
+      </c>
+      <c r="J206" t="s">
+        <v>82</v>
+      </c>
+      <c r="K206" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L206" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M206" s="7">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N206" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.45">
@@ -14285,10 +14682,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3316D165-A907-40EA-B4D3-B42CCCB2BD8A}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14754,7 +15151,7 @@
         <v>0.39823008849557512</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="15" t="s">
         <v>106</v>
       </c>
@@ -14783,7 +15180,7 @@
         <v>0.40336134453781519</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="15" t="s">
         <v>107</v>
       </c>
@@ -14812,7 +15209,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="15" t="s">
         <v>108</v>
       </c>
@@ -14841,7 +15238,7 @@
         <v>0.45522388059701496</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="15" t="s">
         <v>109</v>
       </c>
@@ -14870,7 +15267,7 @@
         <v>0.4468085106382978</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="15" t="s">
         <v>110</v>
       </c>
@@ -14899,7 +15296,7 @@
         <v>0.4527027027027028</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="15" t="s">
         <v>111</v>
       </c>
@@ -14928,7 +15325,7 @@
         <v>0.45222929936305728</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" s="15" t="s">
         <v>112</v>
       </c>
@@ -14957,7 +15354,7 @@
         <v>0.45398773006134974</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" s="15" t="s">
         <v>113</v>
       </c>
@@ -14986,7 +15383,7 @@
         <v>0.46551724137931033</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="15" t="s">
         <v>114</v>
       </c>
@@ -15015,7 +15412,7 @@
         <v>0.47159090909090901</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="15" t="s">
         <v>116</v>
       </c>
@@ -15044,7 +15441,7 @@
         <v>0.46236559139784938</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="15" t="s">
         <v>117</v>
       </c>
@@ -15073,36 +15470,40 @@
         <v>0.47395833333333337</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="15" t="s">
         <v>118</v>
       </c>
       <c r="B28" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A28)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C28" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A28)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="10" t="str">
+        <v>5</v>
+      </c>
+      <c r="D28" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E28" s="14" t="str">
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="E28" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A28, Sheet1!$L$2:$L$500, "Yes"),"")</f>
-        <v/>
-      </c>
-      <c r="F28" s="14" t="str">
+        <v>15.25</v>
+      </c>
+      <c r="F28" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A28, Sheet1!$L$2:$L$500, "No"),"")</f>
-        <v/>
+        <v>11.6</v>
       </c>
       <c r="G28" s="16" cm="1">
         <f t="array" ref="G28">SUM(($B$2:B28)/SUM($B$2:C28))</f>
-        <v>0.47395833333333337</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.48292682926829283</v>
+      </c>
+      <c r="Q28" cm="1">
+        <f t="array" ref="Q28">SUM(($B$2:B28)/SUM($B$2:C28))</f>
+        <v>0.48292682926829283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="15" t="s">
         <v>119</v>
       </c>
@@ -15128,10 +15529,10 @@
       </c>
       <c r="G29" s="16" cm="1">
         <f t="array" ref="G29">SUM(($B$2:B29)/SUM($B$2:C29))</f>
-        <v>0.47395833333333337</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.48292682926829283</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="15" t="s">
         <v>120</v>
       </c>
@@ -15157,10 +15558,10 @@
       </c>
       <c r="G30" s="16" cm="1">
         <f t="array" ref="G30">SUM(($B$2:B30)/SUM($B$2:C30))</f>
-        <v>0.47395833333333337</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.48292682926829283</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" s="15" t="s">
         <v>121</v>
       </c>
@@ -15186,10 +15587,10 @@
       </c>
       <c r="G31" s="16" cm="1">
         <f t="array" ref="G31">SUM(($B$2:B31)/SUM($B$2:C31))</f>
-        <v>0.47395833333333337</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.48292682926829283</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" s="15" t="s">
         <v>122</v>
       </c>
@@ -15215,7 +15616,7 @@
       </c>
       <c r="G32" s="16" cm="1">
         <f t="array" ref="G32">SUM(($B$2:B32)/SUM($B$2:C32))</f>
-        <v>0.47395833333333337</v>
+        <v>0.48292682926829283</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -15244,7 +15645,7 @@
       </c>
       <c r="G33" s="16" cm="1">
         <f t="array" ref="G33">SUM(($B$2:B33)/SUM($B$2:C33))</f>
-        <v>0.47395833333333337</v>
+        <v>0.48292682926829283</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -15273,7 +15674,7 @@
       </c>
       <c r="G34" s="16" cm="1">
         <f t="array" ref="G34">SUM(($B$2:B34)/SUM($B$2:C34))</f>
-        <v>0.47395833333333337</v>
+        <v>0.48292682926829283</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -15302,7 +15703,7 @@
       </c>
       <c r="G35" s="16" cm="1">
         <f t="array" ref="G35">SUM(($B$2:B35)/SUM($B$2:C35))</f>
-        <v>0.47395833333333337</v>
+        <v>0.48292682926829283</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -15331,7 +15732,7 @@
       </c>
       <c r="G36" s="16" cm="1">
         <f t="array" ref="G36">SUM(($B$2:B36)/SUM($B$2:C36))</f>
-        <v>0.47395833333333337</v>
+        <v>0.48292682926829283</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -15360,7 +15761,7 @@
       </c>
       <c r="G37" s="16" cm="1">
         <f t="array" ref="G37">SUM(($B$2:B37)/SUM($B$2:C37))</f>
-        <v>0.47395833333333337</v>
+        <v>0.48292682926829283</v>
       </c>
     </row>
   </sheetData>

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3EB66C-04BE-470B-825A-5896DD3BE128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41663CE-D3D6-4A63-B97A-83981C6D9CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$274</definedName>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2447" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="138">
   <si>
     <t>Date</t>
   </si>
@@ -455,6 +456,24 @@
   <si>
     <t>Valid</t>
   </si>
+  <si>
+    <t>In Production</t>
+  </si>
+  <si>
+    <t>Ballgorithm, v1</t>
+  </si>
+  <si>
+    <t>19-Jan to 2-Feb</t>
+  </si>
+  <si>
+    <t>v1.0 Accuracy</t>
+  </si>
+  <si>
+    <t>3-Feb to 14-Feb</t>
+  </si>
+  <si>
+    <t>v1.1 Accuracy</t>
+  </si>
 </sst>
 </file>
 
@@ -504,7 +523,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -534,11 +553,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -576,6 +610,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4024,7 +4068,7 @@
   </sheetPr>
   <dimension ref="A1:N274"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
       <selection activeCell="D210" sqref="D210"/>
     </sheetView>
   </sheetViews>
@@ -14684,13 +14728,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3316D165-A907-40EA-B4D3-B42CCCB2BD8A}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -15469,6 +15514,10 @@
         <f t="array" ref="G27">SUM(($B$2:B27)/SUM($B$2:C27))</f>
         <v>0.47395833333333337</v>
       </c>
+      <c r="Q27" s="16" cm="1">
+        <f t="array" ref="Q27">SUM(($B$2:B16)/SUM($B$2:C17))</f>
+        <v>0.37815126050420172</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="15" t="s">
@@ -15498,9 +15547,9 @@
         <f t="array" ref="G28">SUM(($B$2:B28)/SUM($B$2:C28))</f>
         <v>0.48292682926829283</v>
       </c>
-      <c r="Q28" cm="1">
-        <f t="array" ref="Q28">SUM(($B$2:B28)/SUM($B$2:C28))</f>
-        <v>0.48292682926829283</v>
+      <c r="Q28" s="16" cm="1">
+        <f t="array" ref="Q28">SUM(($B$17:B28)/SUM($B$17:C28))</f>
+        <v>0.58695652173913038</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.45">
@@ -15804,4 +15853,65 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C79CB8C-90BE-43AB-8DB9-EA1C69C62175}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0.37815126050420172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="20">
+        <v>0.58695652173913038</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/future.xlsx
+++ b/future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41663CE-D3D6-4A63-B97A-83981C6D9CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D03D277-2AB9-4418-8231-12337C1480E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2468" uniqueCount="138">
   <si>
     <t>Date</t>
   </si>
@@ -613,11 +613,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4069,7 +4069,7 @@
   <dimension ref="A1:N274"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="D210" sqref="D210"/>
+      <selection activeCell="H202" sqref="H202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11484,7 +11484,7 @@
         <v>98</v>
       </c>
       <c r="M161" s="7">
-        <f t="shared" ref="M161:M206" si="5">ABS(D161-F161)</f>
+        <f t="shared" ref="M161:M209" si="5">ABS(D161-F161)</f>
         <v>3</v>
       </c>
       <c r="N161" t="b">
@@ -11718,7 +11718,7 @@
         <v>6</v>
       </c>
       <c r="N166" t="b">
-        <f t="shared" ref="N166:N206" si="6">K166=I166</f>
+        <f t="shared" ref="N166:N209" si="6">K166=I166</f>
         <v>1</v>
       </c>
     </row>
@@ -13572,11 +13572,40 @@
       <c r="C207" t="s">
         <v>41</v>
       </c>
+      <c r="D207" s="7">
+        <v>110</v>
+      </c>
       <c r="E207" t="s">
         <v>51</v>
       </c>
+      <c r="F207" s="7">
+        <v>113</v>
+      </c>
+      <c r="G207" t="s">
+        <v>15</v>
+      </c>
       <c r="H207" t="s">
         <v>86</v>
+      </c>
+      <c r="I207" t="s">
+        <v>51</v>
+      </c>
+      <c r="J207" t="s">
+        <v>41</v>
+      </c>
+      <c r="K207" t="s">
+        <v>41</v>
+      </c>
+      <c r="L207" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M207" s="7">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="N207" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.45">
@@ -13589,14 +13618,43 @@
       <c r="C208" t="s">
         <v>82</v>
       </c>
+      <c r="D208" s="7">
+        <v>140</v>
+      </c>
       <c r="E208" t="s">
         <v>54</v>
       </c>
+      <c r="F208" s="7">
+        <v>137</v>
+      </c>
+      <c r="G208" t="s">
+        <v>15</v>
+      </c>
       <c r="H208" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I208" t="s">
+        <v>82</v>
+      </c>
+      <c r="J208" t="s">
+        <v>54</v>
+      </c>
+      <c r="K208" t="s">
+        <v>54</v>
+      </c>
+      <c r="L208" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M208" s="7">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="N208" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A209" s="3" t="s">
         <v>119</v>
       </c>
@@ -13606,14 +13664,43 @@
       <c r="C209" t="s">
         <v>58</v>
       </c>
+      <c r="D209" s="7">
+        <v>128</v>
+      </c>
       <c r="E209" t="s">
         <v>33</v>
       </c>
+      <c r="F209" s="7">
+        <v>91</v>
+      </c>
+      <c r="G209" t="s">
+        <v>15</v>
+      </c>
       <c r="H209" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I209" t="s">
+        <v>58</v>
+      </c>
+      <c r="J209" t="s">
+        <v>33</v>
+      </c>
+      <c r="K209" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L209" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M209" s="7">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="N209" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A210" s="3" t="s">
         <v>120</v>
       </c>
@@ -13630,7 +13717,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A211" s="3" t="s">
         <v>120</v>
       </c>
@@ -13647,7 +13734,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A212" s="3" t="s">
         <v>120</v>
       </c>
@@ -13664,7 +13751,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A213" s="3" t="s">
         <v>120</v>
       </c>
@@ -13681,7 +13768,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A214" s="3" t="s">
         <v>120</v>
       </c>
@@ -13698,7 +13785,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A215" s="3" t="s">
         <v>120</v>
       </c>
@@ -13715,7 +13802,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A216" s="3" t="s">
         <v>120</v>
       </c>
@@ -13732,7 +13819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A217" s="3" t="s">
         <v>120</v>
       </c>
@@ -13749,7 +13836,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A218" s="3" t="s">
         <v>120</v>
       </c>
@@ -13766,7 +13853,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A219" s="3" t="s">
         <v>120</v>
       </c>
@@ -13783,7 +13870,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A220" s="3" t="s">
         <v>120</v>
       </c>
@@ -13800,7 +13887,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A221" s="3" t="s">
         <v>120</v>
       </c>
@@ -13817,7 +13904,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A222" s="3" t="s">
         <v>121</v>
       </c>
@@ -13834,7 +13921,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A223" s="3" t="s">
         <v>121</v>
       </c>
@@ -13851,7 +13938,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A224" s="3" t="s">
         <v>121</v>
       </c>
@@ -15558,27 +15645,27 @@
       </c>
       <c r="B29" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A29)</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="10" t="str">
+        <v>2</v>
+      </c>
+      <c r="D29" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E29" s="14" t="str">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E29" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A29, Sheet1!$L$2:$L$500, "Yes"),"")</f>
-        <v/>
-      </c>
-      <c r="F29" s="14" t="str">
+        <v>37</v>
+      </c>
+      <c r="F29" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A29, Sheet1!$L$2:$L$500, "No"),"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G29" s="16" cm="1">
         <f t="array" ref="G29">SUM(($B$2:B29)/SUM($B$2:C29))</f>
-        <v>0.48292682926829283</v>
+        <v>0.48076923076923084</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.45">
@@ -15607,7 +15694,7 @@
       </c>
       <c r="G30" s="16" cm="1">
         <f t="array" ref="G30">SUM(($B$2:B30)/SUM($B$2:C30))</f>
-        <v>0.48292682926829283</v>
+        <v>0.48076923076923084</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.45">
@@ -15636,7 +15723,7 @@
       </c>
       <c r="G31" s="16" cm="1">
         <f t="array" ref="G31">SUM(($B$2:B31)/SUM($B$2:C31))</f>
-        <v>0.48292682926829283</v>
+        <v>0.48076923076923084</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.45">
@@ -15665,7 +15752,7 @@
       </c>
       <c r="G32" s="16" cm="1">
         <f t="array" ref="G32">SUM(($B$2:B32)/SUM($B$2:C32))</f>
-        <v>0.48292682926829283</v>
+        <v>0.48076923076923084</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -15694,7 +15781,7 @@
       </c>
       <c r="G33" s="16" cm="1">
         <f t="array" ref="G33">SUM(($B$2:B33)/SUM($B$2:C33))</f>
-        <v>0.48292682926829283</v>
+        <v>0.48076923076923084</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -15723,7 +15810,7 @@
       </c>
       <c r="G34" s="16" cm="1">
         <f t="array" ref="G34">SUM(($B$2:B34)/SUM($B$2:C34))</f>
-        <v>0.48292682926829283</v>
+        <v>0.48076923076923084</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -15752,7 +15839,7 @@
       </c>
       <c r="G35" s="16" cm="1">
         <f t="array" ref="G35">SUM(($B$2:B35)/SUM($B$2:C35))</f>
-        <v>0.48292682926829283</v>
+        <v>0.48076923076923084</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -15781,7 +15868,7 @@
       </c>
       <c r="G36" s="16" cm="1">
         <f t="array" ref="G36">SUM(($B$2:B36)/SUM($B$2:C36))</f>
-        <v>0.48292682926829283</v>
+        <v>0.48076923076923084</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -15810,7 +15897,7 @@
       </c>
       <c r="G37" s="16" cm="1">
         <f t="array" ref="G37">SUM(($B$2:B37)/SUM($B$2:C37))</f>
-        <v>0.48292682926829283</v>
+        <v>0.48076923076923084</v>
       </c>
     </row>
   </sheetData>
@@ -15869,19 +15956,19 @@
       <c r="A1" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="18"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="19">
         <v>0.37815126050420172</v>
       </c>
     </row>
@@ -15889,10 +15976,10 @@
       <c r="A3" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>0.58695652173913038</v>
       </c>
     </row>

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D03D277-2AB9-4418-8231-12337C1480E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DA183C-64DE-4F77-A43B-6D48998C6568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4068,9 +4068,7 @@
   </sheetPr>
   <dimension ref="A1:N274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="H202" sqref="H202"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DA183C-64DE-4F77-A43B-6D48998C6568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE7BFE1-7402-4AFF-9F4C-7462943E0C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2468" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="138">
   <si>
     <t>Date</t>
   </si>
@@ -729,9 +729,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$28</c:f>
+              <c:f>Sheet2!$A$2:$A$30</c:f>
               <c:strCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -812,16 +812,22 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>Wed, Feb 14, 2024</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Thu, Feb 15, 2024</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Thu, Feb 22, 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$28</c:f>
+              <c:f>Sheet2!$D$2:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0.2857142857142857</c:v>
                 </c:pt>
@@ -902,6 +908,12 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.61538461538461542</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4068,7 +4080,7 @@
   </sheetPr>
   <dimension ref="A1:N274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11482,7 +11494,7 @@
         <v>98</v>
       </c>
       <c r="M161" s="7">
-        <f t="shared" ref="M161:M209" si="5">ABS(D161-F161)</f>
+        <f t="shared" ref="M161:M221" si="5">ABS(D161-F161)</f>
         <v>3</v>
       </c>
       <c r="N161" t="b">
@@ -11716,7 +11728,7 @@
         <v>6</v>
       </c>
       <c r="N166" t="b">
-        <f t="shared" ref="N166:N209" si="6">K166=I166</f>
+        <f t="shared" ref="N166:N221" si="6">K166=I166</f>
         <v>1</v>
       </c>
     </row>
@@ -13708,11 +13720,40 @@
       <c r="C210" t="s">
         <v>18</v>
       </c>
+      <c r="D210" s="7">
+        <v>116</v>
+      </c>
       <c r="E210" t="s">
         <v>46</v>
       </c>
+      <c r="F210" s="7">
+        <v>109</v>
+      </c>
+      <c r="G210" t="s">
+        <v>15</v>
+      </c>
       <c r="H210" t="s">
         <v>93</v>
+      </c>
+      <c r="I210" t="s">
+        <v>18</v>
+      </c>
+      <c r="J210" t="s">
+        <v>46</v>
+      </c>
+      <c r="K210" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L210" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M210" s="7">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="N210" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.45">
@@ -13725,11 +13766,40 @@
       <c r="C211" t="s">
         <v>42</v>
       </c>
+      <c r="D211" s="7">
+        <v>115</v>
+      </c>
       <c r="E211" t="s">
         <v>32</v>
       </c>
+      <c r="F211" s="7">
+        <v>129</v>
+      </c>
+      <c r="G211" t="s">
+        <v>15</v>
+      </c>
       <c r="H211" t="s">
         <v>75</v>
+      </c>
+      <c r="I211" t="s">
+        <v>32</v>
+      </c>
+      <c r="J211" t="s">
+        <v>42</v>
+      </c>
+      <c r="K211" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L211" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M211" s="7">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="N211" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.45">
@@ -13742,11 +13812,40 @@
       <c r="C212" t="s">
         <v>49</v>
       </c>
+      <c r="D212" s="7">
+        <v>110</v>
+      </c>
       <c r="E212" t="s">
         <v>17</v>
       </c>
+      <c r="F212" s="7">
+        <v>96</v>
+      </c>
+      <c r="G212" t="s">
+        <v>15</v>
+      </c>
       <c r="H212" t="s">
         <v>66</v>
+      </c>
+      <c r="I212" t="s">
+        <v>49</v>
+      </c>
+      <c r="J212" t="s">
+        <v>17</v>
+      </c>
+      <c r="K212" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L212" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M212" s="7">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="N212" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.45">
@@ -13759,11 +13858,40 @@
       <c r="C213" t="s">
         <v>36</v>
       </c>
+      <c r="D213" s="7">
+        <v>93</v>
+      </c>
       <c r="E213" t="s">
         <v>48</v>
       </c>
+      <c r="F213" s="7">
+        <v>121</v>
+      </c>
+      <c r="G213" t="s">
+        <v>15</v>
+      </c>
       <c r="H213" t="s">
         <v>67</v>
+      </c>
+      <c r="I213" t="s">
+        <v>48</v>
+      </c>
+      <c r="J213" t="s">
+        <v>36</v>
+      </c>
+      <c r="K213" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L213" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M213" s="7">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="N213" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.45">
@@ -13776,11 +13904,40 @@
       <c r="C214" t="s">
         <v>28</v>
       </c>
+      <c r="D214" s="7">
+        <v>113</v>
+      </c>
       <c r="E214" t="s">
         <v>69</v>
       </c>
+      <c r="F214" s="7">
+        <v>123</v>
+      </c>
+      <c r="G214" t="s">
+        <v>15</v>
+      </c>
       <c r="H214" t="s">
         <v>70</v>
+      </c>
+      <c r="I214" t="s">
+        <v>69</v>
+      </c>
+      <c r="J214" t="s">
+        <v>28</v>
+      </c>
+      <c r="K214" t="s">
+        <v>28</v>
+      </c>
+      <c r="L214" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M214" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N214" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.45">
@@ -13793,11 +13950,40 @@
       <c r="C215" t="s">
         <v>22</v>
       </c>
+      <c r="D215" s="7">
+        <v>129</v>
+      </c>
       <c r="E215" t="s">
         <v>52</v>
       </c>
+      <c r="F215" s="7">
+        <v>112</v>
+      </c>
+      <c r="G215" t="s">
+        <v>15</v>
+      </c>
       <c r="H215" t="s">
         <v>53</v>
+      </c>
+      <c r="I215" t="s">
+        <v>22</v>
+      </c>
+      <c r="J215" t="s">
+        <v>52</v>
+      </c>
+      <c r="K215" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L215" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M215" s="7">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="N215" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.45">
@@ -13810,11 +13996,40 @@
       <c r="C216" t="s">
         <v>55</v>
       </c>
+      <c r="D216" s="7">
+        <v>105</v>
+      </c>
       <c r="E216" t="s">
         <v>29</v>
       </c>
+      <c r="F216" s="7">
+        <v>127</v>
+      </c>
+      <c r="G216" t="s">
+        <v>15</v>
+      </c>
       <c r="H216" t="s">
         <v>30</v>
+      </c>
+      <c r="I216" t="s">
+        <v>29</v>
+      </c>
+      <c r="J216" t="s">
+        <v>55</v>
+      </c>
+      <c r="K216" t="s">
+        <v>55</v>
+      </c>
+      <c r="L216" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M216" s="7">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="N216" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.45">
@@ -13827,11 +14042,40 @@
       <c r="C217" t="s">
         <v>62</v>
       </c>
+      <c r="D217" s="7">
+        <v>107</v>
+      </c>
       <c r="E217" t="s">
         <v>57</v>
       </c>
+      <c r="F217" s="7">
+        <v>129</v>
+      </c>
+      <c r="G217" t="s">
+        <v>15</v>
+      </c>
       <c r="H217" t="s">
         <v>77</v>
+      </c>
+      <c r="I217" t="s">
+        <v>57</v>
+      </c>
+      <c r="J217" t="s">
+        <v>62</v>
+      </c>
+      <c r="K217" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L217" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M217" s="7">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="N217" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.45">
@@ -13844,11 +14088,40 @@
       <c r="C218" t="s">
         <v>44</v>
       </c>
+      <c r="D218" s="7">
+        <v>110</v>
+      </c>
       <c r="E218" t="s">
         <v>21</v>
       </c>
+      <c r="F218" s="7">
+        <v>130</v>
+      </c>
+      <c r="G218" t="s">
+        <v>15</v>
+      </c>
       <c r="H218" t="s">
         <v>90</v>
+      </c>
+      <c r="I218" t="s">
+        <v>21</v>
+      </c>
+      <c r="J218" t="s">
+        <v>44</v>
+      </c>
+      <c r="K218" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L218" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M218" s="7">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="N218" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.45">
@@ -13861,11 +14134,40 @@
       <c r="C219" t="s">
         <v>14</v>
       </c>
+      <c r="D219" s="7">
+        <v>115</v>
+      </c>
       <c r="E219" t="s">
         <v>54</v>
       </c>
+      <c r="F219" s="7">
+        <v>107</v>
+      </c>
+      <c r="G219" t="s">
+        <v>15</v>
+      </c>
       <c r="H219" t="s">
         <v>130</v>
+      </c>
+      <c r="I219" t="s">
+        <v>14</v>
+      </c>
+      <c r="J219" t="s">
+        <v>54</v>
+      </c>
+      <c r="K219" t="s">
+        <v>54</v>
+      </c>
+      <c r="L219" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M219" s="7">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="N219" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.45">
@@ -13878,11 +14180,40 @@
       <c r="C220" t="s">
         <v>37</v>
       </c>
+      <c r="D220" s="7">
+        <v>110</v>
+      </c>
       <c r="E220" t="s">
         <v>82</v>
       </c>
+      <c r="F220" s="7">
+        <v>128</v>
+      </c>
+      <c r="G220" t="s">
+        <v>15</v>
+      </c>
       <c r="H220" t="s">
         <v>83</v>
+      </c>
+      <c r="I220" t="s">
+        <v>82</v>
+      </c>
+      <c r="J220" t="s">
+        <v>37</v>
+      </c>
+      <c r="K220" t="s">
+        <v>37</v>
+      </c>
+      <c r="L220" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M220" s="7">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="N220" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.45">
@@ -13895,11 +14226,40 @@
       <c r="C221" t="s">
         <v>13</v>
       </c>
+      <c r="D221" s="7">
+        <v>122</v>
+      </c>
       <c r="E221" t="s">
         <v>72</v>
       </c>
+      <c r="F221" s="7">
+        <v>127</v>
+      </c>
+      <c r="G221" t="s">
+        <v>15</v>
+      </c>
       <c r="H221" t="s">
         <v>73</v>
+      </c>
+      <c r="I221" t="s">
+        <v>72</v>
+      </c>
+      <c r="J221" t="s">
+        <v>13</v>
+      </c>
+      <c r="K221" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L221" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M221" s="7">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N221" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.45">
@@ -14814,7 +15174,7 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15672,27 +16032,27 @@
       </c>
       <c r="B30" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A30)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C30" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A30)</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="10" t="str">
+        <v>4</v>
+      </c>
+      <c r="D30" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E30" s="14" t="str">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E30" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A30, Sheet1!$L$2:$L$500, "Yes"),"")</f>
-        <v/>
-      </c>
-      <c r="F30" s="14" t="str">
+        <v>15.875</v>
+      </c>
+      <c r="F30" s="14">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A30, Sheet1!$L$2:$L$500, "No"),"")</f>
-        <v/>
+        <v>14.5</v>
       </c>
       <c r="G30" s="16" cm="1">
         <f t="array" ref="G30">SUM(($B$2:B30)/SUM($B$2:C30))</f>
-        <v>0.48076923076923084</v>
+        <v>0.49090909090909085</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.45">
@@ -15721,7 +16081,7 @@
       </c>
       <c r="G31" s="16" cm="1">
         <f t="array" ref="G31">SUM(($B$2:B31)/SUM($B$2:C31))</f>
-        <v>0.48076923076923084</v>
+        <v>0.49090909090909085</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.45">
@@ -15750,7 +16110,7 @@
       </c>
       <c r="G32" s="16" cm="1">
         <f t="array" ref="G32">SUM(($B$2:B32)/SUM($B$2:C32))</f>
-        <v>0.48076923076923084</v>
+        <v>0.49090909090909085</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -15779,7 +16139,7 @@
       </c>
       <c r="G33" s="16" cm="1">
         <f t="array" ref="G33">SUM(($B$2:B33)/SUM($B$2:C33))</f>
-        <v>0.48076923076923084</v>
+        <v>0.49090909090909085</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -15808,7 +16168,7 @@
       </c>
       <c r="G34" s="16" cm="1">
         <f t="array" ref="G34">SUM(($B$2:B34)/SUM($B$2:C34))</f>
-        <v>0.48076923076923084</v>
+        <v>0.49090909090909085</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -15837,7 +16197,7 @@
       </c>
       <c r="G35" s="16" cm="1">
         <f t="array" ref="G35">SUM(($B$2:B35)/SUM($B$2:C35))</f>
-        <v>0.48076923076923084</v>
+        <v>0.49090909090909085</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -15866,7 +16226,7 @@
       </c>
       <c r="G36" s="16" cm="1">
         <f t="array" ref="G36">SUM(($B$2:B36)/SUM($B$2:C36))</f>
-        <v>0.48076923076923084</v>
+        <v>0.49090909090909085</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -15895,7 +16255,7 @@
       </c>
       <c r="G37" s="16" cm="1">
         <f t="array" ref="G37">SUM(($B$2:B37)/SUM($B$2:C37))</f>
-        <v>0.48076923076923084</v>
+        <v>0.49090909090909085</v>
       </c>
     </row>
   </sheetData>
@@ -15942,13 +16302,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C79CB8C-90BE-43AB-8DB9-EA1C69C62175}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
@@ -15979,6 +16344,11 @@
       </c>
       <c r="C3" s="19">
         <v>0.58695652173913038</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="18" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE7BFE1-7402-4AFF-9F4C-7462943E0C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC6A671-8659-4EC3-B0A2-22AF6FC3BD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2581" uniqueCount="139">
   <si>
     <t>Date</t>
   </si>
@@ -469,10 +469,13 @@
     <t>v1.0 Accuracy</t>
   </si>
   <si>
-    <t>3-Feb to 14-Feb</t>
+    <t>v1.1 Accuracy</t>
   </si>
   <si>
-    <t>v1.1 Accuracy</t>
+    <t>3-Feb to 15-Feb</t>
+  </si>
+  <si>
+    <t>22-Feb to 23-Feb</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,6 +505,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -572,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -605,7 +616,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -617,7 +627,23 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4080,7 +4106,7 @@
   </sheetPr>
   <dimension ref="A1:N274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -8835,7 +8861,7 @@
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A104" s="15" t="s">
+      <c r="A104" s="14" t="s">
         <v>104</v>
       </c>
       <c r="B104" t="s">
@@ -11494,7 +11520,7 @@
         <v>98</v>
       </c>
       <c r="M161" s="7">
-        <f t="shared" ref="M161:M221" si="5">ABS(D161-F161)</f>
+        <f t="shared" ref="M161:M231" si="5">ABS(D161-F161)</f>
         <v>3</v>
       </c>
       <c r="N161" t="b">
@@ -11728,7 +11754,7 @@
         <v>6</v>
       </c>
       <c r="N166" t="b">
-        <f t="shared" ref="N166:N221" si="6">K166=I166</f>
+        <f t="shared" ref="N166:N230" si="6">K166=I166</f>
         <v>1</v>
       </c>
     </row>
@@ -14272,11 +14298,40 @@
       <c r="C222" t="s">
         <v>48</v>
       </c>
+      <c r="D222" s="7">
+        <v>123</v>
+      </c>
       <c r="E222" t="s">
         <v>25</v>
       </c>
+      <c r="F222" s="7">
+        <v>121</v>
+      </c>
+      <c r="G222" t="s">
+        <v>15</v>
+      </c>
       <c r="H222" t="s">
         <v>47</v>
+      </c>
+      <c r="I222" t="s">
+        <v>48</v>
+      </c>
+      <c r="J222" t="s">
+        <v>25</v>
+      </c>
+      <c r="K222" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L222" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M222" s="7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N222" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.45">
@@ -14289,11 +14344,40 @@
       <c r="C223" t="s">
         <v>46</v>
       </c>
+      <c r="D223" s="7">
+        <v>97</v>
+      </c>
       <c r="E223" t="s">
         <v>17</v>
       </c>
+      <c r="F223" s="7">
+        <v>104</v>
+      </c>
+      <c r="G223" t="s">
+        <v>15</v>
+      </c>
       <c r="H223" t="s">
         <v>66</v>
+      </c>
+      <c r="I223" t="s">
+        <v>17</v>
+      </c>
+      <c r="J223" t="s">
+        <v>46</v>
+      </c>
+      <c r="K223" t="s">
+        <v>46</v>
+      </c>
+      <c r="L223" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M223" s="7">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="N223" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.45">
@@ -14306,14 +14390,43 @@
       <c r="C224" t="s">
         <v>28</v>
       </c>
+      <c r="D224" s="7">
+        <v>110</v>
+      </c>
       <c r="E224" t="s">
         <v>55</v>
       </c>
+      <c r="F224" s="7">
+        <v>114</v>
+      </c>
+      <c r="G224" t="s">
+        <v>15</v>
+      </c>
       <c r="H224" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I224" t="s">
+        <v>55</v>
+      </c>
+      <c r="J224" t="s">
+        <v>28</v>
+      </c>
+      <c r="K224" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L224" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M224" s="7">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N224" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A225" s="3" t="s">
         <v>121</v>
       </c>
@@ -14323,14 +14436,43 @@
       <c r="C225" t="s">
         <v>62</v>
       </c>
+      <c r="D225" s="7">
+        <v>101</v>
+      </c>
       <c r="E225" t="s">
         <v>51</v>
       </c>
+      <c r="F225" s="7">
+        <v>95</v>
+      </c>
+      <c r="G225" t="s">
+        <v>15</v>
+      </c>
       <c r="H225" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I225" t="s">
+        <v>62</v>
+      </c>
+      <c r="J225" t="s">
+        <v>51</v>
+      </c>
+      <c r="K225" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L225" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M225" s="7">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N225" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A226" s="3" t="s">
         <v>121</v>
       </c>
@@ -14340,14 +14482,43 @@
       <c r="C226" t="s">
         <v>26</v>
       </c>
+      <c r="D226" s="7">
+        <v>106</v>
+      </c>
       <c r="E226" t="s">
         <v>29</v>
       </c>
+      <c r="F226" s="7">
+        <v>95</v>
+      </c>
+      <c r="G226" t="s">
+        <v>15</v>
+      </c>
       <c r="H226" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I226" t="s">
+        <v>26</v>
+      </c>
+      <c r="J226" t="s">
+        <v>29</v>
+      </c>
+      <c r="K226" t="s">
+        <v>29</v>
+      </c>
+      <c r="L226" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M226" s="7">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="N226" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A227" s="3" t="s">
         <v>121</v>
       </c>
@@ -14357,14 +14528,43 @@
       <c r="C227" t="s">
         <v>44</v>
       </c>
+      <c r="D227" s="7">
+        <v>106</v>
+      </c>
       <c r="E227" t="s">
         <v>57</v>
       </c>
+      <c r="F227" s="7">
+        <v>147</v>
+      </c>
+      <c r="G227" t="s">
+        <v>15</v>
+      </c>
       <c r="H227" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I227" t="s">
+        <v>57</v>
+      </c>
+      <c r="J227" t="s">
+        <v>44</v>
+      </c>
+      <c r="K227" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L227" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M227" s="7">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="N227" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A228" s="3" t="s">
         <v>121</v>
       </c>
@@ -14374,14 +14574,43 @@
       <c r="C228" t="s">
         <v>14</v>
       </c>
+      <c r="D228" s="7">
+        <v>84</v>
+      </c>
       <c r="E228" t="s">
         <v>82</v>
       </c>
+      <c r="F228" s="7">
+        <v>97</v>
+      </c>
+      <c r="G228" t="s">
+        <v>15</v>
+      </c>
       <c r="H228" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I228" t="s">
+        <v>82</v>
+      </c>
+      <c r="J228" t="s">
+        <v>14</v>
+      </c>
+      <c r="K228" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="L228" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M228" s="7">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="N228" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A229" s="3" t="s">
         <v>121</v>
       </c>
@@ -14391,14 +14620,43 @@
       <c r="C229" t="s">
         <v>41</v>
       </c>
+      <c r="D229" s="7">
+        <v>112</v>
+      </c>
       <c r="E229" t="s">
         <v>58</v>
       </c>
+      <c r="F229" s="7">
+        <v>107</v>
+      </c>
+      <c r="G229" t="s">
+        <v>15</v>
+      </c>
       <c r="H229" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I229" t="s">
+        <v>41</v>
+      </c>
+      <c r="J229" t="s">
+        <v>58</v>
+      </c>
+      <c r="K229" t="s">
+        <v>58</v>
+      </c>
+      <c r="L229" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M229" s="7">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N229" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A230" s="3" t="s">
         <v>121</v>
       </c>
@@ -14408,14 +14666,43 @@
       <c r="C230" t="s">
         <v>21</v>
       </c>
+      <c r="D230" s="7">
+        <v>127</v>
+      </c>
       <c r="E230" t="s">
         <v>33</v>
       </c>
+      <c r="F230" s="7">
+        <v>112</v>
+      </c>
+      <c r="G230" t="s">
+        <v>15</v>
+      </c>
       <c r="H230" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I230" t="s">
+        <v>21</v>
+      </c>
+      <c r="J230" t="s">
+        <v>33</v>
+      </c>
+      <c r="K230" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L230" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M230" s="7">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="N230" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A231" s="3" t="s">
         <v>121</v>
       </c>
@@ -14425,14 +14712,43 @@
       <c r="C231" t="s">
         <v>13</v>
       </c>
+      <c r="D231" s="7">
+        <v>118</v>
+      </c>
       <c r="E231" t="s">
         <v>37</v>
       </c>
+      <c r="F231" s="7">
+        <v>123</v>
+      </c>
+      <c r="G231" t="s">
+        <v>15</v>
+      </c>
       <c r="H231" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I231" t="s">
+        <v>37</v>
+      </c>
+      <c r="J231" t="s">
+        <v>13</v>
+      </c>
+      <c r="K231" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L231" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M231" s="7">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N231" t="b">
+        <f t="shared" ref="N231" si="7">K231=I231</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A232" s="3" t="s">
         <v>122</v>
       </c>
@@ -14449,7 +14765,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A233" s="3" t="s">
         <v>122</v>
       </c>
@@ -14466,7 +14782,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A234" s="3" t="s">
         <v>122</v>
       </c>
@@ -14483,7 +14799,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A235" s="3" t="s">
         <v>123</v>
       </c>
@@ -14500,7 +14816,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A236" s="3" t="s">
         <v>123</v>
       </c>
@@ -14517,7 +14833,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A237" s="3" t="s">
         <v>123</v>
       </c>
@@ -14534,7 +14850,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A238" s="3" t="s">
         <v>123</v>
       </c>
@@ -14551,7 +14867,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A239" s="3" t="s">
         <v>123</v>
       </c>
@@ -14568,7 +14884,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A240" s="3" t="s">
         <v>123</v>
       </c>
@@ -15171,15 +15487,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3316D165-A907-40EA-B4D3-B42CCCB2BD8A}">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.9296875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15187,22 +15504,22 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="19" t="s">
         <v>103</v>
       </c>
     </row>
@@ -15222,15 +15539,15 @@
         <f>IFERROR(B2/SUM(B2:C2),"")</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A2, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>9</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A2, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>7.8</v>
       </c>
-      <c r="G2" s="16" cm="1">
+      <c r="G2" s="21" cm="1">
         <f t="array" ref="G2">SUM(($B$2:B2)/SUM($B$2:C2))</f>
         <v>0.2857142857142857</v>
       </c>
@@ -15251,15 +15568,15 @@
         <f t="shared" ref="D3:D37" si="0">IFERROR(B3/SUM(B3:C3),"")</f>
         <v>0.625</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A3, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>14</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A3, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>10</v>
       </c>
-      <c r="G3" s="16" cm="1">
+      <c r="G3" s="21" cm="1">
         <f t="array" ref="G3">SUM(($B$2:B3)/SUM($B$2:C3))</f>
         <v>0.46666666666666667</v>
       </c>
@@ -15280,15 +15597,15 @@
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A4, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>8</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A4, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>15.5</v>
       </c>
-      <c r="G4" s="16" cm="1">
+      <c r="G4" s="21" cm="1">
         <f t="array" ref="G4">SUM(($B$2:B4)/SUM($B$2:C4))</f>
         <v>0.42857142857142855</v>
       </c>
@@ -15309,15 +15626,15 @@
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A5, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>13</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A5, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>8.8000000000000007</v>
       </c>
-      <c r="G5" s="16" cm="1">
+      <c r="G5" s="21" cm="1">
         <f t="array" ref="G5">SUM(($B$2:B5)/SUM($B$2:C5))</f>
         <v>0.41379310344827586</v>
       </c>
@@ -15338,15 +15655,15 @@
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A6, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>5</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A6, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>19.25</v>
       </c>
-      <c r="G6" s="16" cm="1">
+      <c r="G6" s="21" cm="1">
         <f t="array" ref="G6">SUM(($B$2:B6)/SUM($B$2:C6))</f>
         <v>0.38235294117647062</v>
       </c>
@@ -15367,15 +15684,15 @@
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A7, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A7, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>17.8</v>
       </c>
-      <c r="G7" s="16" cm="1">
+      <c r="G7" s="21" cm="1">
         <f t="array" ref="G7">SUM(($B$2:B7)/SUM($B$2:C7))</f>
         <v>0.38095238095238093</v>
       </c>
@@ -15396,15 +15713,15 @@
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A8, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>21.666666666666668</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A8, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>11.25</v>
       </c>
-      <c r="G8" s="16" cm="1">
+      <c r="G8" s="21" cm="1">
         <f t="array" ref="G8">SUM(($B$2:B8)/SUM($B$2:C8))</f>
         <v>0.38775510204081637</v>
       </c>
@@ -15425,15 +15742,15 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A9, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>7.75</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A9, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>20.75</v>
       </c>
-      <c r="G9" s="16" cm="1">
+      <c r="G9" s="21" cm="1">
         <f t="array" ref="G9">SUM(($B$2:B9)/SUM($B$2:C9))</f>
         <v>0.40350877192982454</v>
       </c>
@@ -15454,15 +15771,15 @@
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A10, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>5.75</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A10, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>12.833333333333334</v>
       </c>
-      <c r="G10" s="16" cm="1">
+      <c r="G10" s="21" cm="1">
         <f t="array" ref="G10">SUM(($B$2:B10)/SUM($B$2:C10))</f>
         <v>0.40298507462686567</v>
       </c>
@@ -15483,15 +15800,15 @@
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A11, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>10.666666666666666</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A11, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>7</v>
       </c>
-      <c r="G11" s="16" cm="1">
+      <c r="G11" s="21" cm="1">
         <f t="array" ref="G11">SUM(($B$2:B11)/SUM($B$2:C11))</f>
         <v>0.41666666666666669</v>
       </c>
@@ -15512,15 +15829,15 @@
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A12, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>11</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A12, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>13.625</v>
       </c>
-      <c r="G12" s="16" cm="1">
+      <c r="G12" s="21" cm="1">
         <f t="array" ref="G12">SUM(($B$2:B12)/SUM($B$2:C12))</f>
         <v>0.40476190476190471</v>
       </c>
@@ -15541,15 +15858,15 @@
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A13, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>13</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A13, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>10</v>
       </c>
-      <c r="G13" s="16" cm="1">
+      <c r="G13" s="21" cm="1">
         <f t="array" ref="G13">SUM(($B$2:B13)/SUM($B$2:C13))</f>
         <v>0.41573033707865159</v>
       </c>
@@ -15570,21 +15887,21 @@
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A14, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>5.666666666666667</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A14, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>14.428571428571429</v>
       </c>
-      <c r="G14" s="16" cm="1">
+      <c r="G14" s="21" cm="1">
         <f t="array" ref="G14">SUM(($B$2:B14)/SUM($B$2:C14))</f>
         <v>0.40404040404040409</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>104</v>
       </c>
       <c r="B15" s="9">
@@ -15599,21 +15916,21 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A15, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>6</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A15, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>5.5</v>
       </c>
-      <c r="G15" s="16" cm="1">
+      <c r="G15" s="21" cm="1">
         <f t="array" ref="G15">SUM(($B$2:B15)/SUM($B$2:C15))</f>
         <v>0.40776699029126201</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>105</v>
       </c>
       <c r="B16" s="9">
@@ -15628,21 +15945,21 @@
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A16, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>7.333333333333333</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A16, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>14.428571428571429</v>
       </c>
-      <c r="G16" s="16" cm="1">
+      <c r="G16" s="21" cm="1">
         <f t="array" ref="G16">SUM(($B$2:B16)/SUM($B$2:C16))</f>
         <v>0.39823008849557512</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A17" s="14" t="s">
         <v>106</v>
       </c>
       <c r="B17" s="9">
@@ -15657,21 +15974,21 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A17, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>12</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A17, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>10</v>
       </c>
-      <c r="G17" s="16" cm="1">
+      <c r="G17" s="21" cm="1">
         <f t="array" ref="G17">SUM(($B$2:B17)/SUM($B$2:C17))</f>
         <v>0.40336134453781519</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A18" s="14" t="s">
         <v>107</v>
       </c>
       <c r="B18" s="9">
@@ -15686,21 +16003,21 @@
         <f t="shared" si="0"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A18, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>17.75</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A18, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>15</v>
       </c>
-      <c r="G18" s="16" cm="1">
+      <c r="G18" s="21" cm="1">
         <f t="array" ref="G18">SUM(($B$2:B18)/SUM($B$2:C18))</f>
         <v>0.4375</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A19" s="14" t="s">
         <v>108</v>
       </c>
       <c r="B19" s="9">
@@ -15715,21 +16032,21 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A19, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>17.2</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A19, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>16</v>
       </c>
-      <c r="G19" s="16" cm="1">
+      <c r="G19" s="21" cm="1">
         <f t="array" ref="G19">SUM(($B$2:B19)/SUM($B$2:C19))</f>
         <v>0.45522388059701496</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A20" s="14" t="s">
         <v>109</v>
       </c>
       <c r="B20" s="9">
@@ -15744,21 +16061,21 @@
         <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A20, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>11</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A20, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>10</v>
       </c>
-      <c r="G20" s="16" cm="1">
+      <c r="G20" s="21" cm="1">
         <f t="array" ref="G20">SUM(($B$2:B20)/SUM($B$2:C20))</f>
         <v>0.4468085106382978</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A21" s="14" t="s">
         <v>110</v>
       </c>
       <c r="B21" s="9">
@@ -15773,21 +16090,21 @@
         <f t="shared" si="0"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A21, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>8.5</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A21, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>15.666666666666666</v>
       </c>
-      <c r="G21" s="16" cm="1">
+      <c r="G21" s="21" cm="1">
         <f t="array" ref="G21">SUM(($B$2:B21)/SUM($B$2:C21))</f>
         <v>0.4527027027027028</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A22" s="14" t="s">
         <v>111</v>
       </c>
       <c r="B22" s="9">
@@ -15802,21 +16119,21 @@
         <f t="shared" si="0"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A22, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>13.75</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A22, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>16</v>
       </c>
-      <c r="G22" s="16" cm="1">
+      <c r="G22" s="21" cm="1">
         <f t="array" ref="G22">SUM(($B$2:B22)/SUM($B$2:C22))</f>
         <v>0.45222929936305728</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A23" s="15" t="s">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A23" s="14" t="s">
         <v>112</v>
       </c>
       <c r="B23" s="9">
@@ -15831,21 +16148,21 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A23, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>19</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A23, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>12.666666666666666</v>
       </c>
-      <c r="G23" s="16" cm="1">
+      <c r="G23" s="21" cm="1">
         <f t="array" ref="G23">SUM(($B$2:B23)/SUM($B$2:C23))</f>
         <v>0.45398773006134974</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A24" s="14" t="s">
         <v>113</v>
       </c>
       <c r="B24" s="9">
@@ -15860,21 +16177,21 @@
         <f t="shared" si="0"/>
         <v>0.63636363636363635</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A24, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>11.428571428571429</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A24, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>14.75</v>
       </c>
-      <c r="G24" s="16" cm="1">
+      <c r="G24" s="21" cm="1">
         <f t="array" ref="G24">SUM(($B$2:B24)/SUM($B$2:C24))</f>
         <v>0.46551724137931033</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A25" s="15" t="s">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A25" s="14" t="s">
         <v>114</v>
       </c>
       <c r="B25" s="9">
@@ -15889,21 +16206,21 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A25, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>9</v>
       </c>
-      <c r="F25" s="14" t="str">
+      <c r="F25" s="20" t="str">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A25, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
-      <c r="G25" s="16" cm="1">
+      <c r="G25" s="21" cm="1">
         <f t="array" ref="G25">SUM(($B$2:B25)/SUM($B$2:C25))</f>
         <v>0.47159090909090901</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A26" s="15" t="s">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A26" s="14" t="s">
         <v>116</v>
       </c>
       <c r="B26" s="9">
@@ -15918,21 +16235,21 @@
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A26, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>9</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A26, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>13.714285714285714</v>
       </c>
-      <c r="G26" s="16" cm="1">
+      <c r="G26" s="21" cm="1">
         <f t="array" ref="G26">SUM(($B$2:B26)/SUM($B$2:C26))</f>
         <v>0.46236559139784938</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A27" s="15" t="s">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A27" s="14" t="s">
         <v>117</v>
       </c>
       <c r="B27" s="9">
@@ -15947,25 +16264,25 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A27, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>10.6</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A27, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>26</v>
       </c>
-      <c r="G27" s="16" cm="1">
+      <c r="G27" s="21" cm="1">
         <f t="array" ref="G27">SUM(($B$2:B27)/SUM($B$2:C27))</f>
         <v>0.47395833333333337</v>
       </c>
-      <c r="Q27" s="16" cm="1">
-        <f t="array" ref="Q27">SUM(($B$2:B16)/SUM($B$2:C17))</f>
-        <v>0.37815126050420172</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A28" s="15" t="s">
+      <c r="Q27" s="15" cm="1">
+        <f t="array" ref="Q27">SUM(($B$2:B16)/SUM($B$2:C16))</f>
+        <v>0.39823008849557512</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A28" s="14" t="s">
         <v>118</v>
       </c>
       <c r="B28" s="9">
@@ -15980,25 +16297,29 @@
         <f t="shared" si="0"/>
         <v>0.61538461538461542</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A28, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>15.25</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A28, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>11.6</v>
       </c>
-      <c r="G28" s="16" cm="1">
+      <c r="G28" s="21" cm="1">
         <f t="array" ref="G28">SUM(($B$2:B28)/SUM($B$2:C28))</f>
         <v>0.48292682926829283</v>
       </c>
-      <c r="Q28" s="16" cm="1">
+      <c r="Q28" s="15" cm="1">
         <f t="array" ref="Q28">SUM(($B$17:B28)/SUM($B$17:C28))</f>
         <v>0.58695652173913038</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A29" s="15" t="s">
+      <c r="R28" cm="1">
+        <f t="array" ref="R28">SUM(($B$18:B29)/SUM($B$18:C29))</f>
+        <v>0.5842696629213483</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A29" s="14" t="s">
         <v>119</v>
       </c>
       <c r="B29" s="9">
@@ -16013,21 +16334,25 @@
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A29, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>37</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A29, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>3</v>
       </c>
-      <c r="G29" s="16" cm="1">
+      <c r="G29" s="21" cm="1">
         <f t="array" ref="G29">SUM(($B$2:B29)/SUM($B$2:C29))</f>
         <v>0.48076923076923084</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A30" s="15" t="s">
+      <c r="R29" cm="1">
+        <f t="array" ref="R29">SUM(($B$30:B31)/SUM($B$30:C31))</f>
+        <v>0.68181818181818188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A30" s="14" t="s">
         <v>120</v>
       </c>
       <c r="B30" s="9">
@@ -16042,50 +16367,50 @@
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A30, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v>15.875</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A30, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v>14.5</v>
       </c>
-      <c r="G30" s="16" cm="1">
+      <c r="G30" s="21" cm="1">
         <f t="array" ref="G30">SUM(($B$2:B30)/SUM($B$2:C30))</f>
         <v>0.49090909090909085</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A31" s="15" t="s">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A31" s="14" t="s">
         <v>121</v>
       </c>
       <c r="B31" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A31)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C31" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A31)</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="10" t="str">
+        <v>3</v>
+      </c>
+      <c r="D31" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E31" s="14" t="str">
+        <v>0.7</v>
+      </c>
+      <c r="E31" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A31, Sheet1!$L$2:$L$500, "Yes"),"")</f>
-        <v/>
-      </c>
-      <c r="F31" s="14" t="str">
+        <v>12.285714285714286</v>
+      </c>
+      <c r="F31" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A31, Sheet1!$L$2:$L$500, "No"),"")</f>
-        <v/>
-      </c>
-      <c r="G31" s="16" cm="1">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="G31" s="21" cm="1">
         <f t="array" ref="G31">SUM(($B$2:B31)/SUM($B$2:C31))</f>
-        <v>0.49090909090909085</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A32" s="15" t="s">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A32" s="14" t="s">
         <v>122</v>
       </c>
       <c r="B32" s="9">
@@ -16100,21 +16425,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E32" s="14" t="str">
+      <c r="E32" s="20" t="str">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A32, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v/>
       </c>
-      <c r="F32" s="14" t="str">
+      <c r="F32" s="20" t="str">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A32, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
-      <c r="G32" s="16" cm="1">
+      <c r="G32" s="21" cm="1">
         <f t="array" ref="G32">SUM(($B$2:B32)/SUM($B$2:C32))</f>
-        <v>0.49090909090909085</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>123</v>
       </c>
       <c r="B33" s="9">
@@ -16129,21 +16454,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E33" s="14" t="str">
+      <c r="E33" s="20" t="str">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A33, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v/>
       </c>
-      <c r="F33" s="14" t="str">
+      <c r="F33" s="20" t="str">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A33, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
-      <c r="G33" s="16" cm="1">
+      <c r="G33" s="21" cm="1">
         <f t="array" ref="G33">SUM(($B$2:B33)/SUM($B$2:C33))</f>
-        <v>0.49090909090909085</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>126</v>
       </c>
       <c r="B34" s="9">
@@ -16158,21 +16483,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E34" s="14" t="str">
+      <c r="E34" s="20" t="str">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A34, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v/>
       </c>
-      <c r="F34" s="14" t="str">
+      <c r="F34" s="20" t="str">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A34, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
-      <c r="G34" s="16" cm="1">
+      <c r="G34" s="21" cm="1">
         <f t="array" ref="G34">SUM(($B$2:B34)/SUM($B$2:C34))</f>
-        <v>0.49090909090909085</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>127</v>
       </c>
       <c r="B35" s="9">
@@ -16187,21 +16512,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E35" s="14" t="str">
+      <c r="E35" s="20" t="str">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A35, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v/>
       </c>
-      <c r="F35" s="14" t="str">
+      <c r="F35" s="20" t="str">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A35, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
-      <c r="G35" s="16" cm="1">
+      <c r="G35" s="21" cm="1">
         <f t="array" ref="G35">SUM(($B$2:B35)/SUM($B$2:C35))</f>
-        <v>0.49090909090909085</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>128</v>
       </c>
       <c r="B36" s="9">
@@ -16216,21 +16541,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E36" s="14" t="str">
+      <c r="E36" s="20" t="str">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A36, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v/>
       </c>
-      <c r="F36" s="14" t="str">
+      <c r="F36" s="20" t="str">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A36, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
-      <c r="G36" s="16" cm="1">
+      <c r="G36" s="21" cm="1">
         <f t="array" ref="G36">SUM(($B$2:B36)/SUM($B$2:C36))</f>
-        <v>0.49090909090909085</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="14" t="s">
         <v>129</v>
       </c>
       <c r="B37" s="9">
@@ -16245,17 +16570,17 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E37" s="14" t="str">
+      <c r="E37" s="20" t="str">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A37, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v/>
       </c>
-      <c r="F37" s="14" t="str">
+      <c r="F37" s="20" t="str">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A37, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
-      <c r="G37" s="16" cm="1">
+      <c r="G37" s="21" cm="1">
         <f t="array" ref="G37">SUM(($B$2:B37)/SUM($B$2:C37))</f>
-        <v>0.49090909090909085</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -16296,66 +16621,122 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C79CB8C-90BE-43AB-8DB9-EA1C69C62175}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.53125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="20"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="17" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="19">
-        <v>0.37815126050420172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="17" t="s">
+      <c r="C2" s="18">
+        <v>0.39823008849557512</v>
+      </c>
+      <c r="D2" s="18">
+        <v>0.39823008849557512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <v>0.58695652173913038</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B4" s="18" t="s">
-        <v>137</v>
+      <c r="D3" s="18">
+        <v>0.48076923076923084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0.68181818181818188</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:C3">
+  <conditionalFormatting sqref="C3:C4">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D4">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C4">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC6A671-8659-4EC3-B0A2-22AF6FC3BD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F1A6F5-F517-4F1A-9010-954CE5CBBE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2581" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2596" uniqueCount="139">
   <si>
     <t>Date</t>
   </si>
@@ -583,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -639,11 +639,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11520,7 +11517,7 @@
         <v>98</v>
       </c>
       <c r="M161" s="7">
-        <f t="shared" ref="M161:M231" si="5">ABS(D161-F161)</f>
+        <f t="shared" ref="M161:M234" si="5">ABS(D161-F161)</f>
         <v>3</v>
       </c>
       <c r="N161" t="b">
@@ -14744,7 +14741,7 @@
         <v>5</v>
       </c>
       <c r="N231" t="b">
-        <f t="shared" ref="N231" si="7">K231=I231</f>
+        <f t="shared" ref="N231:N234" si="7">K231=I231</f>
         <v>1</v>
       </c>
     </row>
@@ -14758,11 +14755,40 @@
       <c r="C232" t="s">
         <v>18</v>
       </c>
+      <c r="D232" s="7">
+        <v>112</v>
+      </c>
       <c r="E232" t="s">
         <v>42</v>
       </c>
+      <c r="F232" s="7">
+        <v>109</v>
+      </c>
+      <c r="G232" t="s">
+        <v>15</v>
+      </c>
       <c r="H232" t="s">
         <v>43</v>
+      </c>
+      <c r="I232" t="s">
+        <v>18</v>
+      </c>
+      <c r="J232" t="s">
+        <v>42</v>
+      </c>
+      <c r="K232" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L232" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M232" s="7">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="N232" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.45">
@@ -14775,11 +14801,40 @@
       <c r="C233" t="s">
         <v>22</v>
       </c>
+      <c r="D233" s="7">
+        <v>116</v>
+      </c>
       <c r="E233" t="s">
         <v>49</v>
       </c>
+      <c r="F233" s="7">
+        <v>102</v>
+      </c>
+      <c r="G233" t="s">
+        <v>15</v>
+      </c>
       <c r="H233" t="s">
         <v>50</v>
+      </c>
+      <c r="I233" t="s">
+        <v>22</v>
+      </c>
+      <c r="J233" t="s">
+        <v>49</v>
+      </c>
+      <c r="K233" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L233" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M233" s="7">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="N233" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.45">
@@ -14792,11 +14847,40 @@
       <c r="C234" t="s">
         <v>36</v>
       </c>
+      <c r="D234" s="7">
+        <v>86</v>
+      </c>
       <c r="E234" t="s">
         <v>58</v>
       </c>
+      <c r="F234" s="7">
+        <v>101</v>
+      </c>
+      <c r="G234" t="s">
+        <v>15</v>
+      </c>
       <c r="H234" t="s">
         <v>59</v>
+      </c>
+      <c r="I234" t="s">
+        <v>58</v>
+      </c>
+      <c r="J234" t="s">
+        <v>36</v>
+      </c>
+      <c r="K234" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L234" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M234" s="7">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="N234" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.45">
@@ -15489,8 +15573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3316D165-A907-40EA-B4D3-B42CCCB2BD8A}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16415,19 +16499,19 @@
       </c>
       <c r="B32" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A32)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C32" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A32)</f>
         <v>0</v>
       </c>
-      <c r="D32" s="10" t="str">
+      <c r="D32" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E32" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="E32" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A32, Sheet1!$L$2:$L$500, "Yes"),"")</f>
-        <v/>
+        <v>10.666666666666666</v>
       </c>
       <c r="F32" s="20" t="str">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A32, Sheet1!$L$2:$L$500, "No"),"")</f>
@@ -16435,7 +16519,7 @@
       </c>
       <c r="G32" s="21" cm="1">
         <f t="array" ref="G32">SUM(($B$2:B32)/SUM($B$2:C32))</f>
-        <v>0.5</v>
+        <v>0.50643776824034337</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -16464,7 +16548,7 @@
       </c>
       <c r="G33" s="21" cm="1">
         <f t="array" ref="G33">SUM(($B$2:B33)/SUM($B$2:C33))</f>
-        <v>0.5</v>
+        <v>0.50643776824034337</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -16493,7 +16577,7 @@
       </c>
       <c r="G34" s="21" cm="1">
         <f t="array" ref="G34">SUM(($B$2:B34)/SUM($B$2:C34))</f>
-        <v>0.5</v>
+        <v>0.50643776824034337</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -16522,7 +16606,7 @@
       </c>
       <c r="G35" s="21" cm="1">
         <f t="array" ref="G35">SUM(($B$2:B35)/SUM($B$2:C35))</f>
-        <v>0.5</v>
+        <v>0.50643776824034337</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -16551,7 +16635,7 @@
       </c>
       <c r="G36" s="21" cm="1">
         <f t="array" ref="G36">SUM(($B$2:B36)/SUM($B$2:C36))</f>
-        <v>0.5</v>
+        <v>0.50643776824034337</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -16580,7 +16664,7 @@
       </c>
       <c r="G37" s="21" cm="1">
         <f t="array" ref="G37">SUM(($B$2:B37)/SUM($B$2:C37))</f>
-        <v>0.5</v>
+        <v>0.50643776824034337</v>
       </c>
     </row>
   </sheetData>
@@ -16646,11 +16730,11 @@
       <c r="A1" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="23" t="s">
         <v>103</v>
       </c>
     </row>
@@ -16683,7 +16767,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="16" t="s">
         <v>138</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -16700,6 +16784,30 @@
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C3:C4">
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -16724,30 +16832,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C4">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/future.xlsx
+++ b/future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F1A6F5-F517-4F1A-9010-954CE5CBBE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177053AC-553F-4004-B783-C6CA65EF8D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2596" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="139">
   <si>
     <t>Date</t>
   </si>
@@ -4103,7 +4103,9 @@
   </sheetPr>
   <dimension ref="A1:N274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="A226" sqref="A226"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11517,7 +11519,7 @@
         <v>98</v>
       </c>
       <c r="M161" s="7">
-        <f t="shared" ref="M161:M234" si="5">ABS(D161-F161)</f>
+        <f t="shared" ref="M161:M245" si="5">ABS(D161-F161)</f>
         <v>3</v>
       </c>
       <c r="N161" t="b">
@@ -14741,7 +14743,7 @@
         <v>5</v>
       </c>
       <c r="N231" t="b">
-        <f t="shared" ref="N231:N234" si="7">K231=I231</f>
+        <f t="shared" ref="N231:N245" si="7">K231=I231</f>
         <v>1</v>
       </c>
     </row>
@@ -14893,11 +14895,40 @@
       <c r="C235" t="s">
         <v>41</v>
       </c>
+      <c r="D235" s="7">
+        <v>119</v>
+      </c>
       <c r="E235" t="s">
         <v>17</v>
       </c>
+      <c r="F235" s="7">
+        <v>98</v>
+      </c>
+      <c r="G235" t="s">
+        <v>15</v>
+      </c>
       <c r="H235" t="s">
         <v>66</v>
+      </c>
+      <c r="I235" t="s">
+        <v>41</v>
+      </c>
+      <c r="J235" t="s">
+        <v>17</v>
+      </c>
+      <c r="K235" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L235" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M235" s="7">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="N235" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.45">
@@ -14910,11 +14941,40 @@
       <c r="C236" t="s">
         <v>37</v>
       </c>
+      <c r="D236" s="7">
+        <v>113</v>
+      </c>
       <c r="E236" t="s">
         <v>28</v>
       </c>
+      <c r="F236" s="7">
+        <v>123</v>
+      </c>
+      <c r="G236" t="s">
+        <v>15</v>
+      </c>
       <c r="H236" t="s">
         <v>64</v>
+      </c>
+      <c r="I236" t="s">
+        <v>28</v>
+      </c>
+      <c r="J236" t="s">
+        <v>37</v>
+      </c>
+      <c r="K236" t="s">
+        <v>37</v>
+      </c>
+      <c r="L236" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M236" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N236" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.45">
@@ -14927,11 +14987,40 @@
       <c r="C237" t="s">
         <v>69</v>
       </c>
+      <c r="D237" s="7">
+        <v>111</v>
+      </c>
       <c r="E237" t="s">
         <v>32</v>
       </c>
+      <c r="F237" s="7">
+        <v>133</v>
+      </c>
+      <c r="G237" t="s">
+        <v>15</v>
+      </c>
       <c r="H237" t="s">
         <v>75</v>
+      </c>
+      <c r="I237" t="s">
+        <v>32</v>
+      </c>
+      <c r="J237" t="s">
+        <v>69</v>
+      </c>
+      <c r="K237" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L237" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M237" s="7">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="N237" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.45">
@@ -14944,11 +15033,40 @@
       <c r="C238" t="s">
         <v>46</v>
       </c>
+      <c r="D238" s="7">
+        <v>114</v>
+      </c>
       <c r="E238" t="s">
         <v>44</v>
       </c>
+      <c r="F238" s="7">
+        <v>105</v>
+      </c>
+      <c r="G238" t="s">
+        <v>15</v>
+      </c>
       <c r="H238" t="s">
         <v>45</v>
+      </c>
+      <c r="I238" t="s">
+        <v>46</v>
+      </c>
+      <c r="J238" t="s">
+        <v>44</v>
+      </c>
+      <c r="K238" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L238" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M238" s="7">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="N238" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.45">
@@ -14961,11 +15079,40 @@
       <c r="C239" t="s">
         <v>18</v>
       </c>
+      <c r="D239" s="7">
+        <v>92</v>
+      </c>
       <c r="E239" t="s">
         <v>25</v>
       </c>
+      <c r="F239" s="7">
+        <v>109</v>
+      </c>
+      <c r="G239" t="s">
+        <v>15</v>
+      </c>
       <c r="H239" t="s">
         <v>47</v>
+      </c>
+      <c r="I239" t="s">
+        <v>25</v>
+      </c>
+      <c r="J239" t="s">
+        <v>18</v>
+      </c>
+      <c r="K239" t="s">
+        <v>18</v>
+      </c>
+      <c r="L239" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M239" s="7">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="N239" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.45">
@@ -14978,14 +15125,43 @@
       <c r="C240" t="s">
         <v>21</v>
       </c>
+      <c r="D240" s="7">
+        <v>119</v>
+      </c>
       <c r="E240" t="s">
         <v>82</v>
       </c>
+      <c r="F240" s="7">
+        <v>103</v>
+      </c>
+      <c r="G240" t="s">
+        <v>15</v>
+      </c>
       <c r="H240" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I240" t="s">
+        <v>21</v>
+      </c>
+      <c r="J240" t="s">
+        <v>82</v>
+      </c>
+      <c r="K240" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L240" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M240" s="7">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="N240" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A241" s="3" t="s">
         <v>123</v>
       </c>
@@ -14995,14 +15171,43 @@
       <c r="C241" t="s">
         <v>57</v>
       </c>
+      <c r="D241" s="7">
+        <v>123</v>
+      </c>
       <c r="E241" t="s">
         <v>55</v>
       </c>
+      <c r="F241" s="7">
+        <v>110</v>
+      </c>
+      <c r="G241" t="s">
+        <v>15</v>
+      </c>
       <c r="H241" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I241" t="s">
+        <v>57</v>
+      </c>
+      <c r="J241" t="s">
+        <v>55</v>
+      </c>
+      <c r="K241" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L241" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M241" s="7">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="N241" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A242" s="3" t="s">
         <v>123</v>
       </c>
@@ -15012,14 +15217,43 @@
       <c r="C242" t="s">
         <v>52</v>
       </c>
+      <c r="D242" s="7">
+        <v>114</v>
+      </c>
       <c r="E242" t="s">
         <v>29</v>
       </c>
+      <c r="F242" s="7">
+        <v>106</v>
+      </c>
+      <c r="G242" t="s">
+        <v>15</v>
+      </c>
       <c r="H242" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I242" t="s">
+        <v>52</v>
+      </c>
+      <c r="J242" t="s">
+        <v>29</v>
+      </c>
+      <c r="K242" t="s">
+        <v>29</v>
+      </c>
+      <c r="L242" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M242" s="7">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="N242" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A243" s="3" t="s">
         <v>123</v>
       </c>
@@ -15029,14 +15263,43 @@
       <c r="C243" t="s">
         <v>13</v>
       </c>
+      <c r="D243" s="7">
+        <v>109</v>
+      </c>
       <c r="E243" t="s">
         <v>54</v>
       </c>
+      <c r="F243" s="7">
+        <v>128</v>
+      </c>
+      <c r="G243" t="s">
+        <v>15</v>
+      </c>
       <c r="H243" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I243" t="s">
+        <v>54</v>
+      </c>
+      <c r="J243" t="s">
+        <v>13</v>
+      </c>
+      <c r="K243" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L243" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M243" s="7">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="N243" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A244" s="3" t="s">
         <v>123</v>
       </c>
@@ -15046,14 +15309,43 @@
       <c r="C244" t="s">
         <v>14</v>
       </c>
+      <c r="D244" s="7">
+        <v>93</v>
+      </c>
       <c r="E244" t="s">
         <v>33</v>
       </c>
+      <c r="F244" s="7">
+        <v>80</v>
+      </c>
+      <c r="G244" t="s">
+        <v>15</v>
+      </c>
       <c r="H244" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I244" t="s">
+        <v>14</v>
+      </c>
+      <c r="J244" t="s">
+        <v>33</v>
+      </c>
+      <c r="K244" t="s">
+        <v>33</v>
+      </c>
+      <c r="L244" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M244" s="7">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="N244" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A245" s="3" t="s">
         <v>123</v>
       </c>
@@ -15063,14 +15355,43 @@
       <c r="C245" t="s">
         <v>72</v>
       </c>
+      <c r="D245" s="7">
+        <v>123</v>
+      </c>
       <c r="E245" t="s">
         <v>62</v>
       </c>
+      <c r="F245" s="7">
+        <v>107</v>
+      </c>
+      <c r="G245" t="s">
+        <v>15</v>
+      </c>
       <c r="H245" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I245" t="s">
+        <v>72</v>
+      </c>
+      <c r="J245" t="s">
+        <v>62</v>
+      </c>
+      <c r="K245" t="s">
+        <v>62</v>
+      </c>
+      <c r="L245" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M245" s="7">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="N245" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A246" s="3" t="s">
         <v>126</v>
       </c>
@@ -15086,8 +15407,9 @@
       <c r="H246" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M246" s="7"/>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A247" s="3" t="s">
         <v>126</v>
       </c>
@@ -15103,8 +15425,9 @@
       <c r="H247" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M247" s="7"/>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A248" s="3" t="s">
         <v>126</v>
       </c>
@@ -15121,7 +15444,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A249" s="3" t="s">
         <v>126</v>
       </c>
@@ -15138,7 +15461,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A250" s="3" t="s">
         <v>127</v>
       </c>
@@ -15155,7 +15478,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A251" s="3" t="s">
         <v>127</v>
       </c>
@@ -15172,7 +15495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A252" s="3" t="s">
         <v>127</v>
       </c>
@@ -15189,7 +15512,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A253" s="3" t="s">
         <v>127</v>
       </c>
@@ -15206,7 +15529,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A254" s="3" t="s">
         <v>127</v>
       </c>
@@ -15223,7 +15546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A255" s="3" t="s">
         <v>127</v>
       </c>
@@ -15240,7 +15563,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A256" s="3" t="s">
         <v>127</v>
       </c>
@@ -15573,8 +15896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3316D165-A907-40EA-B4D3-B42CCCB2BD8A}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16528,27 +16851,27 @@
       </c>
       <c r="B33" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A33)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C33" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A33)</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="10" t="str">
+        <v>5</v>
+      </c>
+      <c r="D33" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E33" s="20" t="str">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="E33" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A33, Sheet1!$L$2:$L$500, "Yes"),"")</f>
-        <v/>
-      </c>
-      <c r="F33" s="20" t="str">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="F33" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A33, Sheet1!$L$2:$L$500, "No"),"")</f>
-        <v/>
+        <v>12.8</v>
       </c>
       <c r="G33" s="21" cm="1">
         <f t="array" ref="G33">SUM(($B$2:B33)/SUM($B$2:C33))</f>
-        <v>0.50643776824034337</v>
+        <v>0.50819672131147553</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -16577,7 +16900,7 @@
       </c>
       <c r="G34" s="21" cm="1">
         <f t="array" ref="G34">SUM(($B$2:B34)/SUM($B$2:C34))</f>
-        <v>0.50643776824034337</v>
+        <v>0.50819672131147553</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -16606,7 +16929,7 @@
       </c>
       <c r="G35" s="21" cm="1">
         <f t="array" ref="G35">SUM(($B$2:B35)/SUM($B$2:C35))</f>
-        <v>0.50643776824034337</v>
+        <v>0.50819672131147553</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -16635,7 +16958,7 @@
       </c>
       <c r="G36" s="21" cm="1">
         <f t="array" ref="G36">SUM(($B$2:B36)/SUM($B$2:C36))</f>
-        <v>0.50643776824034337</v>
+        <v>0.50819672131147553</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -16664,7 +16987,7 @@
       </c>
       <c r="G37" s="21" cm="1">
         <f t="array" ref="G37">SUM(($B$2:B37)/SUM($B$2:C37))</f>
-        <v>0.50643776824034337</v>
+        <v>0.50819672131147553</v>
       </c>
     </row>
   </sheetData>

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177053AC-553F-4004-B783-C6CA65EF8D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176097FE-7CB5-46B9-BE67-8FB56EA2F71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2671" uniqueCount="139">
   <si>
     <t>Date</t>
   </si>
@@ -4103,9 +4103,7 @@
   </sheetPr>
   <dimension ref="A1:N274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="A226" sqref="A226"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11519,7 +11517,7 @@
         <v>98</v>
       </c>
       <c r="M161" s="7">
-        <f t="shared" ref="M161:M245" si="5">ABS(D161-F161)</f>
+        <f t="shared" ref="M161:M249" si="5">ABS(D161-F161)</f>
         <v>3</v>
       </c>
       <c r="N161" t="b">
@@ -14743,7 +14741,7 @@
         <v>5</v>
       </c>
       <c r="N231" t="b">
-        <f t="shared" ref="N231:N245" si="7">K231=I231</f>
+        <f t="shared" ref="N231:N249" si="7">K231=I231</f>
         <v>1</v>
       </c>
     </row>
@@ -15401,13 +15399,41 @@
       <c r="C246" t="s">
         <v>48</v>
       </c>
+      <c r="D246" s="7">
+        <v>130</v>
+      </c>
       <c r="E246" t="s">
         <v>32</v>
       </c>
+      <c r="F246" s="7">
+        <v>122</v>
+      </c>
+      <c r="G246" t="s">
+        <v>15</v>
+      </c>
       <c r="H246" t="s">
         <v>75</v>
       </c>
-      <c r="M246" s="7"/>
+      <c r="I246" t="s">
+        <v>48</v>
+      </c>
+      <c r="J246" t="s">
+        <v>32</v>
+      </c>
+      <c r="K246" t="s">
+        <v>32</v>
+      </c>
+      <c r="L246" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M246" s="7">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="N246" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A247" s="3" t="s">
@@ -15419,13 +15445,41 @@
       <c r="C247" t="s">
         <v>42</v>
       </c>
+      <c r="D247" s="7">
+        <v>111</v>
+      </c>
       <c r="E247" t="s">
         <v>49</v>
       </c>
+      <c r="F247" s="7">
+        <v>113</v>
+      </c>
+      <c r="G247" t="s">
+        <v>15</v>
+      </c>
       <c r="H247" t="s">
         <v>50</v>
       </c>
-      <c r="M247" s="7"/>
+      <c r="I247" t="s">
+        <v>49</v>
+      </c>
+      <c r="J247" t="s">
+        <v>42</v>
+      </c>
+      <c r="K247" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L247" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M247" s="7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N247" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A248" s="3" t="s">
@@ -15437,11 +15491,40 @@
       <c r="C248" t="s">
         <v>36</v>
       </c>
+      <c r="D248" s="7">
+        <v>111</v>
+      </c>
       <c r="E248" t="s">
         <v>51</v>
       </c>
+      <c r="F248" s="7">
+        <v>86</v>
+      </c>
+      <c r="G248" t="s">
+        <v>15</v>
+      </c>
       <c r="H248" t="s">
         <v>86</v>
+      </c>
+      <c r="I248" t="s">
+        <v>36</v>
+      </c>
+      <c r="J248" t="s">
+        <v>51</v>
+      </c>
+      <c r="K248" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L248" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M248" s="7">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="N248" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.45">
@@ -15454,11 +15537,40 @@
       <c r="C249" t="s">
         <v>26</v>
       </c>
+      <c r="D249" s="7">
+        <v>121</v>
+      </c>
       <c r="E249" t="s">
         <v>72</v>
       </c>
+      <c r="F249" s="7">
+        <v>110</v>
+      </c>
+      <c r="G249" t="s">
+        <v>15</v>
+      </c>
       <c r="H249" t="s">
         <v>73</v>
+      </c>
+      <c r="I249" t="s">
+        <v>26</v>
+      </c>
+      <c r="J249" t="s">
+        <v>72</v>
+      </c>
+      <c r="K249" t="s">
+        <v>72</v>
+      </c>
+      <c r="L249" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M249" s="7">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="N249" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.45">
@@ -15896,8 +16008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3316D165-A907-40EA-B4D3-B42CCCB2BD8A}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B33"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16880,27 +16992,27 @@
       </c>
       <c r="B34" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A34)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C34" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A34)</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="10" t="str">
+        <v>2</v>
+      </c>
+      <c r="D34" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E34" s="20" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A34, Sheet1!$L$2:$L$500, "Yes"),"")</f>
-        <v/>
-      </c>
-      <c r="F34" s="20" t="str">
+        <v>13.5</v>
+      </c>
+      <c r="F34" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A34, Sheet1!$L$2:$L$500, "No"),"")</f>
-        <v/>
+        <v>9.5</v>
       </c>
       <c r="G34" s="21" cm="1">
         <f t="array" ref="G34">SUM(($B$2:B34)/SUM($B$2:C34))</f>
-        <v>0.50819672131147553</v>
+        <v>0.50806451612903203</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -16929,7 +17041,7 @@
       </c>
       <c r="G35" s="21" cm="1">
         <f t="array" ref="G35">SUM(($B$2:B35)/SUM($B$2:C35))</f>
-        <v>0.50819672131147553</v>
+        <v>0.50806451612903203</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -16958,7 +17070,7 @@
       </c>
       <c r="G36" s="21" cm="1">
         <f t="array" ref="G36">SUM(($B$2:B36)/SUM($B$2:C36))</f>
-        <v>0.50819672131147553</v>
+        <v>0.50806451612903203</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -16987,7 +17099,7 @@
       </c>
       <c r="G37" s="21" cm="1">
         <f t="array" ref="G37">SUM(($B$2:B37)/SUM($B$2:C37))</f>
-        <v>0.50819672131147553</v>
+        <v>0.50806451612903203</v>
       </c>
     </row>
   </sheetData>

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176097FE-7CB5-46B9-BE67-8FB56EA2F71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4D24B1-3E62-46EF-B767-E1039271C786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2671" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2726" uniqueCount="139">
   <si>
     <t>Date</t>
   </si>
@@ -11517,7 +11517,7 @@
         <v>98</v>
       </c>
       <c r="M161" s="7">
-        <f t="shared" ref="M161:M249" si="5">ABS(D161-F161)</f>
+        <f t="shared" ref="M161:M260" si="5">ABS(D161-F161)</f>
         <v>3</v>
       </c>
       <c r="N161" t="b">
@@ -14741,7 +14741,7 @@
         <v>5</v>
       </c>
       <c r="N231" t="b">
-        <f t="shared" ref="N231:N249" si="7">K231=I231</f>
+        <f t="shared" ref="N231:N260" si="7">K231=I231</f>
         <v>1</v>
       </c>
     </row>
@@ -15583,11 +15583,40 @@
       <c r="C250" t="s">
         <v>69</v>
       </c>
+      <c r="D250" s="7">
+        <v>119</v>
+      </c>
       <c r="E250" t="s">
         <v>46</v>
       </c>
+      <c r="F250" s="7">
+        <v>121</v>
+      </c>
+      <c r="G250" t="s">
+        <v>15</v>
+      </c>
       <c r="H250" t="s">
         <v>93</v>
+      </c>
+      <c r="I250" t="s">
+        <v>46</v>
+      </c>
+      <c r="J250" t="s">
+        <v>69</v>
+      </c>
+      <c r="K250" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L250" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M250" s="7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N250" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.45">
@@ -15600,11 +15629,40 @@
       <c r="C251" t="s">
         <v>36</v>
       </c>
+      <c r="D251" s="7">
+        <v>81</v>
+      </c>
       <c r="E251" t="s">
         <v>18</v>
       </c>
+      <c r="F251" s="7">
+        <v>108</v>
+      </c>
+      <c r="G251" t="s">
+        <v>15</v>
+      </c>
       <c r="H251" t="s">
         <v>19</v>
+      </c>
+      <c r="I251" t="s">
+        <v>18</v>
+      </c>
+      <c r="J251" t="s">
+        <v>36</v>
+      </c>
+      <c r="K251" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L251" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M251" s="7">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="N251" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.45">
@@ -15617,11 +15675,40 @@
       <c r="C252" t="s">
         <v>82</v>
       </c>
+      <c r="D252" s="7">
+        <v>123</v>
+      </c>
       <c r="E252" t="s">
         <v>44</v>
       </c>
+      <c r="F252" s="7">
+        <v>112</v>
+      </c>
+      <c r="G252" t="s">
+        <v>15</v>
+      </c>
       <c r="H252" t="s">
         <v>45</v>
+      </c>
+      <c r="I252" t="s">
+        <v>82</v>
+      </c>
+      <c r="J252" t="s">
+        <v>44</v>
+      </c>
+      <c r="K252" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="L252" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M252" s="7">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="N252" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.45">
@@ -15634,11 +15721,40 @@
       <c r="C253" t="s">
         <v>54</v>
       </c>
+      <c r="D253" s="7">
+        <v>97</v>
+      </c>
       <c r="E253" t="s">
         <v>25</v>
       </c>
+      <c r="F253" s="7">
+        <v>124</v>
+      </c>
+      <c r="G253" t="s">
+        <v>15</v>
+      </c>
       <c r="H253" t="s">
         <v>47</v>
+      </c>
+      <c r="I253" t="s">
+        <v>25</v>
+      </c>
+      <c r="J253" t="s">
+        <v>54</v>
+      </c>
+      <c r="K253" t="s">
+        <v>54</v>
+      </c>
+      <c r="L253" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M253" s="7">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="N253" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.45">
@@ -15651,11 +15767,40 @@
       <c r="C254" t="s">
         <v>17</v>
       </c>
+      <c r="D254" s="7">
+        <v>99</v>
+      </c>
       <c r="E254" t="s">
         <v>22</v>
       </c>
+      <c r="F254" s="7">
+        <v>117</v>
+      </c>
+      <c r="G254" t="s">
+        <v>15</v>
+      </c>
       <c r="H254" t="s">
         <v>23</v>
+      </c>
+      <c r="I254" t="s">
+        <v>22</v>
+      </c>
+      <c r="J254" t="s">
+        <v>17</v>
+      </c>
+      <c r="K254" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L254" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M254" s="7">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="N254" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.45">
@@ -15668,11 +15813,40 @@
       <c r="C255" t="s">
         <v>13</v>
       </c>
+      <c r="D255" s="7">
+        <v>105</v>
+      </c>
       <c r="E255" t="s">
         <v>58</v>
       </c>
+      <c r="F255" s="7">
+        <v>114</v>
+      </c>
+      <c r="G255" t="s">
+        <v>15</v>
+      </c>
       <c r="H255" t="s">
         <v>59</v>
+      </c>
+      <c r="I255" t="s">
+        <v>58</v>
+      </c>
+      <c r="J255" t="s">
+        <v>13</v>
+      </c>
+      <c r="K255" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L255" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M255" s="7">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="N255" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.45">
@@ -15685,14 +15859,43 @@
       <c r="C256" t="s">
         <v>29</v>
       </c>
+      <c r="D256" s="7">
+        <v>115</v>
+      </c>
       <c r="E256" t="s">
         <v>49</v>
       </c>
+      <c r="F256" s="7">
+        <v>92</v>
+      </c>
+      <c r="G256" t="s">
+        <v>15</v>
+      </c>
       <c r="H256" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I256" t="s">
+        <v>29</v>
+      </c>
+      <c r="J256" t="s">
+        <v>49</v>
+      </c>
+      <c r="K256" t="s">
+        <v>49</v>
+      </c>
+      <c r="L256" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M256" s="7">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="N256" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A257" s="3" t="s">
         <v>127</v>
       </c>
@@ -15702,14 +15905,43 @@
       <c r="C257" t="s">
         <v>42</v>
       </c>
+      <c r="D257" s="7">
+        <v>105</v>
+      </c>
       <c r="E257" t="s">
         <v>52</v>
       </c>
+      <c r="F257" s="7">
+        <v>95</v>
+      </c>
+      <c r="G257" t="s">
+        <v>15</v>
+      </c>
       <c r="H257" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I257" t="s">
+        <v>42</v>
+      </c>
+      <c r="J257" t="s">
+        <v>52</v>
+      </c>
+      <c r="K257" t="s">
+        <v>52</v>
+      </c>
+      <c r="L257" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M257" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N257" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A258" s="3" t="s">
         <v>127</v>
       </c>
@@ -15719,14 +15951,43 @@
       <c r="C258" t="s">
         <v>14</v>
       </c>
+      <c r="D258" s="7">
+        <v>85</v>
+      </c>
       <c r="E258" t="s">
         <v>41</v>
       </c>
+      <c r="F258" s="7">
+        <v>123</v>
+      </c>
+      <c r="G258" t="s">
+        <v>15</v>
+      </c>
       <c r="H258" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I258" t="s">
+        <v>41</v>
+      </c>
+      <c r="J258" t="s">
+        <v>14</v>
+      </c>
+      <c r="K258" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L258" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M258" s="7">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="N258" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A259" s="3" t="s">
         <v>127</v>
       </c>
@@ -15736,14 +15997,43 @@
       <c r="C259" t="s">
         <v>55</v>
       </c>
+      <c r="D259" s="7">
+        <v>95</v>
+      </c>
       <c r="E259" t="s">
         <v>57</v>
       </c>
+      <c r="F259" s="7">
+        <v>112</v>
+      </c>
+      <c r="G259" t="s">
+        <v>15</v>
+      </c>
       <c r="H259" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I259" t="s">
+        <v>57</v>
+      </c>
+      <c r="J259" t="s">
+        <v>55</v>
+      </c>
+      <c r="K259" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L259" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M259" s="7">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="N259" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A260" s="3" t="s">
         <v>127</v>
       </c>
@@ -15753,14 +16043,43 @@
       <c r="C260" t="s">
         <v>26</v>
       </c>
+      <c r="D260" s="7">
+        <v>106</v>
+      </c>
       <c r="E260" t="s">
         <v>33</v>
       </c>
+      <c r="F260" s="7">
+        <v>96</v>
+      </c>
+      <c r="G260" t="s">
+        <v>15</v>
+      </c>
       <c r="H260" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I260" t="s">
+        <v>26</v>
+      </c>
+      <c r="J260" t="s">
+        <v>33</v>
+      </c>
+      <c r="K260" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L260" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M260" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N260" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A261" s="3" t="s">
         <v>128</v>
       </c>
@@ -15777,7 +16096,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A262" s="3" t="s">
         <v>128</v>
       </c>
@@ -15794,7 +16113,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A263" s="3" t="s">
         <v>128</v>
       </c>
@@ -15811,7 +16130,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A264" s="3" t="s">
         <v>128</v>
       </c>
@@ -15828,7 +16147,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A265" s="3" t="s">
         <v>128</v>
       </c>
@@ -15845,7 +16164,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A266" s="3" t="s">
         <v>128</v>
       </c>
@@ -15862,7 +16181,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A267" s="3" t="s">
         <v>129</v>
       </c>
@@ -15879,7 +16198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A268" s="3" t="s">
         <v>129</v>
       </c>
@@ -15896,7 +16215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A269" s="3" t="s">
         <v>129</v>
       </c>
@@ -15913,7 +16232,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A270" s="3" t="s">
         <v>129</v>
       </c>
@@ -15930,7 +16249,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A271" s="3" t="s">
         <v>129</v>
       </c>
@@ -15947,7 +16266,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A272" s="3" t="s">
         <v>129</v>
       </c>
@@ -16008,7 +16327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3316D165-A907-40EA-B4D3-B42CCCB2BD8A}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -17021,27 +17340,27 @@
       </c>
       <c r="B35" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A35)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C35" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A35)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="10" t="str">
+        <v>3</v>
+      </c>
+      <c r="D35" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E35" s="20" t="str">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="E35" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A35, Sheet1!$L$2:$L$500, "Yes"),"")</f>
-        <v/>
-      </c>
-      <c r="F35" s="20" t="str">
+        <v>16.5</v>
+      </c>
+      <c r="F35" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A35, Sheet1!$L$2:$L$500, "No"),"")</f>
-        <v/>
+        <v>20</v>
       </c>
       <c r="G35" s="21" cm="1">
         <f t="array" ref="G35">SUM(($B$2:B35)/SUM($B$2:C35))</f>
-        <v>0.50806451612903203</v>
+        <v>0.51737451737451734</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -17070,7 +17389,7 @@
       </c>
       <c r="G36" s="21" cm="1">
         <f t="array" ref="G36">SUM(($B$2:B36)/SUM($B$2:C36))</f>
-        <v>0.50806451612903203</v>
+        <v>0.51737451737451734</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -17099,7 +17418,7 @@
       </c>
       <c r="G37" s="21" cm="1">
         <f t="array" ref="G37">SUM(($B$2:B37)/SUM($B$2:C37))</f>
-        <v>0.50806451612903203</v>
+        <v>0.51737451737451734</v>
       </c>
     </row>
   </sheetData>

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4D24B1-3E62-46EF-B767-E1039271C786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553F66D2-2B43-4461-A2AE-C0C4C5BAF7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2726" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2756" uniqueCount="139">
   <si>
     <t>Date</t>
   </si>
@@ -4103,7 +4103,9 @@
   </sheetPr>
   <dimension ref="A1:N274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="G254" sqref="G254"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11517,7 +11519,7 @@
         <v>98</v>
       </c>
       <c r="M161" s="7">
-        <f t="shared" ref="M161:M260" si="5">ABS(D161-F161)</f>
+        <f t="shared" ref="M161:M266" si="5">ABS(D161-F161)</f>
         <v>3</v>
       </c>
       <c r="N161" t="b">
@@ -14741,7 +14743,7 @@
         <v>5</v>
       </c>
       <c r="N231" t="b">
-        <f t="shared" ref="N231:N260" si="7">K231=I231</f>
+        <f t="shared" ref="N231:N266" si="7">K231=I231</f>
         <v>1</v>
       </c>
     </row>
@@ -16089,11 +16091,40 @@
       <c r="C261" t="s">
         <v>29</v>
       </c>
+      <c r="D261" s="7">
+        <v>114</v>
+      </c>
       <c r="E261" t="s">
         <v>32</v>
       </c>
+      <c r="F261" s="7">
+        <v>123</v>
+      </c>
+      <c r="G261" t="s">
+        <v>15</v>
+      </c>
       <c r="H261" t="s">
         <v>75</v>
+      </c>
+      <c r="I261" t="s">
+        <v>32</v>
+      </c>
+      <c r="J261" t="s">
+        <v>29</v>
+      </c>
+      <c r="K261" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L261" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M261" s="7">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="N261" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.45">
@@ -16106,11 +16137,40 @@
       <c r="C262" t="s">
         <v>51</v>
       </c>
+      <c r="D262" s="7">
+        <v>101</v>
+      </c>
       <c r="E262" t="s">
         <v>58</v>
       </c>
+      <c r="F262" s="7">
+        <v>110</v>
+      </c>
+      <c r="G262" t="s">
+        <v>15</v>
+      </c>
       <c r="H262" t="s">
         <v>59</v>
+      </c>
+      <c r="I262" t="s">
+        <v>58</v>
+      </c>
+      <c r="J262" t="s">
+        <v>51</v>
+      </c>
+      <c r="K262" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L262" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M262" s="7">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="N262" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.45">
@@ -16123,11 +16183,40 @@
       <c r="C263" t="s">
         <v>69</v>
       </c>
+      <c r="D263" s="7">
+        <v>136</v>
+      </c>
       <c r="E263" t="s">
         <v>48</v>
       </c>
+      <c r="F263" s="7">
+        <v>125</v>
+      </c>
+      <c r="G263" t="s">
+        <v>15</v>
+      </c>
       <c r="H263" t="s">
         <v>67</v>
+      </c>
+      <c r="I263" t="s">
+        <v>69</v>
+      </c>
+      <c r="J263" t="s">
+        <v>48</v>
+      </c>
+      <c r="K263" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L263" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M263" s="7">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="N263" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.45">
@@ -16140,11 +16229,40 @@
       <c r="C264" t="s">
         <v>46</v>
       </c>
+      <c r="D264" s="7">
+        <v>123</v>
+      </c>
       <c r="E264" t="s">
         <v>52</v>
       </c>
+      <c r="F264" s="7">
+        <v>132</v>
+      </c>
+      <c r="G264" t="s">
+        <v>97</v>
+      </c>
       <c r="H264" t="s">
         <v>53</v>
+      </c>
+      <c r="I264" t="s">
+        <v>52</v>
+      </c>
+      <c r="J264" t="s">
+        <v>46</v>
+      </c>
+      <c r="K264" t="s">
+        <v>46</v>
+      </c>
+      <c r="L264" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M264" s="7">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="N264" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.45">
@@ -16157,11 +16275,40 @@
       <c r="C265" t="s">
         <v>72</v>
       </c>
+      <c r="D265" s="7">
+        <v>96</v>
+      </c>
       <c r="E265" t="s">
         <v>21</v>
       </c>
+      <c r="F265" s="7">
+        <v>117</v>
+      </c>
+      <c r="G265" t="s">
+        <v>15</v>
+      </c>
       <c r="H265" t="s">
         <v>90</v>
+      </c>
+      <c r="I265" t="s">
+        <v>21</v>
+      </c>
+      <c r="J265" t="s">
+        <v>72</v>
+      </c>
+      <c r="K265" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L265" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M265" s="7">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="N265" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.45">
@@ -16174,11 +16321,40 @@
       <c r="C266" t="s">
         <v>37</v>
       </c>
+      <c r="D266" s="7">
+        <v>116</v>
+      </c>
       <c r="E266" t="s">
         <v>62</v>
       </c>
+      <c r="F266" s="7">
+        <v>112</v>
+      </c>
+      <c r="G266" t="s">
+        <v>15</v>
+      </c>
       <c r="H266" t="s">
         <v>38</v>
+      </c>
+      <c r="I266" t="s">
+        <v>37</v>
+      </c>
+      <c r="J266" t="s">
+        <v>62</v>
+      </c>
+      <c r="K266" t="s">
+        <v>62</v>
+      </c>
+      <c r="L266" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M266" s="7">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N266" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.45">
@@ -17369,27 +17545,27 @@
       </c>
       <c r="B36" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A36)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C36" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A36)</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="10" t="str">
+        <v>2</v>
+      </c>
+      <c r="D36" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E36" s="20" t="str">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E36" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A36, Sheet1!$L$2:$L$500, "Yes"),"")</f>
-        <v/>
-      </c>
-      <c r="F36" s="20" t="str">
+        <v>12.5</v>
+      </c>
+      <c r="F36" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A36, Sheet1!$L$2:$L$500, "No"),"")</f>
-        <v/>
+        <v>6.5</v>
       </c>
       <c r="G36" s="21" cm="1">
         <f t="array" ref="G36">SUM(($B$2:B36)/SUM($B$2:C36))</f>
-        <v>0.51737451737451734</v>
+        <v>0.52075471698113207</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -17418,7 +17594,7 @@
       </c>
       <c r="G37" s="21" cm="1">
         <f t="array" ref="G37">SUM(($B$2:B37)/SUM($B$2:C37))</f>
-        <v>0.51737451737451734</v>
+        <v>0.52075471698113207</v>
       </c>
     </row>
   </sheetData>

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553F66D2-2B43-4461-A2AE-C0C4C5BAF7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E09F69-5D90-4E9D-BB85-BE5093930106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$274</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$504</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$G$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2756" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3977" uniqueCount="171">
   <si>
     <t>Date</t>
   </si>
@@ -477,6 +477,102 @@
   <si>
     <t>22-Feb to 23-Feb</t>
   </si>
+  <si>
+    <t>Fri, Mar 1, 2024</t>
+  </si>
+  <si>
+    <t>Sat, Mar 2, 2024</t>
+  </si>
+  <si>
+    <t>Sun, Mar 3, 2024</t>
+  </si>
+  <si>
+    <t>Mon, Mar 4, 2024</t>
+  </si>
+  <si>
+    <t>Tue, Mar 5, 2024</t>
+  </si>
+  <si>
+    <t>Wed, Mar 6, 2024</t>
+  </si>
+  <si>
+    <t>Thu, Mar 7, 2024</t>
+  </si>
+  <si>
+    <t>Fri, Mar 8, 2024</t>
+  </si>
+  <si>
+    <t>Sat, Mar 9, 2024</t>
+  </si>
+  <si>
+    <t>4:00p</t>
+  </si>
+  <si>
+    <t>Sun, Mar 10, 2024</t>
+  </si>
+  <si>
+    <t>Mon, Mar 11, 2024</t>
+  </si>
+  <si>
+    <t>Tue, Mar 12, 2024</t>
+  </si>
+  <si>
+    <t>Wed, Mar 13, 2024</t>
+  </si>
+  <si>
+    <t>Thu, Mar 14, 2024</t>
+  </si>
+  <si>
+    <t>Fri, Mar 15, 2024</t>
+  </si>
+  <si>
+    <t>Sat, Mar 16, 2024</t>
+  </si>
+  <si>
+    <t>Sun, Mar 17, 2024</t>
+  </si>
+  <si>
+    <t>Mon, Mar 18, 2024</t>
+  </si>
+  <si>
+    <t>Tue, Mar 19, 2024</t>
+  </si>
+  <si>
+    <t>Wed, Mar 20, 2024</t>
+  </si>
+  <si>
+    <t>Thu, Mar 21, 2024</t>
+  </si>
+  <si>
+    <t>Fri, Mar 22, 2024</t>
+  </si>
+  <si>
+    <t>Sat, Mar 23, 2024</t>
+  </si>
+  <si>
+    <t>Sun, Mar 24, 2024</t>
+  </si>
+  <si>
+    <t>Mon, Mar 25, 2024</t>
+  </si>
+  <si>
+    <t>Tue, Mar 26, 2024</t>
+  </si>
+  <si>
+    <t>Wed, Mar 27, 2024</t>
+  </si>
+  <si>
+    <t>Thu, Mar 28, 2024</t>
+  </si>
+  <si>
+    <t>Fri, Mar 29, 2024</t>
+  </si>
+  <si>
+    <t>Sat, Mar 30, 2024</t>
+  </si>
+  <si>
+    <t>Sun, Mar 31, 2024</t>
+  </si>
 </sst>
 </file>
 
@@ -583,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -642,6 +738,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4101,11 +4200,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:N274"/>
+  <dimension ref="A1:N504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="G254" sqref="G254"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11519,7 +11616,7 @@
         <v>98</v>
       </c>
       <c r="M161" s="7">
-        <f t="shared" ref="M161:M266" si="5">ABS(D161-F161)</f>
+        <f t="shared" ref="M161:M274" si="5">ABS(D161-F161)</f>
         <v>3</v>
       </c>
       <c r="N161" t="b">
@@ -14743,7 +14840,7 @@
         <v>5</v>
       </c>
       <c r="N231" t="b">
-        <f t="shared" ref="N231:N266" si="7">K231=I231</f>
+        <f t="shared" ref="N231:N274" si="7">K231=I231</f>
         <v>1</v>
       </c>
     </row>
@@ -16367,11 +16464,40 @@
       <c r="C267" t="s">
         <v>41</v>
       </c>
+      <c r="D267" s="7">
+        <v>111</v>
+      </c>
       <c r="E267" t="s">
         <v>14</v>
       </c>
+      <c r="F267" s="7">
+        <v>99</v>
+      </c>
+      <c r="G267" t="s">
+        <v>15</v>
+      </c>
       <c r="H267" t="s">
         <v>16</v>
+      </c>
+      <c r="I267" t="s">
+        <v>41</v>
+      </c>
+      <c r="J267" t="s">
+        <v>14</v>
+      </c>
+      <c r="K267" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L267" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M267" s="7">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="N267" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.45">
@@ -16384,11 +16510,40 @@
       <c r="C268" t="s">
         <v>54</v>
       </c>
+      <c r="D268" s="7">
+        <v>107</v>
+      </c>
       <c r="E268" t="s">
         <v>18</v>
       </c>
+      <c r="F268" s="7">
+        <v>115</v>
+      </c>
+      <c r="G268" t="s">
+        <v>15</v>
+      </c>
       <c r="H268" t="s">
         <v>19</v>
+      </c>
+      <c r="I268" t="s">
+        <v>18</v>
+      </c>
+      <c r="J268" t="s">
+        <v>54</v>
+      </c>
+      <c r="K268" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L268" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M268" s="7">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="N268" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.45">
@@ -16401,11 +16556,40 @@
       <c r="C269" t="s">
         <v>25</v>
       </c>
+      <c r="D269" s="7">
+        <v>97</v>
+      </c>
       <c r="E269" t="s">
         <v>36</v>
       </c>
+      <c r="F269" s="7">
+        <v>124</v>
+      </c>
+      <c r="G269" t="s">
+        <v>15</v>
+      </c>
       <c r="H269" t="s">
         <v>76</v>
+      </c>
+      <c r="I269" t="s">
+        <v>36</v>
+      </c>
+      <c r="J269" t="s">
+        <v>25</v>
+      </c>
+      <c r="K269" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L269" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M269" s="7">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="N269" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.45">
@@ -16418,11 +16602,40 @@
       <c r="C270" t="s">
         <v>82</v>
       </c>
+      <c r="D270" s="7">
+        <v>110</v>
+      </c>
       <c r="E270" t="s">
         <v>49</v>
       </c>
+      <c r="F270" s="7">
+        <v>99</v>
+      </c>
+      <c r="G270" t="s">
+        <v>15</v>
+      </c>
       <c r="H270" t="s">
         <v>50</v>
+      </c>
+      <c r="I270" t="s">
+        <v>82</v>
+      </c>
+      <c r="J270" t="s">
+        <v>49</v>
+      </c>
+      <c r="K270" t="s">
+        <v>49</v>
+      </c>
+      <c r="L270" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M270" s="7">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="N270" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.45">
@@ -16435,11 +16648,40 @@
       <c r="C271" t="s">
         <v>57</v>
       </c>
+      <c r="D271" s="7">
+        <v>118</v>
+      </c>
       <c r="E271" t="s">
         <v>13</v>
       </c>
+      <c r="F271" s="7">
+        <v>132</v>
+      </c>
+      <c r="G271" t="s">
+        <v>15</v>
+      </c>
       <c r="H271" t="s">
         <v>81</v>
+      </c>
+      <c r="I271" t="s">
+        <v>13</v>
+      </c>
+      <c r="J271" t="s">
+        <v>57</v>
+      </c>
+      <c r="K271" t="s">
+        <v>57</v>
+      </c>
+      <c r="L271" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M271" s="7">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="N271" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.45">
@@ -16452,14 +16694,43 @@
       <c r="C272" t="s">
         <v>55</v>
       </c>
+      <c r="D272" s="7">
+        <v>105</v>
+      </c>
       <c r="E272" t="s">
         <v>28</v>
       </c>
+      <c r="F272" s="7">
+        <v>110</v>
+      </c>
+      <c r="G272" t="s">
+        <v>15</v>
+      </c>
       <c r="H272" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I272" t="s">
+        <v>28</v>
+      </c>
+      <c r="J272" t="s">
+        <v>55</v>
+      </c>
+      <c r="K272" t="s">
+        <v>55</v>
+      </c>
+      <c r="L272" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M272" s="7">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N272" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A273" s="3" t="s">
         <v>129</v>
       </c>
@@ -16469,14 +16740,43 @@
       <c r="C273" t="s">
         <v>26</v>
       </c>
+      <c r="D273" s="7">
+        <v>97</v>
+      </c>
       <c r="E273" t="s">
         <v>21</v>
       </c>
+      <c r="F273" s="7">
+        <v>103</v>
+      </c>
+      <c r="G273" t="s">
+        <v>15</v>
+      </c>
       <c r="H273" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I273" t="s">
+        <v>21</v>
+      </c>
+      <c r="J273" t="s">
+        <v>26</v>
+      </c>
+      <c r="K273" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L273" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M273" s="7">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N273" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A274" s="3" t="s">
         <v>129</v>
       </c>
@@ -16486,11 +16786,4180 @@
       <c r="C274" t="s">
         <v>44</v>
       </c>
+      <c r="D274" s="7">
+        <v>131</v>
+      </c>
       <c r="E274" t="s">
         <v>37</v>
       </c>
+      <c r="F274" s="7">
+        <v>134</v>
+      </c>
+      <c r="G274" t="s">
+        <v>97</v>
+      </c>
       <c r="H274" t="s">
         <v>38</v>
+      </c>
+      <c r="I274" t="s">
+        <v>37</v>
+      </c>
+      <c r="J274" t="s">
+        <v>44</v>
+      </c>
+      <c r="K274" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L274" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M274" s="7">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="N274" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A275" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B275" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C275" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D275" s="25"/>
+      <c r="E275" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H275" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A276" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B276" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C276" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D276" s="25"/>
+      <c r="E276" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H276" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A277" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B277" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C277" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D277" s="25"/>
+      <c r="E277" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H277" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A278" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B278" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C278" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D278" s="25"/>
+      <c r="E278" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H278" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A279" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B279" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C279" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D279" s="25"/>
+      <c r="E279" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H279" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A280" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B280" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C280" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D280" s="25"/>
+      <c r="E280" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H280" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A281" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B281" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C281" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D281" s="25"/>
+      <c r="E281" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H281" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A282" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B282" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C282" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D282" s="25"/>
+      <c r="E282" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H282" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A283" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B283" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C283" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D283" s="25"/>
+      <c r="E283" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H283" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A284" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B284" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C284" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D284" s="25"/>
+      <c r="E284" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H284" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A285" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B285" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C285" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D285" s="25"/>
+      <c r="E285" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H285" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A286" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B286" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C286" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D286" s="25"/>
+      <c r="E286" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H286" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A287" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B287" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C287" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D287" s="25"/>
+      <c r="E287" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H287" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A288" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B288" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C288" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D288" s="25"/>
+      <c r="E288" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H288" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A289" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B289" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C289" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D289" s="25"/>
+      <c r="E289" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H289" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A290" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B290" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C290" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D290" s="25"/>
+      <c r="E290" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H290" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A291" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B291" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C291" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D291" s="25"/>
+      <c r="E291" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H291" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A292" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B292" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C292" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D292" s="25"/>
+      <c r="E292" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H292" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A293" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B293" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C293" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D293" s="25"/>
+      <c r="E293" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H293" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A294" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B294" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C294" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D294" s="25"/>
+      <c r="E294" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H294" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A295" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B295" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C295" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D295" s="25"/>
+      <c r="E295" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H295" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A296" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B296" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C296" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D296" s="25"/>
+      <c r="E296" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H296" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A297" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B297" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C297" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D297" s="25"/>
+      <c r="E297" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H297" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A298" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B298" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C298" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D298" s="25"/>
+      <c r="E298" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H298" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A299" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B299" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C299" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D299" s="25"/>
+      <c r="E299" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H299" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A300" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B300" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C300" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D300" s="25"/>
+      <c r="E300" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H300" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A301" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B301" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C301" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D301" s="25"/>
+      <c r="E301" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H301" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A302" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B302" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C302" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D302" s="25"/>
+      <c r="E302" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H302" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A303" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B303" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C303" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D303" s="25"/>
+      <c r="E303" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H303" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A304" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B304" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C304" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D304" s="25"/>
+      <c r="E304" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H304" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A305" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B305" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C305" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D305" s="25"/>
+      <c r="E305" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H305" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A306" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B306" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C306" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D306" s="25"/>
+      <c r="E306" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H306" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A307" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B307" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C307" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" s="25"/>
+      <c r="E307" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H307" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A308" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B308" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C308" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D308" s="25"/>
+      <c r="E308" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H308" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A309" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B309" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C309" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D309" s="25"/>
+      <c r="E309" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H309" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A310" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B310" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C310" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D310" s="25"/>
+      <c r="E310" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H310" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A311" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B311" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C311" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D311" s="25"/>
+      <c r="E311" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H311" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A312" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B312" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C312" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D312" s="25"/>
+      <c r="E312" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H312" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A313" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B313" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C313" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D313" s="25"/>
+      <c r="E313" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H313" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A314" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B314" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C314" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D314" s="25"/>
+      <c r="E314" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H314" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A315" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B315" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C315" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D315" s="25"/>
+      <c r="E315" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H315" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A316" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B316" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C316" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D316" s="25"/>
+      <c r="E316" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H316" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A317" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B317" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C317" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D317" s="25"/>
+      <c r="E317" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="H317" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A318" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B318" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C318" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D318" s="25"/>
+      <c r="E318" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H318" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A319" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B319" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C319" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D319" s="25"/>
+      <c r="E319" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H319" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A320" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B320" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C320" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D320" s="25"/>
+      <c r="E320" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H320" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A321" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B321" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C321" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D321" s="25"/>
+      <c r="E321" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H321" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A322" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B322" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C322" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D322" s="25"/>
+      <c r="E322" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H322" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A323" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B323" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C323" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D323" s="25"/>
+      <c r="E323" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H323" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A324" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B324" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C324" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D324" s="25"/>
+      <c r="E324" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H324" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A325" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B325" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C325" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D325" s="25"/>
+      <c r="E325" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="H325" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A326" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B326" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C326" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D326" s="25"/>
+      <c r="E326" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H326" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A327" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B327" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C327" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D327" s="25"/>
+      <c r="E327" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H327" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A328" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B328" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C328" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D328" s="25"/>
+      <c r="E328" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H328" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A329" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B329" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C329" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D329" s="25"/>
+      <c r="E329" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H329" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A330" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B330" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C330" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D330" s="25"/>
+      <c r="E330" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H330" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A331" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B331" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C331" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D331" s="25"/>
+      <c r="E331" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H331" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A332" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B332" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C332" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D332" s="25"/>
+      <c r="E332" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H332" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A333" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B333" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C333" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D333" s="25"/>
+      <c r="E333" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H333" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A334" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B334" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C334" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D334" s="25"/>
+      <c r="E334" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H334" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A335" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B335" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C335" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D335" s="25"/>
+      <c r="E335" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H335" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A336" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B336" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C336" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D336" s="25"/>
+      <c r="E336" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H336" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A337" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B337" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C337" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D337" s="25"/>
+      <c r="E337" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H337" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A338" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B338" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C338" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D338" s="25"/>
+      <c r="E338" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="H338" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A339" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B339" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C339" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D339" s="25"/>
+      <c r="E339" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H339" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A340" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B340" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C340" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D340" s="25"/>
+      <c r="E340" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H340" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A341" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B341" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C341" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D341" s="25"/>
+      <c r="E341" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H341" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A342" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B342" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C342" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D342" s="25"/>
+      <c r="E342" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H342" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A343" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B343" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C343" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D343" s="25"/>
+      <c r="E343" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H343" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A344" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B344" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C344" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D344" s="25"/>
+      <c r="E344" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H344" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A345" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B345" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C345" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D345" s="25"/>
+      <c r="E345" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H345" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A346" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B346" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C346" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D346" s="25"/>
+      <c r="E346" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H346" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A347" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B347" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C347" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D347" s="25"/>
+      <c r="E347" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H347" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A348" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B348" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C348" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D348" s="25"/>
+      <c r="E348" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H348" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A349" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B349" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C349" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D349" s="25"/>
+      <c r="E349" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H349" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A350" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B350" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C350" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D350" s="25"/>
+      <c r="E350" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H350" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A351" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B351" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C351" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D351" s="25"/>
+      <c r="E351" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H351" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A352" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B352" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C352" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D352" s="25"/>
+      <c r="E352" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H352" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A353" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B353" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C353" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D353" s="25"/>
+      <c r="E353" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H353" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A354" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B354" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C354" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D354" s="25"/>
+      <c r="E354" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H354" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A355" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B355" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C355" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D355" s="25"/>
+      <c r="E355" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H355" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A356" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B356" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C356" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D356" s="25"/>
+      <c r="E356" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H356" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A357" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B357" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C357" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D357" s="25"/>
+      <c r="E357" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H357" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A358" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B358" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C358" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D358" s="25"/>
+      <c r="E358" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H358" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A359" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B359" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C359" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D359" s="25"/>
+      <c r="E359" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H359" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A360" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B360" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C360" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D360" s="25"/>
+      <c r="E360" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H360" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A361" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B361" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C361" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D361" s="25"/>
+      <c r="E361" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H361" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A362" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B362" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C362" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D362" s="25"/>
+      <c r="E362" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H362" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A363" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B363" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C363" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D363" s="25"/>
+      <c r="E363" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H363" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A364" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B364" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C364" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D364" s="25"/>
+      <c r="E364" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H364" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A365" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B365" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C365" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D365" s="25"/>
+      <c r="E365" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H365" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A366" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B366" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C366" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D366" s="25"/>
+      <c r="E366" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H366" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A367" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B367" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C367" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D367" s="25"/>
+      <c r="E367" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H367" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A368" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B368" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C368" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D368" s="25"/>
+      <c r="E368" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H368" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A369" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B369" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C369" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D369" s="25"/>
+      <c r="E369" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H369" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A370" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B370" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C370" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D370" s="25"/>
+      <c r="E370" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H370" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A371" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B371" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C371" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D371" s="25"/>
+      <c r="E371" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H371" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A372" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B372" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C372" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D372" s="25"/>
+      <c r="E372" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H372" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A373" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B373" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C373" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D373" s="25"/>
+      <c r="E373" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H373" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A374" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B374" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C374" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D374" s="25"/>
+      <c r="E374" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H374" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A375" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B375" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C375" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D375" s="25"/>
+      <c r="E375" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H375" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A376" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B376" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C376" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D376" s="25"/>
+      <c r="E376" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H376" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A377" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B377" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C377" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D377" s="25"/>
+      <c r="E377" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H377" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A378" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B378" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C378" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D378" s="25"/>
+      <c r="E378" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H378" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A379" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B379" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C379" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D379" s="25"/>
+      <c r="E379" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H379" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A380" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B380" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C380" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D380" s="25"/>
+      <c r="E380" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H380" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A381" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B381" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C381" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D381" s="25"/>
+      <c r="E381" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H381" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A382" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B382" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C382" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D382" s="25"/>
+      <c r="E382" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H382" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A383" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B383" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C383" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D383" s="25"/>
+      <c r="E383" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H383" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A384" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B384" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C384" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D384" s="25"/>
+      <c r="E384" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H384" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A385" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B385" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C385" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D385" s="25"/>
+      <c r="E385" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H385" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A386" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B386" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C386" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D386" s="25"/>
+      <c r="E386" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H386" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A387" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B387" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C387" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D387" s="25"/>
+      <c r="E387" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H387" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A388" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B388" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C388" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D388" s="25"/>
+      <c r="E388" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H388" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A389" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B389" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C389" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D389" s="25"/>
+      <c r="E389" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H389" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A390" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B390" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C390" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D390" s="25"/>
+      <c r="E390" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H390" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A391" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B391" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C391" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D391" s="25"/>
+      <c r="E391" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H391" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A392" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B392" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C392" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D392" s="25"/>
+      <c r="E392" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H392" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A393" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B393" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C393" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D393" s="25"/>
+      <c r="E393" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H393" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A394" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B394" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C394" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D394" s="25"/>
+      <c r="E394" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H394" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A395" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B395" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C395" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D395" s="25"/>
+      <c r="E395" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H395" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A396" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B396" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C396" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D396" s="25"/>
+      <c r="E396" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H396" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A397" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B397" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C397" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D397" s="25"/>
+      <c r="E397" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H397" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A398" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B398" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C398" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D398" s="25"/>
+      <c r="E398" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H398" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A399" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B399" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C399" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D399" s="25"/>
+      <c r="E399" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H399" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A400" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B400" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C400" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D400" s="25"/>
+      <c r="E400" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H400" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A401" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B401" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C401" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D401" s="25"/>
+      <c r="E401" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H401" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A402" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B402" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C402" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D402" s="25"/>
+      <c r="E402" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H402" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A403" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B403" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C403" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D403" s="25"/>
+      <c r="E403" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H403" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A404" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B404" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C404" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D404" s="25"/>
+      <c r="E404" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H404" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A405" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B405" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C405" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D405" s="25"/>
+      <c r="E405" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H405" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A406" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B406" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C406" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D406" s="25"/>
+      <c r="E406" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="H406" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A407" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B407" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C407" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D407" s="25"/>
+      <c r="E407" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H407" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A408" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B408" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C408" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D408" s="25"/>
+      <c r="E408" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H408" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A409" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B409" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C409" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D409" s="25"/>
+      <c r="E409" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H409" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A410" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B410" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C410" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D410" s="25"/>
+      <c r="E410" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H410" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A411" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B411" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C411" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D411" s="25"/>
+      <c r="E411" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H411" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A412" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B412" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C412" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D412" s="25"/>
+      <c r="E412" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H412" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A413" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B413" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C413" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D413" s="25"/>
+      <c r="E413" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H413" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A414" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B414" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C414" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D414" s="25"/>
+      <c r="E414" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H414" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A415" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B415" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C415" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D415" s="25"/>
+      <c r="E415" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H415" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A416" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B416" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C416" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D416" s="25"/>
+      <c r="E416" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H416" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A417" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B417" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C417" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D417" s="25"/>
+      <c r="E417" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H417" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A418" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B418" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C418" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D418" s="25"/>
+      <c r="E418" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H418" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A419" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B419" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C419" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D419" s="25"/>
+      <c r="E419" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="H419" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A420" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B420" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C420" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D420" s="25"/>
+      <c r="E420" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H420" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A421" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B421" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C421" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D421" s="25"/>
+      <c r="E421" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H421" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A422" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B422" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C422" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D422" s="25"/>
+      <c r="E422" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H422" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A423" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B423" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C423" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D423" s="25"/>
+      <c r="E423" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H423" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A424" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B424" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C424" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D424" s="25"/>
+      <c r="E424" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H424" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A425" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B425" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C425" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D425" s="25"/>
+      <c r="E425" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H425" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A426" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B426" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C426" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D426" s="25"/>
+      <c r="E426" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H426" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A427" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B427" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C427" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D427" s="25"/>
+      <c r="E427" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H427" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A428" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B428" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C428" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D428" s="25"/>
+      <c r="E428" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H428" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A429" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B429" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C429" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D429" s="25"/>
+      <c r="E429" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H429" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A430" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B430" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C430" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D430" s="25"/>
+      <c r="E430" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H430" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A431" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B431" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C431" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D431" s="25"/>
+      <c r="E431" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H431" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A432" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B432" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C432" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D432" s="25"/>
+      <c r="E432" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H432" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A433" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B433" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C433" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D433" s="25"/>
+      <c r="E433" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H433" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A434" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B434" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C434" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D434" s="25"/>
+      <c r="E434" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="H434" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A435" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B435" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C435" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D435" s="25"/>
+      <c r="E435" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H435" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A436" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B436" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C436" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D436" s="25"/>
+      <c r="E436" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H436" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A437" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B437" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C437" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D437" s="25"/>
+      <c r="E437" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H437" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A438" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B438" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C438" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D438" s="25"/>
+      <c r="E438" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H438" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A439" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B439" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C439" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D439" s="25"/>
+      <c r="E439" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H439" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A440" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B440" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C440" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D440" s="25"/>
+      <c r="E440" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H440" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A441" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B441" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C441" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D441" s="25"/>
+      <c r="E441" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H441" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A442" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B442" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C442" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D442" s="25"/>
+      <c r="E442" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H442" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A443" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B443" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C443" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D443" s="25"/>
+      <c r="E443" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H443" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A444" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B444" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C444" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D444" s="25"/>
+      <c r="E444" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H444" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A445" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B445" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C445" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D445" s="25"/>
+      <c r="E445" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H445" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A446" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B446" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C446" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D446" s="25"/>
+      <c r="E446" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H446" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A447" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B447" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C447" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D447" s="25"/>
+      <c r="E447" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H447" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A448" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B448" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C448" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D448" s="25"/>
+      <c r="E448" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H448" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A449" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B449" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C449" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D449" s="25"/>
+      <c r="E449" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H449" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A450" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B450" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C450" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D450" s="25"/>
+      <c r="E450" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H450" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A451" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B451" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C451" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D451" s="25"/>
+      <c r="E451" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H451" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A452" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B452" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C452" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D452" s="25"/>
+      <c r="E452" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H452" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A453" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B453" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C453" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D453" s="25"/>
+      <c r="E453" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H453" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A454" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B454" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C454" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D454" s="25"/>
+      <c r="E454" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H454" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A455" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B455" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C455" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D455" s="25"/>
+      <c r="E455" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H455" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A456" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B456" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C456" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D456" s="25"/>
+      <c r="E456" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H456" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A457" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B457" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C457" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D457" s="25"/>
+      <c r="E457" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H457" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A458" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B458" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C458" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D458" s="25"/>
+      <c r="E458" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H458" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A459" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B459" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C459" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D459" s="25"/>
+      <c r="E459" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H459" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A460" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B460" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C460" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D460" s="25"/>
+      <c r="E460" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H460" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A461" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B461" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C461" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D461" s="25"/>
+      <c r="E461" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H461" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A462" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B462" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C462" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D462" s="25"/>
+      <c r="E462" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H462" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A463" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B463" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C463" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D463" s="25"/>
+      <c r="E463" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H463" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A464" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B464" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C464" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D464" s="25"/>
+      <c r="E464" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H464" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A465" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B465" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C465" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D465" s="25"/>
+      <c r="E465" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H465" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A466" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B466" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C466" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D466" s="25"/>
+      <c r="E466" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H466" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A467" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B467" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C467" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D467" s="25"/>
+      <c r="E467" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H467" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A468" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B468" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C468" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D468" s="25"/>
+      <c r="E468" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H468" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A469" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B469" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C469" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D469" s="25"/>
+      <c r="E469" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H469" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A470" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B470" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C470" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D470" s="25"/>
+      <c r="E470" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H470" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A471" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B471" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C471" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D471" s="25"/>
+      <c r="E471" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H471" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A472" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B472" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C472" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D472" s="25"/>
+      <c r="E472" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H472" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A473" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B473" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C473" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D473" s="25"/>
+      <c r="E473" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H473" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A474" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B474" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C474" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D474" s="25"/>
+      <c r="E474" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H474" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A475" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B475" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C475" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D475" s="25"/>
+      <c r="E475" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H475" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A476" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B476" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C476" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D476" s="25"/>
+      <c r="E476" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H476" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A477" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B477" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C477" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D477" s="25"/>
+      <c r="E477" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H477" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A478" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B478" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C478" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D478" s="25"/>
+      <c r="E478" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H478" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A479" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B479" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C479" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D479" s="25"/>
+      <c r="E479" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H479" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A480" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B480" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C480" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D480" s="25"/>
+      <c r="E480" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H480" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A481" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B481" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C481" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D481" s="25"/>
+      <c r="E481" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H481" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A482" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B482" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C482" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D482" s="25"/>
+      <c r="E482" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H482" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A483" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B483" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C483" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D483" s="25"/>
+      <c r="E483" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H483" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A484" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B484" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C484" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D484" s="25"/>
+      <c r="E484" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H484" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A485" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B485" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C485" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D485" s="25"/>
+      <c r="E485" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H485" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A486" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B486" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C486" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D486" s="25"/>
+      <c r="E486" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H486" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A487" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B487" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C487" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D487" s="25"/>
+      <c r="E487" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H487" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A488" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B488" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C488" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D488" s="25"/>
+      <c r="E488" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H488" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A489" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B489" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C489" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D489" s="25"/>
+      <c r="E489" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H489" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A490" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B490" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C490" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D490" s="25"/>
+      <c r="E490" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H490" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A491" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B491" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C491" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D491" s="25"/>
+      <c r="E491" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H491" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A492" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B492" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C492" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D492" s="25"/>
+      <c r="E492" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H492" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A493" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B493" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C493" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D493" s="25"/>
+      <c r="E493" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H493" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A494" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B494" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C494" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D494" s="25"/>
+      <c r="E494" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H494" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A495" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B495" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C495" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D495" s="25"/>
+      <c r="E495" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H495" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A496" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B496" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C496" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D496" s="25"/>
+      <c r="E496" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H496" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A497" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B497" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C497" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D497" s="25"/>
+      <c r="E497" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H497" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A498" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B498" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C498" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D498" s="25"/>
+      <c r="E498" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H498" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A499" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B499" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C499" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D499" s="25"/>
+      <c r="E499" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H499" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A500" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B500" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C500" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D500" s="25"/>
+      <c r="E500" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H500" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A501" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B501" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C501" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D501" s="25"/>
+      <c r="E501" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H501" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A502" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B502" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C502" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D502" s="25"/>
+      <c r="E502" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H502" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A503" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B503" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C503" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D503" s="25"/>
+      <c r="E503" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H503" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A504" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B504" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C504" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D504" s="25"/>
+      <c r="E504" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H504" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -16501,10 +20970,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3316D165-A907-40EA-B4D3-B42CCCB2BD8A}">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16579,7 +21048,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="10">
-        <f t="shared" ref="D3:D37" si="0">IFERROR(B3/SUM(B3:C3),"")</f>
+        <f t="shared" ref="D3:D66" si="0">IFERROR(B3/SUM(B3:C3),"")</f>
         <v>0.625</v>
       </c>
       <c r="E3" s="20">
@@ -17574,31 +22043,837 @@
       </c>
       <c r="B37" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A37)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C37" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A37)</f>
+        <v>3</v>
+      </c>
+      <c r="D37" s="10">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+      <c r="E37" s="20">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A37, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+        <v>11.2</v>
+      </c>
+      <c r="F37" s="20">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A37, Sheet1!$L$2:$L$500, "No"),"")</f>
+        <v>10</v>
+      </c>
+      <c r="G37" s="21" cm="1">
+        <f t="array" ref="G37">SUM(($B$2:B37)/SUM($B$2:C37))</f>
+        <v>0.52380952380952384</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A38)</f>
         <v>0</v>
       </c>
-      <c r="D37" s="10" t="str">
+      <c r="C38" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A38)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E37" s="20" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A37, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+      <c r="E38" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A38, Sheet1!$L$2:$L$500, "Yes"),"")</f>
         <v/>
       </c>
-      <c r="F37" s="20" t="str">
-        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A37, Sheet1!$L$2:$L$500, "No"),"")</f>
+      <c r="F38" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A38, Sheet1!$L$2:$L$500, "No"),"")</f>
         <v/>
       </c>
-      <c r="G37" s="21" cm="1">
-        <f t="array" ref="G37">SUM(($B$2:B37)/SUM($B$2:C37))</f>
-        <v>0.52075471698113207</v>
-      </c>
+      <c r="G38" s="21"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A39)</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A39)</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E39" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A39, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F39" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A39, Sheet1!$L$2:$L$500, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G39" s="21"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A40)</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A40)</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E40" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A40, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F40" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A40, Sheet1!$L$2:$L$500, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G40" s="21"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A41)</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A41)</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E41" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A41, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F41" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A41, Sheet1!$L$2:$L$500, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G41" s="21"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A42)</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A42)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E42" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A42, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F42" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A42, Sheet1!$L$2:$L$500, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G42" s="21"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A43)</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A43)</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E43" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A43, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F43" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A43, Sheet1!$L$2:$L$500, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G43" s="21"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A44)</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A44)</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E44" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A44, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F44" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A44, Sheet1!$L$2:$L$500, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G44" s="21"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A45)</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A45)</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E45" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A45, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F45" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A45, Sheet1!$L$2:$L$500, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G45" s="21"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A46)</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A46)</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E46" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A46, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F46" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A46, Sheet1!$L$2:$L$500, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G46" s="21"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A47)</f>
+        <v>0</v>
+      </c>
+      <c r="C47" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A47)</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E47" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A47, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F47" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A47, Sheet1!$L$2:$L$500, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G47" s="21"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A48)</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A48)</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E48" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A48, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F48" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A48, Sheet1!$L$2:$L$500, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G48" s="21"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A49)</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A49)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E49" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A49, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F49" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A49, Sheet1!$L$2:$L$500, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G49" s="21"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A50)</f>
+        <v>0</v>
+      </c>
+      <c r="C50" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A50)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E50" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A50, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F50" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A50, Sheet1!$L$2:$L$500, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G50" s="21"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A51)</f>
+        <v>0</v>
+      </c>
+      <c r="C51" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A51)</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E51" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A51, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F51" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A51, Sheet1!$L$2:$L$500, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G51" s="21"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A52)</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A52)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E52" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A52, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F52" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A52, Sheet1!$L$2:$L$500, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G52" s="21"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A53)</f>
+        <v>0</v>
+      </c>
+      <c r="C53" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A53)</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E53" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A53, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F53" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A53, Sheet1!$L$2:$L$500, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G53" s="21"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A54)</f>
+        <v>0</v>
+      </c>
+      <c r="C54" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A54)</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E54" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A54, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F54" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A54, Sheet1!$L$2:$L$500, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G54" s="21"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B55" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A55)</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A55)</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E55" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A55, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F55" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A55, Sheet1!$L$2:$L$500, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G55" s="21"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B56" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A56)</f>
+        <v>0</v>
+      </c>
+      <c r="C56" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A56)</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E56" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A56, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F56" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A56, Sheet1!$L$2:$L$500, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G56" s="21"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A57)</f>
+        <v>0</v>
+      </c>
+      <c r="C57" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A57)</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E57" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A57, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F57" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A57, Sheet1!$L$2:$L$500, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G57" s="21"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A58" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A58)</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A58)</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E58" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A58, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F58" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A58, Sheet1!$L$2:$L$500, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G58" s="21"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A59" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B59" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A59)</f>
+        <v>0</v>
+      </c>
+      <c r="C59" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A59)</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E59" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A59, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F59" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A59, Sheet1!$L$2:$L$500, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G59" s="21"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A60" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B60" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A60)</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A60)</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E60" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A60, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F60" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A60, Sheet1!$L$2:$L$500, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G60" s="21"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B61" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A61)</f>
+        <v>0</v>
+      </c>
+      <c r="C61" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A61)</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E61" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A61, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F61" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A61, Sheet1!$L$2:$L$500, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G61" s="21"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A62" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A62)</f>
+        <v>0</v>
+      </c>
+      <c r="C62" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A62)</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E62" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A62, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F62" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A62, Sheet1!$L$2:$L$500, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G62" s="21"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A63" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B63" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A63)</f>
+        <v>0</v>
+      </c>
+      <c r="C63" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A63)</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E63" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A63, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F63" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A63, Sheet1!$L$2:$L$500, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G63" s="21"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A64" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B64" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A64)</f>
+        <v>0</v>
+      </c>
+      <c r="C64" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A64)</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E64" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A64, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F64" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A64, Sheet1!$L$2:$L$500, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G64" s="21"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A65" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B65" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A65)</f>
+        <v>0</v>
+      </c>
+      <c r="C65" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A65)</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E65" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A65, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F65" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A65, Sheet1!$L$2:$L$500, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G65" s="21"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A66" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B66" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A66)</f>
+        <v>0</v>
+      </c>
+      <c r="C66" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A66)</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E66" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A66, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F66" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A66, Sheet1!$L$2:$L$500, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G66" s="21"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A67" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B67" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A67)</f>
+        <v>0</v>
+      </c>
+      <c r="C67" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A67)</f>
+        <v>0</v>
+      </c>
+      <c r="D67" s="10" t="str">
+        <f t="shared" ref="D67:D68" si="1">IFERROR(B67/SUM(B67:C67),"")</f>
+        <v/>
+      </c>
+      <c r="E67" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A67, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F67" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A67, Sheet1!$L$2:$L$500, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G67" s="21"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A68" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B68" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A68)</f>
+        <v>0</v>
+      </c>
+      <c r="C68" s="9">
+        <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A68)</f>
+        <v>0</v>
+      </c>
+      <c r="D68" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E68" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A68, Sheet1!$L$2:$L$500, "Yes"),"")</f>
+        <v/>
+      </c>
+      <c r="F68" s="20" t="str">
+        <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A68, Sheet1!$L$2:$L$500, "No"),"")</f>
+        <v/>
+      </c>
+      <c r="G68" s="21"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D37">
+  <conditionalFormatting sqref="D2:D68">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -17610,7 +22885,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:G37">
+  <conditionalFormatting sqref="F2:G68">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -17622,7 +22897,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G37">
+  <conditionalFormatting sqref="G2:G68">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E09F69-5D90-4E9D-BB85-BE5093930106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D06278-04D5-4B53-A849-BC9D1915AA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3977" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4022" uniqueCount="171">
   <si>
     <t>Date</t>
   </si>
@@ -736,11 +736,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4214,7 +4214,7 @@
     <col min="6" max="6" width="8.59765625" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.73046875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.3984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.1328125" style="6" bestFit="1" customWidth="1"/>
@@ -11616,7 +11616,7 @@
         <v>98</v>
       </c>
       <c r="M161" s="7">
-        <f t="shared" ref="M161:M274" si="5">ABS(D161-F161)</f>
+        <f t="shared" ref="M161:M283" si="5">ABS(D161-F161)</f>
         <v>3</v>
       </c>
       <c r="N161" t="b">
@@ -14840,7 +14840,7 @@
         <v>5</v>
       </c>
       <c r="N231" t="b">
-        <f t="shared" ref="N231:N274" si="7">K231=I231</f>
+        <f t="shared" ref="N231:N283" si="7">K231=I231</f>
         <v>1</v>
       </c>
     </row>
@@ -16826,176 +16826,428 @@
       <c r="A275" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B275" s="25" t="s">
+      <c r="B275" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C275" s="25" t="s">
+      <c r="C275" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D275" s="25"/>
-      <c r="E275" s="25" t="s">
+      <c r="D275" s="24">
+        <v>110</v>
+      </c>
+      <c r="E275" s="24" t="s">
         <v>42</v>
+      </c>
+      <c r="F275" s="7">
+        <v>100</v>
+      </c>
+      <c r="G275" t="s">
+        <v>15</v>
       </c>
       <c r="H275" t="s">
         <v>43</v>
+      </c>
+      <c r="I275" t="s">
+        <v>46</v>
+      </c>
+      <c r="J275" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K275" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L275" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M275" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N275" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A276" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B276" s="25" t="s">
+      <c r="B276" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C276" s="25" t="s">
+      <c r="C276" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D276" s="25"/>
-      <c r="E276" s="25" t="s">
+      <c r="D276" s="24">
+        <v>114</v>
+      </c>
+      <c r="E276" s="24" t="s">
         <v>17</v>
+      </c>
+      <c r="F276" s="7">
+        <v>121</v>
+      </c>
+      <c r="G276" t="s">
+        <v>15</v>
       </c>
       <c r="H276" t="s">
         <v>66</v>
+      </c>
+      <c r="I276" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J276" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K276" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L276" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M276" s="7">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="N276" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A277" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B277" s="25" t="s">
+      <c r="B277" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C277" s="25" t="s">
+      <c r="C277" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D277" s="25"/>
-      <c r="E277" s="25" t="s">
+      <c r="D277" s="24">
+        <v>110</v>
+      </c>
+      <c r="E277" s="24" t="s">
         <v>22</v>
+      </c>
+      <c r="F277" s="7">
+        <v>138</v>
+      </c>
+      <c r="G277" t="s">
+        <v>15</v>
       </c>
       <c r="H277" t="s">
         <v>23</v>
+      </c>
+      <c r="I277" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J277" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K277" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L277" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M277" s="7">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="N277" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A278" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B278" s="25" t="s">
+      <c r="B278" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C278" s="25" t="s">
+      <c r="C278" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D278" s="25"/>
-      <c r="E278" s="25" t="s">
+      <c r="D278" s="24">
+        <v>120</v>
+      </c>
+      <c r="E278" s="24" t="s">
         <v>48</v>
+      </c>
+      <c r="F278" s="7">
+        <v>105</v>
+      </c>
+      <c r="G278" t="s">
+        <v>15</v>
       </c>
       <c r="H278" t="s">
         <v>67</v>
+      </c>
+      <c r="I278" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="J278" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K278" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="L278" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M278" s="7">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="N278" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A279" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B279" s="25" t="s">
+      <c r="B279" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C279" s="25" t="s">
+      <c r="C279" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D279" s="25"/>
-      <c r="E279" s="25" t="s">
+      <c r="D279" s="24">
+        <v>122</v>
+      </c>
+      <c r="E279" s="24" t="s">
         <v>51</v>
+      </c>
+      <c r="F279" s="7">
+        <v>92</v>
+      </c>
+      <c r="G279" t="s">
+        <v>15</v>
       </c>
       <c r="H279" t="s">
         <v>86</v>
+      </c>
+      <c r="I279" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J279" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="K279" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="L279" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M279" s="7">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="N279" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A280" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B280" s="25" t="s">
+      <c r="B280" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C280" s="25" t="s">
+      <c r="C280" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D280" s="25"/>
-      <c r="E280" s="25" t="s">
+      <c r="D280" s="24">
+        <v>124</v>
+      </c>
+      <c r="E280" s="24" t="s">
         <v>58</v>
+      </c>
+      <c r="F280" s="7">
+        <v>120</v>
+      </c>
+      <c r="G280" s="24" t="s">
+        <v>97</v>
       </c>
       <c r="H280" t="s">
         <v>59</v>
+      </c>
+      <c r="I280" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="J280" t="s">
+        <v>58</v>
+      </c>
+      <c r="K280" t="s">
+        <v>58</v>
+      </c>
+      <c r="L280" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M280" s="7">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N280" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A281" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B281" s="25" t="s">
+      <c r="B281" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C281" s="25" t="s">
+      <c r="C281" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D281" s="25"/>
-      <c r="E281" s="25" t="s">
+      <c r="D281" s="24">
+        <v>102</v>
+      </c>
+      <c r="E281" s="24" t="s">
         <v>29</v>
+      </c>
+      <c r="F281" s="7">
+        <v>129</v>
+      </c>
+      <c r="G281" t="s">
+        <v>15</v>
       </c>
       <c r="H281" t="s">
         <v>30</v>
+      </c>
+      <c r="I281" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J281" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K281" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L281" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M281" s="7">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="N281" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A282" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B282" s="25" t="s">
+      <c r="B282" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C282" s="25" t="s">
+      <c r="C282" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D282" s="25"/>
-      <c r="E282" s="25" t="s">
+      <c r="D282" s="24">
+        <v>113</v>
+      </c>
+      <c r="E282" s="24" t="s">
         <v>52</v>
+      </c>
+      <c r="F282" s="7">
+        <v>97</v>
+      </c>
+      <c r="G282" t="s">
+        <v>15</v>
       </c>
       <c r="H282" t="s">
         <v>53</v>
+      </c>
+      <c r="I282" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="J282" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K282" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L282" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M282" s="7">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="N282" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A283" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B283" s="25" t="s">
+      <c r="B283" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C283" s="25" t="s">
+      <c r="C283" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D283" s="25"/>
-      <c r="E283" s="25" t="s">
+      <c r="D283" s="24">
+        <v>115</v>
+      </c>
+      <c r="E283" s="24" t="s">
         <v>62</v>
+      </c>
+      <c r="F283" s="7">
+        <v>140</v>
+      </c>
+      <c r="G283" t="s">
+        <v>15</v>
       </c>
       <c r="H283" t="s">
         <v>38</v>
+      </c>
+      <c r="I283" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="J283" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K283" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L283" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M283" s="7">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="N283" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A284" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B284" s="25" t="s">
+      <c r="B284" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C284" s="25" t="s">
+      <c r="C284" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D284" s="25"/>
-      <c r="E284" s="25" t="s">
+      <c r="D284" s="24"/>
+      <c r="E284" s="24" t="s">
         <v>36</v>
       </c>
       <c r="H284" t="s">
@@ -17006,14 +17258,14 @@
       <c r="A285" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B285" s="25" t="s">
+      <c r="B285" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C285" s="25" t="s">
+      <c r="C285" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D285" s="25"/>
-      <c r="E285" s="25" t="s">
+      <c r="D285" s="24"/>
+      <c r="E285" s="24" t="s">
         <v>26</v>
       </c>
       <c r="H285" t="s">
@@ -17024,14 +17276,14 @@
       <c r="A286" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B286" s="25" t="s">
+      <c r="B286" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C286" s="25" t="s">
+      <c r="C286" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D286" s="25"/>
-      <c r="E286" s="25" t="s">
+      <c r="D286" s="24"/>
+      <c r="E286" s="24" t="s">
         <v>51</v>
       </c>
       <c r="H286" t="s">
@@ -17042,14 +17294,14 @@
       <c r="A287" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B287" s="25" t="s">
+      <c r="B287" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C287" s="25" t="s">
+      <c r="C287" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D287" s="25"/>
-      <c r="E287" s="25" t="s">
+      <c r="D287" s="24"/>
+      <c r="E287" s="24" t="s">
         <v>37</v>
       </c>
       <c r="H287" t="s">
@@ -17060,14 +17312,14 @@
       <c r="A288" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B288" s="25" t="s">
+      <c r="B288" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C288" s="25" t="s">
+      <c r="C288" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D288" s="25"/>
-      <c r="E288" s="25" t="s">
+      <c r="D288" s="24"/>
+      <c r="E288" s="24" t="s">
         <v>28</v>
       </c>
       <c r="H288" t="s">
@@ -17078,14 +17330,14 @@
       <c r="A289" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B289" s="25" t="s">
+      <c r="B289" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C289" s="25" t="s">
+      <c r="C289" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D289" s="25"/>
-      <c r="E289" s="25" t="s">
+      <c r="D289" s="24"/>
+      <c r="E289" s="24" t="s">
         <v>69</v>
       </c>
       <c r="H289" t="s">
@@ -17096,14 +17348,14 @@
       <c r="A290" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B290" s="25" t="s">
+      <c r="B290" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C290" s="25" t="s">
+      <c r="C290" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D290" s="25"/>
-      <c r="E290" s="25" t="s">
+      <c r="D290" s="24"/>
+      <c r="E290" s="24" t="s">
         <v>22</v>
       </c>
       <c r="H290" t="s">
@@ -17114,14 +17366,14 @@
       <c r="A291" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B291" s="25" t="s">
+      <c r="B291" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C291" s="25" t="s">
+      <c r="C291" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D291" s="25"/>
-      <c r="E291" s="25" t="s">
+      <c r="D291" s="24"/>
+      <c r="E291" s="24" t="s">
         <v>58</v>
       </c>
       <c r="H291" t="s">
@@ -17132,14 +17384,14 @@
       <c r="A292" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B292" s="25" t="s">
+      <c r="B292" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C292" s="25" t="s">
+      <c r="C292" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D292" s="25"/>
-      <c r="E292" s="25" t="s">
+      <c r="D292" s="24"/>
+      <c r="E292" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H292" t="s">
@@ -17150,14 +17402,14 @@
       <c r="A293" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B293" s="25" t="s">
+      <c r="B293" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C293" s="25" t="s">
+      <c r="C293" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D293" s="25"/>
-      <c r="E293" s="25" t="s">
+      <c r="D293" s="24"/>
+      <c r="E293" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H293" t="s">
@@ -17168,14 +17420,14 @@
       <c r="A294" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B294" s="25" t="s">
+      <c r="B294" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C294" s="25" t="s">
+      <c r="C294" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D294" s="25"/>
-      <c r="E294" s="25" t="s">
+      <c r="D294" s="24"/>
+      <c r="E294" s="24" t="s">
         <v>46</v>
       </c>
       <c r="H294" t="s">
@@ -17186,14 +17438,14 @@
       <c r="A295" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B295" s="25" t="s">
+      <c r="B295" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C295" s="25" t="s">
+      <c r="C295" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D295" s="25"/>
-      <c r="E295" s="25" t="s">
+      <c r="D295" s="24"/>
+      <c r="E295" s="24" t="s">
         <v>13</v>
       </c>
       <c r="H295" t="s">
@@ -17204,14 +17456,14 @@
       <c r="A296" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B296" s="25" t="s">
+      <c r="B296" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C296" s="25" t="s">
+      <c r="C296" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D296" s="25"/>
-      <c r="E296" s="25" t="s">
+      <c r="D296" s="24"/>
+      <c r="E296" s="24" t="s">
         <v>28</v>
       </c>
       <c r="H296" t="s">
@@ -17222,14 +17474,14 @@
       <c r="A297" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B297" s="25" t="s">
+      <c r="B297" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C297" s="25" t="s">
+      <c r="C297" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D297" s="25"/>
-      <c r="E297" s="25" t="s">
+      <c r="D297" s="24"/>
+      <c r="E297" s="24" t="s">
         <v>36</v>
       </c>
       <c r="H297" t="s">
@@ -17240,14 +17492,14 @@
       <c r="A298" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B298" s="25" t="s">
+      <c r="B298" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C298" s="25" t="s">
+      <c r="C298" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D298" s="25"/>
-      <c r="E298" s="25" t="s">
+      <c r="D298" s="24"/>
+      <c r="E298" s="24" t="s">
         <v>41</v>
       </c>
       <c r="H298" t="s">
@@ -17258,14 +17510,14 @@
       <c r="A299" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B299" s="25" t="s">
+      <c r="B299" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C299" s="25" t="s">
+      <c r="C299" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D299" s="25"/>
-      <c r="E299" s="25" t="s">
+      <c r="D299" s="24"/>
+      <c r="E299" s="24" t="s">
         <v>58</v>
       </c>
       <c r="H299" t="s">
@@ -17276,14 +17528,14 @@
       <c r="A300" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B300" s="25" t="s">
+      <c r="B300" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C300" s="25" t="s">
+      <c r="C300" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D300" s="25"/>
-      <c r="E300" s="25" t="s">
+      <c r="D300" s="24"/>
+      <c r="E300" s="24" t="s">
         <v>54</v>
       </c>
       <c r="H300" t="s">
@@ -17294,14 +17546,14 @@
       <c r="A301" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B301" s="25" t="s">
+      <c r="B301" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C301" s="25" t="s">
+      <c r="C301" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D301" s="25"/>
-      <c r="E301" s="25" t="s">
+      <c r="D301" s="24"/>
+      <c r="E301" s="24" t="s">
         <v>72</v>
       </c>
       <c r="H301" t="s">
@@ -17312,14 +17564,14 @@
       <c r="A302" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B302" s="25" t="s">
+      <c r="B302" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C302" s="25" t="s">
+      <c r="C302" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D302" s="25"/>
-      <c r="E302" s="25" t="s">
+      <c r="D302" s="24"/>
+      <c r="E302" s="24" t="s">
         <v>37</v>
       </c>
       <c r="H302" t="s">
@@ -17330,14 +17582,14 @@
       <c r="A303" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B303" s="25" t="s">
+      <c r="B303" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C303" s="25" t="s">
+      <c r="C303" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D303" s="25"/>
-      <c r="E303" s="25" t="s">
+      <c r="D303" s="24"/>
+      <c r="E303" s="24" t="s">
         <v>14</v>
       </c>
       <c r="H303" t="s">
@@ -17348,14 +17600,14 @@
       <c r="A304" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B304" s="25" t="s">
+      <c r="B304" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C304" s="25" t="s">
+      <c r="C304" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D304" s="25"/>
-      <c r="E304" s="25" t="s">
+      <c r="D304" s="24"/>
+      <c r="E304" s="24" t="s">
         <v>36</v>
       </c>
       <c r="H304" t="s">
@@ -17366,14 +17618,14 @@
       <c r="A305" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B305" s="25" t="s">
+      <c r="B305" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C305" s="25" t="s">
+      <c r="C305" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D305" s="25"/>
-      <c r="E305" s="25" t="s">
+      <c r="D305" s="24"/>
+      <c r="E305" s="24" t="s">
         <v>46</v>
       </c>
       <c r="H305" t="s">
@@ -17384,14 +17636,14 @@
       <c r="A306" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B306" s="25" t="s">
+      <c r="B306" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C306" s="25" t="s">
+      <c r="C306" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D306" s="25"/>
-      <c r="E306" s="25" t="s">
+      <c r="D306" s="24"/>
+      <c r="E306" s="24" t="s">
         <v>26</v>
       </c>
       <c r="H306" t="s">
@@ -17402,14 +17654,14 @@
       <c r="A307" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B307" s="25" t="s">
+      <c r="B307" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C307" s="25" t="s">
+      <c r="C307" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D307" s="25"/>
-      <c r="E307" s="25" t="s">
+      <c r="D307" s="24"/>
+      <c r="E307" s="24" t="s">
         <v>49</v>
       </c>
       <c r="H307" t="s">
@@ -17420,14 +17672,14 @@
       <c r="A308" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B308" s="25" t="s">
+      <c r="B308" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C308" s="25" t="s">
+      <c r="C308" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D308" s="25"/>
-      <c r="E308" s="25" t="s">
+      <c r="D308" s="24"/>
+      <c r="E308" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H308" t="s">
@@ -17438,14 +17690,14 @@
       <c r="A309" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B309" s="25" t="s">
+      <c r="B309" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C309" s="25" t="s">
+      <c r="C309" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D309" s="25"/>
-      <c r="E309" s="25" t="s">
+      <c r="D309" s="24"/>
+      <c r="E309" s="24" t="s">
         <v>55</v>
       </c>
       <c r="H309" t="s">
@@ -17456,14 +17708,14 @@
       <c r="A310" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B310" s="25" t="s">
+      <c r="B310" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C310" s="25" t="s">
+      <c r="C310" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D310" s="25"/>
-      <c r="E310" s="25" t="s">
+      <c r="D310" s="24"/>
+      <c r="E310" s="24" t="s">
         <v>69</v>
       </c>
       <c r="H310" t="s">
@@ -17474,14 +17726,14 @@
       <c r="A311" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B311" s="25" t="s">
+      <c r="B311" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C311" s="25" t="s">
+      <c r="C311" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D311" s="25"/>
-      <c r="E311" s="25" t="s">
+      <c r="D311" s="24"/>
+      <c r="E311" s="24" t="s">
         <v>21</v>
       </c>
       <c r="H311" t="s">
@@ -17492,14 +17744,14 @@
       <c r="A312" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B312" s="25" t="s">
+      <c r="B312" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C312" s="25" t="s">
+      <c r="C312" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D312" s="25"/>
-      <c r="E312" s="25" t="s">
+      <c r="D312" s="24"/>
+      <c r="E312" s="24" t="s">
         <v>44</v>
       </c>
       <c r="H312" t="s">
@@ -17510,14 +17762,14 @@
       <c r="A313" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B313" s="25" t="s">
+      <c r="B313" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C313" s="25" t="s">
+      <c r="C313" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D313" s="25"/>
-      <c r="E313" s="25" t="s">
+      <c r="D313" s="24"/>
+      <c r="E313" s="24" t="s">
         <v>25</v>
       </c>
       <c r="H313" t="s">
@@ -17528,14 +17780,14 @@
       <c r="A314" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B314" s="25" t="s">
+      <c r="B314" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C314" s="25" t="s">
+      <c r="C314" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D314" s="25"/>
-      <c r="E314" s="25" t="s">
+      <c r="D314" s="24"/>
+      <c r="E314" s="24" t="s">
         <v>55</v>
       </c>
       <c r="H314" t="s">
@@ -17546,14 +17798,14 @@
       <c r="A315" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B315" s="25" t="s">
+      <c r="B315" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C315" s="25" t="s">
+      <c r="C315" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D315" s="25"/>
-      <c r="E315" s="25" t="s">
+      <c r="D315" s="24"/>
+      <c r="E315" s="24" t="s">
         <v>17</v>
       </c>
       <c r="H315" t="s">
@@ -17564,14 +17816,14 @@
       <c r="A316" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B316" s="25" t="s">
+      <c r="B316" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C316" s="25" t="s">
+      <c r="C316" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D316" s="25"/>
-      <c r="E316" s="25" t="s">
+      <c r="D316" s="24"/>
+      <c r="E316" s="24" t="s">
         <v>54</v>
       </c>
       <c r="H316" t="s">
@@ -17582,14 +17834,14 @@
       <c r="A317" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B317" s="25" t="s">
+      <c r="B317" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C317" s="25" t="s">
+      <c r="C317" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D317" s="25"/>
-      <c r="E317" s="25" t="s">
+      <c r="D317" s="24"/>
+      <c r="E317" s="24" t="s">
         <v>82</v>
       </c>
       <c r="H317" t="s">
@@ -17600,14 +17852,14 @@
       <c r="A318" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B318" s="25" t="s">
+      <c r="B318" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C318" s="25" t="s">
+      <c r="C318" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D318" s="25"/>
-      <c r="E318" s="25" t="s">
+      <c r="D318" s="24"/>
+      <c r="E318" s="24" t="s">
         <v>33</v>
       </c>
       <c r="H318" t="s">
@@ -17618,14 +17870,14 @@
       <c r="A319" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B319" s="25" t="s">
+      <c r="B319" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C319" s="25" t="s">
+      <c r="C319" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D319" s="25"/>
-      <c r="E319" s="25" t="s">
+      <c r="D319" s="24"/>
+      <c r="E319" s="24" t="s">
         <v>37</v>
       </c>
       <c r="H319" t="s">
@@ -17636,14 +17888,14 @@
       <c r="A320" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B320" s="25" t="s">
+      <c r="B320" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C320" s="25" t="s">
+      <c r="C320" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D320" s="25"/>
-      <c r="E320" s="25" t="s">
+      <c r="D320" s="24"/>
+      <c r="E320" s="24" t="s">
         <v>42</v>
       </c>
       <c r="H320" t="s">
@@ -17654,14 +17906,14 @@
       <c r="A321" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B321" s="25" t="s">
+      <c r="B321" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C321" s="25" t="s">
+      <c r="C321" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D321" s="25"/>
-      <c r="E321" s="25" t="s">
+      <c r="D321" s="24"/>
+      <c r="E321" s="24" t="s">
         <v>32</v>
       </c>
       <c r="H321" t="s">
@@ -17672,14 +17924,14 @@
       <c r="A322" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B322" s="25" t="s">
+      <c r="B322" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C322" s="25" t="s">
+      <c r="C322" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D322" s="25"/>
-      <c r="E322" s="25" t="s">
+      <c r="D322" s="24"/>
+      <c r="E322" s="24" t="s">
         <v>69</v>
       </c>
       <c r="H322" t="s">
@@ -17690,14 +17942,14 @@
       <c r="A323" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B323" s="25" t="s">
+      <c r="B323" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C323" s="25" t="s">
+      <c r="C323" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D323" s="25"/>
-      <c r="E323" s="25" t="s">
+      <c r="D323" s="24"/>
+      <c r="E323" s="24" t="s">
         <v>28</v>
       </c>
       <c r="H323" t="s">
@@ -17708,14 +17960,14 @@
       <c r="A324" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B324" s="25" t="s">
+      <c r="B324" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C324" s="25" t="s">
+      <c r="C324" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D324" s="25"/>
-      <c r="E324" s="25" t="s">
+      <c r="D324" s="24"/>
+      <c r="E324" s="24" t="s">
         <v>21</v>
       </c>
       <c r="H324" t="s">
@@ -17726,14 +17978,14 @@
       <c r="A325" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B325" s="25" t="s">
+      <c r="B325" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C325" s="25" t="s">
+      <c r="C325" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D325" s="25"/>
-      <c r="E325" s="25" t="s">
+      <c r="D325" s="24"/>
+      <c r="E325" s="24" t="s">
         <v>82</v>
       </c>
       <c r="H325" t="s">
@@ -17744,14 +17996,14 @@
       <c r="A326" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B326" s="25" t="s">
+      <c r="B326" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C326" s="25" t="s">
+      <c r="C326" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D326" s="25"/>
-      <c r="E326" s="25" t="s">
+      <c r="D326" s="24"/>
+      <c r="E326" s="24" t="s">
         <v>72</v>
       </c>
       <c r="H326" t="s">
@@ -17762,14 +18014,14 @@
       <c r="A327" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B327" s="25" t="s">
+      <c r="B327" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C327" s="25" t="s">
+      <c r="C327" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D327" s="25"/>
-      <c r="E327" s="25" t="s">
+      <c r="D327" s="24"/>
+      <c r="E327" s="24" t="s">
         <v>17</v>
       </c>
       <c r="H327" t="s">
@@ -17780,14 +18032,14 @@
       <c r="A328" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B328" s="25" t="s">
+      <c r="B328" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C328" s="25" t="s">
+      <c r="C328" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D328" s="25"/>
-      <c r="E328" s="25" t="s">
+      <c r="D328" s="24"/>
+      <c r="E328" s="24" t="s">
         <v>44</v>
       </c>
       <c r="H328" t="s">
@@ -17798,14 +18050,14 @@
       <c r="A329" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B329" s="25" t="s">
+      <c r="B329" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C329" s="25" t="s">
+      <c r="C329" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D329" s="25"/>
-      <c r="E329" s="25" t="s">
+      <c r="D329" s="24"/>
+      <c r="E329" s="24" t="s">
         <v>46</v>
       </c>
       <c r="H329" t="s">
@@ -17816,14 +18068,14 @@
       <c r="A330" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B330" s="25" t="s">
+      <c r="B330" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C330" s="25" t="s">
+      <c r="C330" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D330" s="25"/>
-      <c r="E330" s="25" t="s">
+      <c r="D330" s="24"/>
+      <c r="E330" s="24" t="s">
         <v>49</v>
       </c>
       <c r="H330" t="s">
@@ -17834,14 +18086,14 @@
       <c r="A331" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B331" s="25" t="s">
+      <c r="B331" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C331" s="25" t="s">
+      <c r="C331" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D331" s="25"/>
-      <c r="E331" s="25" t="s">
+      <c r="D331" s="24"/>
+      <c r="E331" s="24" t="s">
         <v>51</v>
       </c>
       <c r="H331" t="s">
@@ -17852,14 +18104,14 @@
       <c r="A332" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B332" s="25" t="s">
+      <c r="B332" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C332" s="25" t="s">
+      <c r="C332" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D332" s="25"/>
-      <c r="E332" s="25" t="s">
+      <c r="D332" s="24"/>
+      <c r="E332" s="24" t="s">
         <v>57</v>
       </c>
       <c r="H332" t="s">
@@ -17870,14 +18122,14 @@
       <c r="A333" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B333" s="25" t="s">
+      <c r="B333" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C333" s="25" t="s">
+      <c r="C333" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D333" s="25"/>
-      <c r="E333" s="25" t="s">
+      <c r="D333" s="24"/>
+      <c r="E333" s="24" t="s">
         <v>37</v>
       </c>
       <c r="H333" t="s">
@@ -17888,14 +18140,14 @@
       <c r="A334" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B334" s="25" t="s">
+      <c r="B334" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C334" s="25" t="s">
+      <c r="C334" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D334" s="25"/>
-      <c r="E334" s="25" t="s">
+      <c r="D334" s="24"/>
+      <c r="E334" s="24" t="s">
         <v>33</v>
       </c>
       <c r="H334" t="s">
@@ -17906,14 +18158,14 @@
       <c r="A335" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B335" s="25" t="s">
+      <c r="B335" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C335" s="25" t="s">
+      <c r="C335" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D335" s="25"/>
-      <c r="E335" s="25" t="s">
+      <c r="D335" s="24"/>
+      <c r="E335" s="24" t="s">
         <v>62</v>
       </c>
       <c r="H335" t="s">
@@ -17924,14 +18176,14 @@
       <c r="A336" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B336" s="25" t="s">
+      <c r="B336" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C336" s="25" t="s">
+      <c r="C336" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D336" s="25"/>
-      <c r="E336" s="25" t="s">
+      <c r="D336" s="24"/>
+      <c r="E336" s="24" t="s">
         <v>14</v>
       </c>
       <c r="H336" t="s">
@@ -17942,14 +18194,14 @@
       <c r="A337" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B337" s="25" t="s">
+      <c r="B337" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C337" s="25" t="s">
+      <c r="C337" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D337" s="25"/>
-      <c r="E337" s="25" t="s">
+      <c r="D337" s="24"/>
+      <c r="E337" s="24" t="s">
         <v>42</v>
       </c>
       <c r="H337" t="s">
@@ -17960,14 +18212,14 @@
       <c r="A338" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B338" s="25" t="s">
+      <c r="B338" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C338" s="25" t="s">
+      <c r="C338" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D338" s="25"/>
-      <c r="E338" s="25" t="s">
+      <c r="D338" s="24"/>
+      <c r="E338" s="24" t="s">
         <v>82</v>
       </c>
       <c r="H338" t="s">
@@ -17978,14 +18230,14 @@
       <c r="A339" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B339" s="25" t="s">
+      <c r="B339" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C339" s="25" t="s">
+      <c r="C339" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D339" s="25"/>
-      <c r="E339" s="25" t="s">
+      <c r="D339" s="24"/>
+      <c r="E339" s="24" t="s">
         <v>28</v>
       </c>
       <c r="H339" t="s">
@@ -17996,14 +18248,14 @@
       <c r="A340" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B340" s="25" t="s">
+      <c r="B340" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C340" s="25" t="s">
+      <c r="C340" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D340" s="25"/>
-      <c r="E340" s="25" t="s">
+      <c r="D340" s="24"/>
+      <c r="E340" s="24" t="s">
         <v>21</v>
       </c>
       <c r="H340" t="s">
@@ -18014,14 +18266,14 @@
       <c r="A341" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B341" s="25" t="s">
+      <c r="B341" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C341" s="25" t="s">
+      <c r="C341" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D341" s="25"/>
-      <c r="E341" s="25" t="s">
+      <c r="D341" s="24"/>
+      <c r="E341" s="24" t="s">
         <v>33</v>
       </c>
       <c r="H341" t="s">
@@ -18032,14 +18284,14 @@
       <c r="A342" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B342" s="25" t="s">
+      <c r="B342" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C342" s="25" t="s">
+      <c r="C342" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D342" s="25"/>
-      <c r="E342" s="25" t="s">
+      <c r="D342" s="24"/>
+      <c r="E342" s="24" t="s">
         <v>62</v>
       </c>
       <c r="H342" t="s">
@@ -18050,14 +18302,14 @@
       <c r="A343" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B343" s="25" t="s">
+      <c r="B343" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C343" s="25" t="s">
+      <c r="C343" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D343" s="25"/>
-      <c r="E343" s="25" t="s">
+      <c r="D343" s="24"/>
+      <c r="E343" s="24" t="s">
         <v>25</v>
       </c>
       <c r="H343" t="s">
@@ -18068,14 +18320,14 @@
       <c r="A344" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B344" s="25" t="s">
+      <c r="B344" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C344" s="25" t="s">
+      <c r="C344" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D344" s="25"/>
-      <c r="E344" s="25" t="s">
+      <c r="D344" s="24"/>
+      <c r="E344" s="24" t="s">
         <v>26</v>
       </c>
       <c r="H344" t="s">
@@ -18086,14 +18338,14 @@
       <c r="A345" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B345" s="25" t="s">
+      <c r="B345" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C345" s="25" t="s">
+      <c r="C345" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D345" s="25"/>
-      <c r="E345" s="25" t="s">
+      <c r="D345" s="24"/>
+      <c r="E345" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H345" t="s">
@@ -18104,14 +18356,14 @@
       <c r="A346" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B346" s="25" t="s">
+      <c r="B346" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C346" s="25" t="s">
+      <c r="C346" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D346" s="25"/>
-      <c r="E346" s="25" t="s">
+      <c r="D346" s="24"/>
+      <c r="E346" s="24" t="s">
         <v>72</v>
       </c>
       <c r="H346" t="s">
@@ -18122,14 +18374,14 @@
       <c r="A347" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B347" s="25" t="s">
+      <c r="B347" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C347" s="25" t="s">
+      <c r="C347" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D347" s="25"/>
-      <c r="E347" s="25" t="s">
+      <c r="D347" s="24"/>
+      <c r="E347" s="24" t="s">
         <v>46</v>
       </c>
       <c r="H347" t="s">
@@ -18140,14 +18392,14 @@
       <c r="A348" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B348" s="25" t="s">
+      <c r="B348" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C348" s="25" t="s">
+      <c r="C348" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D348" s="25"/>
-      <c r="E348" s="25" t="s">
+      <c r="D348" s="24"/>
+      <c r="E348" s="24" t="s">
         <v>49</v>
       </c>
       <c r="H348" t="s">
@@ -18158,14 +18410,14 @@
       <c r="A349" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B349" s="25" t="s">
+      <c r="B349" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C349" s="25" t="s">
+      <c r="C349" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D349" s="25"/>
-      <c r="E349" s="25" t="s">
+      <c r="D349" s="24"/>
+      <c r="E349" s="24" t="s">
         <v>57</v>
       </c>
       <c r="H349" t="s">
@@ -18176,14 +18428,14 @@
       <c r="A350" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B350" s="25" t="s">
+      <c r="B350" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C350" s="25" t="s">
+      <c r="C350" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D350" s="25"/>
-      <c r="E350" s="25" t="s">
+      <c r="D350" s="24"/>
+      <c r="E350" s="24" t="s">
         <v>37</v>
       </c>
       <c r="H350" t="s">
@@ -18194,14 +18446,14 @@
       <c r="A351" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B351" s="25" t="s">
+      <c r="B351" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C351" s="25" t="s">
+      <c r="C351" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D351" s="25"/>
-      <c r="E351" s="25" t="s">
+      <c r="D351" s="24"/>
+      <c r="E351" s="24" t="s">
         <v>42</v>
       </c>
       <c r="H351" t="s">
@@ -18212,14 +18464,14 @@
       <c r="A352" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B352" s="25" t="s">
+      <c r="B352" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C352" s="25" t="s">
+      <c r="C352" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D352" s="25"/>
-      <c r="E352" s="25" t="s">
+      <c r="D352" s="24"/>
+      <c r="E352" s="24" t="s">
         <v>46</v>
       </c>
       <c r="H352" t="s">
@@ -18230,14 +18482,14 @@
       <c r="A353" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B353" s="25" t="s">
+      <c r="B353" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C353" s="25" t="s">
+      <c r="C353" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D353" s="25"/>
-      <c r="E353" s="25" t="s">
+      <c r="D353" s="24"/>
+      <c r="E353" s="24" t="s">
         <v>52</v>
       </c>
       <c r="H353" t="s">
@@ -18248,14 +18500,14 @@
       <c r="A354" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B354" s="25" t="s">
+      <c r="B354" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C354" s="25" t="s">
+      <c r="C354" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D354" s="25"/>
-      <c r="E354" s="25" t="s">
+      <c r="D354" s="24"/>
+      <c r="E354" s="24" t="s">
         <v>13</v>
       </c>
       <c r="H354" t="s">
@@ -18266,14 +18518,14 @@
       <c r="A355" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B355" s="25" t="s">
+      <c r="B355" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C355" s="25" t="s">
+      <c r="C355" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D355" s="25"/>
-      <c r="E355" s="25" t="s">
+      <c r="D355" s="24"/>
+      <c r="E355" s="24" t="s">
         <v>21</v>
       </c>
       <c r="H355" t="s">
@@ -18284,14 +18536,14 @@
       <c r="A356" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B356" s="25" t="s">
+      <c r="B356" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C356" s="25" t="s">
+      <c r="C356" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D356" s="25"/>
-      <c r="E356" s="25" t="s">
+      <c r="D356" s="24"/>
+      <c r="E356" s="24" t="s">
         <v>33</v>
       </c>
       <c r="H356" t="s">
@@ -18302,14 +18554,14 @@
       <c r="A357" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B357" s="25" t="s">
+      <c r="B357" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C357" s="25" t="s">
+      <c r="C357" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D357" s="25"/>
-      <c r="E357" s="25" t="s">
+      <c r="D357" s="24"/>
+      <c r="E357" s="24" t="s">
         <v>49</v>
       </c>
       <c r="H357" t="s">
@@ -18320,14 +18572,14 @@
       <c r="A358" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B358" s="25" t="s">
+      <c r="B358" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C358" s="25" t="s">
+      <c r="C358" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D358" s="25"/>
-      <c r="E358" s="25" t="s">
+      <c r="D358" s="24"/>
+      <c r="E358" s="24" t="s">
         <v>51</v>
       </c>
       <c r="H358" t="s">
@@ -18338,14 +18590,14 @@
       <c r="A359" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B359" s="25" t="s">
+      <c r="B359" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C359" s="25" t="s">
+      <c r="C359" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D359" s="25"/>
-      <c r="E359" s="25" t="s">
+      <c r="D359" s="24"/>
+      <c r="E359" s="24" t="s">
         <v>57</v>
       </c>
       <c r="H359" t="s">
@@ -18356,14 +18608,14 @@
       <c r="A360" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B360" s="25" t="s">
+      <c r="B360" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C360" s="25" t="s">
+      <c r="C360" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D360" s="25"/>
-      <c r="E360" s="25" t="s">
+      <c r="D360" s="24"/>
+      <c r="E360" s="24" t="s">
         <v>13</v>
       </c>
       <c r="H360" t="s">
@@ -18374,14 +18626,14 @@
       <c r="A361" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B361" s="25" t="s">
+      <c r="B361" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C361" s="25" t="s">
+      <c r="C361" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D361" s="25"/>
-      <c r="E361" s="25" t="s">
+      <c r="D361" s="24"/>
+      <c r="E361" s="24" t="s">
         <v>54</v>
       </c>
       <c r="H361" t="s">
@@ -18392,14 +18644,14 @@
       <c r="A362" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B362" s="25" t="s">
+      <c r="B362" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C362" s="25" t="s">
+      <c r="C362" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D362" s="25"/>
-      <c r="E362" s="25" t="s">
+      <c r="D362" s="24"/>
+      <c r="E362" s="24" t="s">
         <v>62</v>
       </c>
       <c r="H362" t="s">
@@ -18410,14 +18662,14 @@
       <c r="A363" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B363" s="25" t="s">
+      <c r="B363" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C363" s="25" t="s">
+      <c r="C363" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D363" s="25"/>
-      <c r="E363" s="25" t="s">
+      <c r="D363" s="24"/>
+      <c r="E363" s="24" t="s">
         <v>72</v>
       </c>
       <c r="H363" t="s">
@@ -18428,14 +18680,14 @@
       <c r="A364" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B364" s="25" t="s">
+      <c r="B364" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C364" s="25" t="s">
+      <c r="C364" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D364" s="25"/>
-      <c r="E364" s="25" t="s">
+      <c r="D364" s="24"/>
+      <c r="E364" s="24" t="s">
         <v>42</v>
       </c>
       <c r="H364" t="s">
@@ -18446,14 +18698,14 @@
       <c r="A365" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B365" s="25" t="s">
+      <c r="B365" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C365" s="25" t="s">
+      <c r="C365" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D365" s="25"/>
-      <c r="E365" s="25" t="s">
+      <c r="D365" s="24"/>
+      <c r="E365" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H365" t="s">
@@ -18464,14 +18716,14 @@
       <c r="A366" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B366" s="25" t="s">
+      <c r="B366" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C366" s="25" t="s">
+      <c r="C366" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D366" s="25"/>
-      <c r="E366" s="25" t="s">
+      <c r="D366" s="24"/>
+      <c r="E366" s="24" t="s">
         <v>32</v>
       </c>
       <c r="H366" t="s">
@@ -18482,14 +18734,14 @@
       <c r="A367" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B367" s="25" t="s">
+      <c r="B367" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C367" s="25" t="s">
+      <c r="C367" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D367" s="25"/>
-      <c r="E367" s="25" t="s">
+      <c r="D367" s="24"/>
+      <c r="E367" s="24" t="s">
         <v>26</v>
       </c>
       <c r="H367" t="s">
@@ -18500,14 +18752,14 @@
       <c r="A368" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B368" s="25" t="s">
+      <c r="B368" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C368" s="25" t="s">
+      <c r="C368" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D368" s="25"/>
-      <c r="E368" s="25" t="s">
+      <c r="D368" s="24"/>
+      <c r="E368" s="24" t="s">
         <v>51</v>
       </c>
       <c r="H368" t="s">
@@ -18518,14 +18770,14 @@
       <c r="A369" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B369" s="25" t="s">
+      <c r="B369" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C369" s="25" t="s">
+      <c r="C369" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D369" s="25"/>
-      <c r="E369" s="25" t="s">
+      <c r="D369" s="24"/>
+      <c r="E369" s="24" t="s">
         <v>29</v>
       </c>
       <c r="H369" t="s">
@@ -18536,14 +18788,14 @@
       <c r="A370" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B370" s="25" t="s">
+      <c r="B370" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C370" s="25" t="s">
+      <c r="C370" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D370" s="25"/>
-      <c r="E370" s="25" t="s">
+      <c r="D370" s="24"/>
+      <c r="E370" s="24" t="s">
         <v>69</v>
       </c>
       <c r="H370" t="s">
@@ -18554,14 +18806,14 @@
       <c r="A371" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B371" s="25" t="s">
+      <c r="B371" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C371" s="25" t="s">
+      <c r="C371" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D371" s="25"/>
-      <c r="E371" s="25" t="s">
+      <c r="D371" s="24"/>
+      <c r="E371" s="24" t="s">
         <v>33</v>
       </c>
       <c r="H371" t="s">
@@ -18572,14 +18824,14 @@
       <c r="A372" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B372" s="25" t="s">
+      <c r="B372" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C372" s="25" t="s">
+      <c r="C372" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D372" s="25"/>
-      <c r="E372" s="25" t="s">
+      <c r="D372" s="24"/>
+      <c r="E372" s="24" t="s">
         <v>72</v>
       </c>
       <c r="H372" t="s">
@@ -18590,14 +18842,14 @@
       <c r="A373" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B373" s="25" t="s">
+      <c r="B373" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C373" s="25" t="s">
+      <c r="C373" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D373" s="25"/>
-      <c r="E373" s="25" t="s">
+      <c r="D373" s="24"/>
+      <c r="E373" s="24" t="s">
         <v>22</v>
       </c>
       <c r="H373" t="s">
@@ -18608,14 +18860,14 @@
       <c r="A374" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B374" s="25" t="s">
+      <c r="B374" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C374" s="25" t="s">
+      <c r="C374" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D374" s="25"/>
-      <c r="E374" s="25" t="s">
+      <c r="D374" s="24"/>
+      <c r="E374" s="24" t="s">
         <v>52</v>
       </c>
       <c r="H374" t="s">
@@ -18626,14 +18878,14 @@
       <c r="A375" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B375" s="25" t="s">
+      <c r="B375" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C375" s="25" t="s">
+      <c r="C375" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D375" s="25"/>
-      <c r="E375" s="25" t="s">
+      <c r="D375" s="24"/>
+      <c r="E375" s="24" t="s">
         <v>55</v>
       </c>
       <c r="H375" t="s">
@@ -18644,14 +18896,14 @@
       <c r="A376" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B376" s="25" t="s">
+      <c r="B376" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C376" s="25" t="s">
+      <c r="C376" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D376" s="25"/>
-      <c r="E376" s="25" t="s">
+      <c r="D376" s="24"/>
+      <c r="E376" s="24" t="s">
         <v>41</v>
       </c>
       <c r="H376" t="s">
@@ -18662,14 +18914,14 @@
       <c r="A377" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B377" s="25" t="s">
+      <c r="B377" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C377" s="25" t="s">
+      <c r="C377" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D377" s="25"/>
-      <c r="E377" s="25" t="s">
+      <c r="D377" s="24"/>
+      <c r="E377" s="24" t="s">
         <v>57</v>
       </c>
       <c r="H377" t="s">
@@ -18680,14 +18932,14 @@
       <c r="A378" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B378" s="25" t="s">
+      <c r="B378" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C378" s="25" t="s">
+      <c r="C378" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D378" s="25"/>
-      <c r="E378" s="25" t="s">
+      <c r="D378" s="24"/>
+      <c r="E378" s="24" t="s">
         <v>33</v>
       </c>
       <c r="H378" t="s">
@@ -18698,14 +18950,14 @@
       <c r="A379" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B379" s="25" t="s">
+      <c r="B379" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C379" s="25" t="s">
+      <c r="C379" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D379" s="25"/>
-      <c r="E379" s="25" t="s">
+      <c r="D379" s="24"/>
+      <c r="E379" s="24" t="s">
         <v>14</v>
       </c>
       <c r="H379" t="s">
@@ -18716,14 +18968,14 @@
       <c r="A380" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B380" s="25" t="s">
+      <c r="B380" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C380" s="25" t="s">
+      <c r="C380" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D380" s="25"/>
-      <c r="E380" s="25" t="s">
+      <c r="D380" s="24"/>
+      <c r="E380" s="24" t="s">
         <v>42</v>
       </c>
       <c r="H380" t="s">
@@ -18734,14 +18986,14 @@
       <c r="A381" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B381" s="25" t="s">
+      <c r="B381" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C381" s="25" t="s">
+      <c r="C381" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D381" s="25"/>
-      <c r="E381" s="25" t="s">
+      <c r="D381" s="24"/>
+      <c r="E381" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H381" t="s">
@@ -18752,14 +19004,14 @@
       <c r="A382" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B382" s="25" t="s">
+      <c r="B382" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C382" s="25" t="s">
+      <c r="C382" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D382" s="25"/>
-      <c r="E382" s="25" t="s">
+      <c r="D382" s="24"/>
+      <c r="E382" s="24" t="s">
         <v>29</v>
       </c>
       <c r="H382" t="s">
@@ -18770,14 +19022,14 @@
       <c r="A383" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B383" s="25" t="s">
+      <c r="B383" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C383" s="25" t="s">
+      <c r="C383" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D383" s="25"/>
-      <c r="E383" s="25" t="s">
+      <c r="D383" s="24"/>
+      <c r="E383" s="24" t="s">
         <v>13</v>
       </c>
       <c r="H383" t="s">
@@ -18788,14 +19040,14 @@
       <c r="A384" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B384" s="25" t="s">
+      <c r="B384" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C384" s="25" t="s">
+      <c r="C384" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D384" s="25"/>
-      <c r="E384" s="25" t="s">
+      <c r="D384" s="24"/>
+      <c r="E384" s="24" t="s">
         <v>54</v>
       </c>
       <c r="H384" t="s">
@@ -18806,14 +19058,14 @@
       <c r="A385" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B385" s="25" t="s">
+      <c r="B385" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C385" s="25" t="s">
+      <c r="C385" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D385" s="25"/>
-      <c r="E385" s="25" t="s">
+      <c r="D385" s="24"/>
+      <c r="E385" s="24" t="s">
         <v>55</v>
       </c>
       <c r="H385" t="s">
@@ -18824,14 +19076,14 @@
       <c r="A386" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B386" s="25" t="s">
+      <c r="B386" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C386" s="25" t="s">
+      <c r="C386" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D386" s="25"/>
-      <c r="E386" s="25" t="s">
+      <c r="D386" s="24"/>
+      <c r="E386" s="24" t="s">
         <v>32</v>
       </c>
       <c r="H386" t="s">
@@ -18842,14 +19094,14 @@
       <c r="A387" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B387" s="25" t="s">
+      <c r="B387" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C387" s="25" t="s">
+      <c r="C387" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D387" s="25"/>
-      <c r="E387" s="25" t="s">
+      <c r="D387" s="24"/>
+      <c r="E387" s="24" t="s">
         <v>29</v>
       </c>
       <c r="H387" t="s">
@@ -18860,14 +19112,14 @@
       <c r="A388" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B388" s="25" t="s">
+      <c r="B388" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C388" s="25" t="s">
+      <c r="C388" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D388" s="25"/>
-      <c r="E388" s="25" t="s">
+      <c r="D388" s="24"/>
+      <c r="E388" s="24" t="s">
         <v>17</v>
       </c>
       <c r="H388" t="s">
@@ -18878,14 +19130,14 @@
       <c r="A389" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B389" s="25" t="s">
+      <c r="B389" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C389" s="25" t="s">
+      <c r="C389" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D389" s="25"/>
-      <c r="E389" s="25" t="s">
+      <c r="D389" s="24"/>
+      <c r="E389" s="24" t="s">
         <v>52</v>
       </c>
       <c r="H389" t="s">
@@ -18896,14 +19148,14 @@
       <c r="A390" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B390" s="25" t="s">
+      <c r="B390" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C390" s="25" t="s">
+      <c r="C390" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D390" s="25"/>
-      <c r="E390" s="25" t="s">
+      <c r="D390" s="24"/>
+      <c r="E390" s="24" t="s">
         <v>51</v>
       </c>
       <c r="H390" t="s">
@@ -18914,14 +19166,14 @@
       <c r="A391" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B391" s="25" t="s">
+      <c r="B391" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C391" s="25" t="s">
+      <c r="C391" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D391" s="25"/>
-      <c r="E391" s="25" t="s">
+      <c r="D391" s="24"/>
+      <c r="E391" s="24" t="s">
         <v>37</v>
       </c>
       <c r="H391" t="s">
@@ -18932,14 +19184,14 @@
       <c r="A392" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B392" s="25" t="s">
+      <c r="B392" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C392" s="25" t="s">
+      <c r="C392" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D392" s="25"/>
-      <c r="E392" s="25" t="s">
+      <c r="D392" s="24"/>
+      <c r="E392" s="24" t="s">
         <v>54</v>
       </c>
       <c r="H392" t="s">
@@ -18950,14 +19202,14 @@
       <c r="A393" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B393" s="25" t="s">
+      <c r="B393" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C393" s="25" t="s">
+      <c r="C393" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D393" s="25"/>
-      <c r="E393" s="25" t="s">
+      <c r="D393" s="24"/>
+      <c r="E393" s="24" t="s">
         <v>72</v>
       </c>
       <c r="H393" t="s">
@@ -18968,14 +19220,14 @@
       <c r="A394" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B394" s="25" t="s">
+      <c r="B394" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C394" s="25" t="s">
+      <c r="C394" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D394" s="25"/>
-      <c r="E394" s="25" t="s">
+      <c r="D394" s="24"/>
+      <c r="E394" s="24" t="s">
         <v>41</v>
       </c>
       <c r="H394" t="s">
@@ -18986,14 +19238,14 @@
       <c r="A395" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B395" s="25" t="s">
+      <c r="B395" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C395" s="25" t="s">
+      <c r="C395" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D395" s="25"/>
-      <c r="E395" s="25" t="s">
+      <c r="D395" s="24"/>
+      <c r="E395" s="24" t="s">
         <v>42</v>
       </c>
       <c r="H395" t="s">
@@ -19004,14 +19256,14 @@
       <c r="A396" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B396" s="25" t="s">
+      <c r="B396" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C396" s="25" t="s">
+      <c r="C396" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D396" s="25"/>
-      <c r="E396" s="25" t="s">
+      <c r="D396" s="24"/>
+      <c r="E396" s="24" t="s">
         <v>69</v>
       </c>
       <c r="H396" t="s">
@@ -19022,14 +19274,14 @@
       <c r="A397" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B397" s="25" t="s">
+      <c r="B397" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C397" s="25" t="s">
+      <c r="C397" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D397" s="25"/>
-      <c r="E397" s="25" t="s">
+      <c r="D397" s="24"/>
+      <c r="E397" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H397" t="s">
@@ -19040,14 +19292,14 @@
       <c r="A398" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B398" s="25" t="s">
+      <c r="B398" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C398" s="25" t="s">
+      <c r="C398" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D398" s="25"/>
-      <c r="E398" s="25" t="s">
+      <c r="D398" s="24"/>
+      <c r="E398" s="24" t="s">
         <v>44</v>
       </c>
       <c r="H398" t="s">
@@ -19058,14 +19310,14 @@
       <c r="A399" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B399" s="25" t="s">
+      <c r="B399" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C399" s="25" t="s">
+      <c r="C399" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D399" s="25"/>
-      <c r="E399" s="25" t="s">
+      <c r="D399" s="24"/>
+      <c r="E399" s="24" t="s">
         <v>13</v>
       </c>
       <c r="H399" t="s">
@@ -19076,14 +19328,14 @@
       <c r="A400" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B400" s="25" t="s">
+      <c r="B400" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C400" s="25" t="s">
+      <c r="C400" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D400" s="25"/>
-      <c r="E400" s="25" t="s">
+      <c r="D400" s="24"/>
+      <c r="E400" s="24" t="s">
         <v>62</v>
       </c>
       <c r="H400" t="s">
@@ -19094,14 +19346,14 @@
       <c r="A401" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B401" s="25" t="s">
+      <c r="B401" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C401" s="25" t="s">
+      <c r="C401" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D401" s="25"/>
-      <c r="E401" s="25" t="s">
+      <c r="D401" s="24"/>
+      <c r="E401" s="24" t="s">
         <v>32</v>
       </c>
       <c r="H401" t="s">
@@ -19112,14 +19364,14 @@
       <c r="A402" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B402" s="25" t="s">
+      <c r="B402" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C402" s="25" t="s">
+      <c r="C402" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D402" s="25"/>
-      <c r="E402" s="25" t="s">
+      <c r="D402" s="24"/>
+      <c r="E402" s="24" t="s">
         <v>22</v>
       </c>
       <c r="H402" t="s">
@@ -19130,14 +19382,14 @@
       <c r="A403" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B403" s="25" t="s">
+      <c r="B403" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C403" s="25" t="s">
+      <c r="C403" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D403" s="25"/>
-      <c r="E403" s="25" t="s">
+      <c r="D403" s="24"/>
+      <c r="E403" s="24" t="s">
         <v>17</v>
       </c>
       <c r="H403" t="s">
@@ -19148,14 +19400,14 @@
       <c r="A404" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B404" s="25" t="s">
+      <c r="B404" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C404" s="25" t="s">
+      <c r="C404" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D404" s="25"/>
-      <c r="E404" s="25" t="s">
+      <c r="D404" s="24"/>
+      <c r="E404" s="24" t="s">
         <v>52</v>
       </c>
       <c r="H404" t="s">
@@ -19166,14 +19418,14 @@
       <c r="A405" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B405" s="25" t="s">
+      <c r="B405" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C405" s="25" t="s">
+      <c r="C405" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D405" s="25"/>
-      <c r="E405" s="25" t="s">
+      <c r="D405" s="24"/>
+      <c r="E405" s="24" t="s">
         <v>54</v>
       </c>
       <c r="H405" t="s">
@@ -19184,14 +19436,14 @@
       <c r="A406" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B406" s="25" t="s">
+      <c r="B406" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C406" s="25" t="s">
+      <c r="C406" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D406" s="25"/>
-      <c r="E406" s="25" t="s">
+      <c r="D406" s="24"/>
+      <c r="E406" s="24" t="s">
         <v>82</v>
       </c>
       <c r="H406" t="s">
@@ -19202,14 +19454,14 @@
       <c r="A407" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B407" s="25" t="s">
+      <c r="B407" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C407" s="25" t="s">
+      <c r="C407" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D407" s="25"/>
-      <c r="E407" s="25" t="s">
+      <c r="D407" s="24"/>
+      <c r="E407" s="24" t="s">
         <v>72</v>
       </c>
       <c r="H407" t="s">
@@ -19220,14 +19472,14 @@
       <c r="A408" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B408" s="25" t="s">
+      <c r="B408" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C408" s="25" t="s">
+      <c r="C408" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D408" s="25"/>
-      <c r="E408" s="25" t="s">
+      <c r="D408" s="24"/>
+      <c r="E408" s="24" t="s">
         <v>37</v>
       </c>
       <c r="H408" t="s">
@@ -19238,14 +19490,14 @@
       <c r="A409" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B409" s="25" t="s">
+      <c r="B409" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C409" s="25" t="s">
+      <c r="C409" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D409" s="25"/>
-      <c r="E409" s="25" t="s">
+      <c r="D409" s="24"/>
+      <c r="E409" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H409" t="s">
@@ -19256,14 +19508,14 @@
       <c r="A410" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B410" s="25" t="s">
+      <c r="B410" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C410" s="25" t="s">
+      <c r="C410" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D410" s="25"/>
-      <c r="E410" s="25" t="s">
+      <c r="D410" s="24"/>
+      <c r="E410" s="24" t="s">
         <v>44</v>
       </c>
       <c r="H410" t="s">
@@ -19274,14 +19526,14 @@
       <c r="A411" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B411" s="25" t="s">
+      <c r="B411" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C411" s="25" t="s">
+      <c r="C411" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D411" s="25"/>
-      <c r="E411" s="25" t="s">
+      <c r="D411" s="24"/>
+      <c r="E411" s="24" t="s">
         <v>36</v>
       </c>
       <c r="H411" t="s">
@@ -19292,14 +19544,14 @@
       <c r="A412" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B412" s="25" t="s">
+      <c r="B412" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C412" s="25" t="s">
+      <c r="C412" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D412" s="25"/>
-      <c r="E412" s="25" t="s">
+      <c r="D412" s="24"/>
+      <c r="E412" s="24" t="s">
         <v>13</v>
       </c>
       <c r="H412" t="s">
@@ -19310,14 +19562,14 @@
       <c r="A413" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B413" s="25" t="s">
+      <c r="B413" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C413" s="25" t="s">
+      <c r="C413" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D413" s="25"/>
-      <c r="E413" s="25" t="s">
+      <c r="D413" s="24"/>
+      <c r="E413" s="24" t="s">
         <v>58</v>
       </c>
       <c r="H413" t="s">
@@ -19328,14 +19580,14 @@
       <c r="A414" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B414" s="25" t="s">
+      <c r="B414" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C414" s="25" t="s">
+      <c r="C414" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D414" s="25"/>
-      <c r="E414" s="25" t="s">
+      <c r="D414" s="24"/>
+      <c r="E414" s="24" t="s">
         <v>46</v>
       </c>
       <c r="H414" t="s">
@@ -19346,14 +19598,14 @@
       <c r="A415" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B415" s="25" t="s">
+      <c r="B415" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C415" s="25" t="s">
+      <c r="C415" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D415" s="25"/>
-      <c r="E415" s="25" t="s">
+      <c r="D415" s="24"/>
+      <c r="E415" s="24" t="s">
         <v>42</v>
       </c>
       <c r="H415" t="s">
@@ -19364,14 +19616,14 @@
       <c r="A416" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B416" s="25" t="s">
+      <c r="B416" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C416" s="25" t="s">
+      <c r="C416" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D416" s="25"/>
-      <c r="E416" s="25" t="s">
+      <c r="D416" s="24"/>
+      <c r="E416" s="24" t="s">
         <v>22</v>
       </c>
       <c r="H416" t="s">
@@ -19382,14 +19634,14 @@
       <c r="A417" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B417" s="25" t="s">
+      <c r="B417" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C417" s="25" t="s">
+      <c r="C417" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D417" s="25"/>
-      <c r="E417" s="25" t="s">
+      <c r="D417" s="24"/>
+      <c r="E417" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H417" t="s">
@@ -19400,14 +19652,14 @@
       <c r="A418" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B418" s="25" t="s">
+      <c r="B418" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C418" s="25" t="s">
+      <c r="C418" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D418" s="25"/>
-      <c r="E418" s="25" t="s">
+      <c r="D418" s="24"/>
+      <c r="E418" s="24" t="s">
         <v>57</v>
       </c>
       <c r="H418" t="s">
@@ -19418,14 +19670,14 @@
       <c r="A419" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B419" s="25" t="s">
+      <c r="B419" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C419" s="25" t="s">
+      <c r="C419" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D419" s="25"/>
-      <c r="E419" s="25" t="s">
+      <c r="D419" s="24"/>
+      <c r="E419" s="24" t="s">
         <v>82</v>
       </c>
       <c r="H419" t="s">
@@ -19436,14 +19688,14 @@
       <c r="A420" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B420" s="25" t="s">
+      <c r="B420" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C420" s="25" t="s">
+      <c r="C420" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D420" s="25"/>
-      <c r="E420" s="25" t="s">
+      <c r="D420" s="24"/>
+      <c r="E420" s="24" t="s">
         <v>28</v>
       </c>
       <c r="H420" t="s">
@@ -19454,14 +19706,14 @@
       <c r="A421" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B421" s="25" t="s">
+      <c r="B421" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C421" s="25" t="s">
+      <c r="C421" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D421" s="25"/>
-      <c r="E421" s="25" t="s">
+      <c r="D421" s="24"/>
+      <c r="E421" s="24" t="s">
         <v>33</v>
       </c>
       <c r="H421" t="s">
@@ -19472,14 +19724,14 @@
       <c r="A422" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B422" s="25" t="s">
+      <c r="B422" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C422" s="25" t="s">
+      <c r="C422" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D422" s="25"/>
-      <c r="E422" s="25" t="s">
+      <c r="D422" s="24"/>
+      <c r="E422" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H422" t="s">
@@ -19490,14 +19742,14 @@
       <c r="A423" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B423" s="25" t="s">
+      <c r="B423" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C423" s="25" t="s">
+      <c r="C423" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D423" s="25"/>
-      <c r="E423" s="25" t="s">
+      <c r="D423" s="24"/>
+      <c r="E423" s="24" t="s">
         <v>44</v>
       </c>
       <c r="H423" t="s">
@@ -19508,14 +19760,14 @@
       <c r="A424" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B424" s="25" t="s">
+      <c r="B424" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C424" s="25" t="s">
+      <c r="C424" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D424" s="25"/>
-      <c r="E424" s="25" t="s">
+      <c r="D424" s="24"/>
+      <c r="E424" s="24" t="s">
         <v>55</v>
       </c>
       <c r="H424" t="s">
@@ -19526,14 +19778,14 @@
       <c r="A425" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B425" s="25" t="s">
+      <c r="B425" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C425" s="25" t="s">
+      <c r="C425" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D425" s="25"/>
-      <c r="E425" s="25" t="s">
+      <c r="D425" s="24"/>
+      <c r="E425" s="24" t="s">
         <v>41</v>
       </c>
       <c r="H425" t="s">
@@ -19544,14 +19796,14 @@
       <c r="A426" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B426" s="25" t="s">
+      <c r="B426" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C426" s="25" t="s">
+      <c r="C426" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D426" s="25"/>
-      <c r="E426" s="25" t="s">
+      <c r="D426" s="24"/>
+      <c r="E426" s="24" t="s">
         <v>69</v>
       </c>
       <c r="H426" t="s">
@@ -19562,14 +19814,14 @@
       <c r="A427" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B427" s="25" t="s">
+      <c r="B427" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C427" s="25" t="s">
+      <c r="C427" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D427" s="25"/>
-      <c r="E427" s="25" t="s">
+      <c r="D427" s="24"/>
+      <c r="E427" s="24" t="s">
         <v>21</v>
       </c>
       <c r="H427" t="s">
@@ -19580,14 +19832,14 @@
       <c r="A428" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B428" s="25" t="s">
+      <c r="B428" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C428" s="25" t="s">
+      <c r="C428" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D428" s="25"/>
-      <c r="E428" s="25" t="s">
+      <c r="D428" s="24"/>
+      <c r="E428" s="24" t="s">
         <v>28</v>
       </c>
       <c r="H428" t="s">
@@ -19598,14 +19850,14 @@
       <c r="A429" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B429" s="25" t="s">
+      <c r="B429" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C429" s="25" t="s">
+      <c r="C429" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D429" s="25"/>
-      <c r="E429" s="25" t="s">
+      <c r="D429" s="24"/>
+      <c r="E429" s="24" t="s">
         <v>42</v>
       </c>
       <c r="H429" t="s">
@@ -19616,14 +19868,14 @@
       <c r="A430" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B430" s="25" t="s">
+      <c r="B430" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C430" s="25" t="s">
+      <c r="C430" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D430" s="25"/>
-      <c r="E430" s="25" t="s">
+      <c r="D430" s="24"/>
+      <c r="E430" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H430" t="s">
@@ -19634,14 +19886,14 @@
       <c r="A431" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B431" s="25" t="s">
+      <c r="B431" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C431" s="25" t="s">
+      <c r="C431" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D431" s="25"/>
-      <c r="E431" s="25" t="s">
+      <c r="D431" s="24"/>
+      <c r="E431" s="24" t="s">
         <v>26</v>
       </c>
       <c r="H431" t="s">
@@ -19652,14 +19904,14 @@
       <c r="A432" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B432" s="25" t="s">
+      <c r="B432" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C432" s="25" t="s">
+      <c r="C432" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D432" s="25"/>
-      <c r="E432" s="25" t="s">
+      <c r="D432" s="24"/>
+      <c r="E432" s="24" t="s">
         <v>58</v>
       </c>
       <c r="H432" t="s">
@@ -19670,14 +19922,14 @@
       <c r="A433" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B433" s="25" t="s">
+      <c r="B433" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C433" s="25" t="s">
+      <c r="C433" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D433" s="25"/>
-      <c r="E433" s="25" t="s">
+      <c r="D433" s="24"/>
+      <c r="E433" s="24" t="s">
         <v>13</v>
       </c>
       <c r="H433" t="s">
@@ -19688,14 +19940,14 @@
       <c r="A434" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B434" s="25" t="s">
+      <c r="B434" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C434" s="25" t="s">
+      <c r="C434" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D434" s="25"/>
-      <c r="E434" s="25" t="s">
+      <c r="D434" s="24"/>
+      <c r="E434" s="24" t="s">
         <v>82</v>
       </c>
       <c r="H434" t="s">
@@ -19706,14 +19958,14 @@
       <c r="A435" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B435" s="25" t="s">
+      <c r="B435" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C435" s="25" t="s">
+      <c r="C435" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D435" s="25"/>
-      <c r="E435" s="25" t="s">
+      <c r="D435" s="24"/>
+      <c r="E435" s="24" t="s">
         <v>33</v>
       </c>
       <c r="H435" t="s">
@@ -19724,14 +19976,14 @@
       <c r="A436" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B436" s="25" t="s">
+      <c r="B436" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C436" s="25" t="s">
+      <c r="C436" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D436" s="25"/>
-      <c r="E436" s="25" t="s">
+      <c r="D436" s="24"/>
+      <c r="E436" s="24" t="s">
         <v>37</v>
       </c>
       <c r="H436" t="s">
@@ -19742,14 +19994,14 @@
       <c r="A437" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B437" s="25" t="s">
+      <c r="B437" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C437" s="25" t="s">
+      <c r="C437" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D437" s="25"/>
-      <c r="E437" s="25" t="s">
+      <c r="D437" s="24"/>
+      <c r="E437" s="24" t="s">
         <v>49</v>
       </c>
       <c r="H437" t="s">
@@ -19760,14 +20012,14 @@
       <c r="A438" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B438" s="25" t="s">
+      <c r="B438" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C438" s="25" t="s">
+      <c r="C438" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D438" s="25"/>
-      <c r="E438" s="25" t="s">
+      <c r="D438" s="24"/>
+      <c r="E438" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H438" t="s">
@@ -19778,14 +20030,14 @@
       <c r="A439" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B439" s="25" t="s">
+      <c r="B439" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C439" s="25" t="s">
+      <c r="C439" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D439" s="25"/>
-      <c r="E439" s="25" t="s">
+      <c r="D439" s="24"/>
+      <c r="E439" s="24" t="s">
         <v>25</v>
       </c>
       <c r="H439" t="s">
@@ -19796,14 +20048,14 @@
       <c r="A440" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B440" s="25" t="s">
+      <c r="B440" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C440" s="25" t="s">
+      <c r="C440" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D440" s="25"/>
-      <c r="E440" s="25" t="s">
+      <c r="D440" s="24"/>
+      <c r="E440" s="24" t="s">
         <v>52</v>
       </c>
       <c r="H440" t="s">
@@ -19814,14 +20066,14 @@
       <c r="A441" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B441" s="25" t="s">
+      <c r="B441" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C441" s="25" t="s">
+      <c r="C441" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D441" s="25"/>
-      <c r="E441" s="25" t="s">
+      <c r="D441" s="24"/>
+      <c r="E441" s="24" t="s">
         <v>55</v>
       </c>
       <c r="H441" t="s">
@@ -19832,14 +20084,14 @@
       <c r="A442" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B442" s="25" t="s">
+      <c r="B442" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C442" s="25" t="s">
+      <c r="C442" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D442" s="25"/>
-      <c r="E442" s="25" t="s">
+      <c r="D442" s="24"/>
+      <c r="E442" s="24" t="s">
         <v>13</v>
       </c>
       <c r="H442" t="s">
@@ -19850,14 +20102,14 @@
       <c r="A443" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B443" s="25" t="s">
+      <c r="B443" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C443" s="25" t="s">
+      <c r="C443" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D443" s="25"/>
-      <c r="E443" s="25" t="s">
+      <c r="D443" s="24"/>
+      <c r="E443" s="24" t="s">
         <v>44</v>
       </c>
       <c r="H443" t="s">
@@ -19868,14 +20120,14 @@
       <c r="A444" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B444" s="25" t="s">
+      <c r="B444" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C444" s="25" t="s">
+      <c r="C444" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D444" s="25"/>
-      <c r="E444" s="25" t="s">
+      <c r="D444" s="24"/>
+      <c r="E444" s="24" t="s">
         <v>33</v>
       </c>
       <c r="H444" t="s">
@@ -19886,14 +20138,14 @@
       <c r="A445" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B445" s="25" t="s">
+      <c r="B445" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C445" s="25" t="s">
+      <c r="C445" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D445" s="25"/>
-      <c r="E445" s="25" t="s">
+      <c r="D445" s="24"/>
+      <c r="E445" s="24" t="s">
         <v>42</v>
       </c>
       <c r="H445" t="s">
@@ -19904,14 +20156,14 @@
       <c r="A446" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B446" s="25" t="s">
+      <c r="B446" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C446" s="25" t="s">
+      <c r="C446" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D446" s="25"/>
-      <c r="E446" s="25" t="s">
+      <c r="D446" s="24"/>
+      <c r="E446" s="24" t="s">
         <v>62</v>
       </c>
       <c r="H446" t="s">
@@ -19922,14 +20174,14 @@
       <c r="A447" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B447" s="25" t="s">
+      <c r="B447" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C447" s="25" t="s">
+      <c r="C447" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D447" s="25"/>
-      <c r="E447" s="25" t="s">
+      <c r="D447" s="24"/>
+      <c r="E447" s="24" t="s">
         <v>26</v>
       </c>
       <c r="H447" t="s">
@@ -19940,14 +20192,14 @@
       <c r="A448" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B448" s="25" t="s">
+      <c r="B448" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C448" s="25" t="s">
+      <c r="C448" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D448" s="25"/>
-      <c r="E448" s="25" t="s">
+      <c r="D448" s="24"/>
+      <c r="E448" s="24" t="s">
         <v>41</v>
       </c>
       <c r="H448" t="s">
@@ -19958,14 +20210,14 @@
       <c r="A449" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B449" s="25" t="s">
+      <c r="B449" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C449" s="25" t="s">
+      <c r="C449" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D449" s="25"/>
-      <c r="E449" s="25" t="s">
+      <c r="D449" s="24"/>
+      <c r="E449" s="24" t="s">
         <v>58</v>
       </c>
       <c r="H449" t="s">
@@ -19976,14 +20228,14 @@
       <c r="A450" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B450" s="25" t="s">
+      <c r="B450" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C450" s="25" t="s">
+      <c r="C450" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D450" s="25"/>
-      <c r="E450" s="25" t="s">
+      <c r="D450" s="24"/>
+      <c r="E450" s="24" t="s">
         <v>37</v>
       </c>
       <c r="H450" t="s">
@@ -19994,14 +20246,14 @@
       <c r="A451" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B451" s="25" t="s">
+      <c r="B451" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C451" s="25" t="s">
+      <c r="C451" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D451" s="25"/>
-      <c r="E451" s="25" t="s">
+      <c r="D451" s="24"/>
+      <c r="E451" s="24" t="s">
         <v>46</v>
       </c>
       <c r="H451" t="s">
@@ -20012,14 +20264,14 @@
       <c r="A452" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B452" s="25" t="s">
+      <c r="B452" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C452" s="25" t="s">
+      <c r="C452" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D452" s="25"/>
-      <c r="E452" s="25" t="s">
+      <c r="D452" s="24"/>
+      <c r="E452" s="24" t="s">
         <v>25</v>
       </c>
       <c r="H452" t="s">
@@ -20030,14 +20282,14 @@
       <c r="A453" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B453" s="25" t="s">
+      <c r="B453" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C453" s="25" t="s">
+      <c r="C453" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D453" s="25"/>
-      <c r="E453" s="25" t="s">
+      <c r="D453" s="24"/>
+      <c r="E453" s="24" t="s">
         <v>49</v>
       </c>
       <c r="H453" t="s">
@@ -20048,14 +20300,14 @@
       <c r="A454" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B454" s="25" t="s">
+      <c r="B454" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C454" s="25" t="s">
+      <c r="C454" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D454" s="25"/>
-      <c r="E454" s="25" t="s">
+      <c r="D454" s="24"/>
+      <c r="E454" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H454" t="s">
@@ -20066,14 +20318,14 @@
       <c r="A455" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B455" s="25" t="s">
+      <c r="B455" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C455" s="25" t="s">
+      <c r="C455" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D455" s="25"/>
-      <c r="E455" s="25" t="s">
+      <c r="D455" s="24"/>
+      <c r="E455" s="24" t="s">
         <v>52</v>
       </c>
       <c r="H455" t="s">
@@ -20084,14 +20336,14 @@
       <c r="A456" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B456" s="25" t="s">
+      <c r="B456" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C456" s="25" t="s">
+      <c r="C456" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D456" s="25"/>
-      <c r="E456" s="25" t="s">
+      <c r="D456" s="24"/>
+      <c r="E456" s="24" t="s">
         <v>55</v>
       </c>
       <c r="H456" t="s">
@@ -20102,14 +20354,14 @@
       <c r="A457" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B457" s="25" t="s">
+      <c r="B457" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C457" s="25" t="s">
+      <c r="C457" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D457" s="25"/>
-      <c r="E457" s="25" t="s">
+      <c r="D457" s="24"/>
+      <c r="E457" s="24" t="s">
         <v>13</v>
       </c>
       <c r="H457" t="s">
@@ -20120,14 +20372,14 @@
       <c r="A458" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B458" s="25" t="s">
+      <c r="B458" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C458" s="25" t="s">
+      <c r="C458" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D458" s="25"/>
-      <c r="E458" s="25" t="s">
+      <c r="D458" s="24"/>
+      <c r="E458" s="24" t="s">
         <v>21</v>
       </c>
       <c r="H458" t="s">
@@ -20138,14 +20390,14 @@
       <c r="A459" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B459" s="25" t="s">
+      <c r="B459" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C459" s="25" t="s">
+      <c r="C459" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D459" s="25"/>
-      <c r="E459" s="25" t="s">
+      <c r="D459" s="24"/>
+      <c r="E459" s="24" t="s">
         <v>54</v>
       </c>
       <c r="H459" t="s">
@@ -20156,14 +20408,14 @@
       <c r="A460" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B460" s="25" t="s">
+      <c r="B460" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C460" s="25" t="s">
+      <c r="C460" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D460" s="25"/>
-      <c r="E460" s="25" t="s">
+      <c r="D460" s="24"/>
+      <c r="E460" s="24" t="s">
         <v>72</v>
       </c>
       <c r="H460" t="s">
@@ -20174,14 +20426,14 @@
       <c r="A461" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B461" s="25" t="s">
+      <c r="B461" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C461" s="25" t="s">
+      <c r="C461" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D461" s="25"/>
-      <c r="E461" s="25" t="s">
+      <c r="D461" s="24"/>
+      <c r="E461" s="24" t="s">
         <v>62</v>
       </c>
       <c r="H461" t="s">
@@ -20192,14 +20444,14 @@
       <c r="A462" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B462" s="25" t="s">
+      <c r="B462" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C462" s="25" t="s">
+      <c r="C462" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D462" s="25"/>
-      <c r="E462" s="25" t="s">
+      <c r="D462" s="24"/>
+      <c r="E462" s="24" t="s">
         <v>26</v>
       </c>
       <c r="H462" t="s">
@@ -20210,14 +20462,14 @@
       <c r="A463" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B463" s="25" t="s">
+      <c r="B463" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C463" s="25" t="s">
+      <c r="C463" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D463" s="25"/>
-      <c r="E463" s="25" t="s">
+      <c r="D463" s="24"/>
+      <c r="E463" s="24" t="s">
         <v>41</v>
       </c>
       <c r="H463" t="s">
@@ -20228,14 +20480,14 @@
       <c r="A464" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B464" s="25" t="s">
+      <c r="B464" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C464" s="25" t="s">
+      <c r="C464" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D464" s="25"/>
-      <c r="E464" s="25" t="s">
+      <c r="D464" s="24"/>
+      <c r="E464" s="24" t="s">
         <v>29</v>
       </c>
       <c r="H464" t="s">
@@ -20246,14 +20498,14 @@
       <c r="A465" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B465" s="25" t="s">
+      <c r="B465" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C465" s="25" t="s">
+      <c r="C465" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D465" s="25"/>
-      <c r="E465" s="25" t="s">
+      <c r="D465" s="24"/>
+      <c r="E465" s="24" t="s">
         <v>72</v>
       </c>
       <c r="H465" t="s">
@@ -20264,14 +20516,14 @@
       <c r="A466" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B466" s="25" t="s">
+      <c r="B466" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C466" s="25" t="s">
+      <c r="C466" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D466" s="25"/>
-      <c r="E466" s="25" t="s">
+      <c r="D466" s="24"/>
+      <c r="E466" s="24" t="s">
         <v>14</v>
       </c>
       <c r="H466" t="s">
@@ -20282,14 +20534,14 @@
       <c r="A467" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B467" s="25" t="s">
+      <c r="B467" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C467" s="25" t="s">
+      <c r="C467" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D467" s="25"/>
-      <c r="E467" s="25" t="s">
+      <c r="D467" s="24"/>
+      <c r="E467" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H467" t="s">
@@ -20300,14 +20552,14 @@
       <c r="A468" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B468" s="25" t="s">
+      <c r="B468" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C468" s="25" t="s">
+      <c r="C468" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D468" s="25"/>
-      <c r="E468" s="25" t="s">
+      <c r="D468" s="24"/>
+      <c r="E468" s="24" t="s">
         <v>44</v>
       </c>
       <c r="H468" t="s">
@@ -20318,14 +20570,14 @@
       <c r="A469" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B469" s="25" t="s">
+      <c r="B469" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C469" s="25" t="s">
+      <c r="C469" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D469" s="25"/>
-      <c r="E469" s="25" t="s">
+      <c r="D469" s="24"/>
+      <c r="E469" s="24" t="s">
         <v>25</v>
       </c>
       <c r="H469" t="s">
@@ -20336,14 +20588,14 @@
       <c r="A470" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B470" s="25" t="s">
+      <c r="B470" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C470" s="25" t="s">
+      <c r="C470" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D470" s="25"/>
-      <c r="E470" s="25" t="s">
+      <c r="D470" s="24"/>
+      <c r="E470" s="24" t="s">
         <v>17</v>
       </c>
       <c r="H470" t="s">
@@ -20354,14 +20606,14 @@
       <c r="A471" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B471" s="25" t="s">
+      <c r="B471" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C471" s="25" t="s">
+      <c r="C471" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D471" s="25"/>
-      <c r="E471" s="25" t="s">
+      <c r="D471" s="24"/>
+      <c r="E471" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H471" t="s">
@@ -20372,14 +20624,14 @@
       <c r="A472" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B472" s="25" t="s">
+      <c r="B472" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C472" s="25" t="s">
+      <c r="C472" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D472" s="25"/>
-      <c r="E472" s="25" t="s">
+      <c r="D472" s="24"/>
+      <c r="E472" s="24" t="s">
         <v>52</v>
       </c>
       <c r="H472" t="s">
@@ -20390,14 +20642,14 @@
       <c r="A473" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B473" s="25" t="s">
+      <c r="B473" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C473" s="25" t="s">
+      <c r="C473" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D473" s="25"/>
-      <c r="E473" s="25" t="s">
+      <c r="D473" s="24"/>
+      <c r="E473" s="24" t="s">
         <v>51</v>
       </c>
       <c r="H473" t="s">
@@ -20408,14 +20660,14 @@
       <c r="A474" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B474" s="25" t="s">
+      <c r="B474" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C474" s="25" t="s">
+      <c r="C474" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D474" s="25"/>
-      <c r="E474" s="25" t="s">
+      <c r="D474" s="24"/>
+      <c r="E474" s="24" t="s">
         <v>58</v>
       </c>
       <c r="H474" t="s">
@@ -20426,14 +20678,14 @@
       <c r="A475" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B475" s="25" t="s">
+      <c r="B475" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C475" s="25" t="s">
+      <c r="C475" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D475" s="25"/>
-      <c r="E475" s="25" t="s">
+      <c r="D475" s="24"/>
+      <c r="E475" s="24" t="s">
         <v>57</v>
       </c>
       <c r="H475" t="s">
@@ -20444,14 +20696,14 @@
       <c r="A476" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B476" s="25" t="s">
+      <c r="B476" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C476" s="25" t="s">
+      <c r="C476" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D476" s="25"/>
-      <c r="E476" s="25" t="s">
+      <c r="D476" s="24"/>
+      <c r="E476" s="24" t="s">
         <v>54</v>
       </c>
       <c r="H476" t="s">
@@ -20462,14 +20714,14 @@
       <c r="A477" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B477" s="25" t="s">
+      <c r="B477" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C477" s="25" t="s">
+      <c r="C477" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D477" s="25"/>
-      <c r="E477" s="25" t="s">
+      <c r="D477" s="24"/>
+      <c r="E477" s="24" t="s">
         <v>21</v>
       </c>
       <c r="H477" t="s">
@@ -20480,14 +20732,14 @@
       <c r="A478" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B478" s="25" t="s">
+      <c r="B478" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C478" s="25" t="s">
+      <c r="C478" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D478" s="25"/>
-      <c r="E478" s="25" t="s">
+      <c r="D478" s="24"/>
+      <c r="E478" s="24" t="s">
         <v>25</v>
       </c>
       <c r="H478" t="s">
@@ -20498,14 +20750,14 @@
       <c r="A479" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B479" s="25" t="s">
+      <c r="B479" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C479" s="25" t="s">
+      <c r="C479" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D479" s="25"/>
-      <c r="E479" s="25" t="s">
+      <c r="D479" s="24"/>
+      <c r="E479" s="24" t="s">
         <v>29</v>
       </c>
       <c r="H479" t="s">
@@ -20516,14 +20768,14 @@
       <c r="A480" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B480" s="25" t="s">
+      <c r="B480" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C480" s="25" t="s">
+      <c r="C480" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D480" s="25"/>
-      <c r="E480" s="25" t="s">
+      <c r="D480" s="24"/>
+      <c r="E480" s="24" t="s">
         <v>14</v>
       </c>
       <c r="H480" t="s">
@@ -20534,14 +20786,14 @@
       <c r="A481" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B481" s="25" t="s">
+      <c r="B481" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C481" s="25" t="s">
+      <c r="C481" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D481" s="25"/>
-      <c r="E481" s="25" t="s">
+      <c r="D481" s="24"/>
+      <c r="E481" s="24" t="s">
         <v>32</v>
       </c>
       <c r="H481" t="s">
@@ -20552,14 +20804,14 @@
       <c r="A482" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B482" s="25" t="s">
+      <c r="B482" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C482" s="25" t="s">
+      <c r="C482" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D482" s="25"/>
-      <c r="E482" s="25" t="s">
+      <c r="D482" s="24"/>
+      <c r="E482" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H482" t="s">
@@ -20570,14 +20822,14 @@
       <c r="A483" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B483" s="25" t="s">
+      <c r="B483" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C483" s="25" t="s">
+      <c r="C483" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D483" s="25"/>
-      <c r="E483" s="25" t="s">
+      <c r="D483" s="24"/>
+      <c r="E483" s="24" t="s">
         <v>44</v>
       </c>
       <c r="H483" t="s">
@@ -20588,14 +20840,14 @@
       <c r="A484" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B484" s="25" t="s">
+      <c r="B484" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C484" s="25" t="s">
+      <c r="C484" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D484" s="25"/>
-      <c r="E484" s="25" t="s">
+      <c r="D484" s="24"/>
+      <c r="E484" s="24" t="s">
         <v>36</v>
       </c>
       <c r="H484" t="s">
@@ -20606,14 +20858,14 @@
       <c r="A485" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B485" s="25" t="s">
+      <c r="B485" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C485" s="25" t="s">
+      <c r="C485" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D485" s="25"/>
-      <c r="E485" s="25" t="s">
+      <c r="D485" s="24"/>
+      <c r="E485" s="24" t="s">
         <v>46</v>
       </c>
       <c r="H485" t="s">
@@ -20624,14 +20876,14 @@
       <c r="A486" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B486" s="25" t="s">
+      <c r="B486" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C486" s="25" t="s">
+      <c r="C486" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D486" s="25"/>
-      <c r="E486" s="25" t="s">
+      <c r="D486" s="24"/>
+      <c r="E486" s="24" t="s">
         <v>26</v>
       </c>
       <c r="H486" t="s">
@@ -20642,14 +20894,14 @@
       <c r="A487" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B487" s="25" t="s">
+      <c r="B487" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C487" s="25" t="s">
+      <c r="C487" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D487" s="25"/>
-      <c r="E487" s="25" t="s">
+      <c r="D487" s="24"/>
+      <c r="E487" s="24" t="s">
         <v>57</v>
       </c>
       <c r="H487" t="s">
@@ -20660,14 +20912,14 @@
       <c r="A488" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B488" s="25" t="s">
+      <c r="B488" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C488" s="25" t="s">
+      <c r="C488" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D488" s="25"/>
-      <c r="E488" s="25" t="s">
+      <c r="D488" s="24"/>
+      <c r="E488" s="24" t="s">
         <v>13</v>
       </c>
       <c r="H488" t="s">
@@ -20678,14 +20930,14 @@
       <c r="A489" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B489" s="25" t="s">
+      <c r="B489" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C489" s="25" t="s">
+      <c r="C489" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D489" s="25"/>
-      <c r="E489" s="25" t="s">
+      <c r="D489" s="24"/>
+      <c r="E489" s="24" t="s">
         <v>21</v>
       </c>
       <c r="H489" t="s">
@@ -20696,14 +20948,14 @@
       <c r="A490" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B490" s="25" t="s">
+      <c r="B490" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C490" s="25" t="s">
+      <c r="C490" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D490" s="25"/>
-      <c r="E490" s="25" t="s">
+      <c r="D490" s="24"/>
+      <c r="E490" s="24" t="s">
         <v>54</v>
       </c>
       <c r="H490" t="s">
@@ -20714,14 +20966,14 @@
       <c r="A491" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B491" s="25" t="s">
+      <c r="B491" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C491" s="25" t="s">
+      <c r="C491" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D491" s="25"/>
-      <c r="E491" s="25" t="s">
+      <c r="D491" s="24"/>
+      <c r="E491" s="24" t="s">
         <v>72</v>
       </c>
       <c r="H491" t="s">
@@ -20732,14 +20984,14 @@
       <c r="A492" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B492" s="25" t="s">
+      <c r="B492" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C492" s="25" t="s">
+      <c r="C492" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D492" s="25"/>
-      <c r="E492" s="25" t="s">
+      <c r="D492" s="24"/>
+      <c r="E492" s="24" t="s">
         <v>29</v>
       </c>
       <c r="H492" t="s">
@@ -20750,14 +21002,14 @@
       <c r="A493" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B493" s="25" t="s">
+      <c r="B493" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C493" s="25" t="s">
+      <c r="C493" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D493" s="25"/>
-      <c r="E493" s="25" t="s">
+      <c r="D493" s="24"/>
+      <c r="E493" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H493" t="s">
@@ -20768,14 +21020,14 @@
       <c r="A494" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B494" s="25" t="s">
+      <c r="B494" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C494" s="25" t="s">
+      <c r="C494" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D494" s="25"/>
-      <c r="E494" s="25" t="s">
+      <c r="D494" s="24"/>
+      <c r="E494" s="24" t="s">
         <v>25</v>
       </c>
       <c r="H494" t="s">
@@ -20786,14 +21038,14 @@
       <c r="A495" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B495" s="25" t="s">
+      <c r="B495" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C495" s="25" t="s">
+      <c r="C495" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D495" s="25"/>
-      <c r="E495" s="25" t="s">
+      <c r="D495" s="24"/>
+      <c r="E495" s="24" t="s">
         <v>21</v>
       </c>
       <c r="H495" t="s">
@@ -20804,14 +21056,14 @@
       <c r="A496" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B496" s="25" t="s">
+      <c r="B496" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C496" s="25" t="s">
+      <c r="C496" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D496" s="25"/>
-      <c r="E496" s="25" t="s">
+      <c r="D496" s="24"/>
+      <c r="E496" s="24" t="s">
         <v>36</v>
       </c>
       <c r="H496" t="s">
@@ -20822,14 +21074,14 @@
       <c r="A497" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B497" s="25" t="s">
+      <c r="B497" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C497" s="25" t="s">
+      <c r="C497" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D497" s="25"/>
-      <c r="E497" s="25" t="s">
+      <c r="D497" s="24"/>
+      <c r="E497" s="24" t="s">
         <v>14</v>
       </c>
       <c r="H497" t="s">
@@ -20840,14 +21092,14 @@
       <c r="A498" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B498" s="25" t="s">
+      <c r="B498" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C498" s="25" t="s">
+      <c r="C498" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D498" s="25"/>
-      <c r="E498" s="25" t="s">
+      <c r="D498" s="24"/>
+      <c r="E498" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H498" t="s">
@@ -20858,14 +21110,14 @@
       <c r="A499" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B499" s="25" t="s">
+      <c r="B499" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C499" s="25" t="s">
+      <c r="C499" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D499" s="25"/>
-      <c r="E499" s="25" t="s">
+      <c r="D499" s="24"/>
+      <c r="E499" s="24" t="s">
         <v>44</v>
       </c>
       <c r="H499" t="s">
@@ -20876,14 +21128,14 @@
       <c r="A500" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B500" s="25" t="s">
+      <c r="B500" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C500" s="25" t="s">
+      <c r="C500" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D500" s="25"/>
-      <c r="E500" s="25" t="s">
+      <c r="D500" s="24"/>
+      <c r="E500" s="24" t="s">
         <v>55</v>
       </c>
       <c r="H500" t="s">
@@ -20894,14 +21146,14 @@
       <c r="A501" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B501" s="25" t="s">
+      <c r="B501" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C501" s="25" t="s">
+      <c r="C501" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D501" s="25"/>
-      <c r="E501" s="25" t="s">
+      <c r="D501" s="24"/>
+      <c r="E501" s="24" t="s">
         <v>58</v>
       </c>
       <c r="H501" t="s">
@@ -20912,14 +21164,14 @@
       <c r="A502" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B502" s="25" t="s">
+      <c r="B502" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C502" s="25" t="s">
+      <c r="C502" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D502" s="25"/>
-      <c r="E502" s="25" t="s">
+      <c r="D502" s="24"/>
+      <c r="E502" s="24" t="s">
         <v>49</v>
       </c>
       <c r="H502" t="s">
@@ -20930,14 +21182,14 @@
       <c r="A503" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B503" s="25" t="s">
+      <c r="B503" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C503" s="25" t="s">
+      <c r="C503" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D503" s="25"/>
-      <c r="E503" s="25" t="s">
+      <c r="D503" s="24"/>
+      <c r="E503" s="24" t="s">
         <v>13</v>
       </c>
       <c r="H503" t="s">
@@ -20948,14 +21200,14 @@
       <c r="A504" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B504" s="25" t="s">
+      <c r="B504" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C504" s="25" t="s">
+      <c r="C504" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D504" s="25"/>
-      <c r="E504" s="25" t="s">
+      <c r="D504" s="24"/>
+      <c r="E504" s="24" t="s">
         <v>72</v>
       </c>
       <c r="H504" t="s">
@@ -20972,8 +21224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3316D165-A907-40EA-B4D3-B42CCCB2BD8A}">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -22072,25 +22324,28 @@
       </c>
       <c r="B38" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A38)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C38" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A38)</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="10" t="str">
+        <v>3</v>
+      </c>
+      <c r="D38" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E38" s="20" t="str">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E38" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A38, Sheet1!$L$2:$L$500, "Yes"),"")</f>
-        <v/>
-      </c>
-      <c r="F38" s="20" t="str">
+        <v>16.833333333333332</v>
+      </c>
+      <c r="F38" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A38, Sheet1!$L$2:$L$500, "No"),"")</f>
-        <v/>
-      </c>
-      <c r="G38" s="21"/>
+        <v>20.333333333333332</v>
+      </c>
+      <c r="G38" s="21" cm="1">
+        <f t="array" ref="G38">SUM(($B$2:B38)/SUM($B$2:C38))</f>
+        <v>0.52836879432624118</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="14" t="s">
@@ -22935,10 +23190,10 @@
       <c r="A1" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="25"/>
       <c r="D1" s="23" t="s">
         <v>103</v>
       </c>

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D06278-04D5-4B53-A849-BC9D1915AA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078C37B8-5A66-4474-B7C4-E5274C135FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4202,7 +4202,9 @@
   </sheetPr>
   <dimension ref="A1:N504"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="D282" sqref="D282"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078C37B8-5A66-4474-B7C4-E5274C135FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492BCE3A-8218-4A7C-8911-3D3833D662DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4022" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4087" uniqueCount="171">
   <si>
     <t>Date</t>
   </si>
@@ -787,13 +787,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -825,13 +831,50 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="15000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="1"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:trendline>
@@ -840,20 +883,18 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="movingAvg"/>
-            <c:period val="2"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$30</c:f>
+              <c:f>Sheet2!$A$2:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="29"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -941,15 +982,45 @@
                 <c:pt idx="28">
                   <c:v>Thu, Feb 22, 2024</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>Fri, Feb 23, 2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sat, Feb 24, 2024</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Sun, Feb 25, 2024</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Mon, Feb 26, 2024</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Tue, Feb 27, 2024</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Wed, Feb 28, 2024</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Thu, Feb 29, 2024</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Fri, Mar 1, 2024</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Sat, Mar 2, 2024</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Sun, Mar 3, 2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$30</c:f>
+              <c:f>Sheet2!$D$2:$D$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0.2857142857142857</c:v>
                 </c:pt>
@@ -1037,6 +1108,36 @@
                 <c:pt idx="28">
                   <c:v>0.66666666666666663</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.54545454545454541</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.72727272727272729</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.625</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1054,8 +1155,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="902003055"/>
         <c:axId val="737304447"/>
       </c:barChart>
@@ -1072,11 +1173,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1090,9 +1191,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1121,9 +1221,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1149,9 +1249,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1179,17 +1278,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1791,15 +1901,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="power"/>
+            <c:trendlineType val="exp"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$28</c:f>
+              <c:f>Sheet2!$A$2:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>Fri, Jan 19, 2024</c:v>
                 </c:pt>
@@ -1881,15 +1991,51 @@
                 <c:pt idx="26">
                   <c:v>Wed, Feb 14, 2024</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>Thu, Feb 15, 2024</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Thu, Feb 22, 2024</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Fri, Feb 23, 2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sat, Feb 24, 2024</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Sun, Feb 25, 2024</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Mon, Feb 26, 2024</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Tue, Feb 27, 2024</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Wed, Feb 28, 2024</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Thu, Feb 29, 2024</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Fri, Mar 1, 2024</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Sat, Mar 2, 2024</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Sun, Mar 3, 2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$G$2:$G$28</c:f>
+              <c:f>Sheet2!$G$2:$G$40</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0.2857142857142857</c:v>
                 </c:pt>
@@ -1970,6 +2116,42 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.48292682926829283</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.48076923076923084</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.49090909090909085</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.50643776824034337</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.50819672131147553</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.50806451612903203</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.51737451737451734</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.52075471698113207</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.52380952380952384</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.52836879432624118</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.52961672473867616</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.53220338983050852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2256,35 +2438,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2292,26 +2472,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -2320,9 +2508,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2341,14 +2528,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2357,35 +2536,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2397,30 +2576,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2436,21 +2616,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2460,20 +2637,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2484,17 +2661,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2503,14 +2680,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2522,28 +2698,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2555,17 +2725,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2574,17 +2743,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2593,17 +2762,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2612,27 +2780,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2640,11 +2807,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2652,14 +2829,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2671,12 +2848,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2685,14 +2869,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2701,9 +2884,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2713,7 +2895,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2721,9 +2903,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2734,9 +2916,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2746,14 +2927,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3875,14 +4050,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4202,9 +4377,7 @@
   </sheetPr>
   <dimension ref="A1:N504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="D282" sqref="D282"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11618,7 +11791,7 @@
         <v>98</v>
       </c>
       <c r="M161" s="7">
-        <f t="shared" ref="M161:M283" si="5">ABS(D161-F161)</f>
+        <f t="shared" ref="M161:M296" si="5">ABS(D161-F161)</f>
         <v>3</v>
       </c>
       <c r="N161" t="b">
@@ -14842,7 +15015,7 @@
         <v>5</v>
       </c>
       <c r="N231" t="b">
-        <f t="shared" ref="N231:N283" si="7">K231=I231</f>
+        <f t="shared" ref="N231:N294" si="7">K231=I231</f>
         <v>1</v>
       </c>
     </row>
@@ -17248,12 +17421,40 @@
       <c r="C284" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D284" s="24"/>
+      <c r="D284" s="24">
+        <v>102</v>
+      </c>
       <c r="E284" s="24" t="s">
         <v>36</v>
       </c>
+      <c r="F284" s="7">
+        <v>114</v>
+      </c>
+      <c r="G284" t="s">
+        <v>15</v>
+      </c>
       <c r="H284" t="s">
         <v>76</v>
+      </c>
+      <c r="I284" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J284" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K284" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L284" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M284" s="7">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="N284" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.45">
@@ -17266,12 +17467,40 @@
       <c r="C285" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D285" s="24"/>
+      <c r="D285" s="24">
+        <v>120</v>
+      </c>
       <c r="E285" s="24" t="s">
         <v>26</v>
       </c>
+      <c r="F285" s="7">
+        <v>126</v>
+      </c>
+      <c r="G285" t="s">
+        <v>15</v>
+      </c>
       <c r="H285" t="s">
         <v>27</v>
+      </c>
+      <c r="I285" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J285" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="K285" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="L285" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M285" s="7">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N285" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.45">
@@ -17284,12 +17513,40 @@
       <c r="C286" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D286" s="24"/>
+      <c r="D286" s="24">
+        <v>107</v>
+      </c>
       <c r="E286" s="24" t="s">
         <v>51</v>
       </c>
+      <c r="F286" s="7">
+        <v>100</v>
+      </c>
+      <c r="G286" s="24" t="s">
+        <v>97</v>
+      </c>
       <c r="H286" t="s">
         <v>86</v>
+      </c>
+      <c r="I286" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J286" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="K286" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L286" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M286" s="7">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="N286" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.45">
@@ -17302,12 +17559,40 @@
       <c r="C287" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D287" s="24"/>
+      <c r="D287" s="24">
+        <v>124</v>
+      </c>
       <c r="E287" s="24" t="s">
         <v>37</v>
       </c>
+      <c r="F287" s="7">
+        <v>114</v>
+      </c>
+      <c r="G287" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H287" t="s">
         <v>38</v>
+      </c>
+      <c r="I287" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J287" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="K287" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L287" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M287" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N287" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.45">
@@ -17320,15 +17605,43 @@
       <c r="C288" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D288" s="24"/>
+      <c r="D288" s="24">
+        <v>118</v>
+      </c>
       <c r="E288" s="24" t="s">
         <v>28</v>
       </c>
+      <c r="F288" s="7">
+        <v>109</v>
+      </c>
+      <c r="G288" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H288" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I288" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J288" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K288" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L288" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M288" s="7">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="N288" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A289" s="3" t="s">
         <v>141</v>
       </c>
@@ -17338,15 +17651,43 @@
       <c r="C289" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D289" s="24"/>
+      <c r="D289" s="24">
+        <v>120</v>
+      </c>
       <c r="E289" s="24" t="s">
         <v>69</v>
       </c>
+      <c r="F289" s="7">
+        <v>116</v>
+      </c>
+      <c r="G289" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H289" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I289" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J289" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K289" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L289" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M289" s="7">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N289" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A290" s="3" t="s">
         <v>141</v>
       </c>
@@ -17356,15 +17697,43 @@
       <c r="C290" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D290" s="24"/>
+      <c r="D290" s="24">
+        <v>88</v>
+      </c>
       <c r="E290" s="24" t="s">
         <v>22</v>
       </c>
+      <c r="F290" s="7">
+        <v>140</v>
+      </c>
+      <c r="G290" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H290" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I290" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J290" t="s">
+        <v>82</v>
+      </c>
+      <c r="K290" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L290" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M290" s="7">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="N290" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A291" s="3" t="s">
         <v>141</v>
       </c>
@@ -17374,15 +17743,43 @@
       <c r="C291" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D291" s="24"/>
+      <c r="D291" s="24">
+        <v>89</v>
+      </c>
       <c r="E291" s="24" t="s">
         <v>58</v>
       </c>
+      <c r="F291" s="7">
+        <v>88</v>
+      </c>
+      <c r="G291" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H291" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I291" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="J291" t="s">
+        <v>58</v>
+      </c>
+      <c r="K291" t="s">
+        <v>58</v>
+      </c>
+      <c r="L291" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M291" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N291" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A292" s="3" t="s">
         <v>141</v>
       </c>
@@ -17392,15 +17789,43 @@
       <c r="C292" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D292" s="24"/>
+      <c r="D292" s="24">
+        <v>91</v>
+      </c>
       <c r="E292" s="24" t="s">
         <v>18</v>
       </c>
+      <c r="F292" s="7">
+        <v>113</v>
+      </c>
+      <c r="G292" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H292" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I292" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J292" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K292" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L292" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M292" s="7">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="N292" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A293" s="3" t="s">
         <v>141</v>
       </c>
@@ -17410,15 +17835,43 @@
       <c r="C293" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D293" s="24"/>
+      <c r="D293" s="24">
+        <v>106</v>
+      </c>
       <c r="E293" s="24" t="s">
         <v>48</v>
       </c>
+      <c r="F293" s="7">
+        <v>111</v>
+      </c>
+      <c r="G293" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H293" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I293" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="J293" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K293" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L293" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M293" s="7">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N293" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A294" s="3" t="s">
         <v>141</v>
       </c>
@@ -17428,15 +17881,43 @@
       <c r="C294" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D294" s="24"/>
+      <c r="D294" s="24">
+        <v>107</v>
+      </c>
       <c r="E294" s="24" t="s">
         <v>46</v>
       </c>
+      <c r="F294" s="7">
+        <v>98</v>
+      </c>
+      <c r="G294" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H294" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I294" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="J294" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K294" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L294" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M294" s="7">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="N294" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A295" s="3" t="s">
         <v>141</v>
       </c>
@@ -17446,15 +17927,43 @@
       <c r="C295" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D295" s="24"/>
+      <c r="D295" s="24">
+        <v>105</v>
+      </c>
       <c r="E295" s="24" t="s">
         <v>13</v>
       </c>
+      <c r="F295" s="7">
+        <v>117</v>
+      </c>
+      <c r="G295" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H295" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I295" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J295" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K295" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L295" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M295" s="7">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="N295" t="b">
+        <f t="shared" ref="N295:N296" si="8">K295=I295</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A296" s="3" t="s">
         <v>141</v>
       </c>
@@ -17464,15 +17973,43 @@
       <c r="C296" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D296" s="24"/>
+      <c r="D296" s="24">
+        <v>118</v>
+      </c>
       <c r="E296" s="24" t="s">
         <v>28</v>
       </c>
+      <c r="F296" s="7">
+        <v>110</v>
+      </c>
+      <c r="G296" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H296" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I296" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="J296" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K296" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L296" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M296" s="7">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="N296" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A297" s="3" t="s">
         <v>142</v>
       </c>
@@ -17490,7 +18027,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A298" s="3" t="s">
         <v>142</v>
       </c>
@@ -17508,7 +18045,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A299" s="3" t="s">
         <v>142</v>
       </c>
@@ -17526,7 +18063,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A300" s="3" t="s">
         <v>142</v>
       </c>
@@ -17544,7 +18081,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A301" s="3" t="s">
         <v>142</v>
       </c>
@@ -17562,7 +18099,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A302" s="3" t="s">
         <v>142</v>
       </c>
@@ -17580,7 +18117,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A303" s="3" t="s">
         <v>143</v>
       </c>
@@ -17598,7 +18135,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A304" s="3" t="s">
         <v>143</v>
       </c>
@@ -21226,8 +21763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3316D165-A907-40EA-B4D3-B42CCCB2BD8A}">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -22355,25 +22892,28 @@
       </c>
       <c r="B39" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A39)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C39" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A39)</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="10" t="str">
+        <v>2</v>
+      </c>
+      <c r="D39" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E39" s="20" t="str">
+        <v>0.6</v>
+      </c>
+      <c r="E39" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A39, Sheet1!$L$2:$L$500, "Yes"),"")</f>
-        <v/>
-      </c>
-      <c r="F39" s="20" t="str">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="F39" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A39, Sheet1!$L$2:$L$500, "No"),"")</f>
-        <v/>
-      </c>
-      <c r="G39" s="21"/>
+        <v>9</v>
+      </c>
+      <c r="G39" s="21" cm="1">
+        <f t="array" ref="G39">SUM(($B$2:B39)/SUM($B$2:C39))</f>
+        <v>0.52961672473867616</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="14" t="s">
@@ -22381,25 +22921,28 @@
       </c>
       <c r="B40" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A40)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C40" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A40)</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="10" t="str">
+        <v>3</v>
+      </c>
+      <c r="D40" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E40" s="20" t="str">
+        <v>0.625</v>
+      </c>
+      <c r="E40" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A40, Sheet1!$L$2:$L$500, "Yes"),"")</f>
-        <v/>
-      </c>
-      <c r="F40" s="20" t="str">
+        <v>18.2</v>
+      </c>
+      <c r="F40" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A40, Sheet1!$L$2:$L$500, "No"),"")</f>
-        <v/>
-      </c>
-      <c r="G40" s="21"/>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="G40" s="21" cm="1">
+        <f t="array" ref="G40">SUM(($B$2:B40)/SUM($B$2:C40))</f>
+        <v>0.53220338983050852</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="14" t="s">

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492BCE3A-8218-4A7C-8911-3D3833D662DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA52B08-3460-46B6-BA5E-AC19F825B048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4087" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4117" uniqueCount="171">
   <si>
     <t>Date</t>
   </si>
@@ -11791,7 +11791,7 @@
         <v>98</v>
       </c>
       <c r="M161" s="7">
-        <f t="shared" ref="M161:M296" si="5">ABS(D161-F161)</f>
+        <f t="shared" ref="M161:M302" si="5">ABS(D161-F161)</f>
         <v>3</v>
       </c>
       <c r="N161" t="b">
@@ -17959,7 +17959,7 @@
         <v>12</v>
       </c>
       <c r="N295" t="b">
-        <f t="shared" ref="N295:N296" si="8">K295=I295</f>
+        <f t="shared" ref="N295:N302" si="8">K295=I295</f>
         <v>0</v>
       </c>
     </row>
@@ -18019,12 +18019,40 @@
       <c r="C297" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D297" s="24"/>
+      <c r="D297" s="24">
+        <v>106</v>
+      </c>
       <c r="E297" s="24" t="s">
         <v>36</v>
       </c>
+      <c r="F297" s="7">
+        <v>102</v>
+      </c>
+      <c r="G297" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H297" t="s">
         <v>76</v>
+      </c>
+      <c r="I297" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J297" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K297" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L297" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M297" s="7">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N297" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.45">
@@ -18037,12 +18065,40 @@
       <c r="C298" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D298" s="24"/>
+      <c r="D298" s="24">
+        <v>106</v>
+      </c>
       <c r="E298" s="24" t="s">
         <v>41</v>
       </c>
+      <c r="F298" s="7">
+        <v>113</v>
+      </c>
+      <c r="G298" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H298" t="s">
         <v>79</v>
+      </c>
+      <c r="I298" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="J298" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="K298" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L298" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M298" s="7">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="N298" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.45">
@@ -18055,12 +18111,40 @@
       <c r="C299" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D299" s="24"/>
+      <c r="D299" s="24">
+        <v>114</v>
+      </c>
       <c r="E299" s="24" t="s">
         <v>58</v>
       </c>
+      <c r="F299" s="7">
+        <v>119</v>
+      </c>
+      <c r="G299" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H299" t="s">
         <v>59</v>
+      </c>
+      <c r="I299" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="J299" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K299" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L299" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M299" s="7">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N299" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.45">
@@ -18073,12 +18157,40 @@
       <c r="C300" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D300" s="24"/>
+      <c r="D300" s="24">
+        <v>115</v>
+      </c>
       <c r="E300" s="24" t="s">
         <v>54</v>
       </c>
+      <c r="F300" s="7">
+        <v>127</v>
+      </c>
+      <c r="G300" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H300" t="s">
         <v>130</v>
+      </c>
+      <c r="I300" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="J300" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K300" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L300" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M300" s="7">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="N300" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.45">
@@ -18091,12 +18203,40 @@
       <c r="C301" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D301" s="24"/>
+      <c r="D301" s="24">
+        <v>113</v>
+      </c>
       <c r="E301" s="24" t="s">
         <v>72</v>
       </c>
+      <c r="F301" s="7">
+        <v>109</v>
+      </c>
+      <c r="G301" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H301" t="s">
         <v>73</v>
+      </c>
+      <c r="I301" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="J301" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="K301" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="L301" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M301" s="7">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N301" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.45">
@@ -18109,12 +18249,40 @@
       <c r="C302" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D302" s="24"/>
+      <c r="D302" s="24">
+        <v>104</v>
+      </c>
       <c r="E302" s="24" t="s">
         <v>37</v>
       </c>
+      <c r="F302" s="7">
+        <v>116</v>
+      </c>
+      <c r="G302" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H302" t="s">
         <v>38</v>
+      </c>
+      <c r="I302" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="J302" t="s">
+        <v>57</v>
+      </c>
+      <c r="K302" t="s">
+        <v>57</v>
+      </c>
+      <c r="L302" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M302" s="7">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="N302" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.45">
@@ -21763,8 +21931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3316D165-A907-40EA-B4D3-B42CCCB2BD8A}">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -22950,25 +23118,28 @@
       </c>
       <c r="B41" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A41)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C41" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A41)</f>
-        <v>0</v>
-      </c>
-      <c r="D41" s="10" t="str">
+        <v>2</v>
+      </c>
+      <c r="D41" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E41" s="20" t="str">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E41" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A41, Sheet1!$L$2:$L$500, "Yes"),"")</f>
-        <v/>
-      </c>
-      <c r="F41" s="20" t="str">
+        <v>7</v>
+      </c>
+      <c r="F41" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A41, Sheet1!$L$2:$L$500, "No"),"")</f>
-        <v/>
-      </c>
-      <c r="G41" s="21"/>
+        <v>8</v>
+      </c>
+      <c r="G41" s="21" cm="1">
+        <f t="array" ref="G41">SUM(($B$2:B41)/SUM($B$2:C41))</f>
+        <v>0.53488372093023262</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="14" t="s">

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA52B08-3460-46B6-BA5E-AC19F825B048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECAFB32-7C67-420A-B20C-071E3AF90DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4117" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4162" uniqueCount="171">
   <si>
     <t>Date</t>
   </si>
@@ -11791,7 +11791,7 @@
         <v>98</v>
       </c>
       <c r="M161" s="7">
-        <f t="shared" ref="M161:M302" si="5">ABS(D161-F161)</f>
+        <f t="shared" ref="M161:M311" si="5">ABS(D161-F161)</f>
         <v>3</v>
       </c>
       <c r="N161" t="b">
@@ -17959,7 +17959,7 @@
         <v>12</v>
       </c>
       <c r="N295" t="b">
-        <f t="shared" ref="N295:N302" si="8">K295=I295</f>
+        <f t="shared" ref="N295:N311" si="8">K295=I295</f>
         <v>0</v>
       </c>
     </row>
@@ -18295,12 +18295,40 @@
       <c r="C303" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D303" s="24"/>
+      <c r="D303" s="24">
+        <v>101</v>
+      </c>
       <c r="E303" s="24" t="s">
         <v>14</v>
       </c>
+      <c r="F303" s="7">
+        <v>89</v>
+      </c>
+      <c r="G303" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H303" t="s">
         <v>16</v>
+      </c>
+      <c r="I303" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J303" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K303" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L303" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M303" s="7">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="N303" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.45">
@@ -18313,15 +18341,43 @@
       <c r="C304" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D304" s="24"/>
+      <c r="D304" s="24">
+        <v>107</v>
+      </c>
       <c r="E304" s="24" t="s">
         <v>36</v>
       </c>
+      <c r="F304" s="7">
+        <v>112</v>
+      </c>
+      <c r="G304" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H304" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I304" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J304" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K304" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="L304" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M304" s="7">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N304" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A305" s="3" t="s">
         <v>143</v>
       </c>
@@ -18331,15 +18387,43 @@
       <c r="C305" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D305" s="24"/>
+      <c r="D305" s="24">
+        <v>104</v>
+      </c>
       <c r="E305" s="24" t="s">
         <v>46</v>
       </c>
+      <c r="F305" s="7">
+        <v>105</v>
+      </c>
+      <c r="G305" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H305" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I305" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J305" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K305" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="L305" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M305" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N305" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A306" s="3" t="s">
         <v>143</v>
       </c>
@@ -18349,15 +18433,43 @@
       <c r="C306" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D306" s="24"/>
+      <c r="D306" s="24">
+        <v>110</v>
+      </c>
       <c r="E306" s="24" t="s">
         <v>26</v>
       </c>
+      <c r="F306" s="7">
+        <v>118</v>
+      </c>
+      <c r="G306" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H306" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I306" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J306" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K306" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="L306" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M306" s="7">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="N306" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A307" s="3" t="s">
         <v>143</v>
       </c>
@@ -18367,15 +18479,43 @@
       <c r="C307" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D307" s="24"/>
+      <c r="D307" s="24">
+        <v>116</v>
+      </c>
       <c r="E307" s="24" t="s">
         <v>49</v>
       </c>
+      <c r="F307" s="7">
+        <v>100</v>
+      </c>
+      <c r="G307" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H307" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I307" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J307" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="K307" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="L307" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M307" s="7">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="N307" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A308" s="3" t="s">
         <v>143</v>
       </c>
@@ -18385,15 +18525,43 @@
       <c r="C308" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D308" s="24"/>
+      <c r="D308" s="24">
+        <v>139</v>
+      </c>
       <c r="E308" s="24" t="s">
         <v>48</v>
       </c>
+      <c r="F308" s="7">
+        <v>98</v>
+      </c>
+      <c r="G308" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H308" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I308" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J308" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K308" t="s">
+        <v>29</v>
+      </c>
+      <c r="L308" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M308" s="7">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="N308" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A309" s="3" t="s">
         <v>143</v>
       </c>
@@ -18403,15 +18571,43 @@
       <c r="C309" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D309" s="24"/>
+      <c r="D309" s="24">
+        <v>101</v>
+      </c>
       <c r="E309" s="24" t="s">
         <v>55</v>
       </c>
+      <c r="F309" s="7">
+        <v>114</v>
+      </c>
+      <c r="G309" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H309" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I309" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J309" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K309" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="L309" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M309" s="7">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="N309" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A310" s="3" t="s">
         <v>143</v>
       </c>
@@ -18421,15 +18617,43 @@
       <c r="C310" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D310" s="24"/>
+      <c r="D310" s="24">
+        <v>137</v>
+      </c>
       <c r="E310" s="24" t="s">
         <v>69</v>
       </c>
+      <c r="F310" s="7">
+        <v>120</v>
+      </c>
+      <c r="G310" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H310" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I310" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J310" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K310" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L310" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M310" s="7">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="N310" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A311" s="3" t="s">
         <v>143</v>
       </c>
@@ -18439,15 +18663,43 @@
       <c r="C311" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D311" s="24"/>
+      <c r="D311" s="24">
+        <v>117</v>
+      </c>
       <c r="E311" s="24" t="s">
         <v>21</v>
       </c>
+      <c r="F311" s="7">
+        <v>107</v>
+      </c>
+      <c r="G311" s="24" t="s">
+        <v>97</v>
+      </c>
       <c r="H311" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I311" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J311" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K311" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L311" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M311" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N311" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A312" s="3" t="s">
         <v>144</v>
       </c>
@@ -18465,7 +18717,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A313" s="3" t="s">
         <v>144</v>
       </c>
@@ -18483,7 +18735,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A314" s="3" t="s">
         <v>144</v>
       </c>
@@ -18501,7 +18753,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A315" s="3" t="s">
         <v>144</v>
       </c>
@@ -18519,7 +18771,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A316" s="3" t="s">
         <v>144</v>
       </c>
@@ -18537,7 +18789,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A317" s="3" t="s">
         <v>144</v>
       </c>
@@ -18555,7 +18807,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A318" s="3" t="s">
         <v>144</v>
       </c>
@@ -18573,7 +18825,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A319" s="3" t="s">
         <v>144</v>
       </c>
@@ -18591,7 +18843,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A320" s="3" t="s">
         <v>145</v>
       </c>
@@ -21931,8 +22183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3316D165-A907-40EA-B4D3-B42CCCB2BD8A}">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -23147,25 +23399,28 @@
       </c>
       <c r="B42" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A42)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C42" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A42)</f>
-        <v>0</v>
-      </c>
-      <c r="D42" s="10" t="str">
+        <v>4</v>
+      </c>
+      <c r="D42" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E42" s="20" t="str">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="E42" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A42, Sheet1!$L$2:$L$500, "Yes"),"")</f>
-        <v/>
-      </c>
-      <c r="F42" s="20" t="str">
+        <v>18.2</v>
+      </c>
+      <c r="F42" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A42, Sheet1!$L$2:$L$500, "No"),"")</f>
-        <v/>
-      </c>
-      <c r="G42" s="21"/>
+        <v>8</v>
+      </c>
+      <c r="G42" s="21" cm="1">
+        <f t="array" ref="G42">SUM(($B$2:B42)/SUM($B$2:C42))</f>
+        <v>0.53548387096774208</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="14" t="s">

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECAFB32-7C67-420A-B20C-071E3AF90DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C369681-118C-4A2F-9A0C-85E9A60F10E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4162" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4202" uniqueCount="171">
   <si>
     <t>Date</t>
   </si>
@@ -4377,7 +4377,9 @@
   </sheetPr>
   <dimension ref="A1:N504"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11791,7 +11793,7 @@
         <v>98</v>
       </c>
       <c r="M161" s="7">
-        <f t="shared" ref="M161:M311" si="5">ABS(D161-F161)</f>
+        <f t="shared" ref="M161:M319" si="5">ABS(D161-F161)</f>
         <v>3</v>
       </c>
       <c r="N161" t="b">
@@ -17959,7 +17961,7 @@
         <v>12</v>
       </c>
       <c r="N295" t="b">
-        <f t="shared" ref="N295:N311" si="8">K295=I295</f>
+        <f t="shared" ref="N295:N319" si="8">K295=I295</f>
         <v>0</v>
       </c>
     </row>
@@ -18316,7 +18318,7 @@
       <c r="J303" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K303" s="24" t="s">
+      <c r="K303" s="11" t="s">
         <v>18</v>
       </c>
       <c r="L303" s="6" t="s">
@@ -18454,7 +18456,7 @@
       <c r="J306" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="K306" s="24" t="s">
+      <c r="K306" s="11" t="s">
         <v>26</v>
       </c>
       <c r="L306" s="6" t="s">
@@ -18546,7 +18548,7 @@
       <c r="J308" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="K308" t="s">
+      <c r="K308" s="11" t="s">
         <v>29</v>
       </c>
       <c r="L308" s="6" t="s">
@@ -18592,7 +18594,7 @@
       <c r="J309" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="K309" s="24" t="s">
+      <c r="K309" s="11" t="s">
         <v>55</v>
       </c>
       <c r="L309" s="6" t="s">
@@ -18638,7 +18640,7 @@
       <c r="J310" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K310" s="24" t="s">
+      <c r="K310" s="11" t="s">
         <v>32</v>
       </c>
       <c r="L310" s="6" t="s">
@@ -18709,12 +18711,40 @@
       <c r="C312" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D312" s="24"/>
+      <c r="D312" s="24">
+        <v>119</v>
+      </c>
       <c r="E312" s="24" t="s">
         <v>44</v>
       </c>
+      <c r="F312" s="7">
+        <v>109</v>
+      </c>
+      <c r="G312" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H312" t="s">
         <v>45</v>
+      </c>
+      <c r="I312" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J312" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K312" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L312" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M312" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N312" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.45">
@@ -18727,12 +18757,40 @@
       <c r="C313" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D313" s="24"/>
+      <c r="D313" s="24">
+        <v>101</v>
+      </c>
       <c r="E313" s="24" t="s">
         <v>25</v>
       </c>
+      <c r="F313" s="7">
+        <v>112</v>
+      </c>
+      <c r="G313" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H313" t="s">
         <v>47</v>
+      </c>
+      <c r="I313" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J313" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K313" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L313" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M313" s="7">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="N313" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.45">
@@ -18745,12 +18803,40 @@
       <c r="C314" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D314" s="24"/>
+      <c r="D314" s="24">
+        <v>122</v>
+      </c>
       <c r="E314" s="24" t="s">
         <v>55</v>
       </c>
+      <c r="F314" s="7">
+        <v>116</v>
+      </c>
+      <c r="G314" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H314" t="s">
         <v>56</v>
+      </c>
+      <c r="I314" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="J314" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="K314" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L314" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M314" s="7">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N314" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.45">
@@ -18763,12 +18849,40 @@
       <c r="C315" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D315" s="24"/>
+      <c r="D315" s="24">
+        <v>115</v>
+      </c>
       <c r="E315" s="24" t="s">
         <v>17</v>
       </c>
+      <c r="F315" s="7">
+        <v>109</v>
+      </c>
+      <c r="G315" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H315" t="s">
         <v>66</v>
+      </c>
+      <c r="I315" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J315" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K315" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="L315" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M315" s="7">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N315" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.45">
@@ -18781,12 +18895,40 @@
       <c r="C316" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D316" s="24"/>
+      <c r="D316" s="24">
+        <v>119</v>
+      </c>
       <c r="E316" s="24" t="s">
         <v>54</v>
       </c>
+      <c r="F316" s="7">
+        <v>117</v>
+      </c>
+      <c r="G316" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H316" t="s">
         <v>130</v>
+      </c>
+      <c r="I316" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="J316" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="K316" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="L316" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M316" s="7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N316" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.45">
@@ -18799,12 +18941,40 @@
       <c r="C317" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D317" s="24"/>
+      <c r="D317" s="24">
+        <v>90</v>
+      </c>
       <c r="E317" s="24" t="s">
         <v>82</v>
       </c>
+      <c r="F317" s="7">
+        <v>125</v>
+      </c>
+      <c r="G317" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H317" t="s">
         <v>83</v>
+      </c>
+      <c r="I317" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="J317" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="K317" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L317" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M317" s="7">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="N317" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.45">
@@ -18817,12 +18987,40 @@
       <c r="C318" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D318" s="24"/>
+      <c r="D318" s="24">
+        <v>128</v>
+      </c>
       <c r="E318" s="24" t="s">
         <v>33</v>
       </c>
+      <c r="F318" s="7">
+        <v>120</v>
+      </c>
+      <c r="G318" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H318" t="s">
         <v>34</v>
+      </c>
+      <c r="I318" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="J318" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K318" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L318" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M318" s="7">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="N318" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.45">
@@ -18835,12 +19033,40 @@
       <c r="C319" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D319" s="24"/>
+      <c r="D319" s="24">
+        <v>130</v>
+      </c>
       <c r="E319" s="24" t="s">
         <v>37</v>
       </c>
+      <c r="F319" s="7">
+        <v>120</v>
+      </c>
+      <c r="G319" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H319" t="s">
         <v>38</v>
+      </c>
+      <c r="I319" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="J319" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="K319" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L319" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M319" s="7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N319" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.45">
@@ -22184,7 +22410,7 @@
   <dimension ref="A1:R68"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -23428,25 +23654,28 @@
       </c>
       <c r="B43" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A43)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C43" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A43)</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="10" t="str">
+        <v>5</v>
+      </c>
+      <c r="D43" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E43" s="20" t="str">
+        <v>0.375</v>
+      </c>
+      <c r="E43" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A43, Sheet1!$L$2:$L$500, "Yes"),"")</f>
-        <v/>
-      </c>
-      <c r="F43" s="20" t="str">
+        <v>8</v>
+      </c>
+      <c r="F43" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A43, Sheet1!$L$2:$L$500, "No"),"")</f>
-        <v/>
-      </c>
-      <c r="G43" s="21"/>
+        <v>12.8</v>
+      </c>
+      <c r="G43" s="21" cm="1">
+        <f t="array" ref="G43">SUM(($B$2:B43)/SUM($B$2:C43))</f>
+        <v>0.53144654088050314</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="14" t="s">

--- a/future.xlsx
+++ b/future.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\ballgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C369681-118C-4A2F-9A0C-85E9A60F10E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A704566-4629-4D94-B64A-9FCE963042B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4202" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4277" uniqueCount="171">
   <si>
     <t>Date</t>
   </si>
@@ -4372,13 +4372,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:N504"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H341" sqref="H341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4441,7 +4441,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>39</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>60</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>60</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>60</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>60</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>60</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>60</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>65</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>65</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>65</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>65</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>65</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>65</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>65</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>65</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>74</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>74</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>74</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>74</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>74</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>78</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>78</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>78</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>78</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>78</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>78</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>78</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>78</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>84</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>84</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>84</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>84</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>84</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>84</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>84</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>85</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>85</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>85</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>85</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>85</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>85</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>85</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>85</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>87</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>87</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>87</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>87</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>87</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>87</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>87</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>87</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>87</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>87</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>91</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>91</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>91</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>91</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
         <v>91</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>92</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>92</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>92</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
         <v>92</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>92</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
         <v>92</v>
       </c>
@@ -8029,7 +8029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>92</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
         <v>92</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>92</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
         <v>92</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>92</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
         <v>92</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>94</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
         <v>94</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>94</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
         <v>94</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>94</v>
       </c>
@@ -8535,7 +8535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
         <v>95</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>95</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
         <v>95</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>95</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
         <v>95</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>95</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
         <v>95</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>95</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
         <v>95</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:14" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>95</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
         <v>104</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>104</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
         <v>104</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104" s="14" t="s">
         <v>104</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
         <v>105</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>105</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
         <v>105</v>
       </c>
@@ -9317,7 +9317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
         <v>105</v>
       </c>
@@ -9363,7 +9363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
         <v>105</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
         <v>105</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="s">
         <v>105</v>
       </c>
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
         <v>105</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
         <v>105</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
         <v>105</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
         <v>106</v>
       </c>
@@ -9685,7 +9685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
         <v>106</v>
       </c>
@@ -9731,7 +9731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="s">
         <v>106</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
         <v>106</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A119" s="3" t="s">
         <v>106</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
         <v>106</v>
       </c>
@@ -9915,7 +9915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A121" s="3" t="s">
         <v>107</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
         <v>107</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
         <v>107</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
         <v>107</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="s">
         <v>107</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
         <v>107</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127" s="3" t="s">
         <v>107</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
         <v>107</v>
       </c>
@@ -10283,7 +10283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A129" s="3" t="s">
         <v>107</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
         <v>108</v>
       </c>
@@ -10375,7 +10375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A131" s="3" t="s">
         <v>108</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
         <v>108</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A133" s="3" t="s">
         <v>108</v>
       </c>
@@ -10513,7 +10513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
         <v>108</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A135" s="3" t="s">
         <v>108</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
         <v>109</v>
       </c>
@@ -10651,7 +10651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A137" s="3" t="s">
         <v>109</v>
       </c>
@@ -10697,7 +10697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
         <v>109</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A139" s="3" t="s">
         <v>109</v>
       </c>
@@ -10789,7 +10789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="s">
         <v>109</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A141" s="3" t="s">
         <v>109</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
         <v>109</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A143" s="3" t="s">
         <v>110</v>
       </c>
@@ -10973,7 +10973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
         <v>110</v>
       </c>
@@ -11019,7 +11019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A145" s="3" t="s">
         <v>110</v>
       </c>
@@ -11065,7 +11065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
         <v>110</v>
       </c>
@@ -11111,7 +11111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A147" s="3" t="s">
         <v>110</v>
       </c>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="s">
         <v>110</v>
       </c>
@@ -11203,7 +11203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A149" s="3" t="s">
         <v>110</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="s">
         <v>111</v>
       </c>
@@ -11295,7 +11295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A151" s="3" t="s">
         <v>111</v>
       </c>
@@ -11341,7 +11341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="s">
         <v>111</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A153" s="3" t="s">
         <v>111</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="s">
         <v>111</v>
       </c>
@@ -11479,7 +11479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A155" s="3" t="s">
         <v>111</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A156" s="3" t="s">
         <v>111</v>
       </c>
@@ -11571,7 +11571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A157" s="3" t="s">
         <v>111</v>
       </c>
@@ -11617,7 +11617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A158" s="3" t="s">
         <v>111</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A159" s="3" t="s">
         <v>112</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A160" s="3" t="s">
         <v>112</v>
       </c>
@@ -11755,7 +11755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A161" s="3" t="s">
         <v>112</v>
       </c>
@@ -11793,7 +11793,7 @@
         <v>98</v>
       </c>
       <c r="M161" s="7">
-        <f t="shared" ref="M161:M319" si="5">ABS(D161-F161)</f>
+        <f t="shared" ref="M161:M320" si="5">ABS(D161-F161)</f>
         <v>3</v>
       </c>
       <c r="N161" t="b">
@@ -11801,7 +11801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A162" s="3" t="s">
         <v>112</v>
       </c>
@@ -11847,7 +11847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A163" s="3" t="s">
         <v>112</v>
       </c>
@@ -11893,7 +11893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A164" s="3" t="s">
         <v>112</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A165" s="3" t="s">
         <v>113</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A166" s="3" t="s">
         <v>113</v>
       </c>
@@ -12031,7 +12031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A167" s="3" t="s">
         <v>113</v>
       </c>
@@ -12077,7 +12077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A168" s="3" t="s">
         <v>113</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A169" s="3" t="s">
         <v>113</v>
       </c>
@@ -12169,7 +12169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A170" s="3" t="s">
         <v>113</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A171" s="3" t="s">
         <v>113</v>
       </c>
@@ -12261,7 +12261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A172" s="3" t="s">
         <v>113</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A173" s="3" t="s">
         <v>113</v>
       </c>
@@ -12353,7 +12353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A174" s="3" t="s">
         <v>113</v>
       </c>
@@ -12399,7 +12399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A175" s="3" t="s">
         <v>113</v>
       </c>
@@ -12445,7 +12445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A176" s="3" t="s">
         <v>114</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A177" s="3" t="s">
         <v>114</v>
       </c>
@@ -12537,7 +12537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A178" s="3" t="s">
         <v>116</v>
       </c>
@@ -12583,7 +12583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A179" s="3" t="s">
         <v>116</v>
       </c>
@@ -12629,7 +12629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A180" s="3" t="s">
         <v>116</v>
       </c>
@@ -12675,7 +12675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A181" s="3" t="s">
         <v>116</v>
       </c>
@@ -12721,7 +12721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A182" s="3" t="s">
         <v>116</v>
       </c>
@@ -12767,7 +12767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A183" s="3" t="s">
         <v>116</v>
       </c>
@@ -12813,7 +12813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A184" s="3" t="s">
         <v>116</v>
       </c>
@@ -12859,7 +12859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A185" s="3" t="s">
         <v>116</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A186" s="3" t="s">
         <v>116</v>
       </c>
@@ -12951,7 +12951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A187" s="3" t="s">
         <v>116</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A188" s="3" t="s">
         <v>117</v>
       </c>
@@ -13043,7 +13043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A189" s="3" t="s">
         <v>117</v>
       </c>
@@ -13089,7 +13089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A190" s="3" t="s">
         <v>117</v>
       </c>
@@ -13135,7 +13135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A191" s="3" t="s">
         <v>117</v>
       </c>
@@ -13181,7 +13181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A192" s="3" t="s">
         <v>117</v>
       </c>
@@ -13227,7 +13227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A193" s="3" t="s">
         <v>117</v>
       </c>
@@ -13273,7 +13273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A194" s="3" t="s">
         <v>118</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A195" s="3" t="s">
         <v>118</v>
       </c>
@@ -13365,7 +13365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A196" s="3" t="s">
         <v>118</v>
       </c>
@@ -13411,7 +13411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A197" s="3" t="s">
         <v>118</v>
       </c>
@@ -13457,7 +13457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A198" s="3" t="s">
         <v>118</v>
       </c>
@@ -13503,7 +13503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A199" s="3" t="s">
         <v>118</v>
       </c>
@@ -13549,7 +13549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A200" s="3" t="s">
         <v>118</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A201" s="3" t="s">
         <v>118</v>
       </c>
@@ -13641,7 +13641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A202" s="3" t="s">
         <v>118</v>
       </c>
@@ -13687,7 +13687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A203" s="3" t="s">
         <v>118</v>
       </c>
@@ -13733,7 +13733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A204" s="3" t="s">
         <v>118</v>
       </c>
@@ -13779,7 +13779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A205" s="3" t="s">
         <v>118</v>
       </c>
@@ -13825,7 +13825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A206" s="3" t="s">
         <v>118</v>
       </c>
@@ -13871,7 +13871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A207" s="3" t="s">
         <v>119</v>
       </c>
@@ -13917,7 +13917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A208" s="3" t="s">
         <v>119</v>
       </c>
@@ -13963,7 +13963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A209" s="3" t="s">
         <v>119</v>
       </c>
@@ -14009,7 +14009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A210" s="3" t="s">
         <v>120</v>
       </c>
@@ -14055,7 +14055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A211" s="3" t="s">
         <v>120</v>
       </c>
@@ -14101,7 +14101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A212" s="3" t="s">
         <v>120</v>
       </c>
@@ -14147,7 +14147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A213" s="3" t="s">
         <v>120</v>
       </c>
@@ -14193,7 +14193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A214" s="3" t="s">
         <v>120</v>
       </c>
@@ -14239,7 +14239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A215" s="3" t="s">
         <v>120</v>
       </c>
@@ -14285,7 +14285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A216" s="3" t="s">
         <v>120</v>
       </c>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A217" s="3" t="s">
         <v>120</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A218" s="3" t="s">
         <v>120</v>
       </c>
@@ -14423,7 +14423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A219" s="3" t="s">
         <v>120</v>
       </c>
@@ -14469,7 +14469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A220" s="3" t="s">
         <v>120</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A221" s="3" t="s">
         <v>120</v>
       </c>
@@ -14561,7 +14561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A222" s="3" t="s">
         <v>121</v>
       </c>
@@ -14607,7 +14607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A223" s="3" t="s">
         <v>121</v>
       </c>
@@ -14653,7 +14653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A224" s="3" t="s">
         <v>121</v>
       </c>
@@ -14699,7 +14699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A225" s="3" t="s">
         <v>121</v>
       </c>
@@ -14745,7 +14745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A226" s="3" t="s">
         <v>121</v>
       </c>
@@ -14791,7 +14791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A227" s="3" t="s">
         <v>121</v>
       </c>
@@ -14837,7 +14837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A228" s="3" t="s">
         <v>121</v>
       </c>
@@ -14883,7 +14883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A229" s="3" t="s">
         <v>121</v>
       </c>
@@ -14929,7 +14929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A230" s="3" t="s">
         <v>121</v>
       </c>
@@ -14975,7 +14975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A231" s="3" t="s">
         <v>121</v>
       </c>
@@ -15021,7 +15021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A232" s="3" t="s">
         <v>122</v>
       </c>
@@ -15067,7 +15067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A233" s="3" t="s">
         <v>122</v>
       </c>
@@ -15113,7 +15113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A234" s="3" t="s">
         <v>122</v>
       </c>
@@ -15159,7 +15159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A235" s="3" t="s">
         <v>123</v>
       </c>
@@ -15205,7 +15205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A236" s="3" t="s">
         <v>123</v>
       </c>
@@ -15251,7 +15251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A237" s="3" t="s">
         <v>123</v>
       </c>
@@ -15297,7 +15297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A238" s="3" t="s">
         <v>123</v>
       </c>
@@ -15343,7 +15343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A239" s="3" t="s">
         <v>123</v>
       </c>
@@ -15389,7 +15389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A240" s="3" t="s">
         <v>123</v>
       </c>
@@ -15435,7 +15435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A241" s="3" t="s">
         <v>123</v>
       </c>
@@ -15481,7 +15481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A242" s="3" t="s">
         <v>123</v>
       </c>
@@ -15527,7 +15527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A243" s="3" t="s">
         <v>123</v>
       </c>
@@ -15573,7 +15573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A244" s="3" t="s">
         <v>123</v>
       </c>
@@ -15619,7 +15619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A245" s="3" t="s">
         <v>123</v>
       </c>
@@ -15665,7 +15665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A246" s="3" t="s">
         <v>126</v>
       </c>
@@ -15711,7 +15711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A247" s="3" t="s">
         <v>126</v>
       </c>
@@ -15757,7 +15757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A248" s="3" t="s">
         <v>126</v>
       </c>
@@ -15803,7 +15803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A249" s="3" t="s">
         <v>126</v>
       </c>
@@ -15849,7 +15849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A250" s="3" t="s">
         <v>127</v>
       </c>
@@ -15895,7 +15895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A251" s="3" t="s">
         <v>127</v>
       </c>
@@ -15941,7 +15941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A252" s="3" t="s">
         <v>127</v>
       </c>
@@ -15987,7 +15987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A253" s="3" t="s">
         <v>127</v>
       </c>
@@ -16033,7 +16033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A254" s="3" t="s">
         <v>127</v>
       </c>
@@ -16079,7 +16079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A255" s="3" t="s">
         <v>127</v>
       </c>
@@ -16125,7 +16125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A256" s="3" t="s">
         <v>127</v>
       </c>
@@ -16171,7 +16171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A257" s="3" t="s">
         <v>127</v>
       </c>
@@ -16217,7 +16217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A258" s="3" t="s">
         <v>127</v>
       </c>
@@ -16263,7 +16263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A259" s="3" t="s">
         <v>127</v>
       </c>
@@ -16309,7 +16309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A260" s="3" t="s">
         <v>127</v>
       </c>
@@ -16355,7 +16355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A261" s="3" t="s">
         <v>128</v>
       </c>
@@ -16401,7 +16401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A262" s="3" t="s">
         <v>128</v>
       </c>
@@ -16447,7 +16447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A263" s="3" t="s">
         <v>128</v>
       </c>
@@ -16493,7 +16493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A264" s="3" t="s">
         <v>128</v>
       </c>
@@ -16539,7 +16539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A265" s="3" t="s">
         <v>128</v>
       </c>
@@ -16585,7 +16585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A266" s="3" t="s">
         <v>128</v>
       </c>
@@ -16631,7 +16631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A267" s="3" t="s">
         <v>129</v>
       </c>
@@ -16677,7 +16677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A268" s="3" t="s">
         <v>129</v>
       </c>
@@ -16723,7 +16723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A269" s="3" t="s">
         <v>129</v>
       </c>
@@ -16769,7 +16769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A270" s="3" t="s">
         <v>129</v>
       </c>
@@ -16815,7 +16815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A271" s="3" t="s">
         <v>129</v>
       </c>
@@ -16861,7 +16861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A272" s="3" t="s">
         <v>129</v>
       </c>
@@ -16907,7 +16907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A273" s="3" t="s">
         <v>129</v>
       </c>
@@ -16953,7 +16953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A274" s="3" t="s">
         <v>129</v>
       </c>
@@ -16999,7 +16999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A275" s="3" t="s">
         <v>139</v>
       </c>
@@ -17045,7 +17045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A276" s="3" t="s">
         <v>139</v>
       </c>
@@ -17091,7 +17091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A277" s="3" t="s">
         <v>139</v>
       </c>
@@ -17137,7 +17137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A278" s="3" t="s">
         <v>139</v>
       </c>
@@ -17183,7 +17183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A279" s="3" t="s">
         <v>139</v>
       </c>
@@ -17229,7 +17229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A280" s="3" t="s">
         <v>139</v>
       </c>
@@ -17275,7 +17275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A281" s="3" t="s">
         <v>139</v>
       </c>
@@ -17321,7 +17321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A282" s="3" t="s">
         <v>139</v>
       </c>
@@ -17367,7 +17367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A283" s="3" t="s">
         <v>139</v>
       </c>
@@ -17413,7 +17413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A284" s="3" t="s">
         <v>140</v>
       </c>
@@ -17459,7 +17459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A285" s="3" t="s">
         <v>140</v>
       </c>
@@ -17505,7 +17505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A286" s="3" t="s">
         <v>140</v>
       </c>
@@ -17551,7 +17551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A287" s="3" t="s">
         <v>140</v>
       </c>
@@ -17597,7 +17597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A288" s="3" t="s">
         <v>140</v>
       </c>
@@ -17643,7 +17643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A289" s="3" t="s">
         <v>141</v>
       </c>
@@ -17689,7 +17689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A290" s="3" t="s">
         <v>141</v>
       </c>
@@ -17735,7 +17735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A291" s="3" t="s">
         <v>141</v>
       </c>
@@ -17781,7 +17781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A292" s="3" t="s">
         <v>141</v>
       </c>
@@ -17827,7 +17827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A293" s="3" t="s">
         <v>141</v>
       </c>
@@ -17873,7 +17873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A294" s="3" t="s">
         <v>141</v>
       </c>
@@ -17919,7 +17919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A295" s="3" t="s">
         <v>141</v>
       </c>
@@ -17961,11 +17961,11 @@
         <v>12</v>
       </c>
       <c r="N295" t="b">
-        <f t="shared" ref="N295:N319" si="8">K295=I295</f>
+        <f t="shared" ref="N295:N334" si="8">K295=I295</f>
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A296" s="3" t="s">
         <v>141</v>
       </c>
@@ -18011,7 +18011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A297" s="3" t="s">
         <v>142</v>
       </c>
@@ -18057,7 +18057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A298" s="3" t="s">
         <v>142</v>
       </c>
@@ -18103,7 +18103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A299" s="3" t="s">
         <v>142</v>
       </c>
@@ -18149,7 +18149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A300" s="3" t="s">
         <v>142</v>
       </c>
@@ -18195,7 +18195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A301" s="3" t="s">
         <v>142</v>
       </c>
@@ -18241,7 +18241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A302" s="3" t="s">
         <v>142</v>
       </c>
@@ -18287,7 +18287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A303" s="3" t="s">
         <v>143</v>
       </c>
@@ -18333,7 +18333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A304" s="3" t="s">
         <v>143</v>
       </c>
@@ -18379,7 +18379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A305" s="3" t="s">
         <v>143</v>
       </c>
@@ -18425,7 +18425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A306" s="3" t="s">
         <v>143</v>
       </c>
@@ -18471,7 +18471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A307" s="3" t="s">
         <v>143</v>
       </c>
@@ -18517,7 +18517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A308" s="3" t="s">
         <v>143</v>
       </c>
@@ -18563,7 +18563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A309" s="3" t="s">
         <v>143</v>
       </c>
@@ -18609,7 +18609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A310" s="3" t="s">
         <v>143</v>
       </c>
@@ -18655,7 +18655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A311" s="3" t="s">
         <v>143</v>
       </c>
@@ -18701,7 +18701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A312" s="3" t="s">
         <v>144</v>
       </c>
@@ -18747,7 +18747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A313" s="3" t="s">
         <v>144</v>
       </c>
@@ -18793,7 +18793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A314" s="3" t="s">
         <v>144</v>
       </c>
@@ -18839,7 +18839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A315" s="3" t="s">
         <v>144</v>
       </c>
@@ -18885,7 +18885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A316" s="3" t="s">
         <v>144</v>
       </c>
@@ -18931,7 +18931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A317" s="3" t="s">
         <v>144</v>
       </c>
@@ -18977,7 +18977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A318" s="3" t="s">
         <v>144</v>
       </c>
@@ -19023,7 +19023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A319" s="3" t="s">
         <v>144</v>
       </c>
@@ -19069,7 +19069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A320" s="3" t="s">
         <v>145</v>
       </c>
@@ -19079,15 +19079,43 @@
       <c r="C320" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D320" s="24"/>
+      <c r="D320" s="24">
+        <v>112</v>
+      </c>
       <c r="E320" s="24" t="s">
         <v>42</v>
       </c>
+      <c r="F320" s="7">
+        <v>118</v>
+      </c>
+      <c r="G320" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H320" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I320" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="J320" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K320" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L320" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M320" s="7">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N320" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A321" s="3" t="s">
         <v>145</v>
       </c>
@@ -19097,15 +19125,43 @@
       <c r="C321" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D321" s="24"/>
+      <c r="D321" s="24">
+        <v>113</v>
+      </c>
       <c r="E321" s="24" t="s">
         <v>32</v>
       </c>
+      <c r="F321" s="7">
+        <v>111</v>
+      </c>
+      <c r="G321" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H321" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I321" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="J321" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K321" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L321" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M321" s="7">
+        <f t="shared" ref="M321:M334" si="9">ABS(D321-F321)</f>
+        <v>2</v>
+      </c>
+      <c r="N321" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A322" s="3" t="s">
         <v>145</v>
       </c>
@@ -19115,15 +19171,43 @@
       <c r="C322" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D322" s="24"/>
+      <c r="D322" s="24">
+        <v>108</v>
+      </c>
       <c r="E322" s="24" t="s">
         <v>69</v>
       </c>
+      <c r="F322" s="7">
+        <v>114</v>
+      </c>
+      <c r="G322" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H322" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I322" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="J322" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="K322" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="L322" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M322" s="7">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="N322" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A323" s="3" t="s">
         <v>145</v>
       </c>
@@ -19133,15 +19217,43 @@
       <c r="C323" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D323" s="24"/>
+      <c r="D323" s="24">
+        <v>113</v>
+      </c>
       <c r="E323" s="24" t="s">
         <v>28</v>
       </c>
+      <c r="F323" s="7">
+        <v>120</v>
+      </c>
+      <c r="G323" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H323" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I323" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J323" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K323" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L323" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M323" s="7">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="N323" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A324" s="3" t="s">
         <v>145</v>
       </c>
@@ -19151,15 +19263,43 @@
       <c r="C324" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D324" s="24"/>
+      <c r="D324" s="24">
+        <v>109</v>
+      </c>
       <c r="E324" s="24" t="s">
         <v>21</v>
       </c>
+      <c r="F324" s="7">
+        <v>115</v>
+      </c>
+      <c r="G324" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H324" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I324" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J324" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K324" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="L324" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M324" s="7">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="N324" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A325" s="3" t="s">
         <v>145</v>
       </c>
@@ -19169,15 +19309,43 @@
       <c r="C325" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D325" s="24"/>
+      <c r="D325" s="24">
+        <v>125</v>
+      </c>
       <c r="E325" s="24" t="s">
         <v>82</v>
       </c>
+      <c r="F325" s="7">
+        <v>122</v>
+      </c>
+      <c r="G325" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H325" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I325" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="J325" t="s">
+        <v>82</v>
+      </c>
+      <c r="K325" t="s">
+        <v>82</v>
+      </c>
+      <c r="L325" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M325" s="7">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="N325" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A326" s="3" t="s">
         <v>145</v>
       </c>
@@ -19187,15 +19355,43 @@
       <c r="C326" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D326" s="24"/>
+      <c r="D326" s="24">
+        <v>129</v>
+      </c>
       <c r="E326" s="24" t="s">
         <v>72</v>
       </c>
+      <c r="F326" s="7">
+        <v>131</v>
+      </c>
+      <c r="G326" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H326" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I326" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="J326" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K326" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L326" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M326" s="7">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="N326" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A327" s="3" t="s">
         <v>146</v>
       </c>
@@ -19205,15 +19401,43 @@
       <c r="C327" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D327" s="24"/>
+      <c r="D327" s="24">
+        <v>103</v>
+      </c>
       <c r="E327" s="24" t="s">
         <v>17</v>
       </c>
+      <c r="F327" s="7">
+        <v>95</v>
+      </c>
+      <c r="G327" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H327" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I327" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J327" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K327" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L327" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M327" s="7">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="N327" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A328" s="3" t="s">
         <v>146</v>
       </c>
@@ -19223,15 +19447,43 @@
       <c r="C328" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D328" s="24"/>
+      <c r="D328" s="24">
+        <v>100</v>
+      </c>
       <c r="E328" s="24" t="s">
         <v>44</v>
       </c>
+      <c r="F328" s="7">
+        <v>112</v>
+      </c>
+      <c r="G328" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H328" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I328" t="s">
+        <v>44</v>
+      </c>
+      <c r="J328" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K328" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L328" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M328" s="7">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="N328" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A329" s="3" t="s">
         <v>146</v>
       </c>
@@ -19241,15 +19493,43 @@
       <c r="C329" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D329" s="24"/>
+      <c r="D329" s="24">
+        <v>104</v>
+      </c>
       <c r="E329" s="24" t="s">
         <v>46</v>
       </c>
+      <c r="F329" s="7">
+        <v>113</v>
+      </c>
+      <c r="G329" s="24" t="s">
+        <v>97</v>
+      </c>
       <c r="H329" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I329" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J329" t="s">
+        <v>58</v>
+      </c>
+      <c r="K329" t="s">
+        <v>58</v>
+      </c>
+      <c r="L329" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M329" s="7">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="N329" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A330" s="3" t="s">
         <v>146</v>
       </c>
@@ -19259,15 +19539,43 @@
       <c r="C330" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D330" s="24"/>
+      <c r="D330" s="24">
+        <v>74</v>
+      </c>
       <c r="E330" s="24" t="s">
         <v>49</v>
       </c>
+      <c r="F330" s="7">
+        <v>98</v>
+      </c>
+      <c r="G330" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H330" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I330" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="J330" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K330" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L330" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M330" s="7">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="N330" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A331" s="3" t="s">
         <v>146</v>
       </c>
@@ -19277,15 +19585,43 @@
       <c r="C331" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D331" s="24"/>
+      <c r="D331" s="24">
+        <v>99</v>
+      </c>
       <c r="E331" s="24" t="s">
         <v>51</v>
       </c>
+      <c r="F331" s="7">
+        <v>92</v>
+      </c>
+      <c r="G331" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H331" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I331" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J331" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="K331" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L331" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M331" s="7">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="N331" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A332" s="3" t="s">
         <v>146</v>
       </c>
@@ -19295,15 +19631,43 @@
       <c r="C332" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D332" s="24"/>
+      <c r="D332" s="24">
+        <v>100</v>
+      </c>
       <c r="E332" s="24" t="s">
         <v>57</v>
       </c>
+      <c r="F332" s="7">
+        <v>107</v>
+      </c>
+      <c r="G332" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H332" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I332" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="J332" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="K332" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L332" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M332" s="7">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="N332" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A333" s="3" t="s">
         <v>146</v>
       </c>
@@ -19313,15 +19677,43 @@
       <c r="C333" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D333" s="24"/>
+      <c r="D333" s="24">
+        <v>122</v>
+      </c>
       <c r="E333" s="24" t="s">
         <v>37</v>
       </c>
+      <c r="F333" s="7">
+        <v>123</v>
+      </c>
+      <c r="G333" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H333" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I333" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="J333" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="K333" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L333" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M333" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N333" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A334" s="3" t="s">
         <v>146</v>
       </c>
@@ -19331,15 +19723,43 @@
       <c r="C334" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D334" s="24"/>
+      <c r="D334" s="24">
+        <v>123</v>
+      </c>
       <c r="E334" s="24" t="s">
         <v>33</v>
       </c>
+      <c r="F334" s="7">
+        <v>107</v>
+      </c>
+      <c r="G334" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="H334" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I334" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J334" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K334" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L334" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M334" s="7">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="N334" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A335" s="3" t="s">
         <v>147</v>
       </c>
@@ -19357,7 +19777,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A336" s="3" t="s">
         <v>147</v>
       </c>
@@ -19465,7 +19885,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A342" s="3" t="s">
         <v>149</v>
       </c>
@@ -19483,7 +19903,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A343" s="3" t="s">
         <v>149</v>
       </c>
@@ -19501,7 +19921,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A344" s="3" t="s">
         <v>149</v>
       </c>
@@ -19519,7 +19939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A345" s="3" t="s">
         <v>149</v>
       </c>
@@ -19537,7 +19957,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A346" s="3" t="s">
         <v>149</v>
       </c>
@@ -19555,7 +19975,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A347" s="3" t="s">
         <v>149</v>
       </c>
@@ -19573,7 +19993,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A348" s="3" t="s">
         <v>149</v>
       </c>
@@ -19591,7 +20011,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A349" s="3" t="s">
         <v>149</v>
       </c>
@@ -19609,7 +20029,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A350" s="3" t="s">
         <v>149</v>
       </c>
@@ -19627,7 +20047,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A351" s="3" t="s">
         <v>150</v>
       </c>
@@ -19645,7 +20065,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A352" s="3" t="s">
         <v>150</v>
       </c>
@@ -19663,7 +20083,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A353" s="3" t="s">
         <v>150</v>
       </c>
@@ -19681,7 +20101,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A354" s="3" t="s">
         <v>150</v>
       </c>
@@ -19699,7 +20119,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A355" s="3" t="s">
         <v>150</v>
       </c>
@@ -19717,7 +20137,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A356" s="3" t="s">
         <v>150</v>
       </c>
@@ -19735,7 +20155,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A357" s="3" t="s">
         <v>151</v>
       </c>
@@ -19753,7 +20173,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A358" s="3" t="s">
         <v>151</v>
       </c>
@@ -19771,7 +20191,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A359" s="3" t="s">
         <v>151</v>
       </c>
@@ -19789,7 +20209,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A360" s="3" t="s">
         <v>151</v>
       </c>
@@ -19807,7 +20227,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A361" s="3" t="s">
         <v>151</v>
       </c>
@@ -19825,7 +20245,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A362" s="3" t="s">
         <v>151</v>
       </c>
@@ -19843,7 +20263,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A363" s="3" t="s">
         <v>151</v>
       </c>
@@ -19861,7 +20281,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A364" s="3" t="s">
         <v>152</v>
       </c>
@@ -19879,7 +20299,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A365" s="3" t="s">
         <v>152</v>
       </c>
@@ -19897,7 +20317,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A366" s="3" t="s">
         <v>152</v>
       </c>
@@ -19915,7 +20335,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A367" s="3" t="s">
         <v>152</v>
       </c>
@@ -19933,7 +20353,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A368" s="3" t="s">
         <v>152</v>
       </c>
@@ -19951,7 +20371,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A369" s="3" t="s">
         <v>152</v>
       </c>
@@ -19969,7 +20389,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A370" s="3" t="s">
         <v>152</v>
       </c>
@@ -19987,7 +20407,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A371" s="3" t="s">
         <v>152</v>
       </c>
@@ -20005,7 +20425,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A372" s="3" t="s">
         <v>152</v>
       </c>
@@ -20023,7 +20443,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A373" s="3" t="s">
         <v>153</v>
       </c>
@@ -20041,7 +20461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A374" s="3" t="s">
         <v>153</v>
       </c>
@@ -20059,7 +20479,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A375" s="3" t="s">
         <v>153</v>
       </c>
@@ -20077,7 +20497,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A376" s="3" t="s">
         <v>153</v>
       </c>
@@ -20095,7 +20515,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A377" s="3" t="s">
         <v>153</v>
       </c>
@@ -20113,7 +20533,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A378" s="3" t="s">
         <v>153</v>
       </c>
@@ -20131,7 +20551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A379" s="3" t="s">
         <v>154</v>
       </c>
@@ -20149,7 +20569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A380" s="3" t="s">
         <v>154</v>
       </c>
@@ -20167,7 +20587,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A381" s="3" t="s">
         <v>154</v>
       </c>
@@ -20185,7 +20605,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A382" s="3" t="s">
         <v>154</v>
       </c>
@@ -20203,7 +20623,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A383" s="3" t="s">
         <v>154</v>
       </c>
@@ -20221,7 +20641,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A384" s="3" t="s">
         <v>154</v>
       </c>
@@ -20239,7 +20659,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A385" s="3" t="s">
         <v>155</v>
       </c>
@@ -20257,7 +20677,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A386" s="3" t="s">
         <v>155</v>
       </c>
@@ -20275,7 +20695,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A387" s="3" t="s">
         <v>155</v>
       </c>
@@ -20293,7 +20713,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A388" s="3" t="s">
         <v>155</v>
       </c>
@@ -20311,7 +20731,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A389" s="3" t="s">
         <v>155</v>
       </c>
@@ -20329,7 +20749,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A390" s="3" t="s">
         <v>155</v>
       </c>
@@ -20347,7 +20767,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A391" s="3" t="s">
         <v>155</v>
       </c>
@@ -20365,7 +20785,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A392" s="3" t="s">
         <v>155</v>
       </c>
@@ -20383,7 +20803,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A393" s="3" t="s">
         <v>155</v>
       </c>
@@ -20401,7 +20821,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A394" s="3" t="s">
         <v>156</v>
       </c>
@@ -20419,7 +20839,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A395" s="3" t="s">
         <v>156</v>
       </c>
@@ -20437,7 +20857,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A396" s="3" t="s">
         <v>156</v>
       </c>
@@ -20455,7 +20875,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A397" s="3" t="s">
         <v>156</v>
       </c>
@@ -20473,7 +20893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A398" s="3" t="s">
         <v>156</v>
       </c>
@@ -20491,7 +20911,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A399" s="3" t="s">
         <v>156</v>
       </c>
@@ -20509,7 +20929,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A400" s="3" t="s">
         <v>156</v>
       </c>
@@ -20527,7 +20947,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A401" s="3" t="s">
         <v>157</v>
       </c>
@@ -20545,7 +20965,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A402" s="3" t="s">
         <v>157</v>
       </c>
@@ -20563,7 +20983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A403" s="3" t="s">
         <v>157</v>
       </c>
@@ -20581,7 +21001,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A404" s="3" t="s">
         <v>157</v>
       </c>
@@ -20599,7 +21019,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A405" s="3" t="s">
         <v>157</v>
       </c>
@@ -20617,7 +21037,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A406" s="3" t="s">
         <v>157</v>
       </c>
@@ -20635,7 +21055,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A407" s="3" t="s">
         <v>157</v>
       </c>
@@ -20653,7 +21073,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A408" s="3" t="s">
         <v>157</v>
       </c>
@@ -20671,7 +21091,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A409" s="3" t="s">
         <v>158</v>
       </c>
@@ -20689,7 +21109,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A410" s="3" t="s">
         <v>158</v>
       </c>
@@ -20707,7 +21127,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A411" s="3" t="s">
         <v>158</v>
       </c>
@@ -20725,7 +21145,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A412" s="3" t="s">
         <v>158</v>
       </c>
@@ -20743,7 +21163,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A413" s="3" t="s">
         <v>158</v>
       </c>
@@ -20761,7 +21181,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A414" s="3" t="s">
         <v>159</v>
       </c>
@@ -20779,7 +21199,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A415" s="3" t="s">
         <v>159</v>
       </c>
@@ -20797,7 +21217,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A416" s="3" t="s">
         <v>159</v>
       </c>
@@ -20815,7 +21235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A417" s="3" t="s">
         <v>159</v>
       </c>
@@ -20833,7 +21253,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A418" s="3" t="s">
         <v>159</v>
       </c>
@@ -20851,7 +21271,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A419" s="3" t="s">
         <v>159</v>
       </c>
@@ -20869,7 +21289,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A420" s="3" t="s">
         <v>159</v>
       </c>
@@ -20887,7 +21307,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A421" s="3" t="s">
         <v>159</v>
       </c>
@@ -20905,7 +21325,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A422" s="3" t="s">
         <v>160</v>
       </c>
@@ -20923,7 +21343,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A423" s="3" t="s">
         <v>160</v>
       </c>
@@ -20941,7 +21361,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A424" s="3" t="s">
         <v>160</v>
       </c>
@@ -20959,7 +21379,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A425" s="3" t="s">
         <v>160</v>
       </c>
@@ -20977,7 +21397,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A426" s="3" t="s">
         <v>160</v>
       </c>
@@ -20995,7 +21415,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A427" s="3" t="s">
         <v>160</v>
       </c>
@@ -21013,7 +21433,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A428" s="3" t="s">
         <v>160</v>
       </c>
@@ -21031,7 +21451,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A429" s="3" t="s">
         <v>161</v>
       </c>
@@ -21049,7 +21469,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A430" s="3" t="s">
         <v>161</v>
       </c>
@@ -21067,7 +21487,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A431" s="3" t="s">
         <v>161</v>
       </c>
@@ -21085,7 +21505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A432" s="3" t="s">
         <v>161</v>
       </c>
@@ -21103,7 +21523,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A433" s="3" t="s">
         <v>161</v>
       </c>
@@ -21121,7 +21541,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A434" s="3" t="s">
         <v>161</v>
       </c>
@@ -21139,7 +21559,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A435" s="3" t="s">
         <v>161</v>
       </c>
@@ -21157,7 +21577,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A436" s="3" t="s">
         <v>161</v>
       </c>
@@ -21175,7 +21595,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A437" s="3" t="s">
         <v>162</v>
       </c>
@@ -21193,7 +21613,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A438" s="3" t="s">
         <v>162</v>
       </c>
@@ -21211,7 +21631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A439" s="3" t="s">
         <v>162</v>
       </c>
@@ -21229,7 +21649,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A440" s="3" t="s">
         <v>162</v>
       </c>
@@ -21247,7 +21667,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A441" s="3" t="s">
         <v>162</v>
       </c>
@@ -21265,7 +21685,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A442" s="3" t="s">
         <v>162</v>
       </c>
@@ -21283,7 +21703,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A443" s="3" t="s">
         <v>162</v>
       </c>
@@ -21301,7 +21721,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A444" s="3" t="s">
         <v>162</v>
       </c>
@@ -21319,7 +21739,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A445" s="3" t="s">
         <v>163</v>
       </c>
@@ -21337,7 +21757,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A446" s="3" t="s">
         <v>163</v>
       </c>
@@ -21355,7 +21775,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A447" s="3" t="s">
         <v>163</v>
       </c>
@@ -21373,7 +21793,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A448" s="3" t="s">
         <v>163</v>
       </c>
@@ -21391,7 +21811,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A449" s="3" t="s">
         <v>163</v>
       </c>
@@ -21409,7 +21829,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A450" s="3" t="s">
         <v>163</v>
       </c>
@@ -21427,7 +21847,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A451" s="3" t="s">
         <v>164</v>
       </c>
@@ -21445,7 +21865,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A452" s="3" t="s">
         <v>164</v>
       </c>
@@ -21463,7 +21883,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A453" s="3" t="s">
         <v>164</v>
       </c>
@@ -21481,7 +21901,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A454" s="3" t="s">
         <v>164</v>
       </c>
@@ -21499,7 +21919,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A455" s="3" t="s">
         <v>164</v>
       </c>
@@ -21517,7 +21937,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A456" s="3" t="s">
         <v>164</v>
       </c>
@@ -21535,7 +21955,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A457" s="3" t="s">
         <v>164</v>
       </c>
@@ -21553,7 +21973,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A458" s="3" t="s">
         <v>164</v>
       </c>
@@ -21571,7 +21991,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A459" s="3" t="s">
         <v>164</v>
       </c>
@@ -21589,7 +22009,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A460" s="3" t="s">
         <v>164</v>
       </c>
@@ -21607,7 +22027,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A461" s="3" t="s">
         <v>164</v>
       </c>
@@ -21625,7 +22045,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A462" s="3" t="s">
         <v>165</v>
       </c>
@@ -21643,7 +22063,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A463" s="3" t="s">
         <v>165</v>
       </c>
@@ -21661,7 +22081,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A464" s="3" t="s">
         <v>165</v>
       </c>
@@ -21679,7 +22099,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A465" s="3" t="s">
         <v>165</v>
       </c>
@@ -21697,7 +22117,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A466" s="3" t="s">
         <v>166</v>
       </c>
@@ -21715,7 +22135,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A467" s="3" t="s">
         <v>166</v>
       </c>
@@ -21733,7 +22153,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A468" s="3" t="s">
         <v>166</v>
       </c>
@@ -21751,7 +22171,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A469" s="3" t="s">
         <v>166</v>
       </c>
@@ -21769,7 +22189,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A470" s="3" t="s">
         <v>166</v>
       </c>
@@ -21787,7 +22207,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A471" s="3" t="s">
         <v>166</v>
       </c>
@@ -21805,7 +22225,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A472" s="3" t="s">
         <v>166</v>
       </c>
@@ -21823,7 +22243,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A473" s="3" t="s">
         <v>166</v>
       </c>
@@ -21841,7 +22261,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A474" s="3" t="s">
         <v>166</v>
       </c>
@@ -21859,7 +22279,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A475" s="3" t="s">
         <v>166</v>
       </c>
@@ -21877,7 +22297,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A476" s="3" t="s">
         <v>166</v>
       </c>
@@ -21895,7 +22315,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A477" s="3" t="s">
         <v>166</v>
       </c>
@@ -21913,7 +22333,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A478" s="3" t="s">
         <v>167</v>
       </c>
@@ -21931,7 +22351,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A479" s="3" t="s">
         <v>167</v>
       </c>
@@ -21949,7 +22369,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A480" s="3" t="s">
         <v>168</v>
       </c>
@@ -21967,7 +22387,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A481" s="3" t="s">
         <v>168</v>
       </c>
@@ -21985,7 +22405,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A482" s="3" t="s">
         <v>168</v>
       </c>
@@ -22003,7 +22423,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A483" s="3" t="s">
         <v>168</v>
       </c>
@@ -22021,7 +22441,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A484" s="3" t="s">
         <v>168</v>
       </c>
@@ -22039,7 +22459,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A485" s="3" t="s">
         <v>168</v>
       </c>
@@ -22057,7 +22477,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A486" s="3" t="s">
         <v>168</v>
       </c>
@@ -22075,7 +22495,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A487" s="3" t="s">
         <v>168</v>
       </c>
@@ -22093,7 +22513,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A488" s="3" t="s">
         <v>168</v>
       </c>
@@ -22111,7 +22531,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A489" s="3" t="s">
         <v>168</v>
       </c>
@@ -22129,7 +22549,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A490" s="3" t="s">
         <v>168</v>
       </c>
@@ -22147,7 +22567,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A491" s="3" t="s">
         <v>168</v>
       </c>
@@ -22165,7 +22585,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A492" s="3" t="s">
         <v>169</v>
       </c>
@@ -22183,7 +22603,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A493" s="3" t="s">
         <v>169</v>
       </c>
@@ -22201,7 +22621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A494" s="3" t="s">
         <v>169</v>
       </c>
@@ -22219,7 +22639,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A495" s="3" t="s">
         <v>170</v>
       </c>
@@ -22237,7 +22657,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A496" s="3" t="s">
         <v>170</v>
       </c>
@@ -22255,7 +22675,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A497" s="3" t="s">
         <v>170</v>
       </c>
@@ -22273,7 +22693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A498" s="3" t="s">
         <v>170</v>
       </c>
@@ -22291,7 +22711,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A499" s="3" t="s">
         <v>170</v>
       </c>
@@ -22309,7 +22729,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A500" s="3" t="s">
         <v>170</v>
       </c>
@@ -22327,7 +22747,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A501" s="3" t="s">
         <v>170</v>
       </c>
@@ -22345,7 +22765,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A502" s="3" t="s">
         <v>170</v>
       </c>
@@ -22363,7 +22783,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A503" s="3" t="s">
         <v>170</v>
       </c>
@@ -22381,7 +22801,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A504" s="3" t="s">
         <v>170</v>
       </c>
@@ -22400,6 +22820,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N504" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Sat, Mar 9, 2024"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -22409,8 +22836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3316D165-A907-40EA-B4D3-B42CCCB2BD8A}">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection sqref="A1:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -23683,25 +24110,28 @@
       </c>
       <c r="B44" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A44)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C44" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A44)</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="10" t="str">
+        <v>3</v>
+      </c>
+      <c r="D44" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E44" s="20" t="str">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E44" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A44, Sheet1!$L$2:$L$500, "Yes"),"")</f>
-        <v/>
-      </c>
-      <c r="F44" s="20" t="str">
+        <v>4.25</v>
+      </c>
+      <c r="F44" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A44, Sheet1!$L$2:$L$500, "No"),"")</f>
-        <v/>
-      </c>
-      <c r="G44" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="G44" s="21" cm="1">
+        <f t="array" ref="G44">SUM(($B$2:B44)/SUM($B$2:C44))</f>
+        <v>0.53230769230769237</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="14" t="s">
@@ -23709,25 +24139,28 @@
       </c>
       <c r="B45" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$B$1,Sheet1!$A:$A,Sheet2!$A45)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C45" s="9">
         <f>COUNTIFS(Sheet1!$L:$L,Sheet2!$C$1,Sheet1!$A:$A,Sheet2!$A45)</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="10" t="str">
+        <v>3</v>
+      </c>
+      <c r="D45" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E45" s="20" t="str">
+        <v>0.625</v>
+      </c>
+      <c r="E45" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A45, Sheet1!$L$2:$L$500, "Yes"),"")</f>
-        <v/>
-      </c>
-      <c r="F45" s="20" t="str">
+        <v>10</v>
+      </c>
+      <c r="F45" s="20">
         <f>IFERROR(AVERAGEIFS(Sheet1!$M$2:$M$500, Sheet1!$A$2:$A$500, A45, Sheet1!$L$2:$L$500, "No"),"")</f>
-        <v/>
-      </c>
-      <c r="G45" s="21"/>
+        <v>11.333333333333334</v>
+      </c>
+      <c r="G45" s="21" cm="1">
+        <f t="array" ref="G45">SUM(($B$2:B45)/SUM($B$2:C45))</f>
+        <v>0.53453453453453448</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="14" t="s">
